--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="348">
   <si>
     <t>Property</t>
   </si>
@@ -63,10 +63,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T20:04:43+00:00</t>
+    <t>2024-05-15T20:30:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
+  </si>
+  <si>
+    <t>Folkehelseinstituttet (FHI)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Norway</t>
   </si>
   <si>
     <t>Description</t>
@@ -1231,7 +1240,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1315,74 +1324,84 @@
       <c r="A10" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" t="s" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1440,115 +1459,115 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>2</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
@@ -1556,102 +1575,102 @@
         <v>3</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -1659,104 +1678,104 @@
         <v>3</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O3" t="s" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
@@ -1764,102 +1783,102 @@
         <v>3</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
@@ -1867,104 +1886,104 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
@@ -1972,104 +1991,104 @@
         <v>3</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
@@ -2077,104 +2096,104 @@
         <v>3</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -2182,104 +2201,104 @@
         <v>3</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -2287,104 +2306,104 @@
         <v>3</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10">
@@ -2392,106 +2411,106 @@
         <v>3</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
@@ -2499,104 +2518,104 @@
         <v>3</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R11" s="2"/>
       <c r="S11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
@@ -2604,108 +2623,108 @@
         <v>3</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="N12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="Q12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG12" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="O12" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="AH12" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13">
@@ -2713,106 +2732,106 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P13" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14">
@@ -2820,102 +2839,102 @@
         <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
@@ -2923,104 +2942,104 @@
         <v>3</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16">
@@ -3028,106 +3047,106 @@
         <v>3</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17">
@@ -3135,106 +3154,106 @@
         <v>3</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18">
@@ -3242,104 +3261,104 @@
         <v>3</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
@@ -3347,104 +3366,104 @@
         <v>3</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20">
@@ -3452,102 +3471,102 @@
         <v>3</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R20" s="2"/>
       <c r="S20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21">
@@ -3555,102 +3574,102 @@
         <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R21" s="2"/>
       <c r="S21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22">
@@ -3658,104 +3677,104 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R22" s="2"/>
       <c r="S22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23">
@@ -3763,106 +3782,106 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R23" s="2"/>
       <c r="S23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24">
@@ -3870,106 +3889,106 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R24" s="2"/>
       <c r="S24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
@@ -3977,106 +3996,106 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R25" s="2"/>
       <c r="S25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
@@ -4084,106 +4103,106 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R26" s="2"/>
       <c r="S26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27">
@@ -4191,106 +4210,106 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R27" s="2"/>
       <c r="S27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28">
@@ -4298,104 +4317,104 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R28" s="2"/>
       <c r="S28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29">
@@ -4403,106 +4422,106 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R29" s="2"/>
       <c r="S29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30">
@@ -4510,106 +4529,106 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R30" s="2"/>
       <c r="S30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31">
@@ -4617,106 +4636,106 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R31" s="2"/>
       <c r="S31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32">
@@ -4724,102 +4743,102 @@
         <v>3</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R32" s="2"/>
       <c r="S32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
@@ -4827,104 +4846,104 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R33" s="2"/>
       <c r="S33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34">
@@ -4932,106 +4951,106 @@
         <v>3</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R34" s="2"/>
       <c r="S34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35">
@@ -5039,104 +5058,104 @@
         <v>3</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R35" s="2"/>
       <c r="S35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
@@ -5144,104 +5163,104 @@
         <v>3</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R36" s="2"/>
       <c r="S36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37">
@@ -5249,106 +5268,106 @@
         <v>3</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R37" s="2"/>
       <c r="S37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38">
@@ -5356,104 +5375,104 @@
         <v>3</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R38" s="2"/>
       <c r="S38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39">
@@ -5461,104 +5480,104 @@
         <v>3</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R39" s="2"/>
       <c r="S39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40">
@@ -5566,104 +5585,104 @@
         <v>3</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R40" s="2"/>
       <c r="S40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41">
@@ -5671,102 +5690,102 @@
         <v>3</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R41" s="2"/>
       <c r="S41" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42">
@@ -5774,106 +5793,106 @@
         <v>3</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q42" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R42" s="2"/>
       <c r="S42" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43">
@@ -5881,102 +5900,102 @@
         <v>3</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R43" s="2"/>
       <c r="S43" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44">
@@ -5984,104 +6003,104 @@
         <v>3</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R44" s="2"/>
       <c r="S44" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45">
@@ -6089,106 +6108,106 @@
         <v>3</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P45" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q45" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R45" s="2"/>
       <c r="S45" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46">
@@ -6196,106 +6215,106 @@
         <v>3</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q46" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R46" s="2"/>
       <c r="S46" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47">
@@ -6303,106 +6322,106 @@
         <v>3</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q47" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R47" s="2"/>
       <c r="S47" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48">
@@ -6410,104 +6429,104 @@
         <v>3</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R48" s="2"/>
       <c r="S48" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49">
@@ -6515,106 +6534,106 @@
         <v>3</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q49" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R49" s="2"/>
       <c r="S49" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50">
@@ -6622,106 +6641,106 @@
         <v>3</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="P50" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q50" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R50" s="2"/>
       <c r="S50" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51">
@@ -6729,102 +6748,102 @@
         <v>3</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R51" s="2"/>
       <c r="S51" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52">
@@ -6832,104 +6851,104 @@
         <v>3</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R52" s="2"/>
       <c r="S52" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53">
@@ -6937,106 +6956,106 @@
         <v>3</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P53" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q53" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R53" s="2"/>
       <c r="S53" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54">
@@ -7044,104 +7063,104 @@
         <v>3</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R54" s="2"/>
       <c r="S54" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55">
@@ -7149,102 +7168,102 @@
         <v>3</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R55" s="2"/>
       <c r="S55" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AA55" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG55" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AB55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>341</v>
-      </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="350">
   <si>
     <t>Property</t>
   </si>
@@ -63,13 +63,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T20:30:47+00:00</t>
+    <t>2024-05-15T21:00:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
     <t>Folkehelseinstituttet (FHI)</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Folkehelseinstituttet (FHI) (https://www.fhi.no)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1240,7 +1246,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1348,21 +1354,21 @@
       <c r="A13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>26</v>
       </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
@@ -1402,6 +1408,14 @@
       </c>
       <c r="B20" t="s" s="2">
         <v>36</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1459,115 +1473,115 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>2</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
@@ -1575,102 +1589,102 @@
         <v>3</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -1678,104 +1692,104 @@
         <v>3</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O3" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -1783,102 +1797,102 @@
         <v>3</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
@@ -1886,104 +1900,104 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
@@ -1991,104 +2005,104 @@
         <v>3</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
@@ -2096,104 +2110,104 @@
         <v>3</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -2201,104 +2215,104 @@
         <v>3</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -2306,104 +2320,104 @@
         <v>3</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10">
@@ -2411,106 +2425,106 @@
         <v>3</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11">
@@ -2518,104 +2532,104 @@
         <v>3</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q11" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R11" s="2"/>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12">
@@ -2623,108 +2637,108 @@
         <v>3</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="Q12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG12" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="N12" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>142</v>
-      </c>
       <c r="AH12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
@@ -2732,106 +2746,106 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P13" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q13" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
@@ -2839,102 +2853,102 @@
         <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -2942,104 +2956,104 @@
         <v>3</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
@@ -3047,106 +3061,106 @@
         <v>3</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q16" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
@@ -3154,106 +3168,106 @@
         <v>3</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q17" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18">
@@ -3261,104 +3275,104 @@
         <v>3</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
@@ -3366,104 +3380,104 @@
         <v>3</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20">
@@ -3471,102 +3485,102 @@
         <v>3</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R20" s="2"/>
       <c r="S20" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21">
@@ -3574,102 +3588,102 @@
         <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R21" s="2"/>
       <c r="S21" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22">
@@ -3677,104 +3691,104 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q22" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R22" s="2"/>
       <c r="S22" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23">
@@ -3782,106 +3796,106 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q23" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R23" s="2"/>
       <c r="S23" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
@@ -3889,106 +3903,106 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q24" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R24" s="2"/>
       <c r="S24" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
@@ -3996,106 +4010,106 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q25" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R25" s="2"/>
       <c r="S25" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26">
@@ -4103,106 +4117,106 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R26" s="2"/>
       <c r="S26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27">
@@ -4210,106 +4224,106 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q27" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R27" s="2"/>
       <c r="S27" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28">
@@ -4317,104 +4331,104 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q28" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R28" s="2"/>
       <c r="S28" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29">
@@ -4422,106 +4436,106 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q29" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R29" s="2"/>
       <c r="S29" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30">
@@ -4529,106 +4543,106 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q30" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R30" s="2"/>
       <c r="S30" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31">
@@ -4636,106 +4650,106 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q31" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R31" s="2"/>
       <c r="S31" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32">
@@ -4743,102 +4757,102 @@
         <v>3</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R32" s="2"/>
       <c r="S32" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
@@ -4846,104 +4860,104 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R33" s="2"/>
       <c r="S33" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34">
@@ -4951,106 +4965,106 @@
         <v>3</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q34" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R34" s="2"/>
       <c r="S34" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35">
@@ -5058,104 +5072,104 @@
         <v>3</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q35" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R35" s="2"/>
       <c r="S35" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36">
@@ -5163,104 +5177,104 @@
         <v>3</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q36" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R36" s="2"/>
       <c r="S36" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37">
@@ -5268,106 +5282,106 @@
         <v>3</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q37" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R37" s="2"/>
       <c r="S37" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38">
@@ -5375,104 +5389,104 @@
         <v>3</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q38" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R38" s="2"/>
       <c r="S38" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39">
@@ -5480,104 +5494,104 @@
         <v>3</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q39" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R39" s="2"/>
       <c r="S39" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40">
@@ -5585,104 +5599,104 @@
         <v>3</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q40" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R40" s="2"/>
       <c r="S40" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41">
@@ -5690,102 +5704,102 @@
         <v>3</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R41" s="2"/>
       <c r="S41" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42">
@@ -5793,106 +5807,106 @@
         <v>3</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q42" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R42" s="2"/>
       <c r="S42" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43">
@@ -5900,102 +5914,102 @@
         <v>3</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R43" s="2"/>
       <c r="S43" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44">
@@ -6003,104 +6017,104 @@
         <v>3</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R44" s="2"/>
       <c r="S44" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45">
@@ -6108,106 +6122,106 @@
         <v>3</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P45" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q45" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R45" s="2"/>
       <c r="S45" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46">
@@ -6215,106 +6229,106 @@
         <v>3</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q46" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R46" s="2"/>
       <c r="S46" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47">
@@ -6322,106 +6336,106 @@
         <v>3</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q47" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R47" s="2"/>
       <c r="S47" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48">
@@ -6429,104 +6443,104 @@
         <v>3</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R48" s="2"/>
       <c r="S48" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49">
@@ -6534,106 +6548,106 @@
         <v>3</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q49" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R49" s="2"/>
       <c r="S49" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50">
@@ -6641,106 +6655,106 @@
         <v>3</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P50" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q50" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R50" s="2"/>
       <c r="S50" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51">
@@ -6748,102 +6762,102 @@
         <v>3</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R51" s="2"/>
       <c r="S51" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52">
@@ -6851,104 +6865,104 @@
         <v>3</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R52" s="2"/>
       <c r="S52" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53">
@@ -6956,106 +6970,106 @@
         <v>3</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P53" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q53" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R53" s="2"/>
       <c r="S53" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54">
@@ -7063,104 +7077,104 @@
         <v>3</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R54" s="2"/>
       <c r="S54" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55">
@@ -7168,102 +7182,102 @@
         <v>3</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R55" s="2"/>
       <c r="S55" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Z55" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG55" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AA55" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>344</v>
-      </c>
       <c r="AH55" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T21:00:51+00:00</t>
+    <t>2024-05-15T23:30:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3313" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4212" uniqueCount="577">
   <si>
     <t>Property</t>
   </si>
@@ -914,7 +914,7 @@
     <t>LMDI Patient Profile</t>
   </si>
   <si>
-    <t>2024-05-16T15:58:29+00:00</t>
+    <t>2024-05-23</t>
   </si>
   <si>
     <t>Kun et eksempel for å vise verktøy</t>
@@ -1577,6 +1577,249 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/link-type|4.0.1</t>
+  </si>
+  <si>
+    <t>lmdi-practitioner</t>
+  </si>
+  <si>
+    <t>http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-practitioner</t>
+  </si>
+  <si>
+    <t>LmdiPractitioner</t>
+  </si>
+  <si>
+    <t>LMDI Helsepersonell</t>
+  </si>
+  <si>
+    <t>Helsepersonell som har foreskrevet eller administrert legemiddelet</t>
+  </si>
+  <si>
+    <t>Practitioner</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Practitioner</t>
+  </si>
+  <si>
+    <t>A person with a  formal responsibility in the provisioning of healthcare or related services</t>
+  </si>
+  <si>
+    <t>A person who is directly or indirectly involved in the provisioning of healthcare.</t>
+  </si>
+  <si>
+    <t>Practitioner.id</t>
+  </si>
+  <si>
+    <t>Practitioner.meta</t>
+  </si>
+  <si>
+    <t>Practitioner.implicitRules</t>
+  </si>
+  <si>
+    <t>Practitioner.language</t>
+  </si>
+  <si>
+    <t>Practitioner.text</t>
+  </si>
+  <si>
+    <t>Practitioner.contained</t>
+  </si>
+  <si>
+    <t>Practitioner.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.modifierExtension</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier</t>
+  </si>
+  <si>
+    <t>An identifier for the person as this agent</t>
+  </si>
+  <si>
+    <t>An identifier that applies to this person in this role.</t>
+  </si>
+  <si>
+    <t>Often, specific identities are assigned for the agent.</t>
+  </si>
+  <si>
+    <t>Practitioner.active</t>
+  </si>
+  <si>
+    <t>Whether this practitioner's record is in active use</t>
+  </si>
+  <si>
+    <t>Whether this practitioner's record is in active use.</t>
+  </si>
+  <si>
+    <t>If the practitioner is not in use by one organization, then it should mark the period on the PractitonerRole with an end date (even if they are active) as they may be active in another role.</t>
+  </si>
+  <si>
+    <t>Need to be able to mark a practitioner record as not to be used because it was created in error.</t>
+  </si>
+  <si>
+    <t>Practitioner.name</t>
+  </si>
+  <si>
+    <t>The name(s) associated with the practitioner</t>
+  </si>
+  <si>
+    <t>The name(s) associated with the practitioner.</t>
+  </si>
+  <si>
+    <t>The selection of the use property should ensure that there is a single usual name specified, and others use the nickname (alias), old, or other values as appropriate.  ++In general, select the value to be used in the ResourceReference.display based on this:++1. There is more than 1 name+2. Use = usual+3. Period is current to the date of the usage+4. Use = official+5. Other order as decided by internal business rules.</t>
+  </si>
+  <si>
+    <t>The name(s) that a Practitioner is known by. Where there are multiple, the name that the practitioner is usually known as should be used in the display.</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom</t>
+  </si>
+  <si>
+    <t>A contact detail for the practitioner (that apply to all roles)</t>
+  </si>
+  <si>
+    <t>A contact detail for the practitioner, e.g. a telephone number or an email address.</t>
+  </si>
+  <si>
+    <t>Person may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and to help with identification.  These typically will have home numbers, or mobile numbers that are not role specific.</t>
+  </si>
+  <si>
+    <t>Need to know how to reach a practitioner independent to any roles the practitioner may have.</t>
+  </si>
+  <si>
+    <t>Practitioner.address</t>
+  </si>
+  <si>
+    <t>Address(es) of the practitioner that are not role specific (typically home address)</t>
+  </si>
+  <si>
+    <t>Address(es) of the practitioner that are not role specific (typically home address). +Work addresses are not typically entered in this property as they are usually role dependent.</t>
+  </si>
+  <si>
+    <t>The PractitionerRole does not have an address value on it, as it is expected that the location property be used for this purpose (which has an address).</t>
+  </si>
+  <si>
+    <t>The home/mailing address of the practitioner is often required for employee administration purposes, and also for some rostering services where the start point (practitioners home) can be used in calculations.</t>
+  </si>
+  <si>
+    <t>Practitioner.gender</t>
+  </si>
+  <si>
+    <t>Administrative Gender - the gender that the person is considered to have for administration and record keeping purposes.</t>
+  </si>
+  <si>
+    <t>Practitioner.birthDate</t>
+  </si>
+  <si>
+    <t>The date  on which the practitioner was born</t>
+  </si>
+  <si>
+    <t>The date of birth for the practitioner.</t>
+  </si>
+  <si>
+    <t>Needed for identification.</t>
+  </si>
+  <si>
+    <t>Practitioner.photo</t>
+  </si>
+  <si>
+    <t>Image of the person</t>
+  </si>
+  <si>
+    <t>Image of the person.</t>
+  </si>
+  <si>
+    <t>Many EHR systems have the capability to capture an image of patients and personnel. Fits with newer social media usage too.</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification</t>
+  </si>
+  <si>
+    <t>Certification, licenses, or training pertaining to the provision of care</t>
+  </si>
+  <si>
+    <t>The official certifications, training, and licenses that authorize or otherwise pertain to the provision of care by the practitioner.  For example, a medical license issued by a medical board authorizing the practitioner to practice medicine within a certian locality.</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.modifierExtension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.identifier</t>
+  </si>
+  <si>
+    <t>An identifier for this qualification for the practitioner</t>
+  </si>
+  <si>
+    <t>An identifier that applies to this person's qualification in this role.</t>
+  </si>
+  <si>
+    <t>Often, specific identities are assigned for the qualification.</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.code</t>
+  </si>
+  <si>
+    <t>Coded representation of the qualification</t>
+  </si>
+  <si>
+    <t>Coded representation of the qualification.</t>
+  </si>
+  <si>
+    <t>Specific qualification the practitioner has to provide a service.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-2.7-0360</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.period</t>
+  </si>
+  <si>
+    <t>Period during which the qualification is valid</t>
+  </si>
+  <si>
+    <t>Period during which the qualification is valid.</t>
+  </si>
+  <si>
+    <t>Qualifications are often for a limited period of time, and can be revoked.</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.issuer</t>
+  </si>
+  <si>
+    <t>Organization that regulates and issues the qualification</t>
+  </si>
+  <si>
+    <t>Organization that regulates and issues the qualification.</t>
+  </si>
+  <si>
+    <t>Practitioner.communication</t>
+  </si>
+  <si>
+    <t>A language the practitioner can use in patient communication</t>
+  </si>
+  <si>
+    <t>A language the practitioner can use in patient communication.</t>
+  </si>
+  <si>
+    <t>The structure aa-BB with this exact casing is one the most widely used notations for locale. However not all systems code this but instead have it as free text. Hence CodeableConcept instead of code as the data type.</t>
+  </si>
+  <si>
+    <t>Knowing which language a practitioner speaks can help in facilitating communication with patients.</t>
   </si>
 </sst>
 </file>
@@ -1710,7 +1953,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2044,6 +2287,168 @@
         <v>38</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2051,7 +2456,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK97"/>
+  <dimension ref="A1:AK123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -12280,6 +12685,2740 @@
         <v>95</v>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F98" s="2"/>
+      <c r="G98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R98" s="2"/>
+      <c r="S98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F99" s="2"/>
+      <c r="G99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R99" s="2"/>
+      <c r="S99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F100" s="2"/>
+      <c r="G100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R100" s="2"/>
+      <c r="S100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F101" s="2"/>
+      <c r="G101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R101" s="2"/>
+      <c r="S101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F102" s="2"/>
+      <c r="G102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R102" s="2"/>
+      <c r="S102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="F103" s="2"/>
+      <c r="G103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R103" s="2"/>
+      <c r="S103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="F104" s="2"/>
+      <c r="G104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R104" s="2"/>
+      <c r="S104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F105" s="2"/>
+      <c r="G105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R105" s="2"/>
+      <c r="S105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F106" s="2"/>
+      <c r="G106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P106" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Q106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R106" s="2"/>
+      <c r="S106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F107" s="2"/>
+      <c r="G107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="O107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="Q107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R107" s="2"/>
+      <c r="S107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F108" s="2"/>
+      <c r="G108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="P108" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="Q108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="C109" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F109" s="2"/>
+      <c r="G109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="P109" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="Q109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R109" s="2"/>
+      <c r="S109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="C110" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F110" s="2"/>
+      <c r="G110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="P110" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="Q110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R110" s="2"/>
+      <c r="S110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F111" s="2"/>
+      <c r="G111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="P111" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="Q111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R111" s="2"/>
+      <c r="S111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="C112" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F112" s="2"/>
+      <c r="G112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="O112" s="2"/>
+      <c r="P112" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="Q112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R112" s="2"/>
+      <c r="S112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="C113" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F113" s="2"/>
+      <c r="G113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="O113" s="2"/>
+      <c r="P113" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="Q113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R113" s="2"/>
+      <c r="S113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="C114" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F114" s="2"/>
+      <c r="G114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="O114" s="2"/>
+      <c r="P114" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="Q114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R114" s="2"/>
+      <c r="S114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="C115" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F115" s="2"/>
+      <c r="G115" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="O115" s="2"/>
+      <c r="P115" s="2"/>
+      <c r="Q115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R115" s="2"/>
+      <c r="S115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="C116" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F116" s="2"/>
+      <c r="G116" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="O116" s="2"/>
+      <c r="P116" s="2"/>
+      <c r="Q116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R116" s="2"/>
+      <c r="S116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="C117" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F117" s="2"/>
+      <c r="G117" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O117" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P117" s="2"/>
+      <c r="Q117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R117" s="2"/>
+      <c r="S117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="C118" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="F118" s="2"/>
+      <c r="G118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O118" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P118" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Q118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R118" s="2"/>
+      <c r="S118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="C119" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F119" s="2"/>
+      <c r="G119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="O119" s="2"/>
+      <c r="P119" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="Q119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R119" s="2"/>
+      <c r="S119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="C120" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F120" s="2"/>
+      <c r="G120" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="O120" s="2"/>
+      <c r="P120" s="2"/>
+      <c r="Q120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R120" s="2"/>
+      <c r="S120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="C121" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F121" s="2"/>
+      <c r="G121" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="O121" s="2"/>
+      <c r="P121" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="Q121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R121" s="2"/>
+      <c r="S121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="C122" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F122" s="2"/>
+      <c r="G122" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="O122" s="2"/>
+      <c r="P122" s="2"/>
+      <c r="Q122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R122" s="2"/>
+      <c r="S122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="C123" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="D123" s="2"/>
+      <c r="E123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F123" s="2"/>
+      <c r="G123" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="O123" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="P123" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="Q123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R123" s="2"/>
+      <c r="S123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK123" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9445" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10307" uniqueCount="1134">
   <si>
     <t>Property</t>
   </si>
@@ -2653,6 +2653,209 @@
   </si>
   <si>
     <t>Patients are almost always assigned specific numerical identifiers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:code}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Patient.identifier.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Patient.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>Patient.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>Patient.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>Patient.identifier.period</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Patient.identifier.assigner</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>Patient.identifier:FNR</t>
+  </si>
+  <si>
+    <t>FNR</t>
+  </si>
+  <si>
+    <t>Patient.identifier:FNR.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier:FNR.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier:FNR.use</t>
+  </si>
+  <si>
+    <t>Patient.identifier:FNR.type</t>
+  </si>
+  <si>
+    <t>Patient.identifier:FNR.system</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.578.1.12.4.1.4.1</t>
+  </si>
+  <si>
+    <t>Patient.identifier:FNR.value</t>
+  </si>
+  <si>
+    <t>Patient.identifier:FNR.period</t>
+  </si>
+  <si>
+    <t>Patient.identifier:FNR.assigner</t>
+  </si>
+  <si>
+    <t>Patient.identifier:DNR</t>
+  </si>
+  <si>
+    <t>DNR</t>
+  </si>
+  <si>
+    <t>Patient.identifier:DNR.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier:DNR.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier:DNR.use</t>
+  </si>
+  <si>
+    <t>Patient.identifier:DNR.type</t>
+  </si>
+  <si>
+    <t>Patient.identifier:DNR.system</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.578.1.12.4.1.4.2</t>
+  </si>
+  <si>
+    <t>Patient.identifier:DNR.value</t>
+  </si>
+  <si>
+    <t>Patient.identifier:DNR.period</t>
+  </si>
+  <si>
+    <t>Patient.identifier:DNR.assigner</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -4466,7 +4669,7 @@
         <v>2</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>989</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="129">
@@ -4474,7 +4677,7 @@
         <v>4</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>990</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="130">
@@ -4490,7 +4693,7 @@
         <v>8</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>991</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="132">
@@ -4498,7 +4701,7 @@
         <v>10</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>992</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="133">
@@ -4552,7 +4755,7 @@
         <v>23</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>993</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="140">
@@ -4588,7 +4791,7 @@
         <v>31</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>994</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="145">
@@ -4596,7 +4799,7 @@
         <v>33</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>995</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="146">
@@ -4622,7 +4825,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK278"/>
+  <dimension ref="A1:AK304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4650,8 +4853,8 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="10.76953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="27.9765625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="38.2265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
@@ -4660,7 +4863,7 @@
     <col min="27" max="27" width="58.77734375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
@@ -27256,13 +27459,13 @@
       </c>
       <c r="F217" s="2"/>
       <c r="G217" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H217" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I217" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J217" t="s" s="2">
         <v>75</v>
@@ -27318,16 +27521,14 @@
         <v>75</v>
       </c>
       <c r="AC217" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD217" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>848</v>
+      </c>
+      <c r="AD217" s="2"/>
       <c r="AE217" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>75</v>
+        <v>849</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>844</v>
@@ -27350,10 +27551,10 @@
         <v>826</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" t="s" s="2">
@@ -27370,32 +27571,26 @@
         <v>75</v>
       </c>
       <c r="J218" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>710</v>
+        <v>198</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>849</v>
+        <v>199</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>850</v>
-      </c>
-      <c r="O218" t="s" s="2">
-        <v>851</v>
-      </c>
-      <c r="P218" t="s" s="2">
-        <v>852</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="O218" s="2"/>
+      <c r="P218" s="2"/>
       <c r="Q218" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="R218" t="s" s="2">
-        <v>756</v>
-      </c>
+      <c r="R218" s="2"/>
       <c r="S218" t="s" s="2">
         <v>75</v>
       </c>
@@ -27439,7 +27634,7 @@
         <v>75</v>
       </c>
       <c r="AG218" t="s" s="2">
-        <v>848</v>
+        <v>201</v>
       </c>
       <c r="AH218" t="s" s="2">
         <v>76</v>
@@ -27451,7 +27646,7 @@
         <v>75</v>
       </c>
       <c r="AK218" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="219">
@@ -27459,14 +27654,14 @@
         <v>826</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="F219" s="2"/>
       <c r="G219" t="s" s="2">
@@ -27482,23 +27677,21 @@
         <v>75</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>809</v>
+        <v>127</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>854</v>
+        <v>128</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>855</v>
+        <v>203</v>
       </c>
       <c r="O219" t="s" s="2">
-        <v>856</v>
-      </c>
-      <c r="P219" t="s" s="2">
-        <v>857</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="P219" s="2"/>
       <c r="Q219" t="s" s="2">
         <v>75</v>
       </c>
@@ -27534,19 +27727,19 @@
         <v>75</v>
       </c>
       <c r="AC219" t="s" s="2">
-        <v>75</v>
+        <v>852</v>
       </c>
       <c r="AD219" t="s" s="2">
-        <v>75</v>
+        <v>853</v>
       </c>
       <c r="AE219" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>75</v>
+        <v>854</v>
       </c>
       <c r="AG219" t="s" s="2">
-        <v>853</v>
+        <v>204</v>
       </c>
       <c r="AH219" t="s" s="2">
         <v>76</v>
@@ -27558,7 +27751,7 @@
         <v>75</v>
       </c>
       <c r="AK219" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
     </row>
     <row r="220">
@@ -27566,10 +27759,10 @@
         <v>826</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
@@ -27580,31 +27773,31 @@
         <v>76</v>
       </c>
       <c r="H220" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I220" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J220" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K220" t="s" s="2">
         <v>84</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>775</v>
+        <v>103</v>
       </c>
       <c r="M220" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="N220" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="O220" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="P220" t="s" s="2">
         <v>859</v>
-      </c>
-      <c r="N220" t="s" s="2">
-        <v>860</v>
-      </c>
-      <c r="O220" t="s" s="2">
-        <v>861</v>
-      </c>
-      <c r="P220" t="s" s="2">
-        <v>816</v>
       </c>
       <c r="Q220" t="s" s="2">
         <v>75</v>
@@ -27629,13 +27822,13 @@
         <v>75</v>
       </c>
       <c r="Y220" t="s" s="2">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="Z220" t="s" s="2">
-        <v>75</v>
+        <v>860</v>
       </c>
       <c r="AA220" t="s" s="2">
-        <v>75</v>
+        <v>861</v>
       </c>
       <c r="AB220" t="s" s="2">
         <v>75</v>
@@ -27653,13 +27846,13 @@
         <v>75</v>
       </c>
       <c r="AG220" t="s" s="2">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="AH220" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI220" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ220" t="s" s="2">
         <v>75</v>
@@ -27673,10 +27866,10 @@
         <v>826</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" t="s" s="2">
@@ -27690,7 +27883,7 @@
         <v>83</v>
       </c>
       <c r="I221" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J221" t="s" s="2">
         <v>75</v>
@@ -27699,19 +27892,19 @@
         <v>84</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="O221" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="P221" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="Q221" t="s" s="2">
         <v>75</v>
@@ -27736,13 +27929,13 @@
         <v>75</v>
       </c>
       <c r="Y221" t="s" s="2">
-        <v>155</v>
+        <v>326</v>
       </c>
       <c r="Z221" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="AA221" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="AB221" t="s" s="2">
         <v>75</v>
@@ -27760,7 +27953,7 @@
         <v>75</v>
       </c>
       <c r="AG221" t="s" s="2">
-        <v>862</v>
+        <v>870</v>
       </c>
       <c r="AH221" t="s" s="2">
         <v>76</v>
@@ -27780,10 +27973,10 @@
         <v>826</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" t="s" s="2">
@@ -27797,7 +27990,7 @@
         <v>83</v>
       </c>
       <c r="I222" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J222" t="s" s="2">
         <v>75</v>
@@ -27806,19 +27999,19 @@
         <v>84</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>870</v>
+        <v>97</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="O222" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="P222" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="Q222" t="s" s="2">
         <v>75</v>
@@ -27831,7 +28024,7 @@
         <v>75</v>
       </c>
       <c r="U222" t="s" s="2">
-        <v>75</v>
+        <v>876</v>
       </c>
       <c r="V222" t="s" s="2">
         <v>75</v>
@@ -27867,7 +28060,7 @@
         <v>75</v>
       </c>
       <c r="AG222" t="s" s="2">
-        <v>869</v>
+        <v>877</v>
       </c>
       <c r="AH222" t="s" s="2">
         <v>76</v>
@@ -27887,10 +28080,10 @@
         <v>826</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" t="s" s="2">
@@ -27898,7 +28091,7 @@
       </c>
       <c r="F223" s="2"/>
       <c r="G223" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H223" t="s" s="2">
         <v>83</v>
@@ -27907,26 +28100,24 @@
         <v>75</v>
       </c>
       <c r="J223" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K223" t="s" s="2">
         <v>84</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>876</v>
+        <v>198</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="O223" t="s" s="2">
-        <v>879</v>
-      </c>
-      <c r="P223" t="s" s="2">
-        <v>880</v>
-      </c>
+        <v>881</v>
+      </c>
+      <c r="P223" s="2"/>
       <c r="Q223" t="s" s="2">
         <v>75</v>
       </c>
@@ -27938,7 +28129,7 @@
         <v>75</v>
       </c>
       <c r="U223" t="s" s="2">
-        <v>75</v>
+        <v>882</v>
       </c>
       <c r="V223" t="s" s="2">
         <v>75</v>
@@ -27974,7 +28165,7 @@
         <v>75</v>
       </c>
       <c r="AG223" t="s" s="2">
-        <v>875</v>
+        <v>883</v>
       </c>
       <c r="AH223" t="s" s="2">
         <v>76</v>
@@ -27994,10 +28185,10 @@
         <v>826</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" t="s" s="2">
@@ -28008,7 +28199,7 @@
         <v>76</v>
       </c>
       <c r="H224" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I224" t="s" s="2">
         <v>75</v>
@@ -28020,20 +28211,16 @@
         <v>84</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>783</v>
+        <v>455</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>883</v>
-      </c>
-      <c r="O224" t="s" s="2">
-        <v>884</v>
-      </c>
-      <c r="P224" t="s" s="2">
-        <v>885</v>
-      </c>
+        <v>886</v>
+      </c>
+      <c r="O224" s="2"/>
+      <c r="P224" s="2"/>
       <c r="Q224" t="s" s="2">
         <v>75</v>
       </c>
@@ -28081,13 +28268,13 @@
         <v>75</v>
       </c>
       <c r="AG224" t="s" s="2">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="AH224" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI224" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ224" t="s" s="2">
         <v>75</v>
@@ -28101,10 +28288,10 @@
         <v>826</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" t="s" s="2">
@@ -28124,21 +28311,21 @@
         <v>75</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>159</v>
+        <v>646</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>888</v>
-      </c>
-      <c r="O225" s="2"/>
-      <c r="P225" t="s" s="2">
-        <v>889</v>
-      </c>
+        <v>890</v>
+      </c>
+      <c r="O225" t="s" s="2">
+        <v>891</v>
+      </c>
+      <c r="P225" s="2"/>
       <c r="Q225" t="s" s="2">
         <v>75</v>
       </c>
@@ -28162,13 +28349,13 @@
         <v>75</v>
       </c>
       <c r="Y225" t="s" s="2">
-        <v>326</v>
+        <v>75</v>
       </c>
       <c r="Z225" t="s" s="2">
-        <v>890</v>
+        <v>75</v>
       </c>
       <c r="AA225" t="s" s="2">
-        <v>891</v>
+        <v>75</v>
       </c>
       <c r="AB225" t="s" s="2">
         <v>75</v>
@@ -28186,7 +28373,7 @@
         <v>75</v>
       </c>
       <c r="AG225" t="s" s="2">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="AH225" t="s" s="2">
         <v>76</v>
@@ -28206,12 +28393,14 @@
         <v>826</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>892</v>
-      </c>
-      <c r="D226" s="2"/>
+        <v>844</v>
+      </c>
+      <c r="D226" t="s" s="2">
+        <v>894</v>
+      </c>
       <c r="E226" t="s" s="2">
         <v>75</v>
       </c>
@@ -28229,22 +28418,20 @@
         <v>75</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>893</v>
+        <v>139</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>894</v>
+        <v>845</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>895</v>
-      </c>
-      <c r="O226" t="s" s="2">
-        <v>896</v>
-      </c>
+        <v>846</v>
+      </c>
+      <c r="O226" s="2"/>
       <c r="P226" t="s" s="2">
-        <v>897</v>
+        <v>847</v>
       </c>
       <c r="Q226" t="s" s="2">
         <v>75</v>
@@ -28293,13 +28480,13 @@
         <v>75</v>
       </c>
       <c r="AG226" t="s" s="2">
-        <v>892</v>
+        <v>844</v>
       </c>
       <c r="AH226" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI226" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ226" t="s" s="2">
         <v>75</v>
@@ -28313,10 +28500,10 @@
         <v>826</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>898</v>
+        <v>850</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" t="s" s="2">
@@ -28327,7 +28514,7 @@
         <v>76</v>
       </c>
       <c r="H227" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I227" t="s" s="2">
         <v>75</v>
@@ -28339,20 +28526,16 @@
         <v>75</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>899</v>
+        <v>198</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>900</v>
+        <v>199</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>901</v>
-      </c>
-      <c r="O227" t="s" s="2">
-        <v>902</v>
-      </c>
-      <c r="P227" t="s" s="2">
-        <v>903</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="O227" s="2"/>
+      <c r="P227" s="2"/>
       <c r="Q227" t="s" s="2">
         <v>75</v>
       </c>
@@ -28400,19 +28583,19 @@
         <v>75</v>
       </c>
       <c r="AG227" t="s" s="2">
-        <v>898</v>
+        <v>201</v>
       </c>
       <c r="AH227" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI227" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ227" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK227" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="228">
@@ -28420,14 +28603,14 @@
         <v>826</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>904</v>
+        <v>851</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" t="s" s="2">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="F228" s="2"/>
       <c r="G228" t="s" s="2">
@@ -28446,20 +28629,18 @@
         <v>75</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>905</v>
+        <v>128</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>906</v>
+        <v>203</v>
       </c>
       <c r="O228" t="s" s="2">
-        <v>907</v>
-      </c>
-      <c r="P228" t="s" s="2">
-        <v>908</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="P228" s="2"/>
       <c r="Q228" t="s" s="2">
         <v>75</v>
       </c>
@@ -28495,19 +28676,19 @@
         <v>75</v>
       </c>
       <c r="AC228" t="s" s="2">
-        <v>75</v>
+        <v>852</v>
       </c>
       <c r="AD228" t="s" s="2">
-        <v>75</v>
+        <v>853</v>
       </c>
       <c r="AE228" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>75</v>
+        <v>854</v>
       </c>
       <c r="AG228" t="s" s="2">
-        <v>904</v>
+        <v>204</v>
       </c>
       <c r="AH228" t="s" s="2">
         <v>76</v>
@@ -28519,7 +28700,7 @@
         <v>75</v>
       </c>
       <c r="AK228" t="s" s="2">
-        <v>909</v>
+        <v>132</v>
       </c>
     </row>
     <row r="229">
@@ -28527,10 +28708,10 @@
         <v>826</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>910</v>
+        <v>897</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>910</v>
+        <v>855</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" t="s" s="2">
@@ -28547,22 +28728,26 @@
         <v>75</v>
       </c>
       <c r="J229" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>198</v>
+        <v>103</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>199</v>
+        <v>856</v>
       </c>
       <c r="N229" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O229" s="2"/>
-      <c r="P229" s="2"/>
+        <v>857</v>
+      </c>
+      <c r="O229" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="P229" t="s" s="2">
+        <v>859</v>
+      </c>
       <c r="Q229" t="s" s="2">
         <v>75</v>
       </c>
@@ -28586,13 +28771,13 @@
         <v>75</v>
       </c>
       <c r="Y229" t="s" s="2">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="Z229" t="s" s="2">
-        <v>75</v>
+        <v>860</v>
       </c>
       <c r="AA229" t="s" s="2">
-        <v>75</v>
+        <v>861</v>
       </c>
       <c r="AB229" t="s" s="2">
         <v>75</v>
@@ -28610,7 +28795,7 @@
         <v>75</v>
       </c>
       <c r="AG229" t="s" s="2">
-        <v>201</v>
+        <v>862</v>
       </c>
       <c r="AH229" t="s" s="2">
         <v>76</v>
@@ -28622,7 +28807,7 @@
         <v>75</v>
       </c>
       <c r="AK229" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="230">
@@ -28630,21 +28815,21 @@
         <v>826</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>911</v>
+        <v>898</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>911</v>
+        <v>863</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" t="s" s="2">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="F230" s="2"/>
       <c r="G230" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H230" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I230" t="s" s="2">
         <v>75</v>
@@ -28653,21 +28838,23 @@
         <v>75</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>128</v>
+        <v>864</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>203</v>
+        <v>865</v>
       </c>
       <c r="O230" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="P230" s="2"/>
+        <v>866</v>
+      </c>
+      <c r="P230" t="s" s="2">
+        <v>867</v>
+      </c>
       <c r="Q230" t="s" s="2">
         <v>75</v>
       </c>
@@ -28691,13 +28878,13 @@
         <v>75</v>
       </c>
       <c r="Y230" t="s" s="2">
-        <v>75</v>
+        <v>326</v>
       </c>
       <c r="Z230" t="s" s="2">
-        <v>75</v>
+        <v>868</v>
       </c>
       <c r="AA230" t="s" s="2">
-        <v>75</v>
+        <v>869</v>
       </c>
       <c r="AB230" t="s" s="2">
         <v>75</v>
@@ -28715,19 +28902,19 @@
         <v>75</v>
       </c>
       <c r="AG230" t="s" s="2">
-        <v>204</v>
+        <v>870</v>
       </c>
       <c r="AH230" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI230" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ230" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK230" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="231">
@@ -28735,45 +28922,45 @@
         <v>826</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>912</v>
+        <v>871</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" t="s" s="2">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="F231" s="2"/>
       <c r="G231" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H231" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I231" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J231" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K231" t="s" s="2">
         <v>84</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>207</v>
+        <v>872</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>208</v>
+        <v>873</v>
       </c>
       <c r="O231" t="s" s="2">
-        <v>130</v>
+        <v>874</v>
       </c>
       <c r="P231" t="s" s="2">
-        <v>136</v>
+        <v>875</v>
       </c>
       <c r="Q231" t="s" s="2">
         <v>75</v>
@@ -28783,10 +28970,10 @@
         <v>75</v>
       </c>
       <c r="T231" t="s" s="2">
-        <v>75</v>
+        <v>900</v>
       </c>
       <c r="U231" t="s" s="2">
-        <v>75</v>
+        <v>876</v>
       </c>
       <c r="V231" t="s" s="2">
         <v>75</v>
@@ -28822,19 +29009,19 @@
         <v>75</v>
       </c>
       <c r="AG231" t="s" s="2">
-        <v>209</v>
+        <v>877</v>
       </c>
       <c r="AH231" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI231" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ231" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK231" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="232">
@@ -28842,10 +29029,10 @@
         <v>826</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>913</v>
+        <v>901</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>913</v>
+        <v>878</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" t="s" s="2">
@@ -28853,10 +29040,10 @@
       </c>
       <c r="F232" s="2"/>
       <c r="G232" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H232" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I232" t="s" s="2">
         <v>75</v>
@@ -28865,21 +29052,21 @@
         <v>75</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>914</v>
+        <v>879</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>915</v>
-      </c>
-      <c r="O232" s="2"/>
-      <c r="P232" t="s" s="2">
-        <v>916</v>
-      </c>
+        <v>880</v>
+      </c>
+      <c r="O232" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="P232" s="2"/>
       <c r="Q232" t="s" s="2">
         <v>75</v>
       </c>
@@ -28891,7 +29078,7 @@
         <v>75</v>
       </c>
       <c r="U232" t="s" s="2">
-        <v>75</v>
+        <v>882</v>
       </c>
       <c r="V232" t="s" s="2">
         <v>75</v>
@@ -28903,13 +29090,13 @@
         <v>75</v>
       </c>
       <c r="Y232" t="s" s="2">
-        <v>326</v>
+        <v>75</v>
       </c>
       <c r="Z232" t="s" s="2">
-        <v>917</v>
+        <v>75</v>
       </c>
       <c r="AA232" t="s" s="2">
-        <v>918</v>
+        <v>75</v>
       </c>
       <c r="AB232" t="s" s="2">
         <v>75</v>
@@ -28927,13 +29114,13 @@
         <v>75</v>
       </c>
       <c r="AG232" t="s" s="2">
-        <v>913</v>
+        <v>883</v>
       </c>
       <c r="AH232" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI232" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ232" t="s" s="2">
         <v>75</v>
@@ -28947,10 +29134,10 @@
         <v>826</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>919</v>
+        <v>902</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>919</v>
+        <v>884</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" t="s" s="2">
@@ -28970,21 +29157,19 @@
         <v>75</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>809</v>
+        <v>455</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>920</v>
+        <v>885</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>921</v>
+        <v>886</v>
       </c>
       <c r="O233" s="2"/>
-      <c r="P233" t="s" s="2">
-        <v>922</v>
-      </c>
+      <c r="P233" s="2"/>
       <c r="Q233" t="s" s="2">
         <v>75</v>
       </c>
@@ -29032,7 +29217,7 @@
         <v>75</v>
       </c>
       <c r="AG233" t="s" s="2">
-        <v>919</v>
+        <v>887</v>
       </c>
       <c r="AH233" t="s" s="2">
         <v>76</v>
@@ -29052,10 +29237,10 @@
         <v>826</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>923</v>
+        <v>903</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>923</v>
+        <v>888</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" t="s" s="2">
@@ -29066,7 +29251,7 @@
         <v>76</v>
       </c>
       <c r="H234" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I234" t="s" s="2">
         <v>75</v>
@@ -29075,23 +29260,21 @@
         <v>75</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>775</v>
+        <v>646</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>924</v>
+        <v>889</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>925</v>
+        <v>890</v>
       </c>
       <c r="O234" t="s" s="2">
-        <v>926</v>
-      </c>
-      <c r="P234" t="s" s="2">
-        <v>816</v>
-      </c>
+        <v>891</v>
+      </c>
+      <c r="P234" s="2"/>
       <c r="Q234" t="s" s="2">
         <v>75</v>
       </c>
@@ -29139,13 +29322,13 @@
         <v>75</v>
       </c>
       <c r="AG234" t="s" s="2">
-        <v>923</v>
+        <v>892</v>
       </c>
       <c r="AH234" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI234" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ234" t="s" s="2">
         <v>75</v>
@@ -29159,12 +29342,14 @@
         <v>826</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>927</v>
+        <v>904</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>927</v>
-      </c>
-      <c r="D235" s="2"/>
+        <v>844</v>
+      </c>
+      <c r="D235" t="s" s="2">
+        <v>905</v>
+      </c>
       <c r="E235" t="s" s="2">
         <v>75</v>
       </c>
@@ -29182,20 +29367,20 @@
         <v>75</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>783</v>
+        <v>139</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>928</v>
+        <v>845</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>929</v>
+        <v>846</v>
       </c>
       <c r="O235" s="2"/>
       <c r="P235" t="s" s="2">
-        <v>930</v>
+        <v>847</v>
       </c>
       <c r="Q235" t="s" s="2">
         <v>75</v>
@@ -29244,13 +29429,13 @@
         <v>75</v>
       </c>
       <c r="AG235" t="s" s="2">
-        <v>927</v>
+        <v>844</v>
       </c>
       <c r="AH235" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI235" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ235" t="s" s="2">
         <v>75</v>
@@ -29264,10 +29449,10 @@
         <v>826</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>931</v>
+        <v>906</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>931</v>
+        <v>850</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" t="s" s="2">
@@ -29290,18 +29475,16 @@
         <v>75</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>103</v>
+        <v>198</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>932</v>
+        <v>199</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>933</v>
+        <v>200</v>
       </c>
       <c r="O236" s="2"/>
-      <c r="P236" t="s" s="2">
-        <v>934</v>
-      </c>
+      <c r="P236" s="2"/>
       <c r="Q236" t="s" s="2">
         <v>75</v>
       </c>
@@ -29325,13 +29508,13 @@
         <v>75</v>
       </c>
       <c r="Y236" t="s" s="2">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="Z236" t="s" s="2">
-        <v>867</v>
+        <v>75</v>
       </c>
       <c r="AA236" t="s" s="2">
-        <v>868</v>
+        <v>75</v>
       </c>
       <c r="AB236" t="s" s="2">
         <v>75</v>
@@ -29349,7 +29532,7 @@
         <v>75</v>
       </c>
       <c r="AG236" t="s" s="2">
-        <v>931</v>
+        <v>201</v>
       </c>
       <c r="AH236" t="s" s="2">
         <v>76</v>
@@ -29361,7 +29544,7 @@
         <v>75</v>
       </c>
       <c r="AK236" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="237">
@@ -29369,21 +29552,21 @@
         <v>826</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>935</v>
+        <v>907</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>935</v>
+        <v>851</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" t="s" s="2">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="F237" s="2"/>
       <c r="G237" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H237" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I237" t="s" s="2">
         <v>75</v>
@@ -29395,18 +29578,18 @@
         <v>75</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>646</v>
+        <v>127</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>936</v>
+        <v>128</v>
       </c>
       <c r="N237" t="s" s="2">
-        <v>937</v>
-      </c>
-      <c r="O237" s="2"/>
-      <c r="P237" t="s" s="2">
-        <v>938</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="O237" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P237" s="2"/>
       <c r="Q237" t="s" s="2">
         <v>75</v>
       </c>
@@ -29442,31 +29625,31 @@
         <v>75</v>
       </c>
       <c r="AC237" t="s" s="2">
-        <v>75</v>
+        <v>852</v>
       </c>
       <c r="AD237" t="s" s="2">
-        <v>75</v>
+        <v>853</v>
       </c>
       <c r="AE237" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF237" t="s" s="2">
-        <v>75</v>
+        <v>854</v>
       </c>
       <c r="AG237" t="s" s="2">
-        <v>935</v>
+        <v>204</v>
       </c>
       <c r="AH237" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI237" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ237" t="s" s="2">
-        <v>939</v>
+        <v>75</v>
       </c>
       <c r="AK237" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
     </row>
     <row r="238">
@@ -29474,10 +29657,10 @@
         <v>826</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>940</v>
+        <v>908</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>940</v>
+        <v>855</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" t="s" s="2">
@@ -29494,22 +29677,26 @@
         <v>75</v>
       </c>
       <c r="J238" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>455</v>
+        <v>103</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>941</v>
+        <v>856</v>
       </c>
       <c r="N238" t="s" s="2">
-        <v>942</v>
-      </c>
-      <c r="O238" s="2"/>
-      <c r="P238" s="2"/>
+        <v>857</v>
+      </c>
+      <c r="O238" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="P238" t="s" s="2">
+        <v>859</v>
+      </c>
       <c r="Q238" t="s" s="2">
         <v>75</v>
       </c>
@@ -29533,13 +29720,13 @@
         <v>75</v>
       </c>
       <c r="Y238" t="s" s="2">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="Z238" t="s" s="2">
-        <v>75</v>
+        <v>860</v>
       </c>
       <c r="AA238" t="s" s="2">
-        <v>75</v>
+        <v>861</v>
       </c>
       <c r="AB238" t="s" s="2">
         <v>75</v>
@@ -29557,7 +29744,7 @@
         <v>75</v>
       </c>
       <c r="AG238" t="s" s="2">
-        <v>940</v>
+        <v>862</v>
       </c>
       <c r="AH238" t="s" s="2">
         <v>76</v>
@@ -29577,10 +29764,10 @@
         <v>826</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>943</v>
+        <v>909</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>943</v>
+        <v>863</v>
       </c>
       <c r="D239" s="2"/>
       <c r="E239" t="s" s="2">
@@ -29591,7 +29778,7 @@
         <v>76</v>
       </c>
       <c r="H239" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I239" t="s" s="2">
         <v>75</v>
@@ -29600,22 +29787,22 @@
         <v>75</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>944</v>
+        <v>864</v>
       </c>
       <c r="N239" t="s" s="2">
-        <v>945</v>
+        <v>865</v>
       </c>
       <c r="O239" t="s" s="2">
-        <v>946</v>
+        <v>866</v>
       </c>
       <c r="P239" t="s" s="2">
-        <v>947</v>
+        <v>867</v>
       </c>
       <c r="Q239" t="s" s="2">
         <v>75</v>
@@ -29640,13 +29827,13 @@
         <v>75</v>
       </c>
       <c r="Y239" t="s" s="2">
-        <v>75</v>
+        <v>326</v>
       </c>
       <c r="Z239" t="s" s="2">
-        <v>75</v>
+        <v>868</v>
       </c>
       <c r="AA239" t="s" s="2">
-        <v>75</v>
+        <v>869</v>
       </c>
       <c r="AB239" t="s" s="2">
         <v>75</v>
@@ -29664,13 +29851,13 @@
         <v>75</v>
       </c>
       <c r="AG239" t="s" s="2">
-        <v>943</v>
+        <v>870</v>
       </c>
       <c r="AH239" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI239" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ239" t="s" s="2">
         <v>75</v>
@@ -29684,10 +29871,10 @@
         <v>826</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>948</v>
+        <v>910</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>948</v>
+        <v>871</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" t="s" s="2">
@@ -29707,19 +29894,23 @@
         <v>75</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>198</v>
+        <v>97</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>199</v>
+        <v>872</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O240" s="2"/>
-      <c r="P240" s="2"/>
+        <v>873</v>
+      </c>
+      <c r="O240" t="s" s="2">
+        <v>874</v>
+      </c>
+      <c r="P240" t="s" s="2">
+        <v>875</v>
+      </c>
       <c r="Q240" t="s" s="2">
         <v>75</v>
       </c>
@@ -29728,10 +29919,10 @@
         <v>75</v>
       </c>
       <c r="T240" t="s" s="2">
-        <v>75</v>
+        <v>911</v>
       </c>
       <c r="U240" t="s" s="2">
-        <v>75</v>
+        <v>876</v>
       </c>
       <c r="V240" t="s" s="2">
         <v>75</v>
@@ -29767,7 +29958,7 @@
         <v>75</v>
       </c>
       <c r="AG240" t="s" s="2">
-        <v>201</v>
+        <v>877</v>
       </c>
       <c r="AH240" t="s" s="2">
         <v>76</v>
@@ -29779,7 +29970,7 @@
         <v>75</v>
       </c>
       <c r="AK240" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="241">
@@ -29787,21 +29978,21 @@
         <v>826</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>949</v>
+        <v>912</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>949</v>
+        <v>878</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" t="s" s="2">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="F241" s="2"/>
       <c r="G241" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H241" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I241" t="s" s="2">
         <v>75</v>
@@ -29810,19 +30001,19 @@
         <v>75</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>127</v>
+        <v>198</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>128</v>
+        <v>879</v>
       </c>
       <c r="N241" t="s" s="2">
-        <v>203</v>
+        <v>880</v>
       </c>
       <c r="O241" t="s" s="2">
-        <v>130</v>
+        <v>881</v>
       </c>
       <c r="P241" s="2"/>
       <c r="Q241" t="s" s="2">
@@ -29836,7 +30027,7 @@
         <v>75</v>
       </c>
       <c r="U241" t="s" s="2">
-        <v>75</v>
+        <v>882</v>
       </c>
       <c r="V241" t="s" s="2">
         <v>75</v>
@@ -29872,19 +30063,19 @@
         <v>75</v>
       </c>
       <c r="AG241" t="s" s="2">
-        <v>204</v>
+        <v>883</v>
       </c>
       <c r="AH241" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI241" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ241" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK241" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="242">
@@ -29892,46 +30083,42 @@
         <v>826</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>950</v>
+        <v>913</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>950</v>
+        <v>884</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" t="s" s="2">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="F242" s="2"/>
       <c r="G242" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H242" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I242" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J242" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K242" t="s" s="2">
         <v>84</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>127</v>
+        <v>455</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>207</v>
+        <v>885</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O242" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="P242" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>886</v>
+      </c>
+      <c r="O242" s="2"/>
+      <c r="P242" s="2"/>
       <c r="Q242" t="s" s="2">
         <v>75</v>
       </c>
@@ -29979,19 +30166,19 @@
         <v>75</v>
       </c>
       <c r="AG242" t="s" s="2">
-        <v>209</v>
+        <v>887</v>
       </c>
       <c r="AH242" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI242" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ242" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK242" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="243">
@@ -29999,10 +30186,10 @@
         <v>826</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>951</v>
+        <v>914</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>951</v>
+        <v>888</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" t="s" s="2">
@@ -30010,7 +30197,7 @@
       </c>
       <c r="F243" s="2"/>
       <c r="G243" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H243" t="s" s="2">
         <v>83</v>
@@ -30022,23 +30209,21 @@
         <v>75</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>159</v>
+        <v>646</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>952</v>
+        <v>889</v>
       </c>
       <c r="N243" t="s" s="2">
-        <v>953</v>
+        <v>890</v>
       </c>
       <c r="O243" t="s" s="2">
-        <v>954</v>
-      </c>
-      <c r="P243" t="s" s="2">
-        <v>955</v>
-      </c>
+        <v>891</v>
+      </c>
+      <c r="P243" s="2"/>
       <c r="Q243" t="s" s="2">
         <v>75</v>
       </c>
@@ -30062,13 +30247,13 @@
         <v>75</v>
       </c>
       <c r="Y243" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="Z243" t="s" s="2">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="AA243" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AB243" t="s" s="2">
         <v>75</v>
@@ -30086,10 +30271,10 @@
         <v>75</v>
       </c>
       <c r="AG243" t="s" s="2">
-        <v>951</v>
+        <v>892</v>
       </c>
       <c r="AH243" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI243" t="s" s="2">
         <v>83</v>
@@ -30106,10 +30291,10 @@
         <v>826</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>956</v>
+        <v>915</v>
       </c>
       <c r="C244" t="s" s="2">
-        <v>956</v>
+        <v>915</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" t="s" s="2">
@@ -30126,30 +30311,32 @@
         <v>75</v>
       </c>
       <c r="J244" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L244" t="s" s="2">
         <v>710</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>957</v>
+        <v>916</v>
       </c>
       <c r="N244" t="s" s="2">
-        <v>958</v>
+        <v>917</v>
       </c>
       <c r="O244" t="s" s="2">
-        <v>959</v>
+        <v>918</v>
       </c>
       <c r="P244" t="s" s="2">
-        <v>960</v>
+        <v>919</v>
       </c>
       <c r="Q244" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="R244" s="2"/>
+      <c r="R244" t="s" s="2">
+        <v>756</v>
+      </c>
       <c r="S244" t="s" s="2">
         <v>75</v>
       </c>
@@ -30193,7 +30380,7 @@
         <v>75</v>
       </c>
       <c r="AG244" t="s" s="2">
-        <v>956</v>
+        <v>915</v>
       </c>
       <c r="AH244" t="s" s="2">
         <v>76</v>
@@ -30213,14 +30400,14 @@
         <v>826</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>961</v>
+        <v>920</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>961</v>
+        <v>920</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" t="s" s="2">
-        <v>962</v>
+        <v>75</v>
       </c>
       <c r="F245" s="2"/>
       <c r="G245" t="s" s="2">
@@ -30236,21 +30423,23 @@
         <v>75</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>963</v>
+        <v>809</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>964</v>
+        <v>921</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>965</v>
+        <v>922</v>
       </c>
       <c r="O245" t="s" s="2">
-        <v>966</v>
-      </c>
-      <c r="P245" s="2"/>
+        <v>923</v>
+      </c>
+      <c r="P245" t="s" s="2">
+        <v>924</v>
+      </c>
       <c r="Q245" t="s" s="2">
         <v>75</v>
       </c>
@@ -30298,7 +30487,7 @@
         <v>75</v>
       </c>
       <c r="AG245" t="s" s="2">
-        <v>961</v>
+        <v>920</v>
       </c>
       <c r="AH245" t="s" s="2">
         <v>76</v>
@@ -30318,10 +30507,10 @@
         <v>826</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>967</v>
+        <v>925</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>967</v>
+        <v>925</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" t="s" s="2">
@@ -30332,7 +30521,7 @@
         <v>76</v>
       </c>
       <c r="H246" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I246" t="s" s="2">
         <v>75</v>
@@ -30344,19 +30533,19 @@
         <v>84</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>646</v>
+        <v>775</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>968</v>
+        <v>926</v>
       </c>
       <c r="N246" t="s" s="2">
-        <v>969</v>
+        <v>927</v>
       </c>
       <c r="O246" t="s" s="2">
-        <v>970</v>
+        <v>928</v>
       </c>
       <c r="P246" t="s" s="2">
-        <v>971</v>
+        <v>816</v>
       </c>
       <c r="Q246" t="s" s="2">
         <v>75</v>
@@ -30405,13 +30594,13 @@
         <v>75</v>
       </c>
       <c r="AG246" t="s" s="2">
-        <v>967</v>
+        <v>925</v>
       </c>
       <c r="AH246" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI246" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ246" t="s" s="2">
         <v>75</v>
@@ -30425,10 +30614,10 @@
         <v>826</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>972</v>
+        <v>929</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>972</v>
+        <v>929</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" t="s" s="2">
@@ -30439,31 +30628,31 @@
         <v>76</v>
       </c>
       <c r="H247" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I247" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J247" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K247" t="s" s="2">
         <v>84</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>973</v>
+        <v>930</v>
       </c>
       <c r="N247" t="s" s="2">
-        <v>974</v>
+        <v>931</v>
       </c>
       <c r="O247" t="s" s="2">
-        <v>975</v>
+        <v>932</v>
       </c>
       <c r="P247" t="s" s="2">
-        <v>976</v>
+        <v>933</v>
       </c>
       <c r="Q247" t="s" s="2">
         <v>75</v>
@@ -30488,13 +30677,13 @@
         <v>75</v>
       </c>
       <c r="Y247" t="s" s="2">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="Z247" t="s" s="2">
-        <v>75</v>
+        <v>934</v>
       </c>
       <c r="AA247" t="s" s="2">
-        <v>75</v>
+        <v>935</v>
       </c>
       <c r="AB247" t="s" s="2">
         <v>75</v>
@@ -30512,13 +30701,13 @@
         <v>75</v>
       </c>
       <c r="AG247" t="s" s="2">
-        <v>972</v>
+        <v>929</v>
       </c>
       <c r="AH247" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI247" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ247" t="s" s="2">
         <v>75</v>
@@ -30532,10 +30721,10 @@
         <v>826</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>977</v>
+        <v>936</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>977</v>
+        <v>936</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" t="s" s="2">
@@ -30549,25 +30738,29 @@
         <v>83</v>
       </c>
       <c r="I248" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J248" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K248" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>198</v>
+        <v>937</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>199</v>
+        <v>938</v>
       </c>
       <c r="N248" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O248" s="2"/>
-      <c r="P248" s="2"/>
+        <v>939</v>
+      </c>
+      <c r="O248" t="s" s="2">
+        <v>940</v>
+      </c>
+      <c r="P248" t="s" s="2">
+        <v>941</v>
+      </c>
       <c r="Q248" t="s" s="2">
         <v>75</v>
       </c>
@@ -30615,7 +30808,7 @@
         <v>75</v>
       </c>
       <c r="AG248" t="s" s="2">
-        <v>201</v>
+        <v>936</v>
       </c>
       <c r="AH248" t="s" s="2">
         <v>76</v>
@@ -30627,7 +30820,7 @@
         <v>75</v>
       </c>
       <c r="AK248" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="249">
@@ -30635,44 +30828,46 @@
         <v>826</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>978</v>
+        <v>942</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>978</v>
+        <v>942</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" t="s" s="2">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="F249" s="2"/>
       <c r="G249" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H249" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I249" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J249" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>127</v>
+        <v>943</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>128</v>
+        <v>944</v>
       </c>
       <c r="N249" t="s" s="2">
-        <v>203</v>
+        <v>945</v>
       </c>
       <c r="O249" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="P249" s="2"/>
+        <v>946</v>
+      </c>
+      <c r="P249" t="s" s="2">
+        <v>947</v>
+      </c>
       <c r="Q249" t="s" s="2">
         <v>75</v>
       </c>
@@ -30720,19 +30915,19 @@
         <v>75</v>
       </c>
       <c r="AG249" t="s" s="2">
-        <v>204</v>
+        <v>942</v>
       </c>
       <c r="AH249" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI249" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ249" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK249" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="250">
@@ -30740,14 +30935,14 @@
         <v>826</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>979</v>
+        <v>948</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>979</v>
+        <v>948</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" t="s" s="2">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="F250" s="2"/>
       <c r="G250" t="s" s="2">
@@ -30760,25 +30955,25 @@
         <v>75</v>
       </c>
       <c r="J250" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K250" t="s" s="2">
         <v>84</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>127</v>
+        <v>783</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>207</v>
+        <v>949</v>
       </c>
       <c r="N250" t="s" s="2">
-        <v>208</v>
+        <v>950</v>
       </c>
       <c r="O250" t="s" s="2">
-        <v>130</v>
+        <v>951</v>
       </c>
       <c r="P250" t="s" s="2">
-        <v>136</v>
+        <v>952</v>
       </c>
       <c r="Q250" t="s" s="2">
         <v>75</v>
@@ -30827,7 +31022,7 @@
         <v>75</v>
       </c>
       <c r="AG250" t="s" s="2">
-        <v>209</v>
+        <v>948</v>
       </c>
       <c r="AH250" t="s" s="2">
         <v>76</v>
@@ -30839,7 +31034,7 @@
         <v>75</v>
       </c>
       <c r="AK250" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="251">
@@ -30847,10 +31042,10 @@
         <v>826</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>980</v>
+        <v>953</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>980</v>
+        <v>953</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" t="s" s="2">
@@ -30858,7 +31053,7 @@
       </c>
       <c r="F251" s="2"/>
       <c r="G251" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H251" t="s" s="2">
         <v>83</v>
@@ -30870,21 +31065,21 @@
         <v>75</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>981</v>
+        <v>159</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>982</v>
+        <v>954</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>983</v>
-      </c>
-      <c r="O251" t="s" s="2">
-        <v>984</v>
-      </c>
-      <c r="P251" s="2"/>
+        <v>955</v>
+      </c>
+      <c r="O251" s="2"/>
+      <c r="P251" t="s" s="2">
+        <v>956</v>
+      </c>
       <c r="Q251" t="s" s="2">
         <v>75</v>
       </c>
@@ -30908,13 +31103,13 @@
         <v>75</v>
       </c>
       <c r="Y251" t="s" s="2">
-        <v>75</v>
+        <v>326</v>
       </c>
       <c r="Z251" t="s" s="2">
-        <v>75</v>
+        <v>957</v>
       </c>
       <c r="AA251" t="s" s="2">
-        <v>75</v>
+        <v>958</v>
       </c>
       <c r="AB251" t="s" s="2">
         <v>75</v>
@@ -30932,10 +31127,10 @@
         <v>75</v>
       </c>
       <c r="AG251" t="s" s="2">
-        <v>980</v>
+        <v>953</v>
       </c>
       <c r="AH251" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI251" t="s" s="2">
         <v>83</v>
@@ -30952,10 +31147,10 @@
         <v>826</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>985</v>
+        <v>959</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>985</v>
+        <v>959</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" t="s" s="2">
@@ -30963,7 +31158,7 @@
       </c>
       <c r="F252" s="2"/>
       <c r="G252" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H252" t="s" s="2">
         <v>83</v>
@@ -30975,19 +31170,23 @@
         <v>75</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>103</v>
+        <v>960</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>986</v>
+        <v>961</v>
       </c>
       <c r="N252" t="s" s="2">
-        <v>987</v>
-      </c>
-      <c r="O252" s="2"/>
-      <c r="P252" s="2"/>
+        <v>962</v>
+      </c>
+      <c r="O252" t="s" s="2">
+        <v>963</v>
+      </c>
+      <c r="P252" t="s" s="2">
+        <v>964</v>
+      </c>
       <c r="Q252" t="s" s="2">
         <v>75</v>
       </c>
@@ -31011,13 +31210,13 @@
         <v>75</v>
       </c>
       <c r="Y252" t="s" s="2">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="Z252" t="s" s="2">
-        <v>987</v>
+        <v>75</v>
       </c>
       <c r="AA252" t="s" s="2">
-        <v>988</v>
+        <v>75</v>
       </c>
       <c r="AB252" t="s" s="2">
         <v>75</v>
@@ -31035,10 +31234,10 @@
         <v>75</v>
       </c>
       <c r="AG252" t="s" s="2">
-        <v>985</v>
+        <v>959</v>
       </c>
       <c r="AH252" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI252" t="s" s="2">
         <v>83</v>
@@ -31052,13 +31251,13 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>989</v>
+        <v>826</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>994</v>
+        <v>965</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>994</v>
+        <v>965</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" t="s" s="2">
@@ -31081,16 +31280,20 @@
         <v>75</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>78</v>
+        <v>966</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>996</v>
+        <v>967</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>997</v>
-      </c>
-      <c r="O253" s="2"/>
-      <c r="P253" s="2"/>
+        <v>968</v>
+      </c>
+      <c r="O253" t="s" s="2">
+        <v>969</v>
+      </c>
+      <c r="P253" t="s" s="2">
+        <v>970</v>
+      </c>
       <c r="Q253" t="s" s="2">
         <v>75</v>
       </c>
@@ -31138,7 +31341,7 @@
         <v>75</v>
       </c>
       <c r="AG253" t="s" s="2">
-        <v>994</v>
+        <v>965</v>
       </c>
       <c r="AH253" t="s" s="2">
         <v>76</v>
@@ -31150,18 +31353,18 @@
         <v>75</v>
       </c>
       <c r="AK253" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>989</v>
+        <v>826</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>998</v>
+        <v>971</v>
       </c>
       <c r="C254" t="s" s="2">
-        <v>998</v>
+        <v>971</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" t="s" s="2">
@@ -31172,7 +31375,7 @@
         <v>76</v>
       </c>
       <c r="H254" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I254" t="s" s="2">
         <v>75</v>
@@ -31181,21 +31384,23 @@
         <v>75</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>86</v>
+        <v>972</v>
       </c>
       <c r="N254" t="s" s="2">
-        <v>87</v>
+        <v>973</v>
       </c>
       <c r="O254" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="P254" s="2"/>
+        <v>974</v>
+      </c>
+      <c r="P254" t="s" s="2">
+        <v>975</v>
+      </c>
       <c r="Q254" t="s" s="2">
         <v>75</v>
       </c>
@@ -31243,30 +31448,30 @@
         <v>75</v>
       </c>
       <c r="AG254" t="s" s="2">
-        <v>89</v>
+        <v>971</v>
       </c>
       <c r="AH254" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI254" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ254" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK254" t="s" s="2">
-        <v>75</v>
+        <v>976</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>989</v>
+        <v>826</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>999</v>
+        <v>977</v>
       </c>
       <c r="C255" t="s" s="2">
-        <v>999</v>
+        <v>977</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" t="s" s="2">
@@ -31286,16 +31491,16 @@
         <v>75</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>91</v>
+        <v>198</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>92</v>
+        <v>199</v>
       </c>
       <c r="N255" t="s" s="2">
-        <v>93</v>
+        <v>200</v>
       </c>
       <c r="O255" s="2"/>
       <c r="P255" s="2"/>
@@ -31346,7 +31551,7 @@
         <v>75</v>
       </c>
       <c r="AG255" t="s" s="2">
-        <v>94</v>
+        <v>201</v>
       </c>
       <c r="AH255" t="s" s="2">
         <v>76</v>
@@ -31358,50 +31563,50 @@
         <v>75</v>
       </c>
       <c r="AK255" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>989</v>
+        <v>826</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>1000</v>
+        <v>978</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>1000</v>
+        <v>978</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" t="s" s="2">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="F256" s="2"/>
       <c r="G256" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H256" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I256" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J256" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K256" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="N256" t="s" s="2">
-        <v>99</v>
+        <v>203</v>
       </c>
       <c r="O256" t="s" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="P256" s="2"/>
       <c r="Q256" t="s" s="2">
@@ -31451,64 +31656,66 @@
         <v>75</v>
       </c>
       <c r="AG256" t="s" s="2">
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="AH256" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI256" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ256" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK256" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>989</v>
+        <v>826</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>1001</v>
+        <v>979</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>1001</v>
+        <v>979</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" t="s" s="2">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="F257" s="2"/>
       <c r="G257" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H257" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I257" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J257" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>104</v>
+        <v>207</v>
       </c>
       <c r="N257" t="s" s="2">
-        <v>105</v>
+        <v>208</v>
       </c>
       <c r="O257" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="P257" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="P257" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="Q257" t="s" s="2">
         <v>75</v>
       </c>
@@ -31532,13 +31739,13 @@
         <v>75</v>
       </c>
       <c r="Y257" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="Z257" t="s" s="2">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="AA257" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AB257" t="s" s="2">
         <v>75</v>
@@ -31556,41 +31763,41 @@
         <v>75</v>
       </c>
       <c r="AG257" t="s" s="2">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="AH257" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI257" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ257" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK257" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>989</v>
+        <v>826</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>1002</v>
+        <v>980</v>
       </c>
       <c r="C258" t="s" s="2">
-        <v>1002</v>
+        <v>980</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" t="s" s="2">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="F258" s="2"/>
       <c r="G258" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H258" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I258" t="s" s="2">
         <v>75</v>
@@ -31602,18 +31809,18 @@
         <v>75</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>114</v>
+        <v>981</v>
       </c>
       <c r="N258" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O258" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="P258" s="2"/>
+        <v>982</v>
+      </c>
+      <c r="O258" s="2"/>
+      <c r="P258" t="s" s="2">
+        <v>983</v>
+      </c>
       <c r="Q258" t="s" s="2">
         <v>75</v>
       </c>
@@ -31637,13 +31844,13 @@
         <v>75</v>
       </c>
       <c r="Y258" t="s" s="2">
-        <v>75</v>
+        <v>326</v>
       </c>
       <c r="Z258" t="s" s="2">
-        <v>75</v>
+        <v>984</v>
       </c>
       <c r="AA258" t="s" s="2">
-        <v>75</v>
+        <v>985</v>
       </c>
       <c r="AB258" t="s" s="2">
         <v>75</v>
@@ -31661,13 +31868,13 @@
         <v>75</v>
       </c>
       <c r="AG258" t="s" s="2">
-        <v>117</v>
+        <v>980</v>
       </c>
       <c r="AH258" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI258" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ258" t="s" s="2">
         <v>75</v>
@@ -31678,24 +31885,24 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>989</v>
+        <v>826</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>1003</v>
+        <v>986</v>
       </c>
       <c r="C259" t="s" s="2">
-        <v>1003</v>
+        <v>986</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" t="s" s="2">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="F259" s="2"/>
       <c r="G259" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H259" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I259" t="s" s="2">
         <v>75</v>
@@ -31707,18 +31914,18 @@
         <v>75</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>120</v>
+        <v>809</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>121</v>
+        <v>987</v>
       </c>
       <c r="N259" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="O259" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="P259" s="2"/>
+        <v>988</v>
+      </c>
+      <c r="O259" s="2"/>
+      <c r="P259" t="s" s="2">
+        <v>989</v>
+      </c>
       <c r="Q259" t="s" s="2">
         <v>75</v>
       </c>
@@ -31766,34 +31973,34 @@
         <v>75</v>
       </c>
       <c r="AG259" t="s" s="2">
-        <v>124</v>
+        <v>986</v>
       </c>
       <c r="AH259" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI259" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ259" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK259" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>989</v>
+        <v>826</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>1004</v>
+        <v>990</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>1004</v>
+        <v>990</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" t="s" s="2">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="F260" s="2"/>
       <c r="G260" t="s" s="2">
@@ -31812,18 +32019,20 @@
         <v>75</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>127</v>
+        <v>775</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>128</v>
+        <v>991</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>129</v>
+        <v>992</v>
       </c>
       <c r="O260" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="P260" s="2"/>
+        <v>993</v>
+      </c>
+      <c r="P260" t="s" s="2">
+        <v>816</v>
+      </c>
       <c r="Q260" t="s" s="2">
         <v>75</v>
       </c>
@@ -31871,7 +32080,7 @@
         <v>75</v>
       </c>
       <c r="AG260" t="s" s="2">
-        <v>131</v>
+        <v>990</v>
       </c>
       <c r="AH260" t="s" s="2">
         <v>76</v>
@@ -31883,53 +32092,51 @@
         <v>75</v>
       </c>
       <c r="AK260" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>989</v>
+        <v>826</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>1005</v>
+        <v>994</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>1005</v>
+        <v>994</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" t="s" s="2">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="F261" s="2"/>
       <c r="G261" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H261" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I261" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J261" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K261" t="s" s="2">
         <v>75</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>127</v>
+        <v>783</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>134</v>
+        <v>995</v>
       </c>
       <c r="N261" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O261" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>996</v>
+      </c>
+      <c r="O261" s="2"/>
       <c r="P261" t="s" s="2">
-        <v>136</v>
+        <v>997</v>
       </c>
       <c r="Q261" t="s" s="2">
         <v>75</v>
@@ -31978,30 +32185,30 @@
         <v>75</v>
       </c>
       <c r="AG261" t="s" s="2">
-        <v>137</v>
+        <v>994</v>
       </c>
       <c r="AH261" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI261" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ261" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK261" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>989</v>
+        <v>826</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="C262" t="s" s="2">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" t="s" s="2">
@@ -32012,7 +32219,7 @@
         <v>76</v>
       </c>
       <c r="H262" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I262" t="s" s="2">
         <v>75</v>
@@ -32021,20 +32228,20 @@
         <v>75</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="N262" t="s" s="2">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="O262" s="2"/>
       <c r="P262" t="s" s="2">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="Q262" t="s" s="2">
         <v>75</v>
@@ -32059,13 +32266,13 @@
         <v>75</v>
       </c>
       <c r="Y262" t="s" s="2">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="Z262" t="s" s="2">
-        <v>75</v>
+        <v>934</v>
       </c>
       <c r="AA262" t="s" s="2">
-        <v>75</v>
+        <v>935</v>
       </c>
       <c r="AB262" t="s" s="2">
         <v>75</v>
@@ -32083,13 +32290,13 @@
         <v>75</v>
       </c>
       <c r="AG262" t="s" s="2">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="AH262" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI262" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ262" t="s" s="2">
         <v>75</v>
@@ -32100,13 +32307,13 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>989</v>
+        <v>826</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" t="s" s="2">
@@ -32126,29 +32333,25 @@
         <v>75</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>710</v>
+        <v>646</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>1012</v>
-      </c>
-      <c r="O263" t="s" s="2">
-        <v>1013</v>
-      </c>
+        <v>1004</v>
+      </c>
+      <c r="O263" s="2"/>
       <c r="P263" t="s" s="2">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="Q263" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="R263" t="s" s="2">
-        <v>756</v>
-      </c>
+      <c r="R263" s="2"/>
       <c r="S263" t="s" s="2">
         <v>75</v>
       </c>
@@ -32192,7 +32395,7 @@
         <v>75</v>
       </c>
       <c r="AG263" t="s" s="2">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="AH263" t="s" s="2">
         <v>76</v>
@@ -32201,7 +32404,7 @@
         <v>83</v>
       </c>
       <c r="AJ263" t="s" s="2">
-        <v>75</v>
+        <v>1006</v>
       </c>
       <c r="AK263" t="s" s="2">
         <v>95</v>
@@ -32209,13 +32412,13 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>989</v>
+        <v>826</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="C264" t="s" s="2">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" t="s" s="2">
@@ -32226,7 +32429,7 @@
         <v>76</v>
       </c>
       <c r="H264" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I264" t="s" s="2">
         <v>75</v>
@@ -32235,23 +32438,19 @@
         <v>75</v>
       </c>
       <c r="K264" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>809</v>
+        <v>455</v>
       </c>
       <c r="M264" t="s" s="2">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="N264" t="s" s="2">
-        <v>1017</v>
-      </c>
-      <c r="O264" t="s" s="2">
-        <v>1018</v>
-      </c>
-      <c r="P264" t="s" s="2">
-        <v>1019</v>
-      </c>
+        <v>1009</v>
+      </c>
+      <c r="O264" s="2"/>
+      <c r="P264" s="2"/>
       <c r="Q264" t="s" s="2">
         <v>75</v>
       </c>
@@ -32299,13 +32498,13 @@
         <v>75</v>
       </c>
       <c r="AG264" t="s" s="2">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="AH264" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI264" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ264" t="s" s="2">
         <v>75</v>
@@ -32316,13 +32515,13 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>989</v>
+        <v>826</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="C265" t="s" s="2">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" t="s" s="2">
@@ -32342,22 +32541,22 @@
         <v>75</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>775</v>
+        <v>194</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="N265" t="s" s="2">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="O265" t="s" s="2">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="P265" t="s" s="2">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="Q265" t="s" s="2">
         <v>75</v>
@@ -32406,7 +32605,7 @@
         <v>75</v>
       </c>
       <c r="AG265" t="s" s="2">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="AH265" t="s" s="2">
         <v>76</v>
@@ -32423,13 +32622,13 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>989</v>
+        <v>826</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>1025</v>
+        <v>1015</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>1025</v>
+        <v>1015</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" t="s" s="2">
@@ -32440,7 +32639,7 @@
         <v>76</v>
       </c>
       <c r="H266" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I266" t="s" s="2">
         <v>75</v>
@@ -32449,23 +32648,19 @@
         <v>75</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>783</v>
+        <v>198</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>1026</v>
+        <v>199</v>
       </c>
       <c r="N266" t="s" s="2">
-        <v>1027</v>
-      </c>
-      <c r="O266" t="s" s="2">
-        <v>1028</v>
-      </c>
-      <c r="P266" t="s" s="2">
-        <v>1029</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="O266" s="2"/>
+      <c r="P266" s="2"/>
       <c r="Q266" t="s" s="2">
         <v>75</v>
       </c>
@@ -32513,41 +32708,41 @@
         <v>75</v>
       </c>
       <c r="AG266" t="s" s="2">
-        <v>1025</v>
+        <v>201</v>
       </c>
       <c r="AH266" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI266" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ266" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK266" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>989</v>
+        <v>826</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="C267" t="s" s="2">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" t="s" s="2">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="F267" s="2"/>
       <c r="G267" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H267" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I267" t="s" s="2">
         <v>75</v>
@@ -32556,21 +32751,21 @@
         <v>75</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>932</v>
+        <v>128</v>
       </c>
       <c r="N267" t="s" s="2">
-        <v>1031</v>
-      </c>
-      <c r="O267" s="2"/>
-      <c r="P267" t="s" s="2">
-        <v>934</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="O267" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P267" s="2"/>
       <c r="Q267" t="s" s="2">
         <v>75</v>
       </c>
@@ -32594,13 +32789,13 @@
         <v>75</v>
       </c>
       <c r="Y267" t="s" s="2">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="Z267" t="s" s="2">
-        <v>867</v>
+        <v>75</v>
       </c>
       <c r="AA267" t="s" s="2">
-        <v>868</v>
+        <v>75</v>
       </c>
       <c r="AB267" t="s" s="2">
         <v>75</v>
@@ -32618,63 +32813,65 @@
         <v>75</v>
       </c>
       <c r="AG267" t="s" s="2">
-        <v>1030</v>
+        <v>204</v>
       </c>
       <c r="AH267" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI267" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ267" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK267" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>989</v>
+        <v>826</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>1032</v>
+        <v>1017</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>1032</v>
+        <v>1017</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" t="s" s="2">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="F268" s="2"/>
       <c r="G268" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H268" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I268" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J268" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K268" t="s" s="2">
         <v>84</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>870</v>
+        <v>127</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>1033</v>
+        <v>207</v>
       </c>
       <c r="N268" t="s" s="2">
-        <v>1034</v>
-      </c>
-      <c r="O268" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="O268" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="P268" t="s" s="2">
-        <v>1035</v>
+        <v>136</v>
       </c>
       <c r="Q268" t="s" s="2">
         <v>75</v>
@@ -32723,30 +32920,30 @@
         <v>75</v>
       </c>
       <c r="AG268" t="s" s="2">
-        <v>1032</v>
+        <v>209</v>
       </c>
       <c r="AH268" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI268" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ268" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK268" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>989</v>
+        <v>826</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>1036</v>
+        <v>1018</v>
       </c>
       <c r="C269" t="s" s="2">
-        <v>1036</v>
+        <v>1018</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" t="s" s="2">
@@ -32754,10 +32951,10 @@
       </c>
       <c r="F269" s="2"/>
       <c r="G269" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H269" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I269" t="s" s="2">
         <v>75</v>
@@ -32769,17 +32966,19 @@
         <v>75</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>899</v>
+        <v>159</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>1037</v>
+        <v>1019</v>
       </c>
       <c r="N269" t="s" s="2">
-        <v>1038</v>
-      </c>
-      <c r="O269" s="2"/>
+        <v>1020</v>
+      </c>
+      <c r="O269" t="s" s="2">
+        <v>1021</v>
+      </c>
       <c r="P269" t="s" s="2">
-        <v>1039</v>
+        <v>1022</v>
       </c>
       <c r="Q269" t="s" s="2">
         <v>75</v>
@@ -32804,13 +33003,13 @@
         <v>75</v>
       </c>
       <c r="Y269" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="Z269" t="s" s="2">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="AA269" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="AB269" t="s" s="2">
         <v>75</v>
@@ -32828,13 +33027,13 @@
         <v>75</v>
       </c>
       <c r="AG269" t="s" s="2">
-        <v>1036</v>
+        <v>1018</v>
       </c>
       <c r="AH269" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI269" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ269" t="s" s="2">
         <v>75</v>
@@ -32845,13 +33044,13 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>989</v>
+        <v>826</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>1040</v>
+        <v>1023</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>1040</v>
+        <v>1023</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" t="s" s="2">
@@ -32862,7 +33061,7 @@
         <v>76</v>
       </c>
       <c r="H270" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I270" t="s" s="2">
         <v>75</v>
@@ -32874,16 +33073,20 @@
         <v>75</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>194</v>
+        <v>710</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>1041</v>
+        <v>1024</v>
       </c>
       <c r="N270" t="s" s="2">
-        <v>1042</v>
-      </c>
-      <c r="O270" s="2"/>
-      <c r="P270" s="2"/>
+        <v>1025</v>
+      </c>
+      <c r="O270" t="s" s="2">
+        <v>1026</v>
+      </c>
+      <c r="P270" t="s" s="2">
+        <v>1027</v>
+      </c>
       <c r="Q270" t="s" s="2">
         <v>75</v>
       </c>
@@ -32931,13 +33134,13 @@
         <v>75</v>
       </c>
       <c r="AG270" t="s" s="2">
-        <v>1040</v>
+        <v>1023</v>
       </c>
       <c r="AH270" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI270" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ270" t="s" s="2">
         <v>75</v>
@@ -32948,24 +33151,24 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>989</v>
+        <v>826</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>1043</v>
+        <v>1028</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>1043</v>
+        <v>1028</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" t="s" s="2">
-        <v>75</v>
+        <v>1029</v>
       </c>
       <c r="F271" s="2"/>
       <c r="G271" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H271" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I271" t="s" s="2">
         <v>75</v>
@@ -32977,15 +33180,17 @@
         <v>75</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>198</v>
+        <v>1030</v>
       </c>
       <c r="M271" t="s" s="2">
-        <v>199</v>
+        <v>1031</v>
       </c>
       <c r="N271" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O271" s="2"/>
+        <v>1032</v>
+      </c>
+      <c r="O271" t="s" s="2">
+        <v>1033</v>
+      </c>
       <c r="P271" s="2"/>
       <c r="Q271" t="s" s="2">
         <v>75</v>
@@ -33034,41 +33239,41 @@
         <v>75</v>
       </c>
       <c r="AG271" t="s" s="2">
-        <v>201</v>
+        <v>1028</v>
       </c>
       <c r="AH271" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI271" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ271" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK271" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>989</v>
+        <v>826</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" t="s" s="2">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="F272" s="2"/>
       <c r="G272" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H272" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I272" t="s" s="2">
         <v>75</v>
@@ -33077,21 +33282,23 @@
         <v>75</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>127</v>
+        <v>646</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>128</v>
+        <v>1035</v>
       </c>
       <c r="N272" t="s" s="2">
-        <v>203</v>
+        <v>1036</v>
       </c>
       <c r="O272" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="P272" s="2"/>
+        <v>1037</v>
+      </c>
+      <c r="P272" t="s" s="2">
+        <v>1038</v>
+      </c>
       <c r="Q272" t="s" s="2">
         <v>75</v>
       </c>
@@ -33139,34 +33346,34 @@
         <v>75</v>
       </c>
       <c r="AG272" t="s" s="2">
-        <v>204</v>
+        <v>1034</v>
       </c>
       <c r="AH272" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI272" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ272" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK272" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>989</v>
+        <v>826</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" t="s" s="2">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="F273" s="2"/>
       <c r="G273" t="s" s="2">
@@ -33185,19 +33392,19 @@
         <v>84</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>207</v>
+        <v>1040</v>
       </c>
       <c r="N273" t="s" s="2">
-        <v>208</v>
+        <v>1041</v>
       </c>
       <c r="O273" t="s" s="2">
-        <v>130</v>
+        <v>1042</v>
       </c>
       <c r="P273" t="s" s="2">
-        <v>136</v>
+        <v>1043</v>
       </c>
       <c r="Q273" t="s" s="2">
         <v>75</v>
@@ -33246,7 +33453,7 @@
         <v>75</v>
       </c>
       <c r="AG273" t="s" s="2">
-        <v>209</v>
+        <v>1039</v>
       </c>
       <c r="AH273" t="s" s="2">
         <v>76</v>
@@ -33258,18 +33465,18 @@
         <v>75</v>
       </c>
       <c r="AK273" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>989</v>
+        <v>826</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C274" t="s" s="2">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" t="s" s="2">
@@ -33280,7 +33487,7 @@
         <v>76</v>
       </c>
       <c r="H274" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I274" t="s" s="2">
         <v>75</v>
@@ -33292,18 +33499,16 @@
         <v>75</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="M274" t="s" s="2">
-        <v>1047</v>
+        <v>199</v>
       </c>
       <c r="N274" t="s" s="2">
-        <v>1048</v>
+        <v>200</v>
       </c>
       <c r="O274" s="2"/>
-      <c r="P274" t="s" s="2">
-        <v>1049</v>
-      </c>
+      <c r="P274" s="2"/>
       <c r="Q274" t="s" s="2">
         <v>75</v>
       </c>
@@ -33351,41 +33556,41 @@
         <v>75</v>
       </c>
       <c r="AG274" t="s" s="2">
-        <v>1046</v>
+        <v>201</v>
       </c>
       <c r="AH274" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI274" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ274" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK274" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>989</v>
+        <v>826</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="C275" t="s" s="2">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" t="s" s="2">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="F275" s="2"/>
       <c r="G275" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H275" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I275" t="s" s="2">
         <v>75</v>
@@ -33397,15 +33602,17 @@
         <v>75</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>1051</v>
+        <v>128</v>
       </c>
       <c r="N275" t="s" s="2">
-        <v>1052</v>
-      </c>
-      <c r="O275" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="O275" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="P275" s="2"/>
       <c r="Q275" t="s" s="2">
         <v>75</v>
@@ -33430,13 +33637,13 @@
         <v>75</v>
       </c>
       <c r="Y275" t="s" s="2">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="Z275" t="s" s="2">
-        <v>1053</v>
+        <v>75</v>
       </c>
       <c r="AA275" t="s" s="2">
-        <v>1054</v>
+        <v>75</v>
       </c>
       <c r="AB275" t="s" s="2">
         <v>75</v>
@@ -33454,63 +33661,65 @@
         <v>75</v>
       </c>
       <c r="AG275" t="s" s="2">
-        <v>1050</v>
+        <v>204</v>
       </c>
       <c r="AH275" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI275" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ275" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK275" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>989</v>
+        <v>826</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>1055</v>
+        <v>1046</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>1055</v>
+        <v>1046</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" t="s" s="2">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="F276" s="2"/>
       <c r="G276" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H276" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I276" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J276" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K276" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>455</v>
+        <v>127</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>1056</v>
+        <v>207</v>
       </c>
       <c r="N276" t="s" s="2">
-        <v>1057</v>
-      </c>
-      <c r="O276" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="O276" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="P276" t="s" s="2">
-        <v>1058</v>
+        <v>136</v>
       </c>
       <c r="Q276" t="s" s="2">
         <v>75</v>
@@ -33559,30 +33768,30 @@
         <v>75</v>
       </c>
       <c r="AG276" t="s" s="2">
-        <v>1055</v>
+        <v>209</v>
       </c>
       <c r="AH276" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI276" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ276" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK276" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>989</v>
+        <v>826</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>1059</v>
+        <v>1047</v>
       </c>
       <c r="C277" t="s" s="2">
-        <v>1059</v>
+        <v>1047</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" t="s" s="2">
@@ -33590,7 +33799,7 @@
       </c>
       <c r="F277" s="2"/>
       <c r="G277" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H277" t="s" s="2">
         <v>83</v>
@@ -33602,18 +33811,20 @@
         <v>75</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>646</v>
+        <v>1048</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>1060</v>
+        <v>1049</v>
       </c>
       <c r="N277" t="s" s="2">
-        <v>1061</v>
-      </c>
-      <c r="O277" s="2"/>
+        <v>1050</v>
+      </c>
+      <c r="O277" t="s" s="2">
+        <v>1051</v>
+      </c>
       <c r="P277" s="2"/>
       <c r="Q277" t="s" s="2">
         <v>75</v>
@@ -33662,10 +33873,10 @@
         <v>75</v>
       </c>
       <c r="AG277" t="s" s="2">
-        <v>1059</v>
+        <v>1047</v>
       </c>
       <c r="AH277" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI277" t="s" s="2">
         <v>83</v>
@@ -33679,13 +33890,13 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>989</v>
+        <v>826</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>1062</v>
+        <v>1052</v>
       </c>
       <c r="C278" t="s" s="2">
-        <v>1062</v>
+        <v>1052</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" t="s" s="2">
@@ -33693,10 +33904,10 @@
       </c>
       <c r="F278" s="2"/>
       <c r="G278" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H278" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I278" t="s" s="2">
         <v>75</v>
@@ -33705,23 +33916,19 @@
         <v>75</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>1063</v>
+        <v>1053</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>1064</v>
-      </c>
-      <c r="O278" t="s" s="2">
-        <v>1065</v>
-      </c>
-      <c r="P278" t="s" s="2">
-        <v>1066</v>
-      </c>
+        <v>1054</v>
+      </c>
+      <c r="O278" s="2"/>
+      <c r="P278" s="2"/>
       <c r="Q278" t="s" s="2">
         <v>75</v>
       </c>
@@ -33745,42 +33952,2776 @@
         <v>75</v>
       </c>
       <c r="Y278" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="Z278" t="s" s="2">
+        <v>1054</v>
+      </c>
+      <c r="AA278" t="s" s="2">
+        <v>1055</v>
+      </c>
+      <c r="AB278" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC278" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD278" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE278" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF278" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG278" t="s" s="2">
+        <v>1052</v>
+      </c>
+      <c r="AH278" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI278" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ278" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK278" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="B279" t="s" s="2">
+        <v>1061</v>
+      </c>
+      <c r="C279" t="s" s="2">
+        <v>1061</v>
+      </c>
+      <c r="D279" s="2"/>
+      <c r="E279" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F279" s="2"/>
+      <c r="G279" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H279" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I279" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J279" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K279" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L279" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="M279" t="s" s="2">
+        <v>1063</v>
+      </c>
+      <c r="N279" t="s" s="2">
+        <v>1064</v>
+      </c>
+      <c r="O279" s="2"/>
+      <c r="P279" s="2"/>
+      <c r="Q279" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R279" s="2"/>
+      <c r="S279" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T279" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U279" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V279" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W279" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X279" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y279" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z279" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA279" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB279" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC279" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD279" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE279" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF279" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG279" t="s" s="2">
+        <v>1061</v>
+      </c>
+      <c r="AH279" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI279" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ279" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK279" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="B280" t="s" s="2">
+        <v>1065</v>
+      </c>
+      <c r="C280" t="s" s="2">
+        <v>1065</v>
+      </c>
+      <c r="D280" s="2"/>
+      <c r="E280" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F280" s="2"/>
+      <c r="G280" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H280" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I280" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J280" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K280" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L280" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M280" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="N280" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="O280" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="P280" s="2"/>
+      <c r="Q280" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R280" s="2"/>
+      <c r="S280" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T280" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U280" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V280" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W280" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X280" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y280" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z280" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA280" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB280" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC280" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD280" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE280" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF280" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG280" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH280" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI280" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ280" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK280" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="B281" t="s" s="2">
+        <v>1066</v>
+      </c>
+      <c r="C281" t="s" s="2">
+        <v>1066</v>
+      </c>
+      <c r="D281" s="2"/>
+      <c r="E281" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F281" s="2"/>
+      <c r="G281" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H281" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I281" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J281" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K281" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L281" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="M281" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="N281" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="O281" s="2"/>
+      <c r="P281" s="2"/>
+      <c r="Q281" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R281" s="2"/>
+      <c r="S281" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T281" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U281" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V281" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W281" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X281" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y281" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z281" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA281" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB281" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC281" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD281" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE281" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF281" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG281" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AH281" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI281" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ281" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK281" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="B282" t="s" s="2">
+        <v>1067</v>
+      </c>
+      <c r="C282" t="s" s="2">
+        <v>1067</v>
+      </c>
+      <c r="D282" s="2"/>
+      <c r="E282" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F282" s="2"/>
+      <c r="G282" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H282" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I282" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J282" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K282" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L282" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M282" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N282" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="O282" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="P282" s="2"/>
+      <c r="Q282" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R282" s="2"/>
+      <c r="S282" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T282" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U282" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V282" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W282" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X282" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y282" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z282" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA282" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB282" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC282" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD282" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE282" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF282" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG282" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AH282" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI282" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ282" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK282" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="B283" t="s" s="2">
+        <v>1068</v>
+      </c>
+      <c r="C283" t="s" s="2">
+        <v>1068</v>
+      </c>
+      <c r="D283" s="2"/>
+      <c r="E283" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F283" s="2"/>
+      <c r="G283" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H283" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I283" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J283" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K283" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L283" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M283" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N283" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="O283" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="P283" s="2"/>
+      <c r="Q283" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R283" s="2"/>
+      <c r="S283" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T283" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U283" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V283" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W283" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X283" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y283" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="Z278" t="s" s="2">
+      <c r="Z283" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AA278" t="s" s="2">
+      <c r="AA283" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="AB278" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC278" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD278" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE278" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF278" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG278" t="s" s="2">
-        <v>1062</v>
-      </c>
-      <c r="AH278" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI278" t="s" s="2">
+      <c r="AB283" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC283" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD283" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE283" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF283" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG283" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AH283" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI283" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ283" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK283" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="B284" t="s" s="2">
+        <v>1069</v>
+      </c>
+      <c r="C284" t="s" s="2">
+        <v>1069</v>
+      </c>
+      <c r="D284" s="2"/>
+      <c r="E284" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="F284" s="2"/>
+      <c r="G284" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H284" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I284" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J284" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K284" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L284" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M284" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="N284" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O284" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="P284" s="2"/>
+      <c r="Q284" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R284" s="2"/>
+      <c r="S284" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T284" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U284" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V284" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W284" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X284" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y284" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z284" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA284" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB284" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC284" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD284" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE284" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF284" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG284" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AH284" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI284" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ284" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK284" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="B285" t="s" s="2">
+        <v>1070</v>
+      </c>
+      <c r="C285" t="s" s="2">
+        <v>1070</v>
+      </c>
+      <c r="D285" s="2"/>
+      <c r="E285" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="F285" s="2"/>
+      <c r="G285" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H285" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AJ278" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK278" t="s" s="2">
+      <c r="I285" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J285" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K285" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L285" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M285" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N285" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="O285" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="P285" s="2"/>
+      <c r="Q285" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R285" s="2"/>
+      <c r="S285" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T285" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U285" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V285" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W285" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X285" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y285" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z285" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA285" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB285" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC285" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD285" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE285" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF285" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG285" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AH285" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI285" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ285" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK285" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="B286" t="s" s="2">
+        <v>1071</v>
+      </c>
+      <c r="C286" t="s" s="2">
+        <v>1071</v>
+      </c>
+      <c r="D286" s="2"/>
+      <c r="E286" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F286" s="2"/>
+      <c r="G286" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H286" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I286" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J286" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K286" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L286" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M286" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N286" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="O286" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P286" s="2"/>
+      <c r="Q286" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R286" s="2"/>
+      <c r="S286" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T286" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U286" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V286" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W286" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X286" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y286" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z286" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA286" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB286" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC286" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD286" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE286" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF286" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG286" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AH286" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI286" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ286" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK286" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="B287" t="s" s="2">
+        <v>1072</v>
+      </c>
+      <c r="C287" t="s" s="2">
+        <v>1072</v>
+      </c>
+      <c r="D287" s="2"/>
+      <c r="E287" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F287" s="2"/>
+      <c r="G287" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H287" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I287" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J287" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K287" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L287" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M287" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N287" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O287" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P287" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Q287" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R287" s="2"/>
+      <c r="S287" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T287" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U287" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V287" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W287" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X287" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y287" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z287" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA287" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB287" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC287" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD287" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE287" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF287" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG287" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AH287" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI287" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ287" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK287" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="B288" t="s" s="2">
+        <v>1073</v>
+      </c>
+      <c r="C288" t="s" s="2">
+        <v>1073</v>
+      </c>
+      <c r="D288" s="2"/>
+      <c r="E288" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F288" s="2"/>
+      <c r="G288" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H288" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I288" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J288" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K288" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L288" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M288" t="s" s="2">
+        <v>1074</v>
+      </c>
+      <c r="N288" t="s" s="2">
+        <v>1075</v>
+      </c>
+      <c r="O288" s="2"/>
+      <c r="P288" t="s" s="2">
+        <v>1076</v>
+      </c>
+      <c r="Q288" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R288" s="2"/>
+      <c r="S288" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T288" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U288" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V288" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W288" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X288" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y288" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z288" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA288" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB288" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC288" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD288" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE288" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF288" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG288" t="s" s="2">
+        <v>1073</v>
+      </c>
+      <c r="AH288" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI288" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ288" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK288" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="B289" t="s" s="2">
+        <v>1077</v>
+      </c>
+      <c r="C289" t="s" s="2">
+        <v>1077</v>
+      </c>
+      <c r="D289" s="2"/>
+      <c r="E289" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F289" s="2"/>
+      <c r="G289" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H289" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I289" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J289" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K289" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L289" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="M289" t="s" s="2">
+        <v>1078</v>
+      </c>
+      <c r="N289" t="s" s="2">
+        <v>1079</v>
+      </c>
+      <c r="O289" t="s" s="2">
+        <v>1080</v>
+      </c>
+      <c r="P289" t="s" s="2">
+        <v>1081</v>
+      </c>
+      <c r="Q289" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R289" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="S289" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T289" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U289" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V289" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W289" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X289" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y289" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z289" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA289" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB289" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC289" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD289" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE289" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF289" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG289" t="s" s="2">
+        <v>1077</v>
+      </c>
+      <c r="AH289" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI289" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ289" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK289" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="B290" t="s" s="2">
+        <v>1082</v>
+      </c>
+      <c r="C290" t="s" s="2">
+        <v>1082</v>
+      </c>
+      <c r="D290" s="2"/>
+      <c r="E290" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F290" s="2"/>
+      <c r="G290" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H290" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I290" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J290" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K290" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L290" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="M290" t="s" s="2">
+        <v>1083</v>
+      </c>
+      <c r="N290" t="s" s="2">
+        <v>1084</v>
+      </c>
+      <c r="O290" t="s" s="2">
+        <v>1085</v>
+      </c>
+      <c r="P290" t="s" s="2">
+        <v>1086</v>
+      </c>
+      <c r="Q290" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R290" s="2"/>
+      <c r="S290" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T290" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U290" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V290" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W290" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X290" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y290" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z290" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA290" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB290" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC290" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD290" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE290" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF290" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG290" t="s" s="2">
+        <v>1082</v>
+      </c>
+      <c r="AH290" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI290" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ290" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK290" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="B291" t="s" s="2">
+        <v>1087</v>
+      </c>
+      <c r="C291" t="s" s="2">
+        <v>1087</v>
+      </c>
+      <c r="D291" s="2"/>
+      <c r="E291" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F291" s="2"/>
+      <c r="G291" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H291" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I291" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J291" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K291" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L291" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="M291" t="s" s="2">
+        <v>1088</v>
+      </c>
+      <c r="N291" t="s" s="2">
+        <v>1089</v>
+      </c>
+      <c r="O291" t="s" s="2">
+        <v>1090</v>
+      </c>
+      <c r="P291" t="s" s="2">
+        <v>1091</v>
+      </c>
+      <c r="Q291" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R291" s="2"/>
+      <c r="S291" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T291" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U291" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V291" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W291" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X291" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y291" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z291" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA291" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB291" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC291" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD291" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE291" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF291" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG291" t="s" s="2">
+        <v>1087</v>
+      </c>
+      <c r="AH291" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI291" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ291" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK291" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="B292" t="s" s="2">
+        <v>1092</v>
+      </c>
+      <c r="C292" t="s" s="2">
+        <v>1092</v>
+      </c>
+      <c r="D292" s="2"/>
+      <c r="E292" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F292" s="2"/>
+      <c r="G292" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H292" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I292" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J292" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K292" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L292" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="M292" t="s" s="2">
+        <v>1093</v>
+      </c>
+      <c r="N292" t="s" s="2">
+        <v>1094</v>
+      </c>
+      <c r="O292" t="s" s="2">
+        <v>1095</v>
+      </c>
+      <c r="P292" t="s" s="2">
+        <v>1096</v>
+      </c>
+      <c r="Q292" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R292" s="2"/>
+      <c r="S292" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T292" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U292" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V292" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W292" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X292" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y292" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z292" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA292" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB292" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC292" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD292" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE292" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF292" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG292" t="s" s="2">
+        <v>1092</v>
+      </c>
+      <c r="AH292" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI292" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ292" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK292" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="B293" t="s" s="2">
+        <v>1097</v>
+      </c>
+      <c r="C293" t="s" s="2">
+        <v>1097</v>
+      </c>
+      <c r="D293" s="2"/>
+      <c r="E293" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F293" s="2"/>
+      <c r="G293" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H293" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I293" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J293" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K293" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L293" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M293" t="s" s="2">
+        <v>999</v>
+      </c>
+      <c r="N293" t="s" s="2">
+        <v>1098</v>
+      </c>
+      <c r="O293" s="2"/>
+      <c r="P293" t="s" s="2">
+        <v>1001</v>
+      </c>
+      <c r="Q293" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R293" s="2"/>
+      <c r="S293" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T293" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U293" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V293" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W293" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X293" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y293" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="Z293" t="s" s="2">
+        <v>934</v>
+      </c>
+      <c r="AA293" t="s" s="2">
+        <v>935</v>
+      </c>
+      <c r="AB293" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC293" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD293" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE293" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF293" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG293" t="s" s="2">
+        <v>1097</v>
+      </c>
+      <c r="AH293" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI293" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ293" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK293" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="B294" t="s" s="2">
+        <v>1099</v>
+      </c>
+      <c r="C294" t="s" s="2">
+        <v>1099</v>
+      </c>
+      <c r="D294" s="2"/>
+      <c r="E294" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F294" s="2"/>
+      <c r="G294" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H294" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I294" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J294" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K294" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L294" t="s" s="2">
+        <v>937</v>
+      </c>
+      <c r="M294" t="s" s="2">
+        <v>1100</v>
+      </c>
+      <c r="N294" t="s" s="2">
+        <v>1101</v>
+      </c>
+      <c r="O294" s="2"/>
+      <c r="P294" t="s" s="2">
+        <v>1102</v>
+      </c>
+      <c r="Q294" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R294" s="2"/>
+      <c r="S294" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T294" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U294" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V294" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W294" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X294" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y294" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z294" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA294" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB294" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC294" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD294" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE294" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF294" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG294" t="s" s="2">
+        <v>1099</v>
+      </c>
+      <c r="AH294" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI294" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ294" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK294" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="B295" t="s" s="2">
+        <v>1103</v>
+      </c>
+      <c r="C295" t="s" s="2">
+        <v>1103</v>
+      </c>
+      <c r="D295" s="2"/>
+      <c r="E295" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F295" s="2"/>
+      <c r="G295" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H295" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I295" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J295" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K295" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L295" t="s" s="2">
+        <v>966</v>
+      </c>
+      <c r="M295" t="s" s="2">
+        <v>1104</v>
+      </c>
+      <c r="N295" t="s" s="2">
+        <v>1105</v>
+      </c>
+      <c r="O295" s="2"/>
+      <c r="P295" t="s" s="2">
+        <v>1106</v>
+      </c>
+      <c r="Q295" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R295" s="2"/>
+      <c r="S295" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T295" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U295" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V295" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W295" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X295" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y295" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z295" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA295" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB295" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC295" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD295" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE295" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF295" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG295" t="s" s="2">
+        <v>1103</v>
+      </c>
+      <c r="AH295" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI295" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ295" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK295" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="B296" t="s" s="2">
+        <v>1107</v>
+      </c>
+      <c r="C296" t="s" s="2">
+        <v>1107</v>
+      </c>
+      <c r="D296" s="2"/>
+      <c r="E296" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F296" s="2"/>
+      <c r="G296" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H296" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I296" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J296" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K296" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L296" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M296" t="s" s="2">
+        <v>1108</v>
+      </c>
+      <c r="N296" t="s" s="2">
+        <v>1109</v>
+      </c>
+      <c r="O296" s="2"/>
+      <c r="P296" s="2"/>
+      <c r="Q296" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R296" s="2"/>
+      <c r="S296" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T296" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U296" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V296" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W296" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X296" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y296" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z296" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA296" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB296" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC296" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD296" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE296" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF296" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG296" t="s" s="2">
+        <v>1107</v>
+      </c>
+      <c r="AH296" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI296" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ296" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK296" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="B297" t="s" s="2">
+        <v>1110</v>
+      </c>
+      <c r="C297" t="s" s="2">
+        <v>1110</v>
+      </c>
+      <c r="D297" s="2"/>
+      <c r="E297" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F297" s="2"/>
+      <c r="G297" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H297" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I297" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J297" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K297" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L297" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M297" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N297" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="O297" s="2"/>
+      <c r="P297" s="2"/>
+      <c r="Q297" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R297" s="2"/>
+      <c r="S297" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T297" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U297" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V297" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W297" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X297" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y297" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z297" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA297" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB297" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC297" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD297" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE297" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF297" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG297" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AH297" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI297" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ297" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK297" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="B298" t="s" s="2">
+        <v>1111</v>
+      </c>
+      <c r="C298" t="s" s="2">
+        <v>1111</v>
+      </c>
+      <c r="D298" s="2"/>
+      <c r="E298" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F298" s="2"/>
+      <c r="G298" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H298" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I298" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J298" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K298" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L298" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M298" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N298" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O298" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P298" s="2"/>
+      <c r="Q298" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R298" s="2"/>
+      <c r="S298" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T298" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U298" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V298" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W298" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X298" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y298" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z298" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA298" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB298" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC298" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD298" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE298" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF298" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG298" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AH298" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI298" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ298" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK298" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="B299" t="s" s="2">
+        <v>1112</v>
+      </c>
+      <c r="C299" t="s" s="2">
+        <v>1112</v>
+      </c>
+      <c r="D299" s="2"/>
+      <c r="E299" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="F299" s="2"/>
+      <c r="G299" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H299" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I299" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J299" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K299" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L299" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M299" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="N299" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O299" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P299" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Q299" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R299" s="2"/>
+      <c r="S299" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T299" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U299" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V299" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W299" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X299" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y299" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z299" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA299" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB299" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC299" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD299" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE299" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF299" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG299" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AH299" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI299" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ299" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK299" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="B300" t="s" s="2">
+        <v>1113</v>
+      </c>
+      <c r="C300" t="s" s="2">
+        <v>1113</v>
+      </c>
+      <c r="D300" s="2"/>
+      <c r="E300" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F300" s="2"/>
+      <c r="G300" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H300" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I300" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J300" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K300" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L300" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M300" t="s" s="2">
+        <v>1114</v>
+      </c>
+      <c r="N300" t="s" s="2">
+        <v>1115</v>
+      </c>
+      <c r="O300" s="2"/>
+      <c r="P300" t="s" s="2">
+        <v>1116</v>
+      </c>
+      <c r="Q300" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R300" s="2"/>
+      <c r="S300" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T300" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U300" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V300" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W300" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X300" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y300" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z300" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA300" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB300" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC300" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD300" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE300" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF300" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG300" t="s" s="2">
+        <v>1113</v>
+      </c>
+      <c r="AH300" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI300" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ300" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK300" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="B301" t="s" s="2">
+        <v>1117</v>
+      </c>
+      <c r="C301" t="s" s="2">
+        <v>1117</v>
+      </c>
+      <c r="D301" s="2"/>
+      <c r="E301" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F301" s="2"/>
+      <c r="G301" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H301" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I301" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J301" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K301" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L301" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M301" t="s" s="2">
+        <v>1118</v>
+      </c>
+      <c r="N301" t="s" s="2">
+        <v>1119</v>
+      </c>
+      <c r="O301" s="2"/>
+      <c r="P301" s="2"/>
+      <c r="Q301" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R301" s="2"/>
+      <c r="S301" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T301" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U301" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V301" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W301" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X301" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y301" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Z301" t="s" s="2">
+        <v>1120</v>
+      </c>
+      <c r="AA301" t="s" s="2">
+        <v>1121</v>
+      </c>
+      <c r="AB301" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC301" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD301" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE301" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF301" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG301" t="s" s="2">
+        <v>1117</v>
+      </c>
+      <c r="AH301" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI301" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ301" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK301" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="B302" t="s" s="2">
+        <v>1122</v>
+      </c>
+      <c r="C302" t="s" s="2">
+        <v>1122</v>
+      </c>
+      <c r="D302" s="2"/>
+      <c r="E302" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F302" s="2"/>
+      <c r="G302" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H302" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I302" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J302" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K302" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L302" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M302" t="s" s="2">
+        <v>1123</v>
+      </c>
+      <c r="N302" t="s" s="2">
+        <v>1124</v>
+      </c>
+      <c r="O302" s="2"/>
+      <c r="P302" t="s" s="2">
+        <v>1125</v>
+      </c>
+      <c r="Q302" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R302" s="2"/>
+      <c r="S302" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T302" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U302" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V302" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W302" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X302" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y302" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z302" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA302" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB302" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC302" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD302" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE302" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF302" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG302" t="s" s="2">
+        <v>1122</v>
+      </c>
+      <c r="AH302" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI302" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ302" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK302" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="B303" t="s" s="2">
+        <v>1126</v>
+      </c>
+      <c r="C303" t="s" s="2">
+        <v>1126</v>
+      </c>
+      <c r="D303" s="2"/>
+      <c r="E303" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F303" s="2"/>
+      <c r="G303" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H303" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I303" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J303" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K303" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L303" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="M303" t="s" s="2">
+        <v>1127</v>
+      </c>
+      <c r="N303" t="s" s="2">
+        <v>1128</v>
+      </c>
+      <c r="O303" s="2"/>
+      <c r="P303" s="2"/>
+      <c r="Q303" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R303" s="2"/>
+      <c r="S303" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T303" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U303" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V303" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W303" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X303" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y303" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z303" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA303" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB303" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC303" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD303" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE303" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF303" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG303" t="s" s="2">
+        <v>1126</v>
+      </c>
+      <c r="AH303" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI303" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ303" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK303" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="B304" t="s" s="2">
+        <v>1129</v>
+      </c>
+      <c r="C304" t="s" s="2">
+        <v>1129</v>
+      </c>
+      <c r="D304" s="2"/>
+      <c r="E304" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F304" s="2"/>
+      <c r="G304" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H304" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I304" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J304" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K304" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L304" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M304" t="s" s="2">
+        <v>1130</v>
+      </c>
+      <c r="N304" t="s" s="2">
+        <v>1131</v>
+      </c>
+      <c r="O304" t="s" s="2">
+        <v>1132</v>
+      </c>
+      <c r="P304" t="s" s="2">
+        <v>1133</v>
+      </c>
+      <c r="Q304" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R304" s="2"/>
+      <c r="S304" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T304" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U304" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V304" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W304" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X304" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y304" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z304" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AA304" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AB304" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC304" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD304" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE304" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF304" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG304" t="s" s="2">
+        <v>1129</v>
+      </c>
+      <c r="AH304" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI304" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ304" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK304" t="s" s="2">
         <v>95</v>
       </c>
     </row>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10307" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10307" uniqueCount="1147">
   <si>
     <t>Property</t>
   </si>
@@ -917,9 +917,6 @@
     <t>Diagnose</t>
   </si>
   <si>
-    <t>2024-05-23</t>
-  </si>
-  <si>
     <t>Diagnosen som pasienten har fått rekvirert og administrert legemiddelet for</t>
   </si>
   <si>
@@ -1335,7 +1332,10 @@
     <t>LmdiEncounterInstitusjonsopphold</t>
   </si>
   <si>
-    <t>Lmdi-Institusjonsopphold</t>
+    <t>Institusjonsopphold</t>
+  </si>
+  <si>
+    <t>2024-05-23</t>
   </si>
   <si>
     <t>TODO</t>
@@ -2292,7 +2292,10 @@
     <t>LmdiOrganization</t>
   </si>
   <si>
-    <t>Lmdi-Organization</t>
+    <t>Organisasjon</t>
+  </si>
+  <si>
+    <t>TODO #4</t>
   </si>
   <si>
     <t>Organization</t>
@@ -2597,10 +2600,10 @@
     <t>LmdiPatient</t>
   </si>
   <si>
-    <t>LMDI Patient Profile</t>
-  </si>
-  <si>
-    <t>Kun et eksempel for å vise verktøy</t>
+    <t>Pasient</t>
+  </si>
+  <si>
+    <t>Informasjon om pasienten</t>
   </si>
   <si>
     <t>Patient</t>
@@ -2646,10 +2649,10 @@
     <t>Patient.identifier</t>
   </si>
   <si>
-    <t>An identifier for this patient</t>
-  </si>
-  <si>
-    <t>An identifier for this patient.</t>
+    <t>Identifikator for pasienten.</t>
+  </si>
+  <si>
+    <t>Identifikator for pasienten. Skal være fødselsnummer (FNR) eller D-nummer (DNR).</t>
   </si>
   <si>
     <t>Patients are almost always assigned specific numerical identifiers.</t>
@@ -2662,7 +2665,25 @@
     <t>closed</t>
   </si>
   <si>
+    <t>Patient.identifier:FNR</t>
+  </si>
+  <si>
+    <t>FNR</t>
+  </si>
+  <si>
+    <t>An identifier for this patient</t>
+  </si>
+  <si>
+    <t>An identifier for this patient.</t>
+  </si>
+  <si>
+    <t>Patient.identifier:FNR.id</t>
+  </si>
+  <si>
     <t>Patient.identifier.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier:FNR.extension</t>
   </si>
   <si>
     <t>Patient.identifier.extension</t>
@@ -2678,6 +2699,9 @@
     <t>open</t>
   </si>
   <si>
+    <t>Patient.identifier:FNR.use</t>
+  </si>
+  <si>
     <t>Patient.identifier.use</t>
   </si>
   <si>
@@ -2702,6 +2726,9 @@
     <t>Identifier.use</t>
   </si>
   <si>
+    <t>Patient.identifier:FNR.type</t>
+  </si>
+  <si>
     <t>Patient.identifier.type</t>
   </si>
   <si>
@@ -2726,6 +2753,9 @@
     <t>Identifier.type</t>
   </si>
   <si>
+    <t>Patient.identifier:FNR.system</t>
+  </si>
+  <si>
     <t>Patient.identifier.system</t>
   </si>
   <si>
@@ -2741,12 +2771,18 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
+    <t>urn:oid:2.16.578.1.12.4.1.4.1</t>
+  </si>
+  <si>
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
   </si>
   <si>
+    <t>Patient.identifier:FNR.value</t>
+  </si>
+  <si>
     <t>Patient.identifier.value</t>
   </si>
   <si>
@@ -2765,6 +2801,9 @@
     <t>Identifier.value</t>
   </si>
   <si>
+    <t>Patient.identifier:FNR.period</t>
+  </si>
+  <si>
     <t>Patient.identifier.period</t>
   </si>
   <si>
@@ -2777,6 +2816,9 @@
     <t>Identifier.period</t>
   </si>
   <si>
+    <t>Patient.identifier:FNR.assigner</t>
+  </si>
+  <si>
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
@@ -2792,39 +2834,6 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
-    <t>Patient.identifier:FNR</t>
-  </si>
-  <si>
-    <t>FNR</t>
-  </si>
-  <si>
-    <t>Patient.identifier:FNR.id</t>
-  </si>
-  <si>
-    <t>Patient.identifier:FNR.extension</t>
-  </si>
-  <si>
-    <t>Patient.identifier:FNR.use</t>
-  </si>
-  <si>
-    <t>Patient.identifier:FNR.type</t>
-  </si>
-  <si>
-    <t>Patient.identifier:FNR.system</t>
-  </si>
-  <si>
-    <t>urn:oid:2.16.578.1.12.4.1.4.1</t>
-  </si>
-  <si>
-    <t>Patient.identifier:FNR.value</t>
-  </si>
-  <si>
-    <t>Patient.identifier:FNR.period</t>
-  </si>
-  <si>
-    <t>Patient.identifier:FNR.assigner</t>
-  </si>
-  <si>
     <t>Patient.identifier:DNR</t>
   </si>
   <si>
@@ -2844,6 +2853,9 @@
   </si>
   <si>
     <t>Patient.identifier:DNR.system</t>
+  </si>
+  <si>
+    <t>The identification of the D-nummer</t>
   </si>
   <si>
     <t>urn:oid:2.16.578.1.12.4.1.4.2</t>
@@ -3309,7 +3321,7 @@
     <t>LmdiPractitioner</t>
   </si>
   <si>
-    <t>LMDI Helsepersonell</t>
+    <t>Helsepersonell</t>
   </si>
   <si>
     <t>Helsepersonell som har foreskrevet eller administrert legemiddelet</t>
@@ -3361,6 +3373,33 @@
   </si>
   <si>
     <t>Often, specific identities are assigned for the agent.</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.id</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.use</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.type</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.system</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.578.1.12.4.1.4.4</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.value</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.period</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.assigner</t>
   </si>
   <si>
     <t>Practitioner.active</t>
@@ -3913,7 +3952,7 @@
         <v>15</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>288</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
@@ -3945,7 +3984,7 @@
         <v>23</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35">
@@ -3981,7 +4020,7 @@
         <v>31</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40">
@@ -3989,7 +4028,7 @@
         <v>33</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41">
@@ -4021,7 +4060,7 @@
         <v>2</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="45">
@@ -4029,7 +4068,7 @@
         <v>4</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="46">
@@ -4045,7 +4084,7 @@
         <v>8</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="48">
@@ -4053,7 +4092,7 @@
         <v>10</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="49">
@@ -4075,7 +4114,7 @@
         <v>15</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>288</v>
+        <v>422</v>
       </c>
     </row>
     <row r="52">
@@ -4399,7 +4438,7 @@
         <v>15</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>288</v>
+        <v>422</v>
       </c>
     </row>
     <row r="94">
@@ -4431,7 +4470,7 @@
         <v>23</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>423</v>
+        <v>733</v>
       </c>
     </row>
     <row r="98">
@@ -4467,7 +4506,7 @@
         <v>31</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="103">
@@ -4475,7 +4514,7 @@
         <v>33</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="104">
@@ -4507,7 +4546,7 @@
         <v>2</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="108">
@@ -4515,7 +4554,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="109">
@@ -4531,7 +4570,7 @@
         <v>8</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="111">
@@ -4539,7 +4578,7 @@
         <v>10</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="112">
@@ -4561,7 +4600,7 @@
         <v>15</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>288</v>
+        <v>422</v>
       </c>
     </row>
     <row r="115">
@@ -4593,7 +4632,7 @@
         <v>23</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="119">
@@ -4629,7 +4668,7 @@
         <v>31</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="124">
@@ -4637,7 +4676,7 @@
         <v>33</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="125">
@@ -4669,7 +4708,7 @@
         <v>2</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>1056</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="129">
@@ -4677,7 +4716,7 @@
         <v>4</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>1057</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="130">
@@ -4693,7 +4732,7 @@
         <v>8</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>1058</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="132">
@@ -4701,7 +4740,7 @@
         <v>10</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>1059</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="133">
@@ -4723,7 +4762,7 @@
         <v>15</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>288</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136">
@@ -4755,7 +4794,7 @@
         <v>23</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>1060</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="140">
@@ -4791,7 +4830,7 @@
         <v>31</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>1061</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="145">
@@ -4799,7 +4838,7 @@
         <v>33</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>1062</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="146">
@@ -9363,10 +9402,10 @@
         <v>284</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -9392,10 +9431,10 @@
         <v>78</v>
       </c>
       <c r="M44" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -9446,7 +9485,7 @@
         <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>76</v>
@@ -9458,7 +9497,7 @@
         <v>75</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45">
@@ -9466,10 +9505,10 @@
         <v>284</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -9571,10 +9610,10 @@
         <v>284</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -9674,10 +9713,10 @@
         <v>284</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -9779,10 +9818,10 @@
         <v>284</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -9884,10 +9923,10 @@
         <v>284</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -9989,10 +10028,10 @@
         <v>284</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -10094,10 +10133,10 @@
         <v>284</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -10199,10 +10238,10 @@
         <v>284</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -10306,10 +10345,10 @@
         <v>284</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -10335,16 +10374,16 @@
         <v>139</v>
       </c>
       <c r="M53" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="O53" t="s" s="2">
+      <c r="P53" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="P53" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="Q53" t="s" s="2">
         <v>75</v>
@@ -10393,7 +10432,7 @@
         <v>75</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>76</v>
@@ -10413,10 +10452,10 @@
         <v>284</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -10442,13 +10481,13 @@
         <v>159</v>
       </c>
       <c r="M54" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
@@ -10477,37 +10516,37 @@
         <v>155</v>
       </c>
       <c r="Z54" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AA54" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AA54" t="s" s="2">
+      <c r="AB54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>95</v>
@@ -10518,10 +10557,10 @@
         <v>284</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -10547,13 +10586,13 @@
         <v>159</v>
       </c>
       <c r="M55" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
@@ -10582,37 +10621,37 @@
         <v>155</v>
       </c>
       <c r="Z55" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AA55" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AA55" t="s" s="2">
+      <c r="AB55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>95</v>
@@ -10623,10 +10662,10 @@
         <v>284</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -10652,13 +10691,13 @@
         <v>159</v>
       </c>
       <c r="M56" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="N56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
@@ -10684,14 +10723,14 @@
         <v>75</v>
       </c>
       <c r="Y56" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AA56" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="Z56" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>327</v>
-      </c>
       <c r="AB56" t="s" s="2">
         <v>75</v>
       </c>
@@ -10708,7 +10747,7 @@
         <v>75</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>76</v>
@@ -10728,10 +10767,10 @@
         <v>284</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -10757,13 +10796,13 @@
         <v>159</v>
       </c>
       <c r="M57" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
@@ -10792,10 +10831,10 @@
         <v>107</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AB57" t="s" s="2">
         <v>75</v>
@@ -10813,7 +10852,7 @@
         <v>75</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>76</v>
@@ -10833,18 +10872,18 @@
         <v>284</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>83</v>
@@ -10862,14 +10901,14 @@
         <v>159</v>
       </c>
       <c r="M58" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q58" t="s" s="2">
         <v>75</v>
@@ -10897,11 +10936,11 @@
         <v>162</v>
       </c>
       <c r="Z58" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AA58" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AA58" t="s" s="2">
-        <v>339</v>
-      </c>
       <c r="AB58" t="s" s="2">
         <v>75</v>
       </c>
@@ -10918,7 +10957,7 @@
         <v>75</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>76</v>
@@ -10938,10 +10977,10 @@
         <v>284</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -10967,13 +11006,13 @@
         <v>159</v>
       </c>
       <c r="M59" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="N59" t="s" s="2">
+      <c r="O59" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
@@ -11002,11 +11041,11 @@
         <v>162</v>
       </c>
       <c r="Z59" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AA59" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AA59" t="s" s="2">
-        <v>345</v>
-      </c>
       <c r="AB59" t="s" s="2">
         <v>75</v>
       </c>
@@ -11023,7 +11062,7 @@
         <v>75</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>76</v>
@@ -11043,14 +11082,14 @@
         <v>284</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" t="s" s="2">
@@ -11069,17 +11108,17 @@
         <v>84</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q60" t="s" s="2">
         <v>75</v>
@@ -11128,7 +11167,7 @@
         <v>75</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>83</v>
@@ -11148,10 +11187,10 @@
         <v>284</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -11174,16 +11213,16 @@
         <v>84</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
@@ -11233,7 +11272,7 @@
         <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>76</v>
@@ -11253,10 +11292,10 @@
         <v>284</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -11279,16 +11318,16 @@
         <v>84</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
@@ -11338,7 +11377,7 @@
         <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>76</v>
@@ -11358,10 +11397,10 @@
         <v>284</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -11384,16 +11423,16 @@
         <v>75</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M63" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
@@ -11443,7 +11482,7 @@
         <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>76</v>
@@ -11452,7 +11491,7 @@
         <v>83</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>95</v>
@@ -11463,10 +11502,10 @@
         <v>284</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -11492,10 +11531,10 @@
         <v>190</v>
       </c>
       <c r="M64" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N64" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
@@ -11546,7 +11585,7 @@
         <v>75</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>76</v>
@@ -11566,10 +11605,10 @@
         <v>284</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -11592,13 +11631,13 @@
         <v>84</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
@@ -11649,7 +11688,7 @@
         <v>75</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>76</v>
@@ -11669,10 +11708,10 @@
         <v>284</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -11695,13 +11734,13 @@
         <v>84</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M66" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
@@ -11752,7 +11791,7 @@
         <v>75</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>76</v>
@@ -11772,10 +11811,10 @@
         <v>284</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -11801,10 +11840,10 @@
         <v>194</v>
       </c>
       <c r="M67" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
@@ -11855,7 +11894,7 @@
         <v>75</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>76</v>
@@ -11867,7 +11906,7 @@
         <v>75</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="68">
@@ -11875,10 +11914,10 @@
         <v>284</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -11978,10 +12017,10 @@
         <v>284</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -12083,10 +12122,10 @@
         <v>284</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -12190,10 +12229,10 @@
         <v>284</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -12219,10 +12258,10 @@
         <v>159</v>
       </c>
       <c r="M71" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N71" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
@@ -12252,37 +12291,37 @@
         <v>162</v>
       </c>
       <c r="Z71" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AA71" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AA71" t="s" s="2">
+      <c r="AB71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>95</v>
@@ -12293,10 +12332,10 @@
         <v>284</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -12319,13 +12358,13 @@
         <v>75</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -12376,7 +12415,7 @@
         <v>75</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>76</v>
@@ -12385,7 +12424,7 @@
         <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>95</v>
@@ -12396,10 +12435,10 @@
         <v>284</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -12425,10 +12464,10 @@
         <v>159</v>
       </c>
       <c r="M73" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N73" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
@@ -12458,11 +12497,11 @@
         <v>162</v>
       </c>
       <c r="Z73" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AA73" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AA73" t="s" s="2">
-        <v>398</v>
-      </c>
       <c r="AB73" t="s" s="2">
         <v>75</v>
       </c>
@@ -12479,7 +12518,7 @@
         <v>75</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>76</v>
@@ -12499,10 +12538,10 @@
         <v>284</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -12528,13 +12567,13 @@
         <v>194</v>
       </c>
       <c r="M74" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
@@ -12584,7 +12623,7 @@
         <v>75</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>76</v>
@@ -12596,7 +12635,7 @@
         <v>75</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="75">
@@ -12604,10 +12643,10 @@
         <v>284</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -12707,10 +12746,10 @@
         <v>284</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -12812,10 +12851,10 @@
         <v>284</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -12919,10 +12958,10 @@
         <v>284</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -12948,10 +12987,10 @@
         <v>159</v>
       </c>
       <c r="M78" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N78" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
@@ -12981,11 +13020,11 @@
         <v>162</v>
       </c>
       <c r="Z78" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AA78" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AA78" t="s" s="2">
-        <v>411</v>
-      </c>
       <c r="AB78" t="s" s="2">
         <v>75</v>
       </c>
@@ -13002,7 +13041,7 @@
         <v>75</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>76</v>
@@ -13011,7 +13050,7 @@
         <v>77</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>95</v>
@@ -13022,10 +13061,10 @@
         <v>284</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -13051,10 +13090,10 @@
         <v>186</v>
       </c>
       <c r="M79" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N79" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
@@ -13105,7 +13144,7 @@
         <v>75</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>76</v>
@@ -13114,7 +13153,7 @@
         <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>95</v>
@@ -13125,10 +13164,10 @@
         <v>284</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -13154,10 +13193,10 @@
         <v>239</v>
       </c>
       <c r="M80" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="N80" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
@@ -13208,7 +13247,7 @@
         <v>75</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>76</v>
@@ -13225,7 +13264,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>424</v>
@@ -13328,7 +13367,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>429</v>
@@ -13433,7 +13472,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>430</v>
@@ -13536,7 +13575,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>431</v>
@@ -13641,7 +13680,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>432</v>
@@ -13746,7 +13785,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>433</v>
@@ -13851,7 +13890,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>434</v>
@@ -13956,7 +13995,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>435</v>
@@ -14061,7 +14100,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>436</v>
@@ -14168,7 +14207,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>437</v>
@@ -14271,7 +14310,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>440</v>
@@ -14376,7 +14415,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>446</v>
@@ -14481,7 +14520,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>450</v>
@@ -14584,7 +14623,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>451</v>
@@ -14689,7 +14728,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>452</v>
@@ -14796,7 +14835,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>453</v>
@@ -14899,7 +14938,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>454</v>
@@ -15002,7 +15041,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>458</v>
@@ -15064,7 +15103,7 @@
         <v>75</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>462</v>
@@ -15105,7 +15144,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>464</v>
@@ -15208,7 +15247,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>467</v>
@@ -15311,7 +15350,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>468</v>
@@ -15416,7 +15455,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>469</v>
@@ -15523,7 +15562,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>470</v>
@@ -15585,7 +15624,7 @@
         <v>75</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>462</v>
@@ -15626,7 +15665,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>473</v>
@@ -15729,7 +15768,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>476</v>
@@ -15834,7 +15873,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>482</v>
@@ -15937,7 +15976,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>487</v>
@@ -16040,7 +16079,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>491</v>
@@ -16050,7 +16089,7 @@
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" t="s" s="2">
@@ -16069,7 +16108,7 @@
         <v>84</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M108" t="s" s="2">
         <v>492</v>
@@ -16145,7 +16184,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>495</v>
@@ -16248,7 +16287,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>499</v>
@@ -16351,7 +16390,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>504</v>
@@ -16454,7 +16493,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>507</v>
@@ -16557,7 +16596,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>508</v>
@@ -16662,7 +16701,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>509</v>
@@ -16769,7 +16808,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>510</v>
@@ -16833,7 +16872,7 @@
         <v>75</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>512</v>
@@ -16874,7 +16913,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>515</v>
@@ -16977,7 +17016,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>518</v>
@@ -17080,7 +17119,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>522</v>
@@ -17183,7 +17222,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>526</v>
@@ -17288,7 +17327,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>530</v>
@@ -17393,7 +17432,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>535</v>
@@ -17498,7 +17537,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>542</v>
@@ -17603,7 +17642,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>545</v>
@@ -17706,7 +17745,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>548</v>
@@ -17809,7 +17848,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>549</v>
@@ -17914,7 +17953,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>550</v>
@@ -18021,7 +18060,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>551</v>
@@ -18126,7 +18165,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>556</v>
@@ -18229,7 +18268,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>561</v>
@@ -18332,7 +18371,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>565</v>
@@ -18437,7 +18476,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>570</v>
@@ -18542,7 +18581,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>574</v>
@@ -18645,7 +18684,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>575</v>
@@ -18750,7 +18789,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>576</v>
@@ -18857,7 +18896,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>577</v>
@@ -18960,7 +18999,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>580</v>
@@ -19063,7 +19102,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>584</v>
@@ -19166,7 +19205,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>589</v>
@@ -19269,7 +19308,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>594</v>
@@ -19376,7 +19415,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>601</v>
@@ -19479,7 +19518,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>606</v>
@@ -19582,7 +19621,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>611</v>
@@ -19685,7 +19724,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>614</v>
@@ -19788,7 +19827,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>619</v>
@@ -19893,7 +19932,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>623</v>
@@ -19996,7 +20035,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>624</v>
@@ -20101,7 +20140,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>625</v>
@@ -20208,7 +20247,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>626</v>
@@ -20311,7 +20350,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>630</v>
@@ -20416,7 +20455,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>636</v>
@@ -20521,7 +20560,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>642</v>
@@ -20624,7 +20663,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>645</v>
@@ -20727,7 +20766,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>649</v>
@@ -20756,7 +20795,7 @@
         <v>75</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M153" t="s" s="2">
         <v>650</v>
@@ -23761,10 +23800,10 @@
         <v>729</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
@@ -23790,10 +23829,10 @@
         <v>78</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="O182" s="2"/>
       <c r="P182" s="2"/>
@@ -23844,7 +23883,7 @@
         <v>75</v>
       </c>
       <c r="AG182" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AH182" t="s" s="2">
         <v>76</v>
@@ -23856,7 +23895,7 @@
         <v>75</v>
       </c>
       <c r="AK182" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="183">
@@ -23864,10 +23903,10 @@
         <v>729</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -23969,10 +24008,10 @@
         <v>729</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
@@ -24072,10 +24111,10 @@
         <v>729</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
@@ -24177,10 +24216,10 @@
         <v>729</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
@@ -24282,10 +24321,10 @@
         <v>729</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
@@ -24387,10 +24426,10 @@
         <v>729</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
@@ -24492,10 +24531,10 @@
         <v>729</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" t="s" s="2">
@@ -24597,10 +24636,10 @@
         <v>729</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
@@ -24704,10 +24743,10 @@
         <v>729</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -24733,14 +24772,14 @@
         <v>139</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="O191" s="2"/>
       <c r="P191" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="Q191" t="s" s="2">
         <v>75</v>
@@ -24789,7 +24828,7 @@
         <v>75</v>
       </c>
       <c r="AG191" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AH191" t="s" s="2">
         <v>76</v>
@@ -24798,7 +24837,7 @@
         <v>77</v>
       </c>
       <c r="AJ191" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AK191" t="s" s="2">
         <v>95</v>
@@ -24809,10 +24848,10 @@
         <v>729</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" t="s" s="2">
@@ -24838,67 +24877,67 @@
         <v>710</v>
       </c>
       <c r="M192" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="N192" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="O192" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="P192" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="Q192" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R192" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="S192" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T192" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U192" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V192" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W192" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X192" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y192" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z192" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA192" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB192" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC192" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD192" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE192" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF192" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG192" t="s" s="2">
         <v>752</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>753</v>
-      </c>
-      <c r="O192" t="s" s="2">
-        <v>754</v>
-      </c>
-      <c r="P192" t="s" s="2">
-        <v>755</v>
-      </c>
-      <c r="Q192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R192" t="s" s="2">
-        <v>756</v>
-      </c>
-      <c r="S192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF192" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG192" t="s" s="2">
-        <v>751</v>
       </c>
       <c r="AH192" t="s" s="2">
         <v>76</v>
@@ -24918,10 +24957,10 @@
         <v>729</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" t="s" s="2">
@@ -24947,16 +24986,16 @@
         <v>159</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O193" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="P193" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="Q193" t="s" s="2">
         <v>75</v>
@@ -24984,10 +25023,10 @@
         <v>162</v>
       </c>
       <c r="Z193" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AA193" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AB193" t="s" s="2">
         <v>75</v>
@@ -25005,7 +25044,7 @@
         <v>75</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AH193" t="s" s="2">
         <v>76</v>
@@ -25025,10 +25064,10 @@
         <v>729</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" t="s" s="2">
@@ -25054,16 +25093,16 @@
         <v>198</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="O194" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="P194" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="Q194" t="s" s="2">
         <v>75</v>
@@ -25112,7 +25151,7 @@
         <v>75</v>
       </c>
       <c r="AG194" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AH194" t="s" s="2">
         <v>76</v>
@@ -25121,7 +25160,7 @@
         <v>83</v>
       </c>
       <c r="AJ194" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AK194" t="s" s="2">
         <v>95</v>
@@ -25132,10 +25171,10 @@
         <v>729</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" t="s" s="2">
@@ -25161,16 +25200,16 @@
         <v>198</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="O195" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="P195" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="Q195" t="s" s="2">
         <v>75</v>
@@ -25219,7 +25258,7 @@
         <v>75</v>
       </c>
       <c r="AG195" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AH195" t="s" s="2">
         <v>76</v>
@@ -25239,10 +25278,10 @@
         <v>729</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" t="s" s="2">
@@ -25265,19 +25304,19 @@
         <v>75</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="O196" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="P196" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="Q196" t="s" s="2">
         <v>75</v>
@@ -25326,7 +25365,7 @@
         <v>75</v>
       </c>
       <c r="AG196" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="AH196" t="s" s="2">
         <v>76</v>
@@ -25335,10 +25374,10 @@
         <v>77</v>
       </c>
       <c r="AJ196" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AK196" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="197">
@@ -25346,10 +25385,10 @@
         <v>729</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
@@ -25372,19 +25411,19 @@
         <v>75</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="O197" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="P197" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="Q197" t="s" s="2">
         <v>75</v>
@@ -25433,7 +25472,7 @@
         <v>75</v>
       </c>
       <c r="AG197" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="AH197" t="s" s="2">
         <v>76</v>
@@ -25442,10 +25481,10 @@
         <v>77</v>
       </c>
       <c r="AJ197" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="AK197" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="198">
@@ -25453,10 +25492,10 @@
         <v>729</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" t="s" s="2">
@@ -25482,14 +25521,14 @@
         <v>646</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="O198" s="2"/>
       <c r="P198" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="Q198" t="s" s="2">
         <v>75</v>
@@ -25538,7 +25577,7 @@
         <v>75</v>
       </c>
       <c r="AG198" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="AH198" t="s" s="2">
         <v>76</v>
@@ -25558,10 +25597,10 @@
         <v>729</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" t="s" s="2">
@@ -25587,16 +25626,16 @@
         <v>194</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="O199" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="P199" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="Q199" t="s" s="2">
         <v>75</v>
@@ -25645,7 +25684,7 @@
         <v>75</v>
       </c>
       <c r="AG199" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="AH199" t="s" s="2">
         <v>76</v>
@@ -25665,10 +25704,10 @@
         <v>729</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" t="s" s="2">
@@ -25768,10 +25807,10 @@
         <v>729</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" t="s" s="2">
@@ -25873,10 +25912,10 @@
         <v>729</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" t="s" s="2">
@@ -25980,10 +26019,10 @@
         <v>729</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
@@ -26009,14 +26048,14 @@
         <v>159</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="O203" s="2"/>
       <c r="P203" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="Q203" t="s" s="2">
         <v>75</v>
@@ -26041,13 +26080,13 @@
         <v>75</v>
       </c>
       <c r="Y203" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Z203" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="AA203" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="AB203" t="s" s="2">
         <v>75</v>
@@ -26065,7 +26104,7 @@
         <v>75</v>
       </c>
       <c r="AG203" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AH203" t="s" s="2">
         <v>76</v>
@@ -26085,10 +26124,10 @@
         <v>729</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" t="s" s="2">
@@ -26111,17 +26150,17 @@
         <v>75</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="O204" s="2"/>
       <c r="P204" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="Q204" t="s" s="2">
         <v>75</v>
@@ -26170,7 +26209,7 @@
         <v>75</v>
       </c>
       <c r="AG204" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="AH204" t="s" s="2">
         <v>76</v>
@@ -26190,10 +26229,10 @@
         <v>729</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
@@ -26216,17 +26255,17 @@
         <v>75</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="O205" s="2"/>
       <c r="P205" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="Q205" t="s" s="2">
         <v>75</v>
@@ -26275,7 +26314,7 @@
         <v>75</v>
       </c>
       <c r="AG205" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="AH205" t="s" s="2">
         <v>76</v>
@@ -26295,10 +26334,10 @@
         <v>729</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
@@ -26321,17 +26360,17 @@
         <v>75</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="O206" s="2"/>
       <c r="P206" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="Q206" t="s" s="2">
         <v>75</v>
@@ -26380,7 +26419,7 @@
         <v>75</v>
       </c>
       <c r="AG206" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="AH206" t="s" s="2">
         <v>76</v>
@@ -26400,10 +26439,10 @@
         <v>729</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
@@ -26426,17 +26465,17 @@
         <v>75</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="O207" s="2"/>
       <c r="P207" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="Q207" t="s" s="2">
         <v>75</v>
@@ -26485,7 +26524,7 @@
         <v>75</v>
       </c>
       <c r="AG207" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AH207" t="s" s="2">
         <v>76</v>
@@ -26502,17 +26541,17 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="F208" s="2"/>
       <c r="G208" t="s" s="2">
@@ -26534,10 +26573,10 @@
         <v>78</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="O208" s="2"/>
       <c r="P208" s="2"/>
@@ -26588,7 +26627,7 @@
         <v>75</v>
       </c>
       <c r="AG208" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AH208" t="s" s="2">
         <v>76</v>
@@ -26605,13 +26644,13 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
@@ -26710,13 +26749,13 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
@@ -26813,13 +26852,13 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
@@ -26918,13 +26957,13 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" t="s" s="2">
@@ -27023,13 +27062,13 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" t="s" s="2">
@@ -27128,13 +27167,13 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" t="s" s="2">
@@ -27233,13 +27272,13 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" t="s" s="2">
@@ -27338,13 +27377,13 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" t="s" s="2">
@@ -27445,13 +27484,13 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" t="s" s="2">
@@ -27477,14 +27516,14 @@
         <v>139</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="O217" s="2"/>
       <c r="P217" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="Q217" t="s" s="2">
         <v>75</v>
@@ -27521,17 +27560,17 @@
         <v>75</v>
       </c>
       <c r="AC217" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="AD217" s="2"/>
       <c r="AE217" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="AG217" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="AH217" t="s" s="2">
         <v>76</v>
@@ -27548,15 +27587,17 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>850</v>
-      </c>
-      <c r="D218" s="2"/>
+        <v>845</v>
+      </c>
+      <c r="D218" t="s" s="2">
+        <v>852</v>
+      </c>
       <c r="E218" t="s" s="2">
         <v>75</v>
       </c>
@@ -27574,19 +27615,21 @@
         <v>75</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>198</v>
+        <v>139</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>199</v>
+        <v>853</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>200</v>
+        <v>854</v>
       </c>
       <c r="O218" s="2"/>
-      <c r="P218" s="2"/>
+      <c r="P218" t="s" s="2">
+        <v>848</v>
+      </c>
       <c r="Q218" t="s" s="2">
         <v>75</v>
       </c>
@@ -27634,41 +27677,41 @@
         <v>75</v>
       </c>
       <c r="AG218" t="s" s="2">
-        <v>201</v>
+        <v>845</v>
       </c>
       <c r="AH218" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI218" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ218" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK218" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="F219" s="2"/>
       <c r="G219" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H219" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I219" t="s" s="2">
         <v>75</v>
@@ -27680,17 +27723,15 @@
         <v>75</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>127</v>
+        <v>198</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>128</v>
+        <v>199</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O219" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="O219" s="2"/>
       <c r="P219" s="2"/>
       <c r="Q219" t="s" s="2">
         <v>75</v>
@@ -27727,78 +27768,76 @@
         <v>75</v>
       </c>
       <c r="AC219" t="s" s="2">
-        <v>852</v>
+        <v>75</v>
       </c>
       <c r="AD219" t="s" s="2">
-        <v>853</v>
+        <v>75</v>
       </c>
       <c r="AE219" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>854</v>
+        <v>75</v>
       </c>
       <c r="AG219" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AH219" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI219" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ219" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK219" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="F220" s="2"/>
       <c r="G220" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H220" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I220" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J220" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>856</v>
+        <v>128</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>857</v>
+        <v>203</v>
       </c>
       <c r="O220" t="s" s="2">
-        <v>858</v>
-      </c>
-      <c r="P220" t="s" s="2">
-        <v>859</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="P220" s="2"/>
       <c r="Q220" t="s" s="2">
         <v>75</v>
       </c>
@@ -27822,51 +27861,51 @@
         <v>75</v>
       </c>
       <c r="Y220" t="s" s="2">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="Z220" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA220" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB220" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC220" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="AD220" t="s" s="2">
         <v>860</v>
       </c>
-      <c r="AA220" t="s" s="2">
+      <c r="AE220" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF220" t="s" s="2">
         <v>861</v>
       </c>
-      <c r="AB220" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC220" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD220" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE220" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF220" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AG220" t="s" s="2">
-        <v>862</v>
+        <v>204</v>
       </c>
       <c r="AH220" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI220" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ220" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK220" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C221" t="s" s="2">
         <v>863</v>
@@ -27886,13 +27925,13 @@
         <v>75</v>
       </c>
       <c r="J221" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K221" t="s" s="2">
         <v>84</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="M221" t="s" s="2">
         <v>864</v>
@@ -27929,7 +27968,7 @@
         <v>75</v>
       </c>
       <c r="Y221" t="s" s="2">
-        <v>326</v>
+        <v>155</v>
       </c>
       <c r="Z221" t="s" s="2">
         <v>868</v>
@@ -27970,13 +28009,13 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>871</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" t="s" s="2">
@@ -27999,19 +28038,19 @@
         <v>84</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="O222" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="P222" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="Q222" t="s" s="2">
         <v>75</v>
@@ -28024,7 +28063,7 @@
         <v>75</v>
       </c>
       <c r="U222" t="s" s="2">
-        <v>876</v>
+        <v>75</v>
       </c>
       <c r="V222" t="s" s="2">
         <v>75</v>
@@ -28036,13 +28075,13 @@
         <v>75</v>
       </c>
       <c r="Y222" t="s" s="2">
-        <v>75</v>
+        <v>325</v>
       </c>
       <c r="Z222" t="s" s="2">
-        <v>75</v>
+        <v>877</v>
       </c>
       <c r="AA222" t="s" s="2">
-        <v>75</v>
+        <v>878</v>
       </c>
       <c r="AB222" t="s" s="2">
         <v>75</v>
@@ -28060,7 +28099,7 @@
         <v>75</v>
       </c>
       <c r="AG222" t="s" s="2">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="AH222" t="s" s="2">
         <v>76</v>
@@ -28077,13 +28116,13 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" t="s" s="2">
@@ -28091,7 +28130,7 @@
       </c>
       <c r="F223" s="2"/>
       <c r="G223" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H223" t="s" s="2">
         <v>83</v>
@@ -28106,18 +28145,20 @@
         <v>84</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>198</v>
+        <v>97</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="O223" t="s" s="2">
-        <v>881</v>
-      </c>
-      <c r="P223" s="2"/>
+        <v>884</v>
+      </c>
+      <c r="P223" t="s" s="2">
+        <v>885</v>
+      </c>
       <c r="Q223" t="s" s="2">
         <v>75</v>
       </c>
@@ -28126,10 +28167,10 @@
         <v>75</v>
       </c>
       <c r="T223" t="s" s="2">
-        <v>75</v>
+        <v>886</v>
       </c>
       <c r="U223" t="s" s="2">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="V223" t="s" s="2">
         <v>75</v>
@@ -28165,7 +28206,7 @@
         <v>75</v>
       </c>
       <c r="AG223" t="s" s="2">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="AH223" t="s" s="2">
         <v>76</v>
@@ -28182,13 +28223,13 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" t="s" s="2">
@@ -28196,7 +28237,7 @@
       </c>
       <c r="F224" s="2"/>
       <c r="G224" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H224" t="s" s="2">
         <v>83</v>
@@ -28211,15 +28252,17 @@
         <v>84</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>455</v>
+        <v>198</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>886</v>
-      </c>
-      <c r="O224" s="2"/>
+        <v>892</v>
+      </c>
+      <c r="O224" t="s" s="2">
+        <v>893</v>
+      </c>
       <c r="P224" s="2"/>
       <c r="Q224" t="s" s="2">
         <v>75</v>
@@ -28232,7 +28275,7 @@
         <v>75</v>
       </c>
       <c r="U224" t="s" s="2">
-        <v>75</v>
+        <v>894</v>
       </c>
       <c r="V224" t="s" s="2">
         <v>75</v>
@@ -28268,7 +28311,7 @@
         <v>75</v>
       </c>
       <c r="AG224" t="s" s="2">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="AH224" t="s" s="2">
         <v>76</v>
@@ -28285,13 +28328,13 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>888</v>
+        <v>896</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>888</v>
+        <v>897</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" t="s" s="2">
@@ -28314,17 +28357,15 @@
         <v>84</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>646</v>
+        <v>455</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>889</v>
+        <v>898</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>890</v>
-      </c>
-      <c r="O225" t="s" s="2">
-        <v>891</v>
-      </c>
+        <v>899</v>
+      </c>
+      <c r="O225" s="2"/>
       <c r="P225" s="2"/>
       <c r="Q225" t="s" s="2">
         <v>75</v>
@@ -28373,7 +28414,7 @@
         <v>75</v>
       </c>
       <c r="AG225" t="s" s="2">
-        <v>892</v>
+        <v>900</v>
       </c>
       <c r="AH225" t="s" s="2">
         <v>76</v>
@@ -28390,17 +28431,15 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>893</v>
+        <v>901</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>844</v>
-      </c>
-      <c r="D226" t="s" s="2">
-        <v>894</v>
-      </c>
+        <v>902</v>
+      </c>
+      <c r="D226" s="2"/>
       <c r="E226" t="s" s="2">
         <v>75</v>
       </c>
@@ -28421,18 +28460,18 @@
         <v>84</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>139</v>
+        <v>646</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>845</v>
+        <v>903</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>846</v>
-      </c>
-      <c r="O226" s="2"/>
-      <c r="P226" t="s" s="2">
-        <v>847</v>
-      </c>
+        <v>904</v>
+      </c>
+      <c r="O226" t="s" s="2">
+        <v>905</v>
+      </c>
+      <c r="P226" s="2"/>
       <c r="Q226" t="s" s="2">
         <v>75</v>
       </c>
@@ -28480,13 +28519,13 @@
         <v>75</v>
       </c>
       <c r="AG226" t="s" s="2">
-        <v>844</v>
+        <v>906</v>
       </c>
       <c r="AH226" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI226" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ226" t="s" s="2">
         <v>75</v>
@@ -28497,15 +28536,17 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>895</v>
+        <v>907</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>850</v>
-      </c>
-      <c r="D227" s="2"/>
+        <v>845</v>
+      </c>
+      <c r="D227" t="s" s="2">
+        <v>908</v>
+      </c>
       <c r="E227" t="s" s="2">
         <v>75</v>
       </c>
@@ -28523,19 +28564,21 @@
         <v>75</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>198</v>
+        <v>139</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>199</v>
+        <v>853</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>200</v>
+        <v>854</v>
       </c>
       <c r="O227" s="2"/>
-      <c r="P227" s="2"/>
+      <c r="P227" t="s" s="2">
+        <v>848</v>
+      </c>
       <c r="Q227" t="s" s="2">
         <v>75</v>
       </c>
@@ -28583,41 +28626,41 @@
         <v>75</v>
       </c>
       <c r="AG227" t="s" s="2">
-        <v>201</v>
+        <v>845</v>
       </c>
       <c r="AH227" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI227" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ227" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK227" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>896</v>
+        <v>909</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" t="s" s="2">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="F228" s="2"/>
       <c r="G228" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H228" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I228" t="s" s="2">
         <v>75</v>
@@ -28629,17 +28672,15 @@
         <v>75</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>127</v>
+        <v>198</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>128</v>
+        <v>199</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O228" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="O228" s="2"/>
       <c r="P228" s="2"/>
       <c r="Q228" t="s" s="2">
         <v>75</v>
@@ -28676,78 +28717,76 @@
         <v>75</v>
       </c>
       <c r="AC228" t="s" s="2">
-        <v>852</v>
+        <v>75</v>
       </c>
       <c r="AD228" t="s" s="2">
-        <v>853</v>
+        <v>75</v>
       </c>
       <c r="AE228" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>854</v>
+        <v>75</v>
       </c>
       <c r="AG228" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AH228" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI228" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ228" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK228" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>897</v>
+        <v>910</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" t="s" s="2">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="F229" s="2"/>
       <c r="G229" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H229" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I229" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J229" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>856</v>
+        <v>128</v>
       </c>
       <c r="N229" t="s" s="2">
-        <v>857</v>
+        <v>203</v>
       </c>
       <c r="O229" t="s" s="2">
-        <v>858</v>
-      </c>
-      <c r="P229" t="s" s="2">
-        <v>859</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="P229" s="2"/>
       <c r="Q229" t="s" s="2">
         <v>75</v>
       </c>
@@ -28771,51 +28810,51 @@
         <v>75</v>
       </c>
       <c r="Y229" t="s" s="2">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="Z229" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA229" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB229" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC229" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="AD229" t="s" s="2">
         <v>860</v>
       </c>
-      <c r="AA229" t="s" s="2">
+      <c r="AE229" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF229" t="s" s="2">
         <v>861</v>
       </c>
-      <c r="AB229" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC229" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD229" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE229" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF229" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AG229" t="s" s="2">
-        <v>862</v>
+        <v>204</v>
       </c>
       <c r="AH229" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI229" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ229" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK229" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>898</v>
+        <v>911</v>
       </c>
       <c r="C230" t="s" s="2">
         <v>863</v>
@@ -28835,13 +28874,13 @@
         <v>75</v>
       </c>
       <c r="J230" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K230" t="s" s="2">
         <v>84</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="M230" t="s" s="2">
         <v>864</v>
@@ -28878,7 +28917,7 @@
         <v>75</v>
       </c>
       <c r="Y230" t="s" s="2">
-        <v>326</v>
+        <v>155</v>
       </c>
       <c r="Z230" t="s" s="2">
         <v>868</v>
@@ -28919,13 +28958,13 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>899</v>
+        <v>912</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" t="s" s="2">
@@ -28948,19 +28987,19 @@
         <v>84</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="O231" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="P231" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="Q231" t="s" s="2">
         <v>75</v>
@@ -28970,10 +29009,10 @@
         <v>75</v>
       </c>
       <c r="T231" t="s" s="2">
-        <v>900</v>
+        <v>75</v>
       </c>
       <c r="U231" t="s" s="2">
-        <v>876</v>
+        <v>75</v>
       </c>
       <c r="V231" t="s" s="2">
         <v>75</v>
@@ -28985,13 +29024,13 @@
         <v>75</v>
       </c>
       <c r="Y231" t="s" s="2">
-        <v>75</v>
+        <v>325</v>
       </c>
       <c r="Z231" t="s" s="2">
-        <v>75</v>
+        <v>877</v>
       </c>
       <c r="AA231" t="s" s="2">
-        <v>75</v>
+        <v>878</v>
       </c>
       <c r="AB231" t="s" s="2">
         <v>75</v>
@@ -29009,7 +29048,7 @@
         <v>75</v>
       </c>
       <c r="AG231" t="s" s="2">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="AH231" t="s" s="2">
         <v>76</v>
@@ -29026,13 +29065,13 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>901</v>
+        <v>913</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" t="s" s="2">
@@ -29040,7 +29079,7 @@
       </c>
       <c r="F232" s="2"/>
       <c r="G232" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H232" t="s" s="2">
         <v>83</v>
@@ -29055,18 +29094,20 @@
         <v>84</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>198</v>
+        <v>97</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>879</v>
+        <v>914</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="O232" t="s" s="2">
-        <v>881</v>
-      </c>
-      <c r="P232" s="2"/>
+        <v>884</v>
+      </c>
+      <c r="P232" t="s" s="2">
+        <v>885</v>
+      </c>
       <c r="Q232" t="s" s="2">
         <v>75</v>
       </c>
@@ -29075,10 +29116,10 @@
         <v>75</v>
       </c>
       <c r="T232" t="s" s="2">
-        <v>75</v>
+        <v>915</v>
       </c>
       <c r="U232" t="s" s="2">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="V232" t="s" s="2">
         <v>75</v>
@@ -29114,7 +29155,7 @@
         <v>75</v>
       </c>
       <c r="AG232" t="s" s="2">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="AH232" t="s" s="2">
         <v>76</v>
@@ -29131,13 +29172,13 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>902</v>
+        <v>916</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" t="s" s="2">
@@ -29145,7 +29186,7 @@
       </c>
       <c r="F233" s="2"/>
       <c r="G233" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H233" t="s" s="2">
         <v>83</v>
@@ -29160,15 +29201,17 @@
         <v>84</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>455</v>
+        <v>198</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>886</v>
-      </c>
-      <c r="O233" s="2"/>
+        <v>892</v>
+      </c>
+      <c r="O233" t="s" s="2">
+        <v>893</v>
+      </c>
       <c r="P233" s="2"/>
       <c r="Q233" t="s" s="2">
         <v>75</v>
@@ -29181,7 +29224,7 @@
         <v>75</v>
       </c>
       <c r="U233" t="s" s="2">
-        <v>75</v>
+        <v>894</v>
       </c>
       <c r="V233" t="s" s="2">
         <v>75</v>
@@ -29217,7 +29260,7 @@
         <v>75</v>
       </c>
       <c r="AG233" t="s" s="2">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="AH233" t="s" s="2">
         <v>76</v>
@@ -29234,13 +29277,13 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>903</v>
+        <v>917</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>888</v>
+        <v>897</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" t="s" s="2">
@@ -29263,17 +29306,15 @@
         <v>84</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>646</v>
+        <v>455</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>889</v>
+        <v>898</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>890</v>
-      </c>
-      <c r="O234" t="s" s="2">
-        <v>891</v>
-      </c>
+        <v>899</v>
+      </c>
+      <c r="O234" s="2"/>
       <c r="P234" s="2"/>
       <c r="Q234" t="s" s="2">
         <v>75</v>
@@ -29322,7 +29363,7 @@
         <v>75</v>
       </c>
       <c r="AG234" t="s" s="2">
-        <v>892</v>
+        <v>900</v>
       </c>
       <c r="AH234" t="s" s="2">
         <v>76</v>
@@ -29339,17 +29380,15 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>904</v>
+        <v>918</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>844</v>
-      </c>
-      <c r="D235" t="s" s="2">
-        <v>905</v>
-      </c>
+        <v>902</v>
+      </c>
+      <c r="D235" s="2"/>
       <c r="E235" t="s" s="2">
         <v>75</v>
       </c>
@@ -29370,18 +29409,18 @@
         <v>84</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>139</v>
+        <v>646</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>845</v>
+        <v>903</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>846</v>
-      </c>
-      <c r="O235" s="2"/>
-      <c r="P235" t="s" s="2">
-        <v>847</v>
-      </c>
+        <v>904</v>
+      </c>
+      <c r="O235" t="s" s="2">
+        <v>905</v>
+      </c>
+      <c r="P235" s="2"/>
       <c r="Q235" t="s" s="2">
         <v>75</v>
       </c>
@@ -29429,13 +29468,13 @@
         <v>75</v>
       </c>
       <c r="AG235" t="s" s="2">
-        <v>844</v>
+        <v>906</v>
       </c>
       <c r="AH235" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI235" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ235" t="s" s="2">
         <v>75</v>
@@ -29446,13 +29485,13 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>906</v>
+        <v>919</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>850</v>
+        <v>919</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" t="s" s="2">
@@ -29469,26 +29508,32 @@
         <v>75</v>
       </c>
       <c r="J236" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>198</v>
+        <v>710</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>199</v>
+        <v>920</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O236" s="2"/>
-      <c r="P236" s="2"/>
+        <v>921</v>
+      </c>
+      <c r="O236" t="s" s="2">
+        <v>922</v>
+      </c>
+      <c r="P236" t="s" s="2">
+        <v>923</v>
+      </c>
       <c r="Q236" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="R236" s="2"/>
+      <c r="R236" t="s" s="2">
+        <v>757</v>
+      </c>
       <c r="S236" t="s" s="2">
         <v>75</v>
       </c>
@@ -29532,7 +29577,7 @@
         <v>75</v>
       </c>
       <c r="AG236" t="s" s="2">
-        <v>201</v>
+        <v>919</v>
       </c>
       <c r="AH236" t="s" s="2">
         <v>76</v>
@@ -29544,22 +29589,22 @@
         <v>75</v>
       </c>
       <c r="AK236" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>907</v>
+        <v>924</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>851</v>
+        <v>924</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" t="s" s="2">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="F237" s="2"/>
       <c r="G237" t="s" s="2">
@@ -29575,21 +29620,23 @@
         <v>75</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>127</v>
+        <v>810</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>128</v>
+        <v>925</v>
       </c>
       <c r="N237" t="s" s="2">
-        <v>203</v>
+        <v>926</v>
       </c>
       <c r="O237" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="P237" s="2"/>
+        <v>927</v>
+      </c>
+      <c r="P237" t="s" s="2">
+        <v>928</v>
+      </c>
       <c r="Q237" t="s" s="2">
         <v>75</v>
       </c>
@@ -29625,19 +29672,19 @@
         <v>75</v>
       </c>
       <c r="AC237" t="s" s="2">
-        <v>852</v>
+        <v>75</v>
       </c>
       <c r="AD237" t="s" s="2">
-        <v>853</v>
+        <v>75</v>
       </c>
       <c r="AE237" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF237" t="s" s="2">
-        <v>854</v>
+        <v>75</v>
       </c>
       <c r="AG237" t="s" s="2">
-        <v>204</v>
+        <v>924</v>
       </c>
       <c r="AH237" t="s" s="2">
         <v>76</v>
@@ -29649,18 +29696,18 @@
         <v>75</v>
       </c>
       <c r="AK237" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>908</v>
+        <v>929</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>855</v>
+        <v>929</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" t="s" s="2">
@@ -29671,31 +29718,31 @@
         <v>76</v>
       </c>
       <c r="H238" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I238" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J238" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K238" t="s" s="2">
         <v>84</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>103</v>
+        <v>776</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>856</v>
+        <v>930</v>
       </c>
       <c r="N238" t="s" s="2">
-        <v>857</v>
+        <v>931</v>
       </c>
       <c r="O238" t="s" s="2">
-        <v>858</v>
+        <v>932</v>
       </c>
       <c r="P238" t="s" s="2">
-        <v>859</v>
+        <v>817</v>
       </c>
       <c r="Q238" t="s" s="2">
         <v>75</v>
@@ -29720,13 +29767,13 @@
         <v>75</v>
       </c>
       <c r="Y238" t="s" s="2">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="Z238" t="s" s="2">
-        <v>860</v>
+        <v>75</v>
       </c>
       <c r="AA238" t="s" s="2">
-        <v>861</v>
+        <v>75</v>
       </c>
       <c r="AB238" t="s" s="2">
         <v>75</v>
@@ -29744,13 +29791,13 @@
         <v>75</v>
       </c>
       <c r="AG238" t="s" s="2">
-        <v>862</v>
+        <v>929</v>
       </c>
       <c r="AH238" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI238" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ238" t="s" s="2">
         <v>75</v>
@@ -29761,13 +29808,13 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>909</v>
+        <v>933</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>863</v>
+        <v>933</v>
       </c>
       <c r="D239" s="2"/>
       <c r="E239" t="s" s="2">
@@ -29781,7 +29828,7 @@
         <v>83</v>
       </c>
       <c r="I239" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J239" t="s" s="2">
         <v>75</v>
@@ -29790,19 +29837,19 @@
         <v>84</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>864</v>
+        <v>934</v>
       </c>
       <c r="N239" t="s" s="2">
-        <v>865</v>
+        <v>935</v>
       </c>
       <c r="O239" t="s" s="2">
-        <v>866</v>
+        <v>936</v>
       </c>
       <c r="P239" t="s" s="2">
-        <v>867</v>
+        <v>937</v>
       </c>
       <c r="Q239" t="s" s="2">
         <v>75</v>
@@ -29827,13 +29874,13 @@
         <v>75</v>
       </c>
       <c r="Y239" t="s" s="2">
-        <v>326</v>
+        <v>155</v>
       </c>
       <c r="Z239" t="s" s="2">
-        <v>868</v>
+        <v>938</v>
       </c>
       <c r="AA239" t="s" s="2">
-        <v>869</v>
+        <v>939</v>
       </c>
       <c r="AB239" t="s" s="2">
         <v>75</v>
@@ -29851,7 +29898,7 @@
         <v>75</v>
       </c>
       <c r="AG239" t="s" s="2">
-        <v>870</v>
+        <v>933</v>
       </c>
       <c r="AH239" t="s" s="2">
         <v>76</v>
@@ -29868,13 +29915,13 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>910</v>
+        <v>940</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>871</v>
+        <v>940</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" t="s" s="2">
@@ -29888,7 +29935,7 @@
         <v>83</v>
       </c>
       <c r="I240" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J240" t="s" s="2">
         <v>75</v>
@@ -29897,19 +29944,19 @@
         <v>84</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>97</v>
+        <v>941</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>872</v>
+        <v>942</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>873</v>
+        <v>943</v>
       </c>
       <c r="O240" t="s" s="2">
-        <v>874</v>
+        <v>944</v>
       </c>
       <c r="P240" t="s" s="2">
-        <v>875</v>
+        <v>945</v>
       </c>
       <c r="Q240" t="s" s="2">
         <v>75</v>
@@ -29919,10 +29966,10 @@
         <v>75</v>
       </c>
       <c r="T240" t="s" s="2">
-        <v>911</v>
+        <v>75</v>
       </c>
       <c r="U240" t="s" s="2">
-        <v>876</v>
+        <v>75</v>
       </c>
       <c r="V240" t="s" s="2">
         <v>75</v>
@@ -29958,7 +30005,7 @@
         <v>75</v>
       </c>
       <c r="AG240" t="s" s="2">
-        <v>877</v>
+        <v>940</v>
       </c>
       <c r="AH240" t="s" s="2">
         <v>76</v>
@@ -29975,13 +30022,13 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>912</v>
+        <v>946</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>878</v>
+        <v>946</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" t="s" s="2">
@@ -29989,7 +30036,7 @@
       </c>
       <c r="F241" s="2"/>
       <c r="G241" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H241" t="s" s="2">
         <v>83</v>
@@ -29998,24 +30045,26 @@
         <v>75</v>
       </c>
       <c r="J241" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K241" t="s" s="2">
         <v>84</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>198</v>
+        <v>947</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>879</v>
+        <v>948</v>
       </c>
       <c r="N241" t="s" s="2">
-        <v>880</v>
+        <v>949</v>
       </c>
       <c r="O241" t="s" s="2">
-        <v>881</v>
-      </c>
-      <c r="P241" s="2"/>
+        <v>950</v>
+      </c>
+      <c r="P241" t="s" s="2">
+        <v>951</v>
+      </c>
       <c r="Q241" t="s" s="2">
         <v>75</v>
       </c>
@@ -30027,7 +30076,7 @@
         <v>75</v>
       </c>
       <c r="U241" t="s" s="2">
-        <v>882</v>
+        <v>75</v>
       </c>
       <c r="V241" t="s" s="2">
         <v>75</v>
@@ -30063,7 +30112,7 @@
         <v>75</v>
       </c>
       <c r="AG241" t="s" s="2">
-        <v>883</v>
+        <v>946</v>
       </c>
       <c r="AH241" t="s" s="2">
         <v>76</v>
@@ -30080,13 +30129,13 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>913</v>
+        <v>952</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>884</v>
+        <v>952</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" t="s" s="2">
@@ -30097,7 +30146,7 @@
         <v>76</v>
       </c>
       <c r="H242" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I242" t="s" s="2">
         <v>75</v>
@@ -30109,16 +30158,20 @@
         <v>84</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>455</v>
+        <v>784</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>885</v>
+        <v>953</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>886</v>
-      </c>
-      <c r="O242" s="2"/>
-      <c r="P242" s="2"/>
+        <v>954</v>
+      </c>
+      <c r="O242" t="s" s="2">
+        <v>955</v>
+      </c>
+      <c r="P242" t="s" s="2">
+        <v>956</v>
+      </c>
       <c r="Q242" t="s" s="2">
         <v>75</v>
       </c>
@@ -30166,13 +30219,13 @@
         <v>75</v>
       </c>
       <c r="AG242" t="s" s="2">
-        <v>887</v>
+        <v>952</v>
       </c>
       <c r="AH242" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI242" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ242" t="s" s="2">
         <v>75</v>
@@ -30183,13 +30236,13 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>914</v>
+        <v>957</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>888</v>
+        <v>957</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" t="s" s="2">
@@ -30209,21 +30262,21 @@
         <v>75</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>646</v>
+        <v>159</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>889</v>
+        <v>958</v>
       </c>
       <c r="N243" t="s" s="2">
-        <v>890</v>
-      </c>
-      <c r="O243" t="s" s="2">
-        <v>891</v>
-      </c>
-      <c r="P243" s="2"/>
+        <v>959</v>
+      </c>
+      <c r="O243" s="2"/>
+      <c r="P243" t="s" s="2">
+        <v>960</v>
+      </c>
       <c r="Q243" t="s" s="2">
         <v>75</v>
       </c>
@@ -30247,13 +30300,13 @@
         <v>75</v>
       </c>
       <c r="Y243" t="s" s="2">
-        <v>75</v>
+        <v>325</v>
       </c>
       <c r="Z243" t="s" s="2">
-        <v>75</v>
+        <v>961</v>
       </c>
       <c r="AA243" t="s" s="2">
-        <v>75</v>
+        <v>962</v>
       </c>
       <c r="AB243" t="s" s="2">
         <v>75</v>
@@ -30271,7 +30324,7 @@
         <v>75</v>
       </c>
       <c r="AG243" t="s" s="2">
-        <v>892</v>
+        <v>957</v>
       </c>
       <c r="AH243" t="s" s="2">
         <v>76</v>
@@ -30288,13 +30341,13 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>915</v>
+        <v>963</v>
       </c>
       <c r="C244" t="s" s="2">
-        <v>915</v>
+        <v>963</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" t="s" s="2">
@@ -30311,32 +30364,30 @@
         <v>75</v>
       </c>
       <c r="J244" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>710</v>
+        <v>964</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>916</v>
+        <v>965</v>
       </c>
       <c r="N244" t="s" s="2">
-        <v>917</v>
+        <v>966</v>
       </c>
       <c r="O244" t="s" s="2">
-        <v>918</v>
+        <v>967</v>
       </c>
       <c r="P244" t="s" s="2">
-        <v>919</v>
+        <v>968</v>
       </c>
       <c r="Q244" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="R244" t="s" s="2">
-        <v>756</v>
-      </c>
+      <c r="R244" s="2"/>
       <c r="S244" t="s" s="2">
         <v>75</v>
       </c>
@@ -30380,7 +30431,7 @@
         <v>75</v>
       </c>
       <c r="AG244" t="s" s="2">
-        <v>915</v>
+        <v>963</v>
       </c>
       <c r="AH244" t="s" s="2">
         <v>76</v>
@@ -30397,13 +30448,13 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>920</v>
+        <v>969</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>920</v>
+        <v>969</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" t="s" s="2">
@@ -30423,22 +30474,22 @@
         <v>75</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>809</v>
+        <v>970</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>921</v>
+        <v>971</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>922</v>
+        <v>972</v>
       </c>
       <c r="O245" t="s" s="2">
-        <v>923</v>
+        <v>973</v>
       </c>
       <c r="P245" t="s" s="2">
-        <v>924</v>
+        <v>974</v>
       </c>
       <c r="Q245" t="s" s="2">
         <v>75</v>
@@ -30487,7 +30538,7 @@
         <v>75</v>
       </c>
       <c r="AG245" t="s" s="2">
-        <v>920</v>
+        <v>969</v>
       </c>
       <c r="AH245" t="s" s="2">
         <v>76</v>
@@ -30504,13 +30555,13 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>925</v>
+        <v>975</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>925</v>
+        <v>975</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" t="s" s="2">
@@ -30530,22 +30581,22 @@
         <v>75</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>775</v>
+        <v>194</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>926</v>
+        <v>976</v>
       </c>
       <c r="N246" t="s" s="2">
-        <v>927</v>
+        <v>977</v>
       </c>
       <c r="O246" t="s" s="2">
-        <v>928</v>
+        <v>978</v>
       </c>
       <c r="P246" t="s" s="2">
-        <v>816</v>
+        <v>979</v>
       </c>
       <c r="Q246" t="s" s="2">
         <v>75</v>
@@ -30594,7 +30645,7 @@
         <v>75</v>
       </c>
       <c r="AG246" t="s" s="2">
-        <v>925</v>
+        <v>975</v>
       </c>
       <c r="AH246" t="s" s="2">
         <v>76</v>
@@ -30606,18 +30657,18 @@
         <v>75</v>
       </c>
       <c r="AK246" t="s" s="2">
-        <v>95</v>
+        <v>980</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>929</v>
+        <v>981</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>929</v>
+        <v>981</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" t="s" s="2">
@@ -30631,29 +30682,25 @@
         <v>83</v>
       </c>
       <c r="I247" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J247" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>103</v>
+        <v>198</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>930</v>
+        <v>199</v>
       </c>
       <c r="N247" t="s" s="2">
-        <v>931</v>
-      </c>
-      <c r="O247" t="s" s="2">
-        <v>932</v>
-      </c>
-      <c r="P247" t="s" s="2">
-        <v>933</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="O247" s="2"/>
+      <c r="P247" s="2"/>
       <c r="Q247" t="s" s="2">
         <v>75</v>
       </c>
@@ -30677,13 +30724,13 @@
         <v>75</v>
       </c>
       <c r="Y247" t="s" s="2">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="Z247" t="s" s="2">
-        <v>934</v>
+        <v>75</v>
       </c>
       <c r="AA247" t="s" s="2">
-        <v>935</v>
+        <v>75</v>
       </c>
       <c r="AB247" t="s" s="2">
         <v>75</v>
@@ -30701,7 +30748,7 @@
         <v>75</v>
       </c>
       <c r="AG247" t="s" s="2">
-        <v>929</v>
+        <v>201</v>
       </c>
       <c r="AH247" t="s" s="2">
         <v>76</v>
@@ -30713,54 +30760,52 @@
         <v>75</v>
       </c>
       <c r="AK247" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>936</v>
+        <v>982</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>936</v>
+        <v>982</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" t="s" s="2">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="F248" s="2"/>
       <c r="G248" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H248" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I248" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J248" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K248" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>937</v>
+        <v>127</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>938</v>
+        <v>128</v>
       </c>
       <c r="N248" t="s" s="2">
-        <v>939</v>
+        <v>203</v>
       </c>
       <c r="O248" t="s" s="2">
-        <v>940</v>
-      </c>
-      <c r="P248" t="s" s="2">
-        <v>941</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="P248" s="2"/>
       <c r="Q248" t="s" s="2">
         <v>75</v>
       </c>
@@ -30808,41 +30853,41 @@
         <v>75</v>
       </c>
       <c r="AG248" t="s" s="2">
-        <v>936</v>
+        <v>204</v>
       </c>
       <c r="AH248" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI248" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ248" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK248" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>942</v>
+        <v>983</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>942</v>
+        <v>983</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" t="s" s="2">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="F249" s="2"/>
       <c r="G249" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H249" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I249" t="s" s="2">
         <v>75</v>
@@ -30854,19 +30899,19 @@
         <v>84</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>943</v>
+        <v>127</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>944</v>
+        <v>207</v>
       </c>
       <c r="N249" t="s" s="2">
-        <v>945</v>
+        <v>208</v>
       </c>
       <c r="O249" t="s" s="2">
-        <v>946</v>
+        <v>130</v>
       </c>
       <c r="P249" t="s" s="2">
-        <v>947</v>
+        <v>136</v>
       </c>
       <c r="Q249" t="s" s="2">
         <v>75</v>
@@ -30915,30 +30960,30 @@
         <v>75</v>
       </c>
       <c r="AG249" t="s" s="2">
-        <v>942</v>
+        <v>209</v>
       </c>
       <c r="AH249" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI249" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ249" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK249" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>948</v>
+        <v>984</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>948</v>
+        <v>984</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" t="s" s="2">
@@ -30958,22 +31003,20 @@
         <v>75</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>783</v>
+        <v>159</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>949</v>
+        <v>985</v>
       </c>
       <c r="N250" t="s" s="2">
-        <v>950</v>
-      </c>
-      <c r="O250" t="s" s="2">
-        <v>951</v>
-      </c>
+        <v>986</v>
+      </c>
+      <c r="O250" s="2"/>
       <c r="P250" t="s" s="2">
-        <v>952</v>
+        <v>987</v>
       </c>
       <c r="Q250" t="s" s="2">
         <v>75</v>
@@ -30998,13 +31041,13 @@
         <v>75</v>
       </c>
       <c r="Y250" t="s" s="2">
-        <v>75</v>
+        <v>325</v>
       </c>
       <c r="Z250" t="s" s="2">
-        <v>75</v>
+        <v>988</v>
       </c>
       <c r="AA250" t="s" s="2">
-        <v>75</v>
+        <v>989</v>
       </c>
       <c r="AB250" t="s" s="2">
         <v>75</v>
@@ -31022,7 +31065,7 @@
         <v>75</v>
       </c>
       <c r="AG250" t="s" s="2">
-        <v>948</v>
+        <v>984</v>
       </c>
       <c r="AH250" t="s" s="2">
         <v>76</v>
@@ -31039,13 +31082,13 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>953</v>
+        <v>990</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>953</v>
+        <v>990</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" t="s" s="2">
@@ -31068,17 +31111,17 @@
         <v>75</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>159</v>
+        <v>810</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>954</v>
+        <v>991</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>955</v>
+        <v>992</v>
       </c>
       <c r="O251" s="2"/>
       <c r="P251" t="s" s="2">
-        <v>956</v>
+        <v>993</v>
       </c>
       <c r="Q251" t="s" s="2">
         <v>75</v>
@@ -31103,13 +31146,13 @@
         <v>75</v>
       </c>
       <c r="Y251" t="s" s="2">
-        <v>326</v>
+        <v>75</v>
       </c>
       <c r="Z251" t="s" s="2">
-        <v>957</v>
+        <v>75</v>
       </c>
       <c r="AA251" t="s" s="2">
-        <v>958</v>
+        <v>75</v>
       </c>
       <c r="AB251" t="s" s="2">
         <v>75</v>
@@ -31127,7 +31170,7 @@
         <v>75</v>
       </c>
       <c r="AG251" t="s" s="2">
-        <v>953</v>
+        <v>990</v>
       </c>
       <c r="AH251" t="s" s="2">
         <v>76</v>
@@ -31144,13 +31187,13 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>959</v>
+        <v>994</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>959</v>
+        <v>994</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" t="s" s="2">
@@ -31161,7 +31204,7 @@
         <v>76</v>
       </c>
       <c r="H252" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I252" t="s" s="2">
         <v>75</v>
@@ -31173,19 +31216,19 @@
         <v>75</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>960</v>
+        <v>776</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>961</v>
+        <v>995</v>
       </c>
       <c r="N252" t="s" s="2">
-        <v>962</v>
+        <v>996</v>
       </c>
       <c r="O252" t="s" s="2">
-        <v>963</v>
+        <v>997</v>
       </c>
       <c r="P252" t="s" s="2">
-        <v>964</v>
+        <v>817</v>
       </c>
       <c r="Q252" t="s" s="2">
         <v>75</v>
@@ -31234,13 +31277,13 @@
         <v>75</v>
       </c>
       <c r="AG252" t="s" s="2">
-        <v>959</v>
+        <v>994</v>
       </c>
       <c r="AH252" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI252" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ252" t="s" s="2">
         <v>75</v>
@@ -31251,13 +31294,13 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>965</v>
+        <v>998</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>965</v>
+        <v>998</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" t="s" s="2">
@@ -31268,7 +31311,7 @@
         <v>76</v>
       </c>
       <c r="H253" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I253" t="s" s="2">
         <v>75</v>
@@ -31280,19 +31323,17 @@
         <v>75</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>966</v>
+        <v>784</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>967</v>
+        <v>999</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>968</v>
-      </c>
-      <c r="O253" t="s" s="2">
-        <v>969</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="O253" s="2"/>
       <c r="P253" t="s" s="2">
-        <v>970</v>
+        <v>1001</v>
       </c>
       <c r="Q253" t="s" s="2">
         <v>75</v>
@@ -31341,13 +31382,13 @@
         <v>75</v>
       </c>
       <c r="AG253" t="s" s="2">
-        <v>965</v>
+        <v>998</v>
       </c>
       <c r="AH253" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI253" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ253" t="s" s="2">
         <v>75</v>
@@ -31358,13 +31399,13 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>971</v>
+        <v>1002</v>
       </c>
       <c r="C254" t="s" s="2">
-        <v>971</v>
+        <v>1002</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" t="s" s="2">
@@ -31375,7 +31416,7 @@
         <v>76</v>
       </c>
       <c r="H254" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I254" t="s" s="2">
         <v>75</v>
@@ -31387,19 +31428,17 @@
         <v>75</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>972</v>
+        <v>1003</v>
       </c>
       <c r="N254" t="s" s="2">
-        <v>973</v>
-      </c>
-      <c r="O254" t="s" s="2">
-        <v>974</v>
-      </c>
+        <v>1004</v>
+      </c>
+      <c r="O254" s="2"/>
       <c r="P254" t="s" s="2">
-        <v>975</v>
+        <v>1005</v>
       </c>
       <c r="Q254" t="s" s="2">
         <v>75</v>
@@ -31424,13 +31463,13 @@
         <v>75</v>
       </c>
       <c r="Y254" t="s" s="2">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="Z254" t="s" s="2">
-        <v>75</v>
+        <v>938</v>
       </c>
       <c r="AA254" t="s" s="2">
-        <v>75</v>
+        <v>939</v>
       </c>
       <c r="AB254" t="s" s="2">
         <v>75</v>
@@ -31448,30 +31487,30 @@
         <v>75</v>
       </c>
       <c r="AG254" t="s" s="2">
-        <v>971</v>
+        <v>1002</v>
       </c>
       <c r="AH254" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI254" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ254" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK254" t="s" s="2">
-        <v>976</v>
+        <v>95</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>977</v>
+        <v>1006</v>
       </c>
       <c r="C255" t="s" s="2">
-        <v>977</v>
+        <v>1006</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" t="s" s="2">
@@ -31494,16 +31533,18 @@
         <v>75</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>198</v>
+        <v>646</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>199</v>
+        <v>1007</v>
       </c>
       <c r="N255" t="s" s="2">
-        <v>200</v>
+        <v>1008</v>
       </c>
       <c r="O255" s="2"/>
-      <c r="P255" s="2"/>
+      <c r="P255" t="s" s="2">
+        <v>1009</v>
+      </c>
       <c r="Q255" t="s" s="2">
         <v>75</v>
       </c>
@@ -31551,7 +31592,7 @@
         <v>75</v>
       </c>
       <c r="AG255" t="s" s="2">
-        <v>201</v>
+        <v>1006</v>
       </c>
       <c r="AH255" t="s" s="2">
         <v>76</v>
@@ -31560,32 +31601,32 @@
         <v>83</v>
       </c>
       <c r="AJ255" t="s" s="2">
-        <v>75</v>
+        <v>1010</v>
       </c>
       <c r="AK255" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>978</v>
+        <v>1011</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>978</v>
+        <v>1011</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" t="s" s="2">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="F256" s="2"/>
       <c r="G256" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H256" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I256" t="s" s="2">
         <v>75</v>
@@ -31597,17 +31638,15 @@
         <v>75</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>127</v>
+        <v>455</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>128</v>
+        <v>1012</v>
       </c>
       <c r="N256" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O256" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>1013</v>
+      </c>
+      <c r="O256" s="2"/>
       <c r="P256" s="2"/>
       <c r="Q256" t="s" s="2">
         <v>75</v>
@@ -31656,34 +31695,34 @@
         <v>75</v>
       </c>
       <c r="AG256" t="s" s="2">
-        <v>204</v>
+        <v>1011</v>
       </c>
       <c r="AH256" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI256" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ256" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK256" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>979</v>
+        <v>1014</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>979</v>
+        <v>1014</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" t="s" s="2">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="F257" s="2"/>
       <c r="G257" t="s" s="2">
@@ -31696,25 +31735,25 @@
         <v>75</v>
       </c>
       <c r="J257" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>207</v>
+        <v>1015</v>
       </c>
       <c r="N257" t="s" s="2">
-        <v>208</v>
+        <v>1016</v>
       </c>
       <c r="O257" t="s" s="2">
-        <v>130</v>
+        <v>1017</v>
       </c>
       <c r="P257" t="s" s="2">
-        <v>136</v>
+        <v>1018</v>
       </c>
       <c r="Q257" t="s" s="2">
         <v>75</v>
@@ -31763,7 +31802,7 @@
         <v>75</v>
       </c>
       <c r="AG257" t="s" s="2">
-        <v>209</v>
+        <v>1014</v>
       </c>
       <c r="AH257" t="s" s="2">
         <v>76</v>
@@ -31775,18 +31814,18 @@
         <v>75</v>
       </c>
       <c r="AK257" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>980</v>
+        <v>1019</v>
       </c>
       <c r="C258" t="s" s="2">
-        <v>980</v>
+        <v>1019</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" t="s" s="2">
@@ -31797,7 +31836,7 @@
         <v>76</v>
       </c>
       <c r="H258" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I258" t="s" s="2">
         <v>75</v>
@@ -31809,18 +31848,16 @@
         <v>75</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>981</v>
+        <v>199</v>
       </c>
       <c r="N258" t="s" s="2">
-        <v>982</v>
+        <v>200</v>
       </c>
       <c r="O258" s="2"/>
-      <c r="P258" t="s" s="2">
-        <v>983</v>
-      </c>
+      <c r="P258" s="2"/>
       <c r="Q258" t="s" s="2">
         <v>75</v>
       </c>
@@ -31844,13 +31881,13 @@
         <v>75</v>
       </c>
       <c r="Y258" t="s" s="2">
-        <v>326</v>
+        <v>75</v>
       </c>
       <c r="Z258" t="s" s="2">
-        <v>984</v>
+        <v>75</v>
       </c>
       <c r="AA258" t="s" s="2">
-        <v>985</v>
+        <v>75</v>
       </c>
       <c r="AB258" t="s" s="2">
         <v>75</v>
@@ -31868,41 +31905,41 @@
         <v>75</v>
       </c>
       <c r="AG258" t="s" s="2">
-        <v>980</v>
+        <v>201</v>
       </c>
       <c r="AH258" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI258" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ258" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK258" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>986</v>
+        <v>1020</v>
       </c>
       <c r="C259" t="s" s="2">
-        <v>986</v>
+        <v>1020</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" t="s" s="2">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="F259" s="2"/>
       <c r="G259" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H259" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I259" t="s" s="2">
         <v>75</v>
@@ -31914,18 +31951,18 @@
         <v>75</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>809</v>
+        <v>127</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>987</v>
+        <v>128</v>
       </c>
       <c r="N259" t="s" s="2">
-        <v>988</v>
-      </c>
-      <c r="O259" s="2"/>
-      <c r="P259" t="s" s="2">
-        <v>989</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="O259" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P259" s="2"/>
       <c r="Q259" t="s" s="2">
         <v>75</v>
       </c>
@@ -31973,34 +32010,34 @@
         <v>75</v>
       </c>
       <c r="AG259" t="s" s="2">
-        <v>986</v>
+        <v>204</v>
       </c>
       <c r="AH259" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI259" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ259" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK259" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>990</v>
+        <v>1021</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>990</v>
+        <v>1021</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" t="s" s="2">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="F260" s="2"/>
       <c r="G260" t="s" s="2">
@@ -32013,25 +32050,25 @@
         <v>75</v>
       </c>
       <c r="J260" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>775</v>
+        <v>127</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>991</v>
+        <v>207</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>992</v>
+        <v>208</v>
       </c>
       <c r="O260" t="s" s="2">
-        <v>993</v>
+        <v>130</v>
       </c>
       <c r="P260" t="s" s="2">
-        <v>816</v>
+        <v>136</v>
       </c>
       <c r="Q260" t="s" s="2">
         <v>75</v>
@@ -32080,7 +32117,7 @@
         <v>75</v>
       </c>
       <c r="AG260" t="s" s="2">
-        <v>990</v>
+        <v>209</v>
       </c>
       <c r="AH260" t="s" s="2">
         <v>76</v>
@@ -32092,18 +32129,18 @@
         <v>75</v>
       </c>
       <c r="AK260" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>994</v>
+        <v>1022</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>994</v>
+        <v>1022</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" t="s" s="2">
@@ -32111,7 +32148,7 @@
       </c>
       <c r="F261" s="2"/>
       <c r="G261" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H261" t="s" s="2">
         <v>83</v>
@@ -32126,17 +32163,19 @@
         <v>75</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>783</v>
+        <v>159</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>995</v>
+        <v>1023</v>
       </c>
       <c r="N261" t="s" s="2">
-        <v>996</v>
-      </c>
-      <c r="O261" s="2"/>
+        <v>1024</v>
+      </c>
+      <c r="O261" t="s" s="2">
+        <v>1025</v>
+      </c>
       <c r="P261" t="s" s="2">
-        <v>997</v>
+        <v>1026</v>
       </c>
       <c r="Q261" t="s" s="2">
         <v>75</v>
@@ -32161,13 +32200,13 @@
         <v>75</v>
       </c>
       <c r="Y261" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="Z261" t="s" s="2">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="AA261" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="AB261" t="s" s="2">
         <v>75</v>
@@ -32185,10 +32224,10 @@
         <v>75</v>
       </c>
       <c r="AG261" t="s" s="2">
-        <v>994</v>
+        <v>1022</v>
       </c>
       <c r="AH261" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI261" t="s" s="2">
         <v>83</v>
@@ -32202,13 +32241,13 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>998</v>
+        <v>1027</v>
       </c>
       <c r="C262" t="s" s="2">
-        <v>998</v>
+        <v>1027</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" t="s" s="2">
@@ -32231,17 +32270,19 @@
         <v>75</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>103</v>
+        <v>710</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>999</v>
+        <v>1028</v>
       </c>
       <c r="N262" t="s" s="2">
-        <v>1000</v>
-      </c>
-      <c r="O262" s="2"/>
+        <v>1029</v>
+      </c>
+      <c r="O262" t="s" s="2">
+        <v>1030</v>
+      </c>
       <c r="P262" t="s" s="2">
-        <v>1001</v>
+        <v>1031</v>
       </c>
       <c r="Q262" t="s" s="2">
         <v>75</v>
@@ -32266,13 +32307,13 @@
         <v>75</v>
       </c>
       <c r="Y262" t="s" s="2">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="Z262" t="s" s="2">
-        <v>934</v>
+        <v>75</v>
       </c>
       <c r="AA262" t="s" s="2">
-        <v>935</v>
+        <v>75</v>
       </c>
       <c r="AB262" t="s" s="2">
         <v>75</v>
@@ -32290,7 +32331,7 @@
         <v>75</v>
       </c>
       <c r="AG262" t="s" s="2">
-        <v>998</v>
+        <v>1027</v>
       </c>
       <c r="AH262" t="s" s="2">
         <v>76</v>
@@ -32307,24 +32348,24 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>1002</v>
+        <v>1032</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>1002</v>
+        <v>1032</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" t="s" s="2">
-        <v>75</v>
+        <v>1033</v>
       </c>
       <c r="F263" s="2"/>
       <c r="G263" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H263" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I263" t="s" s="2">
         <v>75</v>
@@ -32336,18 +32377,18 @@
         <v>75</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>646</v>
+        <v>1034</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>1003</v>
+        <v>1035</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>1004</v>
-      </c>
-      <c r="O263" s="2"/>
-      <c r="P263" t="s" s="2">
-        <v>1005</v>
-      </c>
+        <v>1036</v>
+      </c>
+      <c r="O263" t="s" s="2">
+        <v>1037</v>
+      </c>
+      <c r="P263" s="2"/>
       <c r="Q263" t="s" s="2">
         <v>75</v>
       </c>
@@ -32395,16 +32436,16 @@
         <v>75</v>
       </c>
       <c r="AG263" t="s" s="2">
-        <v>1002</v>
+        <v>1032</v>
       </c>
       <c r="AH263" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI263" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ263" t="s" s="2">
-        <v>1006</v>
+        <v>75</v>
       </c>
       <c r="AK263" t="s" s="2">
         <v>95</v>
@@ -32412,13 +32453,13 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>1007</v>
+        <v>1038</v>
       </c>
       <c r="C264" t="s" s="2">
-        <v>1007</v>
+        <v>1038</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" t="s" s="2">
@@ -32438,19 +32479,23 @@
         <v>75</v>
       </c>
       <c r="K264" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>455</v>
+        <v>646</v>
       </c>
       <c r="M264" t="s" s="2">
-        <v>1008</v>
+        <v>1039</v>
       </c>
       <c r="N264" t="s" s="2">
-        <v>1009</v>
-      </c>
-      <c r="O264" s="2"/>
-      <c r="P264" s="2"/>
+        <v>1040</v>
+      </c>
+      <c r="O264" t="s" s="2">
+        <v>1041</v>
+      </c>
+      <c r="P264" t="s" s="2">
+        <v>1042</v>
+      </c>
       <c r="Q264" t="s" s="2">
         <v>75</v>
       </c>
@@ -32498,7 +32543,7 @@
         <v>75</v>
       </c>
       <c r="AG264" t="s" s="2">
-        <v>1007</v>
+        <v>1038</v>
       </c>
       <c r="AH264" t="s" s="2">
         <v>76</v>
@@ -32515,13 +32560,13 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>1010</v>
+        <v>1043</v>
       </c>
       <c r="C265" t="s" s="2">
-        <v>1010</v>
+        <v>1043</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" t="s" s="2">
@@ -32538,25 +32583,25 @@
         <v>75</v>
       </c>
       <c r="J265" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L265" t="s" s="2">
         <v>194</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>1011</v>
+        <v>1044</v>
       </c>
       <c r="N265" t="s" s="2">
-        <v>1012</v>
+        <v>1045</v>
       </c>
       <c r="O265" t="s" s="2">
-        <v>1013</v>
+        <v>1046</v>
       </c>
       <c r="P265" t="s" s="2">
-        <v>1014</v>
+        <v>1047</v>
       </c>
       <c r="Q265" t="s" s="2">
         <v>75</v>
@@ -32605,7 +32650,7 @@
         <v>75</v>
       </c>
       <c r="AG265" t="s" s="2">
-        <v>1010</v>
+        <v>1043</v>
       </c>
       <c r="AH265" t="s" s="2">
         <v>76</v>
@@ -32622,13 +32667,13 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>1015</v>
+        <v>1048</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>1015</v>
+        <v>1048</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" t="s" s="2">
@@ -32725,13 +32770,13 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>1016</v>
+        <v>1049</v>
       </c>
       <c r="C267" t="s" s="2">
-        <v>1016</v>
+        <v>1049</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" t="s" s="2">
@@ -32830,13 +32875,13 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>1017</v>
+        <v>1050</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>1017</v>
+        <v>1050</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" t="s" s="2">
@@ -32937,13 +32982,13 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>1018</v>
+        <v>1051</v>
       </c>
       <c r="C269" t="s" s="2">
-        <v>1018</v>
+        <v>1051</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" t="s" s="2">
@@ -32963,23 +33008,21 @@
         <v>75</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>159</v>
+        <v>1052</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>1019</v>
+        <v>1053</v>
       </c>
       <c r="N269" t="s" s="2">
-        <v>1020</v>
+        <v>1054</v>
       </c>
       <c r="O269" t="s" s="2">
-        <v>1021</v>
-      </c>
-      <c r="P269" t="s" s="2">
-        <v>1022</v>
-      </c>
+        <v>1055</v>
+      </c>
+      <c r="P269" s="2"/>
       <c r="Q269" t="s" s="2">
         <v>75</v>
       </c>
@@ -33003,13 +33046,13 @@
         <v>75</v>
       </c>
       <c r="Y269" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="Z269" t="s" s="2">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="AA269" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AB269" t="s" s="2">
         <v>75</v>
@@ -33027,7 +33070,7 @@
         <v>75</v>
       </c>
       <c r="AG269" t="s" s="2">
-        <v>1018</v>
+        <v>1051</v>
       </c>
       <c r="AH269" t="s" s="2">
         <v>83</v>
@@ -33044,13 +33087,13 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>1023</v>
+        <v>1056</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>1023</v>
+        <v>1056</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" t="s" s="2">
@@ -33058,7 +33101,7 @@
       </c>
       <c r="F270" s="2"/>
       <c r="G270" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H270" t="s" s="2">
         <v>83</v>
@@ -33070,23 +33113,19 @@
         <v>75</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>710</v>
+        <v>103</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>1024</v>
+        <v>1057</v>
       </c>
       <c r="N270" t="s" s="2">
-        <v>1025</v>
-      </c>
-      <c r="O270" t="s" s="2">
-        <v>1026</v>
-      </c>
-      <c r="P270" t="s" s="2">
-        <v>1027</v>
-      </c>
+        <v>1058</v>
+      </c>
+      <c r="O270" s="2"/>
+      <c r="P270" s="2"/>
       <c r="Q270" t="s" s="2">
         <v>75</v>
       </c>
@@ -33110,13 +33149,13 @@
         <v>75</v>
       </c>
       <c r="Y270" t="s" s="2">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="Z270" t="s" s="2">
-        <v>75</v>
+        <v>1058</v>
       </c>
       <c r="AA270" t="s" s="2">
-        <v>75</v>
+        <v>1059</v>
       </c>
       <c r="AB270" t="s" s="2">
         <v>75</v>
@@ -33134,10 +33173,10 @@
         <v>75</v>
       </c>
       <c r="AG270" t="s" s="2">
-        <v>1023</v>
+        <v>1056</v>
       </c>
       <c r="AH270" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI270" t="s" s="2">
         <v>83</v>
@@ -33151,17 +33190,17 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>826</v>
+        <v>1060</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>1028</v>
+        <v>1065</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>1028</v>
+        <v>1065</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" t="s" s="2">
-        <v>1029</v>
+        <v>75</v>
       </c>
       <c r="F271" s="2"/>
       <c r="G271" t="s" s="2">
@@ -33180,17 +33219,15 @@
         <v>75</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>1030</v>
+        <v>78</v>
       </c>
       <c r="M271" t="s" s="2">
-        <v>1031</v>
+        <v>1067</v>
       </c>
       <c r="N271" t="s" s="2">
-        <v>1032</v>
-      </c>
-      <c r="O271" t="s" s="2">
-        <v>1033</v>
-      </c>
+        <v>1068</v>
+      </c>
+      <c r="O271" s="2"/>
       <c r="P271" s="2"/>
       <c r="Q271" t="s" s="2">
         <v>75</v>
@@ -33239,7 +33276,7 @@
         <v>75</v>
       </c>
       <c r="AG271" t="s" s="2">
-        <v>1028</v>
+        <v>1065</v>
       </c>
       <c r="AH271" t="s" s="2">
         <v>76</v>
@@ -33251,18 +33288,18 @@
         <v>75</v>
       </c>
       <c r="AK271" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>826</v>
+        <v>1060</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>1034</v>
+        <v>1069</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>1034</v>
+        <v>1069</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" t="s" s="2">
@@ -33285,20 +33322,18 @@
         <v>84</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>646</v>
+        <v>85</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>1035</v>
+        <v>86</v>
       </c>
       <c r="N272" t="s" s="2">
-        <v>1036</v>
+        <v>87</v>
       </c>
       <c r="O272" t="s" s="2">
-        <v>1037</v>
-      </c>
-      <c r="P272" t="s" s="2">
-        <v>1038</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P272" s="2"/>
       <c r="Q272" t="s" s="2">
         <v>75</v>
       </c>
@@ -33346,7 +33381,7 @@
         <v>75</v>
       </c>
       <c r="AG272" t="s" s="2">
-        <v>1034</v>
+        <v>89</v>
       </c>
       <c r="AH272" t="s" s="2">
         <v>76</v>
@@ -33358,18 +33393,18 @@
         <v>75</v>
       </c>
       <c r="AK272" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>826</v>
+        <v>1060</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>1039</v>
+        <v>1070</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>1039</v>
+        <v>1070</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" t="s" s="2">
@@ -33380,32 +33415,28 @@
         <v>76</v>
       </c>
       <c r="H273" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I273" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J273" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K273" t="s" s="2">
         <v>84</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>1040</v>
+        <v>92</v>
       </c>
       <c r="N273" t="s" s="2">
-        <v>1041</v>
-      </c>
-      <c r="O273" t="s" s="2">
-        <v>1042</v>
-      </c>
-      <c r="P273" t="s" s="2">
-        <v>1043</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="O273" s="2"/>
+      <c r="P273" s="2"/>
       <c r="Q273" t="s" s="2">
         <v>75</v>
       </c>
@@ -33453,13 +33484,13 @@
         <v>75</v>
       </c>
       <c r="AG273" t="s" s="2">
-        <v>1039</v>
+        <v>94</v>
       </c>
       <c r="AH273" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI273" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ273" t="s" s="2">
         <v>75</v>
@@ -33470,13 +33501,13 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>826</v>
+        <v>1060</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>1044</v>
+        <v>1071</v>
       </c>
       <c r="C274" t="s" s="2">
-        <v>1044</v>
+        <v>1071</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" t="s" s="2">
@@ -33493,21 +33524,23 @@
         <v>75</v>
       </c>
       <c r="J274" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>198</v>
+        <v>97</v>
       </c>
       <c r="M274" t="s" s="2">
-        <v>199</v>
+        <v>98</v>
       </c>
       <c r="N274" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O274" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O274" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="P274" s="2"/>
       <c r="Q274" t="s" s="2">
         <v>75</v>
@@ -33556,7 +33589,7 @@
         <v>75</v>
       </c>
       <c r="AG274" t="s" s="2">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AH274" t="s" s="2">
         <v>76</v>
@@ -33568,29 +33601,29 @@
         <v>75</v>
       </c>
       <c r="AK274" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>826</v>
+        <v>1060</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>1045</v>
+        <v>1072</v>
       </c>
       <c r="C275" t="s" s="2">
-        <v>1045</v>
+        <v>1072</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" t="s" s="2">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="F275" s="2"/>
       <c r="G275" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H275" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I275" t="s" s="2">
         <v>75</v>
@@ -33602,16 +33635,16 @@
         <v>75</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="N275" t="s" s="2">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c r="O275" t="s" s="2">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="P275" s="2"/>
       <c r="Q275" t="s" s="2">
@@ -33637,13 +33670,13 @@
         <v>75</v>
       </c>
       <c r="Y275" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="Z275" t="s" s="2">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="AA275" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="AB275" t="s" s="2">
         <v>75</v>
@@ -33661,66 +33694,64 @@
         <v>75</v>
       </c>
       <c r="AG275" t="s" s="2">
-        <v>204</v>
+        <v>110</v>
       </c>
       <c r="AH275" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI275" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ275" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK275" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>826</v>
+        <v>1060</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>1046</v>
+        <v>1073</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>1046</v>
+        <v>1073</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" t="s" s="2">
-        <v>206</v>
+        <v>112</v>
       </c>
       <c r="F276" s="2"/>
       <c r="G276" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H276" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I276" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J276" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K276" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>207</v>
+        <v>114</v>
       </c>
       <c r="N276" t="s" s="2">
-        <v>208</v>
+        <v>115</v>
       </c>
       <c r="O276" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="P276" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="P276" s="2"/>
       <c r="Q276" t="s" s="2">
         <v>75</v>
       </c>
@@ -33768,41 +33799,41 @@
         <v>75</v>
       </c>
       <c r="AG276" t="s" s="2">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="AH276" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI276" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ276" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK276" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>826</v>
+        <v>1060</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>1047</v>
+        <v>1074</v>
       </c>
       <c r="C277" t="s" s="2">
-        <v>1047</v>
+        <v>1074</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" t="s" s="2">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="F277" s="2"/>
       <c r="G277" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H277" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I277" t="s" s="2">
         <v>75</v>
@@ -33811,19 +33842,19 @@
         <v>75</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>1048</v>
+        <v>120</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>1049</v>
+        <v>121</v>
       </c>
       <c r="N277" t="s" s="2">
-        <v>1050</v>
+        <v>122</v>
       </c>
       <c r="O277" t="s" s="2">
-        <v>1051</v>
+        <v>123</v>
       </c>
       <c r="P277" s="2"/>
       <c r="Q277" t="s" s="2">
@@ -33873,41 +33904,41 @@
         <v>75</v>
       </c>
       <c r="AG277" t="s" s="2">
-        <v>1047</v>
+        <v>124</v>
       </c>
       <c r="AH277" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI277" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ277" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK277" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>826</v>
+        <v>1060</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>1052</v>
+        <v>1075</v>
       </c>
       <c r="C278" t="s" s="2">
-        <v>1052</v>
+        <v>1075</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" t="s" s="2">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="F278" s="2"/>
       <c r="G278" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H278" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I278" t="s" s="2">
         <v>75</v>
@@ -33916,18 +33947,20 @@
         <v>75</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>1053</v>
+        <v>128</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>1054</v>
-      </c>
-      <c r="O278" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="O278" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="P278" s="2"/>
       <c r="Q278" t="s" s="2">
         <v>75</v>
@@ -33952,13 +33985,13 @@
         <v>75</v>
       </c>
       <c r="Y278" t="s" s="2">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="Z278" t="s" s="2">
-        <v>1054</v>
+        <v>75</v>
       </c>
       <c r="AA278" t="s" s="2">
-        <v>1055</v>
+        <v>75</v>
       </c>
       <c r="AB278" t="s" s="2">
         <v>75</v>
@@ -33976,34 +34009,34 @@
         <v>75</v>
       </c>
       <c r="AG278" t="s" s="2">
-        <v>1052</v>
+        <v>131</v>
       </c>
       <c r="AH278" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI278" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ278" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK278" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>1061</v>
+        <v>1076</v>
       </c>
       <c r="C279" t="s" s="2">
-        <v>1061</v>
+        <v>1076</v>
       </c>
       <c r="D279" s="2"/>
       <c r="E279" t="s" s="2">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="F279" s="2"/>
       <c r="G279" t="s" s="2">
@@ -34016,22 +34049,26 @@
         <v>75</v>
       </c>
       <c r="J279" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K279" t="s" s="2">
         <v>75</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>1063</v>
+        <v>134</v>
       </c>
       <c r="N279" t="s" s="2">
-        <v>1064</v>
-      </c>
-      <c r="O279" s="2"/>
-      <c r="P279" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O279" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P279" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="Q279" t="s" s="2">
         <v>75</v>
       </c>
@@ -34079,7 +34116,7 @@
         <v>75</v>
       </c>
       <c r="AG279" t="s" s="2">
-        <v>1061</v>
+        <v>137</v>
       </c>
       <c r="AH279" t="s" s="2">
         <v>76</v>
@@ -34091,18 +34128,18 @@
         <v>75</v>
       </c>
       <c r="AK279" t="s" s="2">
-        <v>81</v>
+        <v>132</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>1065</v>
+        <v>1077</v>
       </c>
       <c r="C280" t="s" s="2">
-        <v>1065</v>
+        <v>1077</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" t="s" s="2">
@@ -34110,7 +34147,7 @@
       </c>
       <c r="F280" s="2"/>
       <c r="G280" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H280" t="s" s="2">
         <v>83</v>
@@ -34125,18 +34162,18 @@
         <v>84</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>86</v>
+        <v>1078</v>
       </c>
       <c r="N280" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="O280" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="P280" s="2"/>
+        <v>1079</v>
+      </c>
+      <c r="O280" s="2"/>
+      <c r="P280" t="s" s="2">
+        <v>1080</v>
+      </c>
       <c r="Q280" t="s" s="2">
         <v>75</v>
       </c>
@@ -34184,30 +34221,30 @@
         <v>75</v>
       </c>
       <c r="AG280" t="s" s="2">
-        <v>89</v>
+        <v>1077</v>
       </c>
       <c r="AH280" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI280" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ280" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK280" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>1066</v>
+        <v>1081</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>1066</v>
+        <v>1081</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" t="s" s="2">
@@ -34227,16 +34264,16 @@
         <v>75</v>
       </c>
       <c r="K281" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>91</v>
+        <v>198</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>92</v>
+        <v>199</v>
       </c>
       <c r="N281" t="s" s="2">
-        <v>93</v>
+        <v>200</v>
       </c>
       <c r="O281" s="2"/>
       <c r="P281" s="2"/>
@@ -34287,7 +34324,7 @@
         <v>75</v>
       </c>
       <c r="AG281" t="s" s="2">
-        <v>94</v>
+        <v>201</v>
       </c>
       <c r="AH281" t="s" s="2">
         <v>76</v>
@@ -34299,50 +34336,50 @@
         <v>75</v>
       </c>
       <c r="AK281" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>1067</v>
+        <v>1082</v>
       </c>
       <c r="C282" t="s" s="2">
-        <v>1067</v>
+        <v>1082</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" t="s" s="2">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="F282" s="2"/>
       <c r="G282" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H282" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I282" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J282" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="N282" t="s" s="2">
-        <v>99</v>
+        <v>203</v>
       </c>
       <c r="O282" t="s" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="P282" s="2"/>
       <c r="Q282" t="s" s="2">
@@ -34380,42 +34417,42 @@
         <v>75</v>
       </c>
       <c r="AC282" t="s" s="2">
-        <v>75</v>
+        <v>859</v>
       </c>
       <c r="AD282" t="s" s="2">
-        <v>75</v>
+        <v>860</v>
       </c>
       <c r="AE282" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF282" t="s" s="2">
-        <v>75</v>
+        <v>861</v>
       </c>
       <c r="AG282" t="s" s="2">
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="AH282" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI282" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ282" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK282" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>1068</v>
+        <v>1083</v>
       </c>
       <c r="C283" t="s" s="2">
-        <v>1068</v>
+        <v>1083</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" t="s" s="2">
@@ -34432,24 +34469,26 @@
         <v>75</v>
       </c>
       <c r="J283" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L283" t="s" s="2">
         <v>103</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>104</v>
+        <v>864</v>
       </c>
       <c r="N283" t="s" s="2">
-        <v>105</v>
+        <v>865</v>
       </c>
       <c r="O283" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="P283" s="2"/>
+        <v>866</v>
+      </c>
+      <c r="P283" t="s" s="2">
+        <v>867</v>
+      </c>
       <c r="Q283" t="s" s="2">
         <v>75</v>
       </c>
@@ -34473,13 +34512,13 @@
         <v>75</v>
       </c>
       <c r="Y283" t="s" s="2">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="Z283" t="s" s="2">
-        <v>108</v>
+        <v>868</v>
       </c>
       <c r="AA283" t="s" s="2">
-        <v>109</v>
+        <v>869</v>
       </c>
       <c r="AB283" t="s" s="2">
         <v>75</v>
@@ -34497,7 +34536,7 @@
         <v>75</v>
       </c>
       <c r="AG283" t="s" s="2">
-        <v>110</v>
+        <v>870</v>
       </c>
       <c r="AH283" t="s" s="2">
         <v>76</v>
@@ -34514,17 +34553,17 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>1069</v>
+        <v>1084</v>
       </c>
       <c r="C284" t="s" s="2">
-        <v>1069</v>
+        <v>1084</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" t="s" s="2">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="F284" s="2"/>
       <c r="G284" t="s" s="2">
@@ -34540,21 +34579,23 @@
         <v>75</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>114</v>
+        <v>873</v>
       </c>
       <c r="N284" t="s" s="2">
-        <v>115</v>
+        <v>874</v>
       </c>
       <c r="O284" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="P284" s="2"/>
+        <v>875</v>
+      </c>
+      <c r="P284" t="s" s="2">
+        <v>876</v>
+      </c>
       <c r="Q284" t="s" s="2">
         <v>75</v>
       </c>
@@ -34578,13 +34619,13 @@
         <v>75</v>
       </c>
       <c r="Y284" t="s" s="2">
-        <v>75</v>
+        <v>325</v>
       </c>
       <c r="Z284" t="s" s="2">
-        <v>75</v>
+        <v>877</v>
       </c>
       <c r="AA284" t="s" s="2">
-        <v>75</v>
+        <v>878</v>
       </c>
       <c r="AB284" t="s" s="2">
         <v>75</v>
@@ -34602,7 +34643,7 @@
         <v>75</v>
       </c>
       <c r="AG284" t="s" s="2">
-        <v>117</v>
+        <v>879</v>
       </c>
       <c r="AH284" t="s" s="2">
         <v>76</v>
@@ -34619,24 +34660,24 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>1070</v>
+        <v>1085</v>
       </c>
       <c r="C285" t="s" s="2">
-        <v>1070</v>
+        <v>1085</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" t="s" s="2">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="F285" s="2"/>
       <c r="G285" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H285" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I285" t="s" s="2">
         <v>75</v>
@@ -34645,21 +34686,23 @@
         <v>75</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="M285" t="s" s="2">
-        <v>121</v>
+        <v>882</v>
       </c>
       <c r="N285" t="s" s="2">
-        <v>122</v>
+        <v>883</v>
       </c>
       <c r="O285" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="P285" s="2"/>
+        <v>884</v>
+      </c>
+      <c r="P285" t="s" s="2">
+        <v>885</v>
+      </c>
       <c r="Q285" t="s" s="2">
         <v>75</v>
       </c>
@@ -34668,10 +34711,10 @@
         <v>75</v>
       </c>
       <c r="T285" t="s" s="2">
-        <v>75</v>
+        <v>1086</v>
       </c>
       <c r="U285" t="s" s="2">
-        <v>75</v>
+        <v>887</v>
       </c>
       <c r="V285" t="s" s="2">
         <v>75</v>
@@ -34707,41 +34750,41 @@
         <v>75</v>
       </c>
       <c r="AG285" t="s" s="2">
-        <v>124</v>
+        <v>888</v>
       </c>
       <c r="AH285" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI285" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ285" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK285" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>1071</v>
+        <v>1087</v>
       </c>
       <c r="C286" t="s" s="2">
-        <v>1071</v>
+        <v>1087</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" t="s" s="2">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="F286" s="2"/>
       <c r="G286" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H286" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I286" t="s" s="2">
         <v>75</v>
@@ -34750,19 +34793,19 @@
         <v>75</v>
       </c>
       <c r="K286" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>127</v>
+        <v>198</v>
       </c>
       <c r="M286" t="s" s="2">
-        <v>128</v>
+        <v>891</v>
       </c>
       <c r="N286" t="s" s="2">
-        <v>129</v>
+        <v>892</v>
       </c>
       <c r="O286" t="s" s="2">
-        <v>130</v>
+        <v>893</v>
       </c>
       <c r="P286" s="2"/>
       <c r="Q286" t="s" s="2">
@@ -34776,7 +34819,7 @@
         <v>75</v>
       </c>
       <c r="U286" t="s" s="2">
-        <v>75</v>
+        <v>894</v>
       </c>
       <c r="V286" t="s" s="2">
         <v>75</v>
@@ -34812,66 +34855,62 @@
         <v>75</v>
       </c>
       <c r="AG286" t="s" s="2">
-        <v>131</v>
+        <v>895</v>
       </c>
       <c r="AH286" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI286" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ286" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK286" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>1072</v>
+        <v>1088</v>
       </c>
       <c r="C287" t="s" s="2">
-        <v>1072</v>
+        <v>1088</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" t="s" s="2">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="F287" s="2"/>
       <c r="G287" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H287" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I287" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J287" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K287" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="K287" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="L287" t="s" s="2">
-        <v>127</v>
+        <v>455</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>134</v>
+        <v>898</v>
       </c>
       <c r="N287" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O287" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="P287" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>899</v>
+      </c>
+      <c r="O287" s="2"/>
+      <c r="P287" s="2"/>
       <c r="Q287" t="s" s="2">
         <v>75</v>
       </c>
@@ -34919,30 +34958,30 @@
         <v>75</v>
       </c>
       <c r="AG287" t="s" s="2">
-        <v>137</v>
+        <v>900</v>
       </c>
       <c r="AH287" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI287" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ287" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK287" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>1073</v>
+        <v>1089</v>
       </c>
       <c r="C288" t="s" s="2">
-        <v>1073</v>
+        <v>1089</v>
       </c>
       <c r="D288" s="2"/>
       <c r="E288" t="s" s="2">
@@ -34953,7 +34992,7 @@
         <v>76</v>
       </c>
       <c r="H288" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I288" t="s" s="2">
         <v>75</v>
@@ -34965,18 +35004,18 @@
         <v>84</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>139</v>
+        <v>646</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>1074</v>
+        <v>903</v>
       </c>
       <c r="N288" t="s" s="2">
-        <v>1075</v>
-      </c>
-      <c r="O288" s="2"/>
-      <c r="P288" t="s" s="2">
-        <v>1076</v>
-      </c>
+        <v>904</v>
+      </c>
+      <c r="O288" t="s" s="2">
+        <v>905</v>
+      </c>
+      <c r="P288" s="2"/>
       <c r="Q288" t="s" s="2">
         <v>75</v>
       </c>
@@ -35024,13 +35063,13 @@
         <v>75</v>
       </c>
       <c r="AG288" t="s" s="2">
-        <v>1073</v>
+        <v>906</v>
       </c>
       <c r="AH288" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI288" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ288" t="s" s="2">
         <v>75</v>
@@ -35041,13 +35080,13 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>1077</v>
+        <v>1090</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>1077</v>
+        <v>1090</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" t="s" s="2">
@@ -35073,22 +35112,22 @@
         <v>710</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>1078</v>
+        <v>1091</v>
       </c>
       <c r="N289" t="s" s="2">
-        <v>1079</v>
+        <v>1092</v>
       </c>
       <c r="O289" t="s" s="2">
-        <v>1080</v>
+        <v>1093</v>
       </c>
       <c r="P289" t="s" s="2">
-        <v>1081</v>
+        <v>1094</v>
       </c>
       <c r="Q289" t="s" s="2">
         <v>75</v>
       </c>
       <c r="R289" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="S289" t="s" s="2">
         <v>75</v>
@@ -35133,7 +35172,7 @@
         <v>75</v>
       </c>
       <c r="AG289" t="s" s="2">
-        <v>1077</v>
+        <v>1090</v>
       </c>
       <c r="AH289" t="s" s="2">
         <v>76</v>
@@ -35150,13 +35189,13 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>1082</v>
+        <v>1095</v>
       </c>
       <c r="C290" t="s" s="2">
-        <v>1082</v>
+        <v>1095</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" t="s" s="2">
@@ -35179,19 +35218,19 @@
         <v>84</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>1083</v>
+        <v>1096</v>
       </c>
       <c r="N290" t="s" s="2">
-        <v>1084</v>
+        <v>1097</v>
       </c>
       <c r="O290" t="s" s="2">
-        <v>1085</v>
+        <v>1098</v>
       </c>
       <c r="P290" t="s" s="2">
-        <v>1086</v>
+        <v>1099</v>
       </c>
       <c r="Q290" t="s" s="2">
         <v>75</v>
@@ -35240,7 +35279,7 @@
         <v>75</v>
       </c>
       <c r="AG290" t="s" s="2">
-        <v>1082</v>
+        <v>1095</v>
       </c>
       <c r="AH290" t="s" s="2">
         <v>76</v>
@@ -35257,13 +35296,13 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>1087</v>
+        <v>1100</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>1087</v>
+        <v>1100</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" t="s" s="2">
@@ -35286,19 +35325,19 @@
         <v>84</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>1088</v>
+        <v>1101</v>
       </c>
       <c r="N291" t="s" s="2">
-        <v>1089</v>
+        <v>1102</v>
       </c>
       <c r="O291" t="s" s="2">
-        <v>1090</v>
+        <v>1103</v>
       </c>
       <c r="P291" t="s" s="2">
-        <v>1091</v>
+        <v>1104</v>
       </c>
       <c r="Q291" t="s" s="2">
         <v>75</v>
@@ -35347,7 +35386,7 @@
         <v>75</v>
       </c>
       <c r="AG291" t="s" s="2">
-        <v>1087</v>
+        <v>1100</v>
       </c>
       <c r="AH291" t="s" s="2">
         <v>76</v>
@@ -35364,13 +35403,13 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>1092</v>
+        <v>1105</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>1092</v>
+        <v>1105</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" t="s" s="2">
@@ -35393,19 +35432,19 @@
         <v>84</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>1093</v>
+        <v>1106</v>
       </c>
       <c r="N292" t="s" s="2">
-        <v>1094</v>
+        <v>1107</v>
       </c>
       <c r="O292" t="s" s="2">
-        <v>1095</v>
+        <v>1108</v>
       </c>
       <c r="P292" t="s" s="2">
-        <v>1096</v>
+        <v>1109</v>
       </c>
       <c r="Q292" t="s" s="2">
         <v>75</v>
@@ -35454,7 +35493,7 @@
         <v>75</v>
       </c>
       <c r="AG292" t="s" s="2">
-        <v>1092</v>
+        <v>1105</v>
       </c>
       <c r="AH292" t="s" s="2">
         <v>76</v>
@@ -35471,13 +35510,13 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>1097</v>
+        <v>1110</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>1097</v>
+        <v>1110</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" t="s" s="2">
@@ -35503,14 +35542,14 @@
         <v>103</v>
       </c>
       <c r="M293" t="s" s="2">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="N293" t="s" s="2">
-        <v>1098</v>
+        <v>1111</v>
       </c>
       <c r="O293" s="2"/>
       <c r="P293" t="s" s="2">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="Q293" t="s" s="2">
         <v>75</v>
@@ -35538,10 +35577,10 @@
         <v>155</v>
       </c>
       <c r="Z293" t="s" s="2">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="AA293" t="s" s="2">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="AB293" t="s" s="2">
         <v>75</v>
@@ -35559,7 +35598,7 @@
         <v>75</v>
       </c>
       <c r="AG293" t="s" s="2">
-        <v>1097</v>
+        <v>1110</v>
       </c>
       <c r="AH293" t="s" s="2">
         <v>76</v>
@@ -35576,13 +35615,13 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>1099</v>
+        <v>1112</v>
       </c>
       <c r="C294" t="s" s="2">
-        <v>1099</v>
+        <v>1112</v>
       </c>
       <c r="D294" s="2"/>
       <c r="E294" t="s" s="2">
@@ -35605,17 +35644,17 @@
         <v>84</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="M294" t="s" s="2">
-        <v>1100</v>
+        <v>1113</v>
       </c>
       <c r="N294" t="s" s="2">
-        <v>1101</v>
+        <v>1114</v>
       </c>
       <c r="O294" s="2"/>
       <c r="P294" t="s" s="2">
-        <v>1102</v>
+        <v>1115</v>
       </c>
       <c r="Q294" t="s" s="2">
         <v>75</v>
@@ -35664,7 +35703,7 @@
         <v>75</v>
       </c>
       <c r="AG294" t="s" s="2">
-        <v>1099</v>
+        <v>1112</v>
       </c>
       <c r="AH294" t="s" s="2">
         <v>76</v>
@@ -35681,13 +35720,13 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>1103</v>
+        <v>1116</v>
       </c>
       <c r="C295" t="s" s="2">
-        <v>1103</v>
+        <v>1116</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" t="s" s="2">
@@ -35710,17 +35749,17 @@
         <v>75</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>1104</v>
+        <v>1117</v>
       </c>
       <c r="N295" t="s" s="2">
-        <v>1105</v>
+        <v>1118</v>
       </c>
       <c r="O295" s="2"/>
       <c r="P295" t="s" s="2">
-        <v>1106</v>
+        <v>1119</v>
       </c>
       <c r="Q295" t="s" s="2">
         <v>75</v>
@@ -35769,7 +35808,7 @@
         <v>75</v>
       </c>
       <c r="AG295" t="s" s="2">
-        <v>1103</v>
+        <v>1116</v>
       </c>
       <c r="AH295" t="s" s="2">
         <v>76</v>
@@ -35786,13 +35825,13 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>1107</v>
+        <v>1120</v>
       </c>
       <c r="C296" t="s" s="2">
-        <v>1107</v>
+        <v>1120</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" t="s" s="2">
@@ -35806,7 +35845,7 @@
         <v>77</v>
       </c>
       <c r="I296" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J296" t="s" s="2">
         <v>75</v>
@@ -35818,10 +35857,10 @@
         <v>194</v>
       </c>
       <c r="M296" t="s" s="2">
-        <v>1108</v>
+        <v>1121</v>
       </c>
       <c r="N296" t="s" s="2">
-        <v>1109</v>
+        <v>1122</v>
       </c>
       <c r="O296" s="2"/>
       <c r="P296" s="2"/>
@@ -35872,7 +35911,7 @@
         <v>75</v>
       </c>
       <c r="AG296" t="s" s="2">
-        <v>1107</v>
+        <v>1120</v>
       </c>
       <c r="AH296" t="s" s="2">
         <v>76</v>
@@ -35889,13 +35928,13 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>1110</v>
+        <v>1123</v>
       </c>
       <c r="C297" t="s" s="2">
-        <v>1110</v>
+        <v>1123</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" t="s" s="2">
@@ -35992,13 +36031,13 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>1111</v>
+        <v>1124</v>
       </c>
       <c r="C298" t="s" s="2">
-        <v>1111</v>
+        <v>1124</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" t="s" s="2">
@@ -36097,13 +36136,13 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>1112</v>
+        <v>1125</v>
       </c>
       <c r="C299" t="s" s="2">
-        <v>1112</v>
+        <v>1125</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" t="s" s="2">
@@ -36204,13 +36243,13 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>1113</v>
+        <v>1126</v>
       </c>
       <c r="C300" t="s" s="2">
-        <v>1113</v>
+        <v>1126</v>
       </c>
       <c r="D300" s="2"/>
       <c r="E300" t="s" s="2">
@@ -36236,14 +36275,14 @@
         <v>139</v>
       </c>
       <c r="M300" t="s" s="2">
-        <v>1114</v>
+        <v>1127</v>
       </c>
       <c r="N300" t="s" s="2">
-        <v>1115</v>
+        <v>1128</v>
       </c>
       <c r="O300" s="2"/>
       <c r="P300" t="s" s="2">
-        <v>1116</v>
+        <v>1129</v>
       </c>
       <c r="Q300" t="s" s="2">
         <v>75</v>
@@ -36292,7 +36331,7 @@
         <v>75</v>
       </c>
       <c r="AG300" t="s" s="2">
-        <v>1113</v>
+        <v>1126</v>
       </c>
       <c r="AH300" t="s" s="2">
         <v>76</v>
@@ -36309,13 +36348,13 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>1117</v>
+        <v>1130</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>1117</v>
+        <v>1130</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" t="s" s="2">
@@ -36341,10 +36380,10 @@
         <v>159</v>
       </c>
       <c r="M301" t="s" s="2">
-        <v>1118</v>
+        <v>1131</v>
       </c>
       <c r="N301" t="s" s="2">
-        <v>1119</v>
+        <v>1132</v>
       </c>
       <c r="O301" s="2"/>
       <c r="P301" s="2"/>
@@ -36374,10 +36413,10 @@
         <v>162</v>
       </c>
       <c r="Z301" t="s" s="2">
-        <v>1120</v>
+        <v>1133</v>
       </c>
       <c r="AA301" t="s" s="2">
-        <v>1121</v>
+        <v>1134</v>
       </c>
       <c r="AB301" t="s" s="2">
         <v>75</v>
@@ -36395,7 +36434,7 @@
         <v>75</v>
       </c>
       <c r="AG301" t="s" s="2">
-        <v>1117</v>
+        <v>1130</v>
       </c>
       <c r="AH301" t="s" s="2">
         <v>83</v>
@@ -36412,13 +36451,13 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>1122</v>
+        <v>1135</v>
       </c>
       <c r="C302" t="s" s="2">
-        <v>1122</v>
+        <v>1135</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" t="s" s="2">
@@ -36444,14 +36483,14 @@
         <v>455</v>
       </c>
       <c r="M302" t="s" s="2">
-        <v>1123</v>
+        <v>1136</v>
       </c>
       <c r="N302" t="s" s="2">
-        <v>1124</v>
+        <v>1137</v>
       </c>
       <c r="O302" s="2"/>
       <c r="P302" t="s" s="2">
-        <v>1125</v>
+        <v>1138</v>
       </c>
       <c r="Q302" t="s" s="2">
         <v>75</v>
@@ -36500,7 +36539,7 @@
         <v>75</v>
       </c>
       <c r="AG302" t="s" s="2">
-        <v>1122</v>
+        <v>1135</v>
       </c>
       <c r="AH302" t="s" s="2">
         <v>76</v>
@@ -36517,13 +36556,13 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>1126</v>
+        <v>1139</v>
       </c>
       <c r="C303" t="s" s="2">
-        <v>1126</v>
+        <v>1139</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" t="s" s="2">
@@ -36549,10 +36588,10 @@
         <v>646</v>
       </c>
       <c r="M303" t="s" s="2">
-        <v>1127</v>
+        <v>1140</v>
       </c>
       <c r="N303" t="s" s="2">
-        <v>1128</v>
+        <v>1141</v>
       </c>
       <c r="O303" s="2"/>
       <c r="P303" s="2"/>
@@ -36603,7 +36642,7 @@
         <v>75</v>
       </c>
       <c r="AG303" t="s" s="2">
-        <v>1126</v>
+        <v>1139</v>
       </c>
       <c r="AH303" t="s" s="2">
         <v>76</v>
@@ -36620,13 +36659,13 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>1129</v>
+        <v>1142</v>
       </c>
       <c r="C304" t="s" s="2">
-        <v>1129</v>
+        <v>1142</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" t="s" s="2">
@@ -36652,16 +36691,16 @@
         <v>159</v>
       </c>
       <c r="M304" t="s" s="2">
-        <v>1130</v>
+        <v>1143</v>
       </c>
       <c r="N304" t="s" s="2">
-        <v>1131</v>
+        <v>1144</v>
       </c>
       <c r="O304" t="s" s="2">
-        <v>1132</v>
+        <v>1145</v>
       </c>
       <c r="P304" t="s" s="2">
-        <v>1133</v>
+        <v>1146</v>
       </c>
       <c r="Q304" t="s" s="2">
         <v>75</v>
@@ -36710,7 +36749,7 @@
         <v>75</v>
       </c>
       <c r="AG304" t="s" s="2">
-        <v>1129</v>
+        <v>1142</v>
       </c>
       <c r="AH304" t="s" s="2">
         <v>76</v>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -5533,7 +5533,7 @@
         <v>13</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>631</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136">

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -5371,7 +5371,7 @@
         <v>13</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>631</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115">

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14248" uniqueCount="1545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14248" uniqueCount="1547">
   <si>
     <t>Property</t>
   </si>
@@ -2209,7 +2209,7 @@
     <t>Institusjonsopphold A</t>
   </si>
   <si>
-    <t>Beskrivelse av pasientens opphold i institusjon.</t>
+    <t>Beskrivelse av pasientens opphold i institusjon - bruker Encounter.</t>
   </si>
   <si>
     <t>Encounter</t>
@@ -2922,6 +2922,9 @@
     <t>Institusjonsopphold B</t>
   </si>
   <si>
+    <t>Beskrivelse av pasientens opphold i institusjon - bruker EpisodeOfCare.</t>
+  </si>
+  <si>
     <t>EpisodeOfCare</t>
   </si>
   <si>
@@ -3092,13 +3095,16 @@
     <t>EpisodeOfCare.managingOrganization</t>
   </si>
   <si>
-    <t>Organization that assumes care</t>
+    <t>Organisasjonen som har ansvar for oppholdet</t>
   </si>
   <si>
     <t>The organization that has assumed the specific responsibilities for the specified duration.</t>
   </si>
   <si>
     <t>EpisodeOfCare.period</t>
+  </si>
+  <si>
+    <t>Periode for pasientens (antatte) opphold i institusjon.</t>
   </si>
   <si>
     <t>The interval during which the managing organization assumes the defined responsibility.</t>
@@ -5856,7 +5862,7 @@
         <v>21</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>703</v>
+        <v>934</v>
       </c>
     </row>
     <row r="119">
@@ -5892,7 +5898,7 @@
         <v>29</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="124">
@@ -5900,7 +5906,7 @@
         <v>31</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="125">
@@ -5932,7 +5938,7 @@
         <v>2</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="129">
@@ -5940,7 +5946,7 @@
         <v>4</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>1010</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="130">
@@ -5956,7 +5962,7 @@
         <v>8</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="132">
@@ -5964,7 +5970,7 @@
         <v>9</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="133">
@@ -6018,7 +6024,7 @@
         <v>21</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>1012</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="140">
@@ -6054,7 +6060,7 @@
         <v>29</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>1013</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="145">
@@ -6062,7 +6068,7 @@
         <v>31</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>1014</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="146">
@@ -6094,7 +6100,7 @@
         <v>2</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>1084</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="150">
@@ -6102,7 +6108,7 @@
         <v>4</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>1085</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="151">
@@ -6118,7 +6124,7 @@
         <v>8</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>1086</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="153">
@@ -6126,7 +6132,7 @@
         <v>9</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>1087</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="154">
@@ -6180,7 +6186,7 @@
         <v>21</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="161">
@@ -6216,7 +6222,7 @@
         <v>29</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="166">
@@ -6224,7 +6230,7 @@
         <v>31</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="167">
@@ -6256,7 +6262,7 @@
         <v>2</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="171">
@@ -6264,7 +6270,7 @@
         <v>4</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>1183</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="172">
@@ -6280,7 +6286,7 @@
         <v>8</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>1184</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="174">
@@ -6288,7 +6294,7 @@
         <v>9</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>1185</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="175">
@@ -6342,7 +6348,7 @@
         <v>21</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>1186</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="182">
@@ -6378,7 +6384,7 @@
         <v>29</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>1187</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="187">
@@ -6386,7 +6392,7 @@
         <v>31</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>1188</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="188">
@@ -6418,7 +6424,7 @@
         <v>2</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="192">
@@ -6426,7 +6432,7 @@
         <v>4</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>1413</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="193">
@@ -6442,7 +6448,7 @@
         <v>8</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>1414</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="195">
@@ -6450,7 +6456,7 @@
         <v>9</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>1415</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="196">
@@ -6504,7 +6510,7 @@
         <v>21</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>1416</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="203">
@@ -6540,7 +6546,7 @@
         <v>29</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>1417</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="208">
@@ -6548,7 +6554,7 @@
         <v>31</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>1418</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="209">
@@ -30306,14 +30312,14 @@
         <v>930</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F228" s="2"/>
       <c r="G228" t="s" s="2">
@@ -30335,10 +30341,10 @@
         <v>77</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="O228" s="2"/>
       <c r="P228" s="2"/>
@@ -30389,7 +30395,7 @@
         <v>76</v>
       </c>
       <c r="AG228" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="AH228" t="s" s="2">
         <v>74</v>
@@ -30409,10 +30415,10 @@
         <v>930</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" t="s" s="2">
@@ -30514,10 +30520,10 @@
         <v>930</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" t="s" s="2">
@@ -30617,10 +30623,10 @@
         <v>930</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" t="s" s="2">
@@ -30722,10 +30728,10 @@
         <v>930</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" t="s" s="2">
@@ -30827,10 +30833,10 @@
         <v>930</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" t="s" s="2">
@@ -30932,10 +30938,10 @@
         <v>930</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" t="s" s="2">
@@ -31037,10 +31043,10 @@
         <v>930</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" t="s" s="2">
@@ -31142,10 +31148,10 @@
         <v>930</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" t="s" s="2">
@@ -31249,10 +31255,10 @@
         <v>930</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" t="s" s="2">
@@ -31278,10 +31284,10 @@
         <v>138</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="N237" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="O237" s="2"/>
       <c r="P237" s="2"/>
@@ -31332,7 +31338,7 @@
         <v>76</v>
       </c>
       <c r="AG237" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="AH237" t="s" s="2">
         <v>74</v>
@@ -31352,10 +31358,10 @@
         <v>930</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" t="s" s="2">
@@ -31381,13 +31387,13 @@
         <v>102</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="N238" t="s" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="O238" t="s" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="P238" s="2"/>
       <c r="Q238" t="s" s="2">
@@ -31416,10 +31422,10 @@
         <v>146</v>
       </c>
       <c r="Z238" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="AA238" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="AB238" t="s" s="2">
         <v>76</v>
@@ -31437,7 +31443,7 @@
         <v>76</v>
       </c>
       <c r="AG238" t="s" s="2">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="AH238" t="s" s="2">
         <v>82</v>
@@ -31457,10 +31463,10 @@
         <v>930</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="D239" s="2"/>
       <c r="E239" t="s" s="2">
@@ -31486,10 +31492,10 @@
         <v>272</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="N239" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="O239" s="2"/>
       <c r="P239" s="2"/>
@@ -31540,7 +31546,7 @@
         <v>76</v>
       </c>
       <c r="AG239" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AH239" t="s" s="2">
         <v>74</v>
@@ -31560,10 +31566,10 @@
         <v>930</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" t="s" s="2">
@@ -31663,10 +31669,10 @@
         <v>930</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" t="s" s="2">
@@ -31768,10 +31774,10 @@
         <v>930</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" t="s" s="2">
@@ -31875,10 +31881,10 @@
         <v>930</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" t="s" s="2">
@@ -31904,10 +31910,10 @@
         <v>102</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="N243" t="s" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="O243" s="2"/>
       <c r="P243" s="2"/>
@@ -31937,10 +31943,10 @@
         <v>146</v>
       </c>
       <c r="Z243" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="AA243" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="AB243" t="s" s="2">
         <v>76</v>
@@ -31958,7 +31964,7 @@
         <v>76</v>
       </c>
       <c r="AG243" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="AH243" t="s" s="2">
         <v>82</v>
@@ -31978,10 +31984,10 @@
         <v>930</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="C244" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" t="s" s="2">
@@ -32007,10 +32013,10 @@
         <v>307</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="N244" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="O244" s="2"/>
       <c r="P244" s="2"/>
@@ -32061,7 +32067,7 @@
         <v>76</v>
       </c>
       <c r="AG244" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="AH244" t="s" s="2">
         <v>82</v>
@@ -32081,10 +32087,10 @@
         <v>930</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" t="s" s="2">
@@ -32110,13 +32116,13 @@
         <v>150</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="O245" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="P245" s="2"/>
       <c r="Q245" t="s" s="2">
@@ -32145,10 +32151,10 @@
         <v>154</v>
       </c>
       <c r="Z245" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="AA245" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="AB245" t="s" s="2">
         <v>76</v>
@@ -32166,7 +32172,7 @@
         <v>76</v>
       </c>
       <c r="AG245" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="AH245" t="s" s="2">
         <v>74</v>
@@ -32186,10 +32192,10 @@
         <v>930</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" t="s" s="2">
@@ -32215,10 +32221,10 @@
         <v>272</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="N246" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="O246" s="2"/>
       <c r="P246" s="2"/>
@@ -32269,7 +32275,7 @@
         <v>76</v>
       </c>
       <c r="AG246" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="AH246" t="s" s="2">
         <v>74</v>
@@ -32289,10 +32295,10 @@
         <v>930</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" t="s" s="2">
@@ -32392,10 +32398,10 @@
         <v>930</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" t="s" s="2">
@@ -32497,10 +32503,10 @@
         <v>930</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" t="s" s="2">
@@ -32604,10 +32610,10 @@
         <v>930</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" t="s" s="2">
@@ -32630,13 +32636,13 @@
         <v>83</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="N250" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="O250" s="2"/>
       <c r="P250" s="2"/>
@@ -32687,7 +32693,7 @@
         <v>76</v>
       </c>
       <c r="AG250" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="AH250" t="s" s="2">
         <v>82</v>
@@ -32707,10 +32713,10 @@
         <v>930</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" t="s" s="2">
@@ -32736,10 +32742,10 @@
         <v>150</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="O251" s="2"/>
       <c r="P251" s="2"/>
@@ -32790,7 +32796,7 @@
         <v>76</v>
       </c>
       <c r="AG251" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="AH251" t="s" s="2">
         <v>74</v>
@@ -32810,10 +32816,10 @@
         <v>930</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" t="s" s="2">
@@ -32893,7 +32899,7 @@
         <v>76</v>
       </c>
       <c r="AG252" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="AH252" t="s" s="2">
         <v>74</v>
@@ -32913,10 +32919,10 @@
         <v>930</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" t="s" s="2">
@@ -32942,10 +32948,10 @@
         <v>191</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="O253" s="2"/>
       <c r="P253" s="2"/>
@@ -32996,7 +33002,7 @@
         <v>76</v>
       </c>
       <c r="AG253" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="AH253" t="s" s="2">
         <v>82</v>
@@ -33016,10 +33022,10 @@
         <v>930</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C254" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" t="s" s="2">
@@ -33027,7 +33033,7 @@
       </c>
       <c r="F254" s="2"/>
       <c r="G254" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H254" t="s" s="2">
         <v>82</v>
@@ -33045,10 +33051,10 @@
         <v>325</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="N254" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="O254" s="2"/>
       <c r="P254" s="2"/>
@@ -33099,7 +33105,7 @@
         <v>76</v>
       </c>
       <c r="AG254" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="AH254" t="s" s="2">
         <v>74</v>
@@ -33119,10 +33125,10 @@
         <v>930</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C255" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" t="s" s="2">
@@ -33148,10 +33154,10 @@
         <v>307</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>806</v>
+        <v>994</v>
       </c>
       <c r="N255" t="s" s="2">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="O255" s="2"/>
       <c r="P255" s="2"/>
@@ -33202,7 +33208,7 @@
         <v>76</v>
       </c>
       <c r="AG255" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="AH255" t="s" s="2">
         <v>74</v>
@@ -33222,10 +33228,10 @@
         <v>930</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" t="s" s="2">
@@ -33251,10 +33257,10 @@
         <v>780</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="N256" t="s" s="2">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="O256" s="2"/>
       <c r="P256" s="2"/>
@@ -33305,7 +33311,7 @@
         <v>76</v>
       </c>
       <c r="AG256" t="s" s="2">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="AH256" t="s" s="2">
         <v>74</v>
@@ -33325,10 +33331,10 @@
         <v>930</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" t="s" s="2">
@@ -33354,10 +33360,10 @@
         <v>223</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="N257" t="s" s="2">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="O257" s="2"/>
       <c r="P257" s="2"/>
@@ -33408,7 +33414,7 @@
         <v>76</v>
       </c>
       <c r="AG257" t="s" s="2">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="AH257" t="s" s="2">
         <v>74</v>
@@ -33428,14 +33434,14 @@
         <v>930</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C258" t="s" s="2">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" t="s" s="2">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="F258" s="2"/>
       <c r="G258" t="s" s="2">
@@ -33454,13 +33460,13 @@
         <v>76</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="N258" t="s" s="2">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="O258" s="2"/>
       <c r="P258" s="2"/>
@@ -33511,7 +33517,7 @@
         <v>76</v>
       </c>
       <c r="AG258" t="s" s="2">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="AH258" t="s" s="2">
         <v>74</v>
@@ -33531,10 +33537,10 @@
         <v>930</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="C259" t="s" s="2">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" t="s" s="2">
@@ -33560,13 +33566,13 @@
         <v>844</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="N259" t="s" s="2">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="O259" t="s" s="2">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="P259" s="2"/>
       <c r="Q259" t="s" s="2">
@@ -33616,7 +33622,7 @@
         <v>76</v>
       </c>
       <c r="AG259" t="s" s="2">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="AH259" t="s" s="2">
         <v>74</v>
@@ -33633,13 +33639,13 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" t="s" s="2">
@@ -33665,10 +33671,10 @@
         <v>77</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="O260" s="2"/>
       <c r="P260" s="2"/>
@@ -33719,7 +33725,7 @@
         <v>76</v>
       </c>
       <c r="AG260" t="s" s="2">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="AH260" t="s" s="2">
         <v>74</v>
@@ -33736,13 +33742,13 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" t="s" s="2">
@@ -33841,13 +33847,13 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="C262" t="s" s="2">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" t="s" s="2">
@@ -33944,13 +33950,13 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" t="s" s="2">
@@ -34049,13 +34055,13 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="C264" t="s" s="2">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" t="s" s="2">
@@ -34154,13 +34160,13 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="C265" t="s" s="2">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" t="s" s="2">
@@ -34259,13 +34265,13 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" t="s" s="2">
@@ -34364,13 +34370,13 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="C267" t="s" s="2">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" t="s" s="2">
@@ -34469,13 +34475,13 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" t="s" s="2">
@@ -34576,13 +34582,13 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="C269" t="s" s="2">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" t="s" s="2">
@@ -34608,13 +34614,13 @@
         <v>138</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="N269" t="s" s="2">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="O269" t="s" s="2">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="P269" s="2"/>
       <c r="Q269" t="s" s="2">
@@ -34664,7 +34670,7 @@
         <v>76</v>
       </c>
       <c r="AG269" t="s" s="2">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="AH269" t="s" s="2">
         <v>74</v>
@@ -34681,13 +34687,13 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" t="s" s="2">
@@ -34713,13 +34719,13 @@
         <v>150</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="N270" t="s" s="2">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="O270" t="s" s="2">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="P270" s="2"/>
       <c r="Q270" t="s" s="2">
@@ -34748,7 +34754,7 @@
         <v>154</v>
       </c>
       <c r="Z270" t="s" s="2">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="AA270" t="s" s="2">
         <v>189</v>
@@ -34769,7 +34775,7 @@
         <v>76</v>
       </c>
       <c r="AG270" t="s" s="2">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="AH270" t="s" s="2">
         <v>74</v>
@@ -34786,13 +34792,13 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" t="s" s="2">
@@ -34818,13 +34824,13 @@
         <v>102</v>
       </c>
       <c r="M271" t="s" s="2">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="N271" t="s" s="2">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="O271" t="s" s="2">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="P271" s="2"/>
       <c r="Q271" t="s" s="2">
@@ -34853,10 +34859,10 @@
         <v>146</v>
       </c>
       <c r="Z271" t="s" s="2">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="AA271" t="s" s="2">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="AB271" t="s" s="2">
         <v>76</v>
@@ -34874,7 +34880,7 @@
         <v>76</v>
       </c>
       <c r="AG271" t="s" s="2">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="AH271" t="s" s="2">
         <v>74</v>
@@ -34891,13 +34897,13 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" t="s" s="2">
@@ -34923,10 +34929,10 @@
         <v>325</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="N272" t="s" s="2">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="O272" s="2"/>
       <c r="P272" s="2"/>
@@ -34977,7 +34983,7 @@
         <v>76</v>
       </c>
       <c r="AG272" t="s" s="2">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="AH272" t="s" s="2">
         <v>74</v>
@@ -34994,13 +35000,13 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" t="s" s="2">
@@ -35026,13 +35032,13 @@
         <v>150</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="N273" t="s" s="2">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="O273" t="s" s="2">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="P273" s="2"/>
       <c r="Q273" t="s" s="2">
@@ -35061,10 +35067,10 @@
         <v>154</v>
       </c>
       <c r="Z273" t="s" s="2">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="AA273" t="s" s="2">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="AB273" t="s" s="2">
         <v>76</v>
@@ -35082,7 +35088,7 @@
         <v>76</v>
       </c>
       <c r="AG273" t="s" s="2">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="AH273" t="s" s="2">
         <v>74</v>
@@ -35099,13 +35105,13 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="C274" t="s" s="2">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" t="s" s="2">
@@ -35128,13 +35134,13 @@
         <v>83</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="M274" t="s" s="2">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="N274" t="s" s="2">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="O274" s="2"/>
       <c r="P274" s="2"/>
@@ -35185,7 +35191,7 @@
         <v>76</v>
       </c>
       <c r="AG274" t="s" s="2">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="AH274" t="s" s="2">
         <v>74</v>
@@ -35202,13 +35208,13 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="C275" t="s" s="2">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" t="s" s="2">
@@ -35234,13 +35240,13 @@
         <v>272</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="N275" t="s" s="2">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="O275" t="s" s="2">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="P275" s="2"/>
       <c r="Q275" t="s" s="2">
@@ -35290,7 +35296,7 @@
         <v>76</v>
       </c>
       <c r="AG275" t="s" s="2">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="AH275" t="s" s="2">
         <v>74</v>
@@ -35307,13 +35313,13 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" t="s" s="2">
@@ -35410,13 +35416,13 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="C277" t="s" s="2">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" t="s" s="2">
@@ -35515,13 +35521,13 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="C278" t="s" s="2">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" t="s" s="2">
@@ -35622,13 +35628,13 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="C279" t="s" s="2">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="D279" s="2"/>
       <c r="E279" t="s" s="2">
@@ -35651,17 +35657,17 @@
         <v>76</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="N279" t="s" s="2">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="O279" s="2"/>
       <c r="P279" t="s" s="2">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="Q279" t="s" s="2">
         <v>76</v>
@@ -35710,7 +35716,7 @@
         <v>76</v>
       </c>
       <c r="AG279" t="s" s="2">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="AH279" t="s" s="2">
         <v>82</v>
@@ -35727,13 +35733,13 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="C280" t="s" s="2">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" t="s" s="2">
@@ -35759,14 +35765,14 @@
         <v>175</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="N280" t="s" s="2">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="O280" s="2"/>
       <c r="P280" t="s" s="2">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="Q280" t="s" s="2">
         <v>76</v>
@@ -35815,7 +35821,7 @@
         <v>76</v>
       </c>
       <c r="AG280" t="s" s="2">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="AH280" t="s" s="2">
         <v>74</v>
@@ -35832,13 +35838,13 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" t="s" s="2">
@@ -35861,13 +35867,13 @@
         <v>76</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="N281" t="s" s="2">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="O281" s="2"/>
       <c r="P281" s="2"/>
@@ -35918,7 +35924,7 @@
         <v>76</v>
       </c>
       <c r="AG281" t="s" s="2">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="AH281" t="s" s="2">
         <v>74</v>
@@ -35935,13 +35941,13 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="C282" t="s" s="2">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" t="s" s="2">
@@ -35967,10 +35973,10 @@
         <v>272</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="N282" t="s" s="2">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="O282" s="2"/>
       <c r="P282" s="2"/>
@@ -36021,7 +36027,7 @@
         <v>76</v>
       </c>
       <c r="AG282" t="s" s="2">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="AH282" t="s" s="2">
         <v>74</v>
@@ -36038,13 +36044,13 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="C283" t="s" s="2">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" t="s" s="2">
@@ -36141,13 +36147,13 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="C284" t="s" s="2">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" t="s" s="2">
@@ -36246,13 +36252,13 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="C285" t="s" s="2">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" t="s" s="2">
@@ -36353,13 +36359,13 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="C286" t="s" s="2">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" t="s" s="2">
@@ -36385,10 +36391,10 @@
         <v>276</v>
       </c>
       <c r="M286" t="s" s="2">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="N286" t="s" s="2">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="O286" s="2"/>
       <c r="P286" s="2"/>
@@ -36439,7 +36445,7 @@
         <v>76</v>
       </c>
       <c r="AG286" t="s" s="2">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="AH286" t="s" s="2">
         <v>74</v>
@@ -36456,13 +36462,13 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="C287" t="s" s="2">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" t="s" s="2">
@@ -36488,10 +36494,10 @@
         <v>205</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="N287" t="s" s="2">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="O287" s="2"/>
       <c r="P287" s="2"/>
@@ -36542,7 +36548,7 @@
         <v>76</v>
       </c>
       <c r="AG287" t="s" s="2">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="AH287" t="s" s="2">
         <v>74</v>
@@ -36559,13 +36565,13 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="C288" t="s" s="2">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="D288" s="2"/>
       <c r="E288" t="s" s="2">
@@ -36591,10 +36597,10 @@
         <v>77</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="N288" t="s" s="2">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="O288" s="2"/>
       <c r="P288" s="2"/>
@@ -36645,7 +36651,7 @@
         <v>76</v>
       </c>
       <c r="AG288" t="s" s="2">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="AH288" t="s" s="2">
         <v>74</v>
@@ -36657,18 +36663,18 @@
         <v>76</v>
       </c>
       <c r="AK288" t="s" s="2">
-        <v>1093</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" t="s" s="2">
@@ -36767,13 +36773,13 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="C290" t="s" s="2">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" t="s" s="2">
@@ -36870,13 +36876,13 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" t="s" s="2">
@@ -36975,13 +36981,13 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" t="s" s="2">
@@ -37080,13 +37086,13 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" t="s" s="2">
@@ -37185,13 +37191,13 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="C294" t="s" s="2">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="D294" s="2"/>
       <c r="E294" t="s" s="2">
@@ -37290,13 +37296,13 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="C295" t="s" s="2">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" t="s" s="2">
@@ -37395,13 +37401,13 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="C296" t="s" s="2">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" t="s" s="2">
@@ -37502,13 +37508,13 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="C297" t="s" s="2">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" t="s" s="2">
@@ -37534,14 +37540,14 @@
         <v>138</v>
       </c>
       <c r="M297" t="s" s="2">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="N297" t="s" s="2">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="O297" s="2"/>
       <c r="P297" t="s" s="2">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="Q297" t="s" s="2">
         <v>76</v>
@@ -37590,7 +37596,7 @@
         <v>76</v>
       </c>
       <c r="AG297" t="s" s="2">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="AH297" t="s" s="2">
         <v>74</v>
@@ -37599,7 +37605,7 @@
         <v>75</v>
       </c>
       <c r="AJ297" t="s" s="2">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="AK297" t="s" s="2">
         <v>94</v>
@@ -37607,13 +37613,13 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="C298" t="s" s="2">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" t="s" s="2">
@@ -37639,67 +37645,67 @@
         <v>175</v>
       </c>
       <c r="M298" t="s" s="2">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="N298" t="s" s="2">
+        <v>1111</v>
+      </c>
+      <c r="O298" t="s" s="2">
+        <v>1112</v>
+      </c>
+      <c r="P298" t="s" s="2">
+        <v>1113</v>
+      </c>
+      <c r="Q298" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R298" t="s" s="2">
+        <v>1114</v>
+      </c>
+      <c r="S298" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T298" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U298" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V298" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W298" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X298" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y298" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z298" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA298" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB298" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC298" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD298" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE298" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF298" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG298" t="s" s="2">
         <v>1109</v>
-      </c>
-      <c r="O298" t="s" s="2">
-        <v>1110</v>
-      </c>
-      <c r="P298" t="s" s="2">
-        <v>1111</v>
-      </c>
-      <c r="Q298" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R298" t="s" s="2">
-        <v>1112</v>
-      </c>
-      <c r="S298" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T298" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U298" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V298" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W298" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X298" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y298" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z298" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA298" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB298" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC298" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD298" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE298" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF298" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG298" t="s" s="2">
-        <v>1107</v>
       </c>
       <c r="AH298" t="s" s="2">
         <v>74</v>
@@ -37716,13 +37722,13 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C299" t="s" s="2">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" t="s" s="2">
@@ -37748,16 +37754,16 @@
         <v>150</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="N299" t="s" s="2">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="O299" t="s" s="2">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="P299" t="s" s="2">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="Q299" t="s" s="2">
         <v>76</v>
@@ -37785,10 +37791,10 @@
         <v>154</v>
       </c>
       <c r="Z299" t="s" s="2">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="AA299" t="s" s="2">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="AB299" t="s" s="2">
         <v>76</v>
@@ -37806,7 +37812,7 @@
         <v>76</v>
       </c>
       <c r="AG299" t="s" s="2">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="AH299" t="s" s="2">
         <v>74</v>
@@ -37823,13 +37829,13 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="C300" t="s" s="2">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="D300" s="2"/>
       <c r="E300" t="s" s="2">
@@ -37855,16 +37861,16 @@
         <v>276</v>
       </c>
       <c r="M300" t="s" s="2">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="N300" t="s" s="2">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="O300" t="s" s="2">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="P300" t="s" s="2">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="Q300" t="s" s="2">
         <v>76</v>
@@ -37913,7 +37919,7 @@
         <v>76</v>
       </c>
       <c r="AG300" t="s" s="2">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="AH300" t="s" s="2">
         <v>74</v>
@@ -37922,7 +37928,7 @@
         <v>82</v>
       </c>
       <c r="AJ300" t="s" s="2">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="AK300" t="s" s="2">
         <v>94</v>
@@ -37930,13 +37936,13 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" t="s" s="2">
@@ -37962,16 +37968,16 @@
         <v>276</v>
       </c>
       <c r="M301" t="s" s="2">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="N301" t="s" s="2">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="O301" t="s" s="2">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="P301" t="s" s="2">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="Q301" t="s" s="2">
         <v>76</v>
@@ -38020,7 +38026,7 @@
         <v>76</v>
       </c>
       <c r="AG301" t="s" s="2">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="AH301" t="s" s="2">
         <v>74</v>
@@ -38037,13 +38043,13 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="C302" t="s" s="2">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" t="s" s="2">
@@ -38066,19 +38072,19 @@
         <v>76</v>
       </c>
       <c r="L302" t="s" s="2">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="M302" t="s" s="2">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="N302" t="s" s="2">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="O302" t="s" s="2">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="P302" t="s" s="2">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="Q302" t="s" s="2">
         <v>76</v>
@@ -38127,7 +38133,7 @@
         <v>76</v>
       </c>
       <c r="AG302" t="s" s="2">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="AH302" t="s" s="2">
         <v>74</v>
@@ -38136,21 +38142,21 @@
         <v>75</v>
       </c>
       <c r="AJ302" t="s" s="2">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="AK302" t="s" s="2">
-        <v>1137</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="C303" t="s" s="2">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" t="s" s="2">
@@ -38173,19 +38179,19 @@
         <v>76</v>
       </c>
       <c r="L303" t="s" s="2">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="M303" t="s" s="2">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="N303" t="s" s="2">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="O303" t="s" s="2">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="P303" t="s" s="2">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="Q303" t="s" s="2">
         <v>76</v>
@@ -38234,7 +38240,7 @@
         <v>76</v>
       </c>
       <c r="AG303" t="s" s="2">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="AH303" t="s" s="2">
         <v>74</v>
@@ -38243,21 +38249,21 @@
         <v>75</v>
       </c>
       <c r="AJ303" t="s" s="2">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="AK303" t="s" s="2">
-        <v>1145</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="C304" t="s" s="2">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" t="s" s="2">
@@ -38283,14 +38289,14 @@
         <v>325</v>
       </c>
       <c r="M304" t="s" s="2">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="N304" t="s" s="2">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="O304" s="2"/>
       <c r="P304" t="s" s="2">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="Q304" t="s" s="2">
         <v>76</v>
@@ -38339,7 +38345,7 @@
         <v>76</v>
       </c>
       <c r="AG304" t="s" s="2">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="AH304" t="s" s="2">
         <v>74</v>
@@ -38356,13 +38362,13 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" t="s" s="2">
@@ -38388,16 +38394,16 @@
         <v>272</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="N305" t="s" s="2">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="O305" t="s" s="2">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="P305" t="s" s="2">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="Q305" t="s" s="2">
         <v>76</v>
@@ -38446,7 +38452,7 @@
         <v>76</v>
       </c>
       <c r="AG305" t="s" s="2">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="AH305" t="s" s="2">
         <v>74</v>
@@ -38463,13 +38469,13 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="C306" t="s" s="2">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" t="s" s="2">
@@ -38566,13 +38572,13 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" t="s" s="2">
@@ -38671,13 +38677,13 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="C308" t="s" s="2">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" t="s" s="2">
@@ -38778,13 +38784,13 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="C309" t="s" s="2">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" t="s" s="2">
@@ -38810,14 +38816,14 @@
         <v>150</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="N309" t="s" s="2">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="O309" s="2"/>
       <c r="P309" t="s" s="2">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="Q309" t="s" s="2">
         <v>76</v>
@@ -38845,10 +38851,10 @@
         <v>608</v>
       </c>
       <c r="Z309" t="s" s="2">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="AA309" t="s" s="2">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="AB309" t="s" s="2">
         <v>76</v>
@@ -38866,7 +38872,7 @@
         <v>76</v>
       </c>
       <c r="AG309" t="s" s="2">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="AH309" t="s" s="2">
         <v>74</v>
@@ -38883,13 +38889,13 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="C310" t="s" s="2">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" t="s" s="2">
@@ -38912,17 +38918,17 @@
         <v>76</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="N310" t="s" s="2">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="O310" s="2"/>
       <c r="P310" t="s" s="2">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="Q310" t="s" s="2">
         <v>76</v>
@@ -38971,7 +38977,7 @@
         <v>76</v>
       </c>
       <c r="AG310" t="s" s="2">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="AH310" t="s" s="2">
         <v>74</v>
@@ -38988,13 +38994,13 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="C311" t="s" s="2">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" t="s" s="2">
@@ -39017,17 +39023,17 @@
         <v>76</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="M311" t="s" s="2">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="N311" t="s" s="2">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="O311" s="2"/>
       <c r="P311" t="s" s="2">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="Q311" t="s" s="2">
         <v>76</v>
@@ -39076,7 +39082,7 @@
         <v>76</v>
       </c>
       <c r="AG311" t="s" s="2">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="AH311" t="s" s="2">
         <v>74</v>
@@ -39093,13 +39099,13 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="C312" t="s" s="2">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" t="s" s="2">
@@ -39122,17 +39128,17 @@
         <v>76</v>
       </c>
       <c r="L312" t="s" s="2">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="M312" t="s" s="2">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="N312" t="s" s="2">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="O312" s="2"/>
       <c r="P312" t="s" s="2">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="Q312" t="s" s="2">
         <v>76</v>
@@ -39181,7 +39187,7 @@
         <v>76</v>
       </c>
       <c r="AG312" t="s" s="2">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="AH312" t="s" s="2">
         <v>74</v>
@@ -39198,13 +39204,13 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" t="s" s="2">
@@ -39227,17 +39233,17 @@
         <v>76</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="M313" t="s" s="2">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="N313" t="s" s="2">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="O313" s="2"/>
       <c r="P313" t="s" s="2">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="Q313" t="s" s="2">
         <v>76</v>
@@ -39286,7 +39292,7 @@
         <v>76</v>
       </c>
       <c r="AG313" t="s" s="2">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="AH313" t="s" s="2">
         <v>74</v>
@@ -39303,17 +39309,17 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="C314" t="s" s="2">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" t="s" s="2">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="F314" s="2"/>
       <c r="G314" t="s" s="2">
@@ -39335,10 +39341,10 @@
         <v>77</v>
       </c>
       <c r="M314" t="s" s="2">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="N314" t="s" s="2">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="O314" s="2"/>
       <c r="P314" s="2"/>
@@ -39389,7 +39395,7 @@
         <v>76</v>
       </c>
       <c r="AG314" t="s" s="2">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="AH314" t="s" s="2">
         <v>74</v>
@@ -39406,13 +39412,13 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="C315" t="s" s="2">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" t="s" s="2">
@@ -39511,13 +39517,13 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="C316" t="s" s="2">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" t="s" s="2">
@@ -39614,13 +39620,13 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="C317" t="s" s="2">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" t="s" s="2">
@@ -39719,13 +39725,13 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="C318" t="s" s="2">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" t="s" s="2">
@@ -39824,13 +39830,13 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="C319" t="s" s="2">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" t="s" s="2">
@@ -39929,13 +39935,13 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="C320" t="s" s="2">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" t="s" s="2">
@@ -40034,13 +40040,13 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" t="s" s="2">
@@ -40139,13 +40145,13 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="C322" t="s" s="2">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" t="s" s="2">
@@ -40246,13 +40252,13 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="C323" t="s" s="2">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" t="s" s="2">
@@ -40278,14 +40284,14 @@
         <v>138</v>
       </c>
       <c r="M323" t="s" s="2">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="N323" t="s" s="2">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="O323" s="2"/>
       <c r="P323" t="s" s="2">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="Q323" t="s" s="2">
         <v>76</v>
@@ -40322,17 +40328,17 @@
         <v>76</v>
       </c>
       <c r="AC323" t="s" s="2">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="AD323" s="2"/>
       <c r="AE323" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF323" t="s" s="2">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="AG323" t="s" s="2">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="AH323" t="s" s="2">
         <v>74</v>
@@ -40349,16 +40355,16 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="C324" t="s" s="2">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="D324" t="s" s="2">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="E324" t="s" s="2">
         <v>76</v>
@@ -40383,14 +40389,14 @@
         <v>138</v>
       </c>
       <c r="M324" t="s" s="2">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="N324" t="s" s="2">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="O324" s="2"/>
       <c r="P324" t="s" s="2">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="Q324" t="s" s="2">
         <v>76</v>
@@ -40439,7 +40445,7 @@
         <v>76</v>
       </c>
       <c r="AG324" t="s" s="2">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="AH324" t="s" s="2">
         <v>74</v>
@@ -40456,13 +40462,13 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="C325" t="s" s="2">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" t="s" s="2">
@@ -40559,13 +40565,13 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="C326" t="s" s="2">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" t="s" s="2">
@@ -40664,13 +40670,13 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="C327" t="s" s="2">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" t="s" s="2">
@@ -40696,16 +40702,16 @@
         <v>102</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="N327" t="s" s="2">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="O327" t="s" s="2">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="P327" t="s" s="2">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="Q327" t="s" s="2">
         <v>76</v>
@@ -40733,10 +40739,10 @@
         <v>146</v>
       </c>
       <c r="Z327" t="s" s="2">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="AA327" t="s" s="2">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="AB327" t="s" s="2">
         <v>76</v>
@@ -40754,7 +40760,7 @@
         <v>76</v>
       </c>
       <c r="AG327" t="s" s="2">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="AH327" t="s" s="2">
         <v>74</v>
@@ -40771,13 +40777,13 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="C328" t="s" s="2">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" t="s" s="2">
@@ -40803,16 +40809,16 @@
         <v>150</v>
       </c>
       <c r="M328" t="s" s="2">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="N328" t="s" s="2">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="O328" t="s" s="2">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="P328" t="s" s="2">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="Q328" t="s" s="2">
         <v>76</v>
@@ -40840,10 +40846,10 @@
         <v>608</v>
       </c>
       <c r="Z328" t="s" s="2">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="AA328" t="s" s="2">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="AB328" t="s" s="2">
         <v>76</v>
@@ -40861,7 +40867,7 @@
         <v>76</v>
       </c>
       <c r="AG328" t="s" s="2">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="AH328" t="s" s="2">
         <v>74</v>
@@ -40878,13 +40884,13 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C329" t="s" s="2">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" t="s" s="2">
@@ -40910,16 +40916,16 @@
         <v>96</v>
       </c>
       <c r="M329" t="s" s="2">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="N329" t="s" s="2">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="O329" t="s" s="2">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="P329" t="s" s="2">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="Q329" t="s" s="2">
         <v>76</v>
@@ -40929,10 +40935,10 @@
         <v>76</v>
       </c>
       <c r="T329" t="s" s="2">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="U329" t="s" s="2">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="V329" t="s" s="2">
         <v>76</v>
@@ -40968,7 +40974,7 @@
         <v>76</v>
       </c>
       <c r="AG329" t="s" s="2">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="AH329" t="s" s="2">
         <v>74</v>
@@ -40985,13 +40991,13 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="C330" t="s" s="2">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" t="s" s="2">
@@ -41017,13 +41023,13 @@
         <v>276</v>
       </c>
       <c r="M330" t="s" s="2">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="N330" t="s" s="2">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="O330" t="s" s="2">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="P330" s="2"/>
       <c r="Q330" t="s" s="2">
@@ -41037,7 +41043,7 @@
         <v>76</v>
       </c>
       <c r="U330" t="s" s="2">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="V330" t="s" s="2">
         <v>76</v>
@@ -41073,7 +41079,7 @@
         <v>76</v>
       </c>
       <c r="AG330" t="s" s="2">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="AH330" t="s" s="2">
         <v>74</v>
@@ -41090,13 +41096,13 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="C331" t="s" s="2">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" t="s" s="2">
@@ -41122,10 +41128,10 @@
         <v>307</v>
       </c>
       <c r="M331" t="s" s="2">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="N331" t="s" s="2">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="O331" s="2"/>
       <c r="P331" s="2"/>
@@ -41176,7 +41182,7 @@
         <v>76</v>
       </c>
       <c r="AG331" t="s" s="2">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="AH331" t="s" s="2">
         <v>74</v>
@@ -41193,13 +41199,13 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="C332" t="s" s="2">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" t="s" s="2">
@@ -41225,13 +41231,13 @@
         <v>325</v>
       </c>
       <c r="M332" t="s" s="2">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="N332" t="s" s="2">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="O332" t="s" s="2">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="P332" s="2"/>
       <c r="Q332" t="s" s="2">
@@ -41281,7 +41287,7 @@
         <v>76</v>
       </c>
       <c r="AG332" t="s" s="2">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="AH332" t="s" s="2">
         <v>74</v>
@@ -41298,16 +41304,16 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="C333" t="s" s="2">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="D333" t="s" s="2">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="E333" t="s" s="2">
         <v>76</v>
@@ -41332,14 +41338,14 @@
         <v>138</v>
       </c>
       <c r="M333" t="s" s="2">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="N333" t="s" s="2">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="O333" s="2"/>
       <c r="P333" t="s" s="2">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="Q333" t="s" s="2">
         <v>76</v>
@@ -41388,7 +41394,7 @@
         <v>76</v>
       </c>
       <c r="AG333" t="s" s="2">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="AH333" t="s" s="2">
         <v>74</v>
@@ -41405,13 +41411,13 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="C334" t="s" s="2">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" t="s" s="2">
@@ -41508,13 +41514,13 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="C335" t="s" s="2">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" t="s" s="2">
@@ -41613,13 +41619,13 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="C336" t="s" s="2">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" t="s" s="2">
@@ -41645,16 +41651,16 @@
         <v>102</v>
       </c>
       <c r="M336" t="s" s="2">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="N336" t="s" s="2">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="O336" t="s" s="2">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="P336" t="s" s="2">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="Q336" t="s" s="2">
         <v>76</v>
@@ -41682,10 +41688,10 @@
         <v>146</v>
       </c>
       <c r="Z336" t="s" s="2">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="AA336" t="s" s="2">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="AB336" t="s" s="2">
         <v>76</v>
@@ -41703,7 +41709,7 @@
         <v>76</v>
       </c>
       <c r="AG336" t="s" s="2">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="AH336" t="s" s="2">
         <v>74</v>
@@ -41720,13 +41726,13 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" t="s" s="2">
@@ -41752,16 +41758,16 @@
         <v>150</v>
       </c>
       <c r="M337" t="s" s="2">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="N337" t="s" s="2">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="O337" t="s" s="2">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="P337" t="s" s="2">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="Q337" t="s" s="2">
         <v>76</v>
@@ -41789,10 +41795,10 @@
         <v>608</v>
       </c>
       <c r="Z337" t="s" s="2">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="AA337" t="s" s="2">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="AB337" t="s" s="2">
         <v>76</v>
@@ -41810,7 +41816,7 @@
         <v>76</v>
       </c>
       <c r="AG337" t="s" s="2">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="AH337" t="s" s="2">
         <v>74</v>
@@ -41827,13 +41833,13 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="C338" t="s" s="2">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" t="s" s="2">
@@ -41859,16 +41865,16 @@
         <v>96</v>
       </c>
       <c r="M338" t="s" s="2">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="N338" t="s" s="2">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="O338" t="s" s="2">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="P338" t="s" s="2">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="Q338" t="s" s="2">
         <v>76</v>
@@ -41878,10 +41884,10 @@
         <v>76</v>
       </c>
       <c r="T338" t="s" s="2">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="U338" t="s" s="2">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="V338" t="s" s="2">
         <v>76</v>
@@ -41917,7 +41923,7 @@
         <v>76</v>
       </c>
       <c r="AG338" t="s" s="2">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="AH338" t="s" s="2">
         <v>74</v>
@@ -41934,13 +41940,13 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="C339" t="s" s="2">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" t="s" s="2">
@@ -41966,13 +41972,13 @@
         <v>276</v>
       </c>
       <c r="M339" t="s" s="2">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="N339" t="s" s="2">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="O339" t="s" s="2">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="P339" s="2"/>
       <c r="Q339" t="s" s="2">
@@ -41986,7 +41992,7 @@
         <v>76</v>
       </c>
       <c r="U339" t="s" s="2">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="V339" t="s" s="2">
         <v>76</v>
@@ -42022,7 +42028,7 @@
         <v>76</v>
       </c>
       <c r="AG339" t="s" s="2">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="AH339" t="s" s="2">
         <v>74</v>
@@ -42039,13 +42045,13 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="C340" t="s" s="2">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" t="s" s="2">
@@ -42071,10 +42077,10 @@
         <v>307</v>
       </c>
       <c r="M340" t="s" s="2">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="N340" t="s" s="2">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="O340" s="2"/>
       <c r="P340" s="2"/>
@@ -42125,7 +42131,7 @@
         <v>76</v>
       </c>
       <c r="AG340" t="s" s="2">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="AH340" t="s" s="2">
         <v>74</v>
@@ -42142,13 +42148,13 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="C341" t="s" s="2">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" t="s" s="2">
@@ -42174,13 +42180,13 @@
         <v>325</v>
       </c>
       <c r="M341" t="s" s="2">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="N341" t="s" s="2">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="O341" t="s" s="2">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="P341" s="2"/>
       <c r="Q341" t="s" s="2">
@@ -42230,7 +42236,7 @@
         <v>76</v>
       </c>
       <c r="AG341" t="s" s="2">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="AH341" t="s" s="2">
         <v>74</v>
@@ -42247,13 +42253,13 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="C342" t="s" s="2">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" t="s" s="2">
@@ -42279,67 +42285,67 @@
         <v>175</v>
       </c>
       <c r="M342" t="s" s="2">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="N342" t="s" s="2">
+        <v>1275</v>
+      </c>
+      <c r="O342" t="s" s="2">
+        <v>1276</v>
+      </c>
+      <c r="P342" t="s" s="2">
+        <v>1277</v>
+      </c>
+      <c r="Q342" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R342" t="s" s="2">
+        <v>1114</v>
+      </c>
+      <c r="S342" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T342" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U342" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V342" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W342" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X342" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y342" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z342" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA342" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB342" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC342" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD342" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE342" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF342" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG342" t="s" s="2">
         <v>1273</v>
-      </c>
-      <c r="O342" t="s" s="2">
-        <v>1274</v>
-      </c>
-      <c r="P342" t="s" s="2">
-        <v>1275</v>
-      </c>
-      <c r="Q342" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R342" t="s" s="2">
-        <v>1112</v>
-      </c>
-      <c r="S342" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T342" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U342" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V342" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W342" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X342" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y342" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z342" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA342" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB342" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC342" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD342" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE342" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF342" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG342" t="s" s="2">
-        <v>1271</v>
       </c>
       <c r="AH342" t="s" s="2">
         <v>74</v>
@@ -42356,13 +42362,13 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="C343" t="s" s="2">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" t="s" s="2">
@@ -42385,19 +42391,19 @@
         <v>83</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="M343" t="s" s="2">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="N343" t="s" s="2">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="O343" t="s" s="2">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="P343" t="s" s="2">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="Q343" t="s" s="2">
         <v>76</v>
@@ -42446,7 +42452,7 @@
         <v>76</v>
       </c>
       <c r="AG343" t="s" s="2">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="AH343" t="s" s="2">
         <v>74</v>
@@ -42463,13 +42469,13 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="C344" t="s" s="2">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" t="s" s="2">
@@ -42492,19 +42498,19 @@
         <v>83</v>
       </c>
       <c r="L344" t="s" s="2">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="M344" t="s" s="2">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="N344" t="s" s="2">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="O344" t="s" s="2">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="P344" t="s" s="2">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="Q344" t="s" s="2">
         <v>76</v>
@@ -42553,7 +42559,7 @@
         <v>76</v>
       </c>
       <c r="AG344" t="s" s="2">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="AH344" t="s" s="2">
         <v>74</v>
@@ -42570,13 +42576,13 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="C345" t="s" s="2">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" t="s" s="2">
@@ -42602,16 +42608,16 @@
         <v>102</v>
       </c>
       <c r="M345" t="s" s="2">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="N345" t="s" s="2">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="O345" t="s" s="2">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="P345" t="s" s="2">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="Q345" t="s" s="2">
         <v>76</v>
@@ -42639,10 +42645,10 @@
         <v>146</v>
       </c>
       <c r="Z345" t="s" s="2">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="AA345" t="s" s="2">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="AB345" t="s" s="2">
         <v>76</v>
@@ -42660,7 +42666,7 @@
         <v>76</v>
       </c>
       <c r="AG345" t="s" s="2">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="AH345" t="s" s="2">
         <v>74</v>
@@ -42677,13 +42683,13 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="C346" t="s" s="2">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" t="s" s="2">
@@ -42706,19 +42712,19 @@
         <v>83</v>
       </c>
       <c r="L346" t="s" s="2">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="M346" t="s" s="2">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="N346" t="s" s="2">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="O346" t="s" s="2">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="P346" t="s" s="2">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="Q346" t="s" s="2">
         <v>76</v>
@@ -42767,7 +42773,7 @@
         <v>76</v>
       </c>
       <c r="AG346" t="s" s="2">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="AH346" t="s" s="2">
         <v>74</v>
@@ -42784,13 +42790,13 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="C347" t="s" s="2">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" t="s" s="2">
@@ -42813,19 +42819,19 @@
         <v>83</v>
       </c>
       <c r="L347" t="s" s="2">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="M347" t="s" s="2">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="N347" t="s" s="2">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="O347" t="s" s="2">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="P347" t="s" s="2">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="Q347" t="s" s="2">
         <v>76</v>
@@ -42874,7 +42880,7 @@
         <v>76</v>
       </c>
       <c r="AG347" t="s" s="2">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="AH347" t="s" s="2">
         <v>74</v>
@@ -42891,13 +42897,13 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="C348" t="s" s="2">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" t="s" s="2">
@@ -42920,19 +42926,19 @@
         <v>83</v>
       </c>
       <c r="L348" t="s" s="2">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="M348" t="s" s="2">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="N348" t="s" s="2">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="O348" t="s" s="2">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="P348" t="s" s="2">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="Q348" t="s" s="2">
         <v>76</v>
@@ -42981,7 +42987,7 @@
         <v>76</v>
       </c>
       <c r="AG348" t="s" s="2">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="AH348" t="s" s="2">
         <v>74</v>
@@ -42998,13 +43004,13 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="C349" t="s" s="2">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" t="s" s="2">
@@ -43030,14 +43036,14 @@
         <v>150</v>
       </c>
       <c r="M349" t="s" s="2">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="N349" t="s" s="2">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="O349" s="2"/>
       <c r="P349" t="s" s="2">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="Q349" t="s" s="2">
         <v>76</v>
@@ -43065,10 +43071,10 @@
         <v>608</v>
       </c>
       <c r="Z349" t="s" s="2">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="AA349" t="s" s="2">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="AB349" t="s" s="2">
         <v>76</v>
@@ -43086,7 +43092,7 @@
         <v>76</v>
       </c>
       <c r="AG349" t="s" s="2">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="AH349" t="s" s="2">
         <v>74</v>
@@ -43103,13 +43109,13 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="C350" t="s" s="2">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" t="s" s="2">
@@ -43132,19 +43138,19 @@
         <v>76</v>
       </c>
       <c r="L350" t="s" s="2">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="M350" t="s" s="2">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="N350" t="s" s="2">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="O350" t="s" s="2">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="P350" t="s" s="2">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="Q350" t="s" s="2">
         <v>76</v>
@@ -43193,7 +43199,7 @@
         <v>76</v>
       </c>
       <c r="AG350" t="s" s="2">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="AH350" t="s" s="2">
         <v>74</v>
@@ -43210,13 +43216,13 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="C351" t="s" s="2">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" t="s" s="2">
@@ -43239,19 +43245,19 @@
         <v>76</v>
       </c>
       <c r="L351" t="s" s="2">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="M351" t="s" s="2">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="N351" t="s" s="2">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="O351" t="s" s="2">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="P351" t="s" s="2">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="Q351" t="s" s="2">
         <v>76</v>
@@ -43300,7 +43306,7 @@
         <v>76</v>
       </c>
       <c r="AG351" t="s" s="2">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="AH351" t="s" s="2">
         <v>74</v>
@@ -43317,13 +43323,13 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="C352" t="s" s="2">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" t="s" s="2">
@@ -43349,16 +43355,16 @@
         <v>272</v>
       </c>
       <c r="M352" t="s" s="2">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="N352" t="s" s="2">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="O352" t="s" s="2">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="P352" t="s" s="2">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="Q352" t="s" s="2">
         <v>76</v>
@@ -43407,7 +43413,7 @@
         <v>76</v>
       </c>
       <c r="AG352" t="s" s="2">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="AH352" t="s" s="2">
         <v>74</v>
@@ -43419,18 +43425,18 @@
         <v>76</v>
       </c>
       <c r="AK352" t="s" s="2">
-        <v>1332</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" t="s" s="2">
@@ -43527,13 +43533,13 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="C354" t="s" s="2">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" t="s" s="2">
@@ -43632,13 +43638,13 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="C355" t="s" s="2">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" t="s" s="2">
@@ -43739,13 +43745,13 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="C356" t="s" s="2">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" t="s" s="2">
@@ -43771,14 +43777,14 @@
         <v>150</v>
       </c>
       <c r="M356" t="s" s="2">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="N356" t="s" s="2">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="O356" s="2"/>
       <c r="P356" t="s" s="2">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="Q356" t="s" s="2">
         <v>76</v>
@@ -43806,10 +43812,10 @@
         <v>608</v>
       </c>
       <c r="Z356" t="s" s="2">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="AA356" t="s" s="2">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="AB356" t="s" s="2">
         <v>76</v>
@@ -43827,7 +43833,7 @@
         <v>76</v>
       </c>
       <c r="AG356" t="s" s="2">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="AH356" t="s" s="2">
         <v>74</v>
@@ -43844,13 +43850,13 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="C357" t="s" s="2">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" t="s" s="2">
@@ -43873,17 +43879,17 @@
         <v>76</v>
       </c>
       <c r="L357" t="s" s="2">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="M357" t="s" s="2">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="N357" t="s" s="2">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="O357" s="2"/>
       <c r="P357" t="s" s="2">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="Q357" t="s" s="2">
         <v>76</v>
@@ -43932,7 +43938,7 @@
         <v>76</v>
       </c>
       <c r="AG357" t="s" s="2">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="AH357" t="s" s="2">
         <v>74</v>
@@ -43949,13 +43955,13 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="C358" t="s" s="2">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" t="s" s="2">
@@ -43978,19 +43984,19 @@
         <v>76</v>
       </c>
       <c r="L358" t="s" s="2">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="M358" t="s" s="2">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="N358" t="s" s="2">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="O358" t="s" s="2">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="P358" t="s" s="2">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="Q358" t="s" s="2">
         <v>76</v>
@@ -44039,7 +44045,7 @@
         <v>76</v>
       </c>
       <c r="AG358" t="s" s="2">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="AH358" t="s" s="2">
         <v>74</v>
@@ -44056,13 +44062,13 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="C359" t="s" s="2">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" t="s" s="2">
@@ -44085,17 +44091,17 @@
         <v>76</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="N359" t="s" s="2">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="O359" s="2"/>
       <c r="P359" t="s" s="2">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="Q359" t="s" s="2">
         <v>76</v>
@@ -44144,7 +44150,7 @@
         <v>76</v>
       </c>
       <c r="AG359" t="s" s="2">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="AH359" t="s" s="2">
         <v>74</v>
@@ -44161,13 +44167,13 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="C360" t="s" s="2">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" t="s" s="2">
@@ -44193,14 +44199,14 @@
         <v>102</v>
       </c>
       <c r="M360" t="s" s="2">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="N360" t="s" s="2">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="O360" s="2"/>
       <c r="P360" t="s" s="2">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="Q360" t="s" s="2">
         <v>76</v>
@@ -44228,10 +44234,10 @@
         <v>146</v>
       </c>
       <c r="Z360" t="s" s="2">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="AA360" t="s" s="2">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="AB360" t="s" s="2">
         <v>76</v>
@@ -44249,7 +44255,7 @@
         <v>76</v>
       </c>
       <c r="AG360" t="s" s="2">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="AH360" t="s" s="2">
         <v>74</v>
@@ -44266,13 +44272,13 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="C361" t="s" s="2">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" t="s" s="2">
@@ -44298,14 +44304,14 @@
         <v>325</v>
       </c>
       <c r="M361" t="s" s="2">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="N361" t="s" s="2">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="O361" s="2"/>
       <c r="P361" t="s" s="2">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="Q361" t="s" s="2">
         <v>76</v>
@@ -44354,7 +44360,7 @@
         <v>76</v>
       </c>
       <c r="AG361" t="s" s="2">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="AH361" t="s" s="2">
         <v>74</v>
@@ -44363,7 +44369,7 @@
         <v>82</v>
       </c>
       <c r="AJ361" t="s" s="2">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="AK361" t="s" s="2">
         <v>94</v>
@@ -44371,13 +44377,13 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="C362" t="s" s="2">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" t="s" s="2">
@@ -44403,10 +44409,10 @@
         <v>307</v>
       </c>
       <c r="M362" t="s" s="2">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="N362" t="s" s="2">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="O362" s="2"/>
       <c r="P362" s="2"/>
@@ -44457,7 +44463,7 @@
         <v>76</v>
       </c>
       <c r="AG362" t="s" s="2">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="AH362" t="s" s="2">
         <v>74</v>
@@ -44474,13 +44480,13 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="C363" t="s" s="2">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" t="s" s="2">
@@ -44506,16 +44512,16 @@
         <v>272</v>
       </c>
       <c r="M363" t="s" s="2">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="N363" t="s" s="2">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="O363" t="s" s="2">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="P363" t="s" s="2">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="Q363" t="s" s="2">
         <v>76</v>
@@ -44564,7 +44570,7 @@
         <v>76</v>
       </c>
       <c r="AG363" t="s" s="2">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="AH363" t="s" s="2">
         <v>74</v>
@@ -44581,13 +44587,13 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="C364" t="s" s="2">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" t="s" s="2">
@@ -44684,13 +44690,13 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="C365" t="s" s="2">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" t="s" s="2">
@@ -44789,13 +44795,13 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="C366" t="s" s="2">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" t="s" s="2">
@@ -44896,13 +44902,13 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B367" t="s" s="2">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="C367" t="s" s="2">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" t="s" s="2">
@@ -44928,16 +44934,16 @@
         <v>150</v>
       </c>
       <c r="M367" t="s" s="2">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="N367" t="s" s="2">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="O367" t="s" s="2">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="P367" t="s" s="2">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="Q367" t="s" s="2">
         <v>76</v>
@@ -44986,7 +44992,7 @@
         <v>76</v>
       </c>
       <c r="AG367" t="s" s="2">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="AH367" t="s" s="2">
         <v>82</v>
@@ -45003,13 +45009,13 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B368" t="s" s="2">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="C368" t="s" s="2">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" t="s" s="2">
@@ -45035,16 +45041,16 @@
         <v>175</v>
       </c>
       <c r="M368" t="s" s="2">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="N368" t="s" s="2">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="O368" t="s" s="2">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="P368" t="s" s="2">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="Q368" t="s" s="2">
         <v>76</v>
@@ -45093,7 +45099,7 @@
         <v>76</v>
       </c>
       <c r="AG368" t="s" s="2">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="AH368" t="s" s="2">
         <v>74</v>
@@ -45110,17 +45116,17 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" t="s" s="2">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="F369" s="2"/>
       <c r="G369" t="s" s="2">
@@ -45139,16 +45145,16 @@
         <v>76</v>
       </c>
       <c r="L369" t="s" s="2">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="M369" t="s" s="2">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="N369" t="s" s="2">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="O369" t="s" s="2">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="P369" s="2"/>
       <c r="Q369" t="s" s="2">
@@ -45198,7 +45204,7 @@
         <v>76</v>
       </c>
       <c r="AG369" t="s" s="2">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="AH369" t="s" s="2">
         <v>74</v>
@@ -45215,13 +45221,13 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="C370" t="s" s="2">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" t="s" s="2">
@@ -45247,16 +45253,16 @@
         <v>325</v>
       </c>
       <c r="M370" t="s" s="2">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="N370" t="s" s="2">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="O370" t="s" s="2">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="P370" t="s" s="2">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="Q370" t="s" s="2">
         <v>76</v>
@@ -45305,7 +45311,7 @@
         <v>76</v>
       </c>
       <c r="AG370" t="s" s="2">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="AH370" t="s" s="2">
         <v>74</v>
@@ -45322,13 +45328,13 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="C371" t="s" s="2">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" t="s" s="2">
@@ -45354,16 +45360,16 @@
         <v>272</v>
       </c>
       <c r="M371" t="s" s="2">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="N371" t="s" s="2">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="O371" t="s" s="2">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="P371" t="s" s="2">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="Q371" t="s" s="2">
         <v>76</v>
@@ -45412,7 +45418,7 @@
         <v>76</v>
       </c>
       <c r="AG371" t="s" s="2">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="AH371" t="s" s="2">
         <v>74</v>
@@ -45429,13 +45435,13 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="C372" t="s" s="2">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" t="s" s="2">
@@ -45532,13 +45538,13 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="C373" t="s" s="2">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" t="s" s="2">
@@ -45637,13 +45643,13 @@
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="C374" t="s" s="2">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="D374" s="2"/>
       <c r="E374" t="s" s="2">
@@ -45744,13 +45750,13 @@
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="C375" t="s" s="2">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="D375" s="2"/>
       <c r="E375" t="s" s="2">
@@ -45773,16 +45779,16 @@
         <v>83</v>
       </c>
       <c r="L375" t="s" s="2">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="M375" t="s" s="2">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="N375" t="s" s="2">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="O375" t="s" s="2">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="P375" s="2"/>
       <c r="Q375" t="s" s="2">
@@ -45832,7 +45838,7 @@
         <v>76</v>
       </c>
       <c r="AG375" t="s" s="2">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="AH375" t="s" s="2">
         <v>82</v>
@@ -45849,13 +45855,13 @@
     </row>
     <row r="376">
       <c r="A376" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="C376" t="s" s="2">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" t="s" s="2">
@@ -45881,10 +45887,10 @@
         <v>102</v>
       </c>
       <c r="M376" t="s" s="2">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="N376" t="s" s="2">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="O376" s="2"/>
       <c r="P376" s="2"/>
@@ -45914,28 +45920,28 @@
         <v>146</v>
       </c>
       <c r="Z376" t="s" s="2">
+        <v>1412</v>
+      </c>
+      <c r="AA376" t="s" s="2">
+        <v>1413</v>
+      </c>
+      <c r="AB376" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC376" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD376" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE376" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF376" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG376" t="s" s="2">
         <v>1410</v>
-      </c>
-      <c r="AA376" t="s" s="2">
-        <v>1411</v>
-      </c>
-      <c r="AB376" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC376" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD376" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE376" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF376" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG376" t="s" s="2">
-        <v>1408</v>
       </c>
       <c r="AH376" t="s" s="2">
         <v>82</v>
@@ -45952,13 +45958,13 @@
     </row>
     <row r="377">
       <c r="A377" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B377" t="s" s="2">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="C377" t="s" s="2">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" t="s" s="2">
@@ -45984,10 +45990,10 @@
         <v>77</v>
       </c>
       <c r="M377" t="s" s="2">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="N377" t="s" s="2">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="O377" s="2"/>
       <c r="P377" s="2"/>
@@ -46038,7 +46044,7 @@
         <v>76</v>
       </c>
       <c r="AG377" t="s" s="2">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="AH377" t="s" s="2">
         <v>74</v>
@@ -46055,13 +46061,13 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="C378" t="s" s="2">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="D378" s="2"/>
       <c r="E378" t="s" s="2">
@@ -46160,13 +46166,13 @@
     </row>
     <row r="379">
       <c r="A379" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="C379" t="s" s="2">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" t="s" s="2">
@@ -46263,13 +46269,13 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="C380" t="s" s="2">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" t="s" s="2">
@@ -46368,13 +46374,13 @@
     </row>
     <row r="381">
       <c r="A381" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="C381" t="s" s="2">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" t="s" s="2">
@@ -46473,13 +46479,13 @@
     </row>
     <row r="382">
       <c r="A382" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="C382" t="s" s="2">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" t="s" s="2">
@@ -46578,13 +46584,13 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="C383" t="s" s="2">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" t="s" s="2">
@@ -46683,13 +46689,13 @@
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="C384" t="s" s="2">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" t="s" s="2">
@@ -46788,13 +46794,13 @@
     </row>
     <row r="385">
       <c r="A385" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="C385" t="s" s="2">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="D385" s="2"/>
       <c r="E385" t="s" s="2">
@@ -46895,13 +46901,13 @@
     </row>
     <row r="386">
       <c r="A386" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="C386" t="s" s="2">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" t="s" s="2">
@@ -46927,14 +46933,14 @@
         <v>138</v>
       </c>
       <c r="M386" t="s" s="2">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="N386" t="s" s="2">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="O386" s="2"/>
       <c r="P386" t="s" s="2">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="Q386" t="s" s="2">
         <v>76</v>
@@ -46983,7 +46989,7 @@
         <v>76</v>
       </c>
       <c r="AG386" t="s" s="2">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="AH386" t="s" s="2">
         <v>74</v>
@@ -47000,13 +47006,13 @@
     </row>
     <row r="387">
       <c r="A387" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B387" t="s" s="2">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="C387" t="s" s="2">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" t="s" s="2">
@@ -47103,13 +47109,13 @@
     </row>
     <row r="388">
       <c r="A388" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B388" t="s" s="2">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="C388" t="s" s="2">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="D388" s="2"/>
       <c r="E388" t="s" s="2">
@@ -47208,13 +47214,13 @@
     </row>
     <row r="389">
       <c r="A389" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B389" t="s" s="2">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="C389" t="s" s="2">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" t="s" s="2">
@@ -47240,16 +47246,16 @@
         <v>102</v>
       </c>
       <c r="M389" t="s" s="2">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="N389" t="s" s="2">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="O389" t="s" s="2">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="P389" t="s" s="2">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="Q389" t="s" s="2">
         <v>76</v>
@@ -47277,10 +47283,10 @@
         <v>146</v>
       </c>
       <c r="Z389" t="s" s="2">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="AA389" t="s" s="2">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="AB389" t="s" s="2">
         <v>76</v>
@@ -47298,7 +47304,7 @@
         <v>76</v>
       </c>
       <c r="AG389" t="s" s="2">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="AH389" t="s" s="2">
         <v>74</v>
@@ -47315,13 +47321,13 @@
     </row>
     <row r="390">
       <c r="A390" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B390" t="s" s="2">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="C390" t="s" s="2">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" t="s" s="2">
@@ -47347,16 +47353,16 @@
         <v>150</v>
       </c>
       <c r="M390" t="s" s="2">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="N390" t="s" s="2">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="O390" t="s" s="2">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="P390" t="s" s="2">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="Q390" t="s" s="2">
         <v>76</v>
@@ -47384,10 +47390,10 @@
         <v>608</v>
       </c>
       <c r="Z390" t="s" s="2">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="AA390" t="s" s="2">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="AB390" t="s" s="2">
         <v>76</v>
@@ -47405,7 +47411,7 @@
         <v>76</v>
       </c>
       <c r="AG390" t="s" s="2">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="AH390" t="s" s="2">
         <v>74</v>
@@ -47422,13 +47428,13 @@
     </row>
     <row r="391">
       <c r="A391" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="C391" t="s" s="2">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="D391" s="2"/>
       <c r="E391" t="s" s="2">
@@ -47454,16 +47460,16 @@
         <v>96</v>
       </c>
       <c r="M391" t="s" s="2">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="N391" t="s" s="2">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="O391" t="s" s="2">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="P391" t="s" s="2">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="Q391" t="s" s="2">
         <v>76</v>
@@ -47473,10 +47479,10 @@
         <v>76</v>
       </c>
       <c r="T391" t="s" s="2">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="U391" t="s" s="2">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="V391" t="s" s="2">
         <v>76</v>
@@ -47512,7 +47518,7 @@
         <v>76</v>
       </c>
       <c r="AG391" t="s" s="2">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="AH391" t="s" s="2">
         <v>74</v>
@@ -47529,13 +47535,13 @@
     </row>
     <row r="392">
       <c r="A392" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B392" t="s" s="2">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="C392" t="s" s="2">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" t="s" s="2">
@@ -47561,13 +47567,13 @@
         <v>276</v>
       </c>
       <c r="M392" t="s" s="2">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="N392" t="s" s="2">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="O392" t="s" s="2">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="P392" s="2"/>
       <c r="Q392" t="s" s="2">
@@ -47581,7 +47587,7 @@
         <v>76</v>
       </c>
       <c r="U392" t="s" s="2">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="V392" t="s" s="2">
         <v>76</v>
@@ -47617,7 +47623,7 @@
         <v>76</v>
       </c>
       <c r="AG392" t="s" s="2">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="AH392" t="s" s="2">
         <v>74</v>
@@ -47634,13 +47640,13 @@
     </row>
     <row r="393">
       <c r="A393" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B393" t="s" s="2">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="C393" t="s" s="2">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" t="s" s="2">
@@ -47666,10 +47672,10 @@
         <v>307</v>
       </c>
       <c r="M393" t="s" s="2">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="N393" t="s" s="2">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="O393" s="2"/>
       <c r="P393" s="2"/>
@@ -47720,7 +47726,7 @@
         <v>76</v>
       </c>
       <c r="AG393" t="s" s="2">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="AH393" t="s" s="2">
         <v>74</v>
@@ -47737,13 +47743,13 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B394" t="s" s="2">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="C394" t="s" s="2">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="D394" s="2"/>
       <c r="E394" t="s" s="2">
@@ -47769,13 +47775,13 @@
         <v>325</v>
       </c>
       <c r="M394" t="s" s="2">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="N394" t="s" s="2">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="O394" t="s" s="2">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="P394" s="2"/>
       <c r="Q394" t="s" s="2">
@@ -47825,7 +47831,7 @@
         <v>76</v>
       </c>
       <c r="AG394" t="s" s="2">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="AH394" t="s" s="2">
         <v>74</v>
@@ -47842,13 +47848,13 @@
     </row>
     <row r="395">
       <c r="A395" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="C395" t="s" s="2">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" t="s" s="2">
@@ -47874,67 +47880,67 @@
         <v>175</v>
       </c>
       <c r="M395" t="s" s="2">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="N395" t="s" s="2">
+        <v>1448</v>
+      </c>
+      <c r="O395" t="s" s="2">
+        <v>1449</v>
+      </c>
+      <c r="P395" t="s" s="2">
+        <v>1450</v>
+      </c>
+      <c r="Q395" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R395" t="s" s="2">
+        <v>1114</v>
+      </c>
+      <c r="S395" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T395" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U395" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V395" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W395" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X395" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y395" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z395" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA395" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB395" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC395" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD395" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE395" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF395" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG395" t="s" s="2">
         <v>1446</v>
-      </c>
-      <c r="O395" t="s" s="2">
-        <v>1447</v>
-      </c>
-      <c r="P395" t="s" s="2">
-        <v>1448</v>
-      </c>
-      <c r="Q395" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R395" t="s" s="2">
-        <v>1112</v>
-      </c>
-      <c r="S395" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T395" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U395" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V395" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W395" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X395" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y395" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z395" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA395" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB395" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC395" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD395" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE395" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF395" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG395" t="s" s="2">
-        <v>1444</v>
       </c>
       <c r="AH395" t="s" s="2">
         <v>74</v>
@@ -47951,13 +47957,13 @@
     </row>
     <row r="396">
       <c r="A396" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="C396" t="s" s="2">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" t="s" s="2">
@@ -47980,19 +47986,19 @@
         <v>83</v>
       </c>
       <c r="L396" t="s" s="2">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="M396" t="s" s="2">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="N396" t="s" s="2">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="O396" t="s" s="2">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="P396" t="s" s="2">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="Q396" t="s" s="2">
         <v>76</v>
@@ -48041,7 +48047,7 @@
         <v>76</v>
       </c>
       <c r="AG396" t="s" s="2">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="AH396" t="s" s="2">
         <v>74</v>
@@ -48058,13 +48064,13 @@
     </row>
     <row r="397">
       <c r="A397" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="C397" t="s" s="2">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" t="s" s="2">
@@ -48087,19 +48093,19 @@
         <v>83</v>
       </c>
       <c r="L397" t="s" s="2">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="M397" t="s" s="2">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="N397" t="s" s="2">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="O397" t="s" s="2">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="P397" t="s" s="2">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="Q397" t="s" s="2">
         <v>76</v>
@@ -48148,7 +48154,7 @@
         <v>76</v>
       </c>
       <c r="AG397" t="s" s="2">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="AH397" t="s" s="2">
         <v>74</v>
@@ -48165,13 +48171,13 @@
     </row>
     <row r="398">
       <c r="A398" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B398" t="s" s="2">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="C398" t="s" s="2">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" t="s" s="2">
@@ -48194,19 +48200,19 @@
         <v>83</v>
       </c>
       <c r="L398" t="s" s="2">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="M398" t="s" s="2">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="N398" t="s" s="2">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="O398" t="s" s="2">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="P398" t="s" s="2">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="Q398" t="s" s="2">
         <v>76</v>
@@ -48255,7 +48261,7 @@
         <v>76</v>
       </c>
       <c r="AG398" t="s" s="2">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="AH398" t="s" s="2">
         <v>74</v>
@@ -48272,13 +48278,13 @@
     </row>
     <row r="399">
       <c r="A399" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="C399" t="s" s="2">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="D399" s="2"/>
       <c r="E399" t="s" s="2">
@@ -48304,14 +48310,14 @@
         <v>102</v>
       </c>
       <c r="M399" t="s" s="2">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="N399" t="s" s="2">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="O399" s="2"/>
       <c r="P399" t="s" s="2">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="Q399" t="s" s="2">
         <v>76</v>
@@ -48339,10 +48345,10 @@
         <v>146</v>
       </c>
       <c r="Z399" t="s" s="2">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="AA399" t="s" s="2">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="AB399" t="s" s="2">
         <v>76</v>
@@ -48360,7 +48366,7 @@
         <v>76</v>
       </c>
       <c r="AG399" t="s" s="2">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="AH399" t="s" s="2">
         <v>74</v>
@@ -48377,13 +48383,13 @@
     </row>
     <row r="400">
       <c r="A400" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B400" t="s" s="2">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="C400" t="s" s="2">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" t="s" s="2">
@@ -48406,17 +48412,17 @@
         <v>83</v>
       </c>
       <c r="L400" t="s" s="2">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="M400" t="s" s="2">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="N400" t="s" s="2">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="O400" s="2"/>
       <c r="P400" t="s" s="2">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="Q400" t="s" s="2">
         <v>76</v>
@@ -48465,7 +48471,7 @@
         <v>76</v>
       </c>
       <c r="AG400" t="s" s="2">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="AH400" t="s" s="2">
         <v>74</v>
@@ -48482,13 +48488,13 @@
     </row>
     <row r="401">
       <c r="A401" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="D401" s="2"/>
       <c r="E401" t="s" s="2">
@@ -48511,17 +48517,17 @@
         <v>76</v>
       </c>
       <c r="L401" t="s" s="2">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="M401" t="s" s="2">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="N401" t="s" s="2">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="O401" s="2"/>
       <c r="P401" t="s" s="2">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="Q401" t="s" s="2">
         <v>76</v>
@@ -48570,7 +48576,7 @@
         <v>76</v>
       </c>
       <c r="AG401" t="s" s="2">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="AH401" t="s" s="2">
         <v>74</v>
@@ -48587,13 +48593,13 @@
     </row>
     <row r="402">
       <c r="A402" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="C402" t="s" s="2">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" t="s" s="2">
@@ -48619,10 +48625,10 @@
         <v>272</v>
       </c>
       <c r="M402" t="s" s="2">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="N402" t="s" s="2">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="O402" s="2"/>
       <c r="P402" s="2"/>
@@ -48673,7 +48679,7 @@
         <v>76</v>
       </c>
       <c r="AG402" t="s" s="2">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="AH402" t="s" s="2">
         <v>74</v>
@@ -48690,13 +48696,13 @@
     </row>
     <row r="403">
       <c r="A403" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B403" t="s" s="2">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="C403" t="s" s="2">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="D403" s="2"/>
       <c r="E403" t="s" s="2">
@@ -48793,13 +48799,13 @@
     </row>
     <row r="404">
       <c r="A404" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="C404" t="s" s="2">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="D404" s="2"/>
       <c r="E404" t="s" s="2">
@@ -48898,13 +48904,13 @@
     </row>
     <row r="405">
       <c r="A405" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="C405" t="s" s="2">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="D405" s="2"/>
       <c r="E405" t="s" s="2">
@@ -49005,13 +49011,13 @@
     </row>
     <row r="406">
       <c r="A406" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B406" t="s" s="2">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="C406" t="s" s="2">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="D406" s="2"/>
       <c r="E406" t="s" s="2">
@@ -49037,14 +49043,14 @@
         <v>138</v>
       </c>
       <c r="M406" t="s" s="2">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="N406" t="s" s="2">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="O406" s="2"/>
       <c r="P406" t="s" s="2">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="Q406" t="s" s="2">
         <v>76</v>
@@ -49093,7 +49099,7 @@
         <v>76</v>
       </c>
       <c r="AG406" t="s" s="2">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="AH406" t="s" s="2">
         <v>74</v>
@@ -49110,13 +49116,13 @@
     </row>
     <row r="407">
       <c r="A407" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B407" t="s" s="2">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="C407" t="s" s="2">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="D407" s="2"/>
       <c r="E407" t="s" s="2">
@@ -49142,10 +49148,10 @@
         <v>150</v>
       </c>
       <c r="M407" t="s" s="2">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="N407" t="s" s="2">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="O407" s="2"/>
       <c r="P407" s="2"/>
@@ -49175,10 +49181,10 @@
         <v>154</v>
       </c>
       <c r="Z407" t="s" s="2">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="AA407" t="s" s="2">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="AB407" t="s" s="2">
         <v>76</v>
@@ -49196,7 +49202,7 @@
         <v>76</v>
       </c>
       <c r="AG407" t="s" s="2">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="AH407" t="s" s="2">
         <v>82</v>
@@ -49213,13 +49219,13 @@
     </row>
     <row r="408">
       <c r="A408" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B408" t="s" s="2">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="C408" t="s" s="2">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="D408" s="2"/>
       <c r="E408" t="s" s="2">
@@ -49316,13 +49322,13 @@
     </row>
     <row r="409">
       <c r="A409" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="C409" t="s" s="2">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="D409" s="2"/>
       <c r="E409" t="s" s="2">
@@ -49421,13 +49427,13 @@
     </row>
     <row r="410">
       <c r="A410" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B410" t="s" s="2">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="C410" t="s" s="2">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="D410" s="2"/>
       <c r="E410" t="s" s="2">
@@ -49453,16 +49459,16 @@
         <v>738</v>
       </c>
       <c r="M410" t="s" s="2">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="N410" t="s" s="2">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="O410" t="s" s="2">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="P410" t="s" s="2">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="Q410" t="s" s="2">
         <v>76</v>
@@ -49511,7 +49517,7 @@
         <v>76</v>
       </c>
       <c r="AG410" t="s" s="2">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="AH410" t="s" s="2">
         <v>74</v>
@@ -49528,13 +49534,13 @@
     </row>
     <row r="411">
       <c r="A411" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="C411" t="s" s="2">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="D411" s="2"/>
       <c r="E411" t="s" s="2">
@@ -49631,13 +49637,13 @@
     </row>
     <row r="412">
       <c r="A412" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="C412" t="s" s="2">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="D412" s="2"/>
       <c r="E412" t="s" s="2">
@@ -49736,13 +49742,13 @@
     </row>
     <row r="413">
       <c r="A413" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B413" t="s" s="2">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="C413" t="s" s="2">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="D413" s="2"/>
       <c r="E413" t="s" s="2">
@@ -49768,16 +49774,16 @@
         <v>96</v>
       </c>
       <c r="M413" t="s" s="2">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="N413" t="s" s="2">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="O413" t="s" s="2">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="P413" t="s" s="2">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="Q413" t="s" s="2">
         <v>76</v>
@@ -49787,7 +49793,7 @@
         <v>76</v>
       </c>
       <c r="T413" t="s" s="2">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="U413" t="s" s="2">
         <v>76</v>
@@ -49826,7 +49832,7 @@
         <v>76</v>
       </c>
       <c r="AG413" t="s" s="2">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="AH413" t="s" s="2">
         <v>74</v>
@@ -49843,13 +49849,13 @@
     </row>
     <row r="414">
       <c r="A414" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B414" t="s" s="2">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="C414" t="s" s="2">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="D414" s="2"/>
       <c r="E414" t="s" s="2">
@@ -49875,13 +49881,13 @@
         <v>276</v>
       </c>
       <c r="M414" t="s" s="2">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="N414" t="s" s="2">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="O414" t="s" s="2">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="P414" s="2"/>
       <c r="Q414" t="s" s="2">
@@ -49931,7 +49937,7 @@
         <v>76</v>
       </c>
       <c r="AG414" t="s" s="2">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="AH414" t="s" s="2">
         <v>74</v>
@@ -49948,13 +49954,13 @@
     </row>
     <row r="415">
       <c r="A415" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B415" t="s" s="2">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="C415" t="s" s="2">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="D415" s="2"/>
       <c r="E415" t="s" s="2">
@@ -49980,14 +49986,14 @@
         <v>102</v>
       </c>
       <c r="M415" t="s" s="2">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="N415" t="s" s="2">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="O415" s="2"/>
       <c r="P415" t="s" s="2">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="Q415" t="s" s="2">
         <v>76</v>
@@ -50036,7 +50042,7 @@
         <v>76</v>
       </c>
       <c r="AG415" t="s" s="2">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="AH415" t="s" s="2">
         <v>74</v>
@@ -50053,13 +50059,13 @@
     </row>
     <row r="416">
       <c r="A416" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B416" t="s" s="2">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="C416" t="s" s="2">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="D416" s="2"/>
       <c r="E416" t="s" s="2">
@@ -50085,14 +50091,14 @@
         <v>276</v>
       </c>
       <c r="M416" t="s" s="2">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="N416" t="s" s="2">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="O416" s="2"/>
       <c r="P416" t="s" s="2">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="Q416" t="s" s="2">
         <v>76</v>
@@ -50141,7 +50147,7 @@
         <v>76</v>
       </c>
       <c r="AG416" t="s" s="2">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="AH416" t="s" s="2">
         <v>74</v>
@@ -50158,13 +50164,13 @@
     </row>
     <row r="417">
       <c r="A417" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="C417" t="s" s="2">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="D417" s="2"/>
       <c r="E417" t="s" s="2">
@@ -50190,16 +50196,16 @@
         <v>175</v>
       </c>
       <c r="M417" t="s" s="2">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="N417" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="O417" t="s" s="2">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="P417" t="s" s="2">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="Q417" t="s" s="2">
         <v>76</v>
@@ -50248,7 +50254,7 @@
         <v>76</v>
       </c>
       <c r="AG417" t="s" s="2">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="AH417" t="s" s="2">
         <v>74</v>
@@ -50265,13 +50271,13 @@
     </row>
     <row r="418">
       <c r="A418" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="C418" t="s" s="2">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="D418" s="2"/>
       <c r="E418" t="s" s="2">
@@ -50297,16 +50303,16 @@
         <v>276</v>
       </c>
       <c r="M418" t="s" s="2">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="N418" t="s" s="2">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="O418" t="s" s="2">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="P418" t="s" s="2">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="Q418" t="s" s="2">
         <v>76</v>
@@ -50355,7 +50361,7 @@
         <v>76</v>
       </c>
       <c r="AG418" t="s" s="2">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="AH418" t="s" s="2">
         <v>74</v>
@@ -50372,13 +50378,13 @@
     </row>
     <row r="419">
       <c r="A419" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B419" t="s" s="2">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="C419" t="s" s="2">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="D419" s="2"/>
       <c r="E419" t="s" s="2">
@@ -50404,14 +50410,14 @@
         <v>307</v>
       </c>
       <c r="M419" t="s" s="2">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="N419" t="s" s="2">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="O419" s="2"/>
       <c r="P419" t="s" s="2">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="Q419" t="s" s="2">
         <v>76</v>
@@ -50460,7 +50466,7 @@
         <v>76</v>
       </c>
       <c r="AG419" t="s" s="2">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="AH419" t="s" s="2">
         <v>74</v>
@@ -50477,13 +50483,13 @@
     </row>
     <row r="420">
       <c r="A420" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B420" t="s" s="2">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="C420" t="s" s="2">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="D420" s="2"/>
       <c r="E420" t="s" s="2">
@@ -50509,10 +50515,10 @@
         <v>325</v>
       </c>
       <c r="M420" t="s" s="2">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="N420" t="s" s="2">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="O420" s="2"/>
       <c r="P420" s="2"/>
@@ -50563,7 +50569,7 @@
         <v>76</v>
       </c>
       <c r="AG420" t="s" s="2">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="AH420" t="s" s="2">
         <v>74</v>
@@ -50580,13 +50586,13 @@
     </row>
     <row r="421">
       <c r="A421" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B421" t="s" s="2">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="C421" t="s" s="2">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="D421" s="2"/>
       <c r="E421" t="s" s="2">
@@ -50612,16 +50618,16 @@
         <v>150</v>
       </c>
       <c r="M421" t="s" s="2">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="N421" t="s" s="2">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="O421" t="s" s="2">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="P421" t="s" s="2">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="Q421" t="s" s="2">
         <v>76</v>
@@ -50670,7 +50676,7 @@
         <v>76</v>
       </c>
       <c r="AG421" t="s" s="2">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="AH421" t="s" s="2">
         <v>74</v>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14248" uniqueCount="1547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14682" uniqueCount="1576">
   <si>
     <t>Property</t>
   </si>
@@ -1165,7 +1165,7 @@
     <t>2024-05-30</t>
   </si>
   <si>
-    <t>TODO</t>
+    <t>Adresse som inneholder utvidelse for kommune</t>
   </si>
   <si>
     <t>complex-type</t>
@@ -4810,6 +4810,93 @@
   </si>
   <si>
     <t>Knowing which language a practitioner speaks can help in facilitating communication with patients.</t>
+  </si>
+  <si>
+    <t>no-basis-municipalitycode</t>
+  </si>
+  <si>
+    <t>http://hl7.no/fhir/ig/lmdi/StructureDefinition/no-basis-municipalitycode</t>
+  </si>
+  <si>
+    <t>NoBasisMunicipalitycode</t>
+  </si>
+  <si>
+    <t>2021-04-09</t>
+  </si>
+  <si>
+    <t>Coded value for municipality/county Norwegian kommune</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>element:Address.district</t>
+  </si>
+  <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x].id</t>
+  </si>
+  <si>
+    <t>Extension.value[x].extension</t>
+  </si>
+  <si>
+    <t>Extension.value[x].system</t>
+  </si>
+  <si>
+    <t>All Norwegian kommunenummer/municipalitycodes are published by SSB</t>
+  </si>
+  <si>
+    <t>Extension.value[x].version</t>
+  </si>
+  <si>
+    <t>Extension.value[x].code</t>
+  </si>
+  <si>
+    <t>Actual kommunenummer</t>
+  </si>
+  <si>
+    <t>Norwegian kommunenummer/municipalitycode</t>
+  </si>
+  <si>
+    <t>Extension.value[x].display</t>
+  </si>
+  <si>
+    <t>Extension.value[x].userSelected</t>
   </si>
 </sst>
 </file>
@@ -4943,7 +5030,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B210"/>
+  <dimension ref="A1:B232"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6573,6 +6660,176 @@
         <v>36</v>
       </c>
     </row>
+    <row r="211">
+      <c r="A211" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B211" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B212" t="s" s="2">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B213" t="s" s="2">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B214" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B215" t="s" s="2">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B216" t="s" s="2">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B217" t="s" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B218" s="2"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B219" t="s" s="2">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B220" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B221" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B222" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B223" t="s" s="2">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B224" s="2"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B225" s="2"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B226" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B227" t="s" s="2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B228" t="s" s="2">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B229" t="s" s="2">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B230" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B231" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="2">
+        <v>1554</v>
+      </c>
+      <c r="B232" t="s" s="2">
+        <v>1555</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -6580,7 +6837,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK421"/>
+  <dimension ref="A1:AK433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -50691,6 +50948,1260 @@
         <v>94</v>
       </c>
     </row>
+    <row r="422">
+      <c r="A422" t="s" s="2">
+        <v>1547</v>
+      </c>
+      <c r="B422" t="s" s="2">
+        <v>1552</v>
+      </c>
+      <c r="C422" t="s" s="2">
+        <v>1552</v>
+      </c>
+      <c r="D422" s="2"/>
+      <c r="E422" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F422" s="2"/>
+      <c r="G422" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H422" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I422" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J422" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K422" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L422" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="M422" t="s" s="2">
+        <v>1547</v>
+      </c>
+      <c r="N422" t="s" s="2">
+        <v>1551</v>
+      </c>
+      <c r="O422" s="2"/>
+      <c r="P422" s="2"/>
+      <c r="Q422" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R422" s="2"/>
+      <c r="S422" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T422" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U422" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V422" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W422" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X422" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y422" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z422" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA422" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB422" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC422" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD422" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE422" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF422" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG422" t="s" s="2">
+        <v>1552</v>
+      </c>
+      <c r="AH422" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI422" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ422" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AK422" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s" s="2">
+        <v>1547</v>
+      </c>
+      <c r="B423" t="s" s="2">
+        <v>1556</v>
+      </c>
+      <c r="C423" t="s" s="2">
+        <v>1556</v>
+      </c>
+      <c r="D423" s="2"/>
+      <c r="E423" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F423" s="2"/>
+      <c r="G423" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H423" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I423" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J423" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K423" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L423" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M423" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N423" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O423" s="2"/>
+      <c r="P423" s="2"/>
+      <c r="Q423" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R423" s="2"/>
+      <c r="S423" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T423" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U423" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V423" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W423" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X423" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y423" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z423" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA423" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB423" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC423" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD423" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE423" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF423" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG423" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AH423" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI423" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ423" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK423" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s" s="2">
+        <v>1547</v>
+      </c>
+      <c r="B424" t="s" s="2">
+        <v>1557</v>
+      </c>
+      <c r="C424" t="s" s="2">
+        <v>1557</v>
+      </c>
+      <c r="D424" s="2"/>
+      <c r="E424" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F424" s="2"/>
+      <c r="G424" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H424" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I424" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J424" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K424" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L424" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M424" t="s" s="2">
+        <v>1552</v>
+      </c>
+      <c r="N424" t="s" s="2">
+        <v>1558</v>
+      </c>
+      <c r="O424" s="2"/>
+      <c r="P424" s="2"/>
+      <c r="Q424" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R424" s="2"/>
+      <c r="S424" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T424" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U424" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V424" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W424" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X424" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y424" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z424" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA424" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB424" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC424" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AD424" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AE424" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF424" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AG424" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AH424" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI424" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ424" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK424" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s" s="2">
+        <v>1547</v>
+      </c>
+      <c r="B425" t="s" s="2">
+        <v>1559</v>
+      </c>
+      <c r="C425" t="s" s="2">
+        <v>1559</v>
+      </c>
+      <c r="D425" s="2"/>
+      <c r="E425" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F425" s="2"/>
+      <c r="G425" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H425" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I425" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J425" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K425" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L425" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M425" t="s" s="2">
+        <v>1560</v>
+      </c>
+      <c r="N425" t="s" s="2">
+        <v>1561</v>
+      </c>
+      <c r="O425" t="s" s="2">
+        <v>1562</v>
+      </c>
+      <c r="P425" s="2"/>
+      <c r="Q425" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R425" s="2"/>
+      <c r="S425" t="s" s="2">
+        <v>1548</v>
+      </c>
+      <c r="T425" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U425" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V425" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W425" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X425" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y425" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z425" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA425" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB425" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC425" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD425" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE425" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF425" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG425" t="s" s="2">
+        <v>1559</v>
+      </c>
+      <c r="AH425" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI425" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ425" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK425" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s" s="2">
+        <v>1547</v>
+      </c>
+      <c r="B426" t="s" s="2">
+        <v>1563</v>
+      </c>
+      <c r="C426" t="s" s="2">
+        <v>1563</v>
+      </c>
+      <c r="D426" s="2"/>
+      <c r="E426" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F426" s="2"/>
+      <c r="G426" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H426" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I426" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J426" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K426" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L426" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="M426" t="s" s="2">
+        <v>1564</v>
+      </c>
+      <c r="N426" t="s" s="2">
+        <v>1565</v>
+      </c>
+      <c r="O426" s="2"/>
+      <c r="P426" s="2"/>
+      <c r="Q426" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R426" s="2"/>
+      <c r="S426" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T426" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U426" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V426" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W426" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X426" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y426" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z426" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA426" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB426" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC426" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD426" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE426" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF426" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG426" t="s" s="2">
+        <v>1563</v>
+      </c>
+      <c r="AH426" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI426" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ426" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK426" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s" s="2">
+        <v>1547</v>
+      </c>
+      <c r="B427" t="s" s="2">
+        <v>1566</v>
+      </c>
+      <c r="C427" t="s" s="2">
+        <v>1566</v>
+      </c>
+      <c r="D427" s="2"/>
+      <c r="E427" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F427" s="2"/>
+      <c r="G427" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H427" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I427" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J427" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K427" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L427" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M427" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N427" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O427" s="2"/>
+      <c r="P427" s="2"/>
+      <c r="Q427" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R427" s="2"/>
+      <c r="S427" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T427" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U427" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V427" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W427" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X427" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y427" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z427" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA427" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB427" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC427" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD427" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE427" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF427" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG427" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AH427" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI427" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ427" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK427" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s" s="2">
+        <v>1547</v>
+      </c>
+      <c r="B428" t="s" s="2">
+        <v>1567</v>
+      </c>
+      <c r="C428" t="s" s="2">
+        <v>1567</v>
+      </c>
+      <c r="D428" s="2"/>
+      <c r="E428" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F428" s="2"/>
+      <c r="G428" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H428" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I428" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J428" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K428" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L428" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M428" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N428" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O428" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P428" s="2"/>
+      <c r="Q428" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R428" s="2"/>
+      <c r="S428" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T428" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U428" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V428" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W428" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X428" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y428" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z428" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA428" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB428" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC428" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AD428" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AE428" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF428" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AG428" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AH428" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI428" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ428" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK428" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s" s="2">
+        <v>1547</v>
+      </c>
+      <c r="B429" t="s" s="2">
+        <v>1568</v>
+      </c>
+      <c r="C429" t="s" s="2">
+        <v>1568</v>
+      </c>
+      <c r="D429" s="2"/>
+      <c r="E429" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F429" s="2"/>
+      <c r="G429" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H429" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I429" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J429" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K429" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L429" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M429" t="s" s="2">
+        <v>1502</v>
+      </c>
+      <c r="N429" t="s" s="2">
+        <v>1569</v>
+      </c>
+      <c r="O429" t="s" s="2">
+        <v>1504</v>
+      </c>
+      <c r="P429" t="s" s="2">
+        <v>1505</v>
+      </c>
+      <c r="Q429" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R429" s="2"/>
+      <c r="S429" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T429" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U429" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V429" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W429" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X429" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y429" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z429" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA429" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB429" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC429" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD429" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE429" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF429" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG429" t="s" s="2">
+        <v>1507</v>
+      </c>
+      <c r="AH429" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI429" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ429" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK429" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s" s="2">
+        <v>1547</v>
+      </c>
+      <c r="B430" t="s" s="2">
+        <v>1570</v>
+      </c>
+      <c r="C430" t="s" s="2">
+        <v>1570</v>
+      </c>
+      <c r="D430" s="2"/>
+      <c r="E430" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F430" s="2"/>
+      <c r="G430" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H430" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I430" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J430" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K430" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L430" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M430" t="s" s="2">
+        <v>1509</v>
+      </c>
+      <c r="N430" t="s" s="2">
+        <v>1510</v>
+      </c>
+      <c r="O430" t="s" s="2">
+        <v>1511</v>
+      </c>
+      <c r="P430" s="2"/>
+      <c r="Q430" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R430" s="2"/>
+      <c r="S430" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T430" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U430" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V430" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W430" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X430" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y430" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z430" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA430" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB430" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC430" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD430" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE430" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF430" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG430" t="s" s="2">
+        <v>1512</v>
+      </c>
+      <c r="AH430" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI430" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ430" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK430" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s" s="2">
+        <v>1547</v>
+      </c>
+      <c r="B431" t="s" s="2">
+        <v>1571</v>
+      </c>
+      <c r="C431" t="s" s="2">
+        <v>1571</v>
+      </c>
+      <c r="D431" s="2"/>
+      <c r="E431" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F431" s="2"/>
+      <c r="G431" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H431" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I431" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J431" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K431" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L431" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M431" t="s" s="2">
+        <v>1572</v>
+      </c>
+      <c r="N431" t="s" s="2">
+        <v>1573</v>
+      </c>
+      <c r="O431" s="2"/>
+      <c r="P431" t="s" s="2">
+        <v>1516</v>
+      </c>
+      <c r="Q431" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R431" s="2"/>
+      <c r="S431" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T431" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U431" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V431" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W431" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X431" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y431" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z431" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA431" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB431" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC431" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD431" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE431" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF431" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG431" t="s" s="2">
+        <v>1517</v>
+      </c>
+      <c r="AH431" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI431" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ431" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK431" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s" s="2">
+        <v>1547</v>
+      </c>
+      <c r="B432" t="s" s="2">
+        <v>1574</v>
+      </c>
+      <c r="C432" t="s" s="2">
+        <v>1574</v>
+      </c>
+      <c r="D432" s="2"/>
+      <c r="E432" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F432" s="2"/>
+      <c r="G432" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H432" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I432" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J432" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K432" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L432" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M432" t="s" s="2">
+        <v>1519</v>
+      </c>
+      <c r="N432" t="s" s="2">
+        <v>1520</v>
+      </c>
+      <c r="O432" s="2"/>
+      <c r="P432" t="s" s="2">
+        <v>1521</v>
+      </c>
+      <c r="Q432" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R432" s="2"/>
+      <c r="S432" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T432" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U432" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V432" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W432" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X432" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y432" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z432" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA432" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB432" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC432" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD432" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE432" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF432" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG432" t="s" s="2">
+        <v>1522</v>
+      </c>
+      <c r="AH432" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI432" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ432" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK432" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s" s="2">
+        <v>1547</v>
+      </c>
+      <c r="B433" t="s" s="2">
+        <v>1575</v>
+      </c>
+      <c r="C433" t="s" s="2">
+        <v>1575</v>
+      </c>
+      <c r="D433" s="2"/>
+      <c r="E433" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F433" s="2"/>
+      <c r="G433" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H433" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I433" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J433" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K433" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L433" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M433" t="s" s="2">
+        <v>1524</v>
+      </c>
+      <c r="N433" t="s" s="2">
+        <v>1525</v>
+      </c>
+      <c r="O433" t="s" s="2">
+        <v>1526</v>
+      </c>
+      <c r="P433" t="s" s="2">
+        <v>1527</v>
+      </c>
+      <c r="Q433" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R433" s="2"/>
+      <c r="S433" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T433" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U433" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V433" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W433" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X433" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y433" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z433" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA433" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB433" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC433" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD433" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE433" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF433" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG433" t="s" s="2">
+        <v>1528</v>
+      </c>
+      <c r="AH433" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI433" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ433" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK433" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14809" uniqueCount="1589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15994" uniqueCount="1690">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -3443,7 +3443,7 @@
     <t>Organisasjon</t>
   </si>
   <si>
-    <t>TODO #4</t>
+    <t xml:space="preserve">Organisasjon eller organisasjonsenhet. </t>
   </si>
   <si>
     <t>Organization</t>
@@ -4856,6 +4856,313 @@
   </si>
   <si>
     <t>Knowing which language a practitioner speaks can help in facilitating communication with patients.</t>
+  </si>
+  <si>
+    <t>lmdi-practitionerrole</t>
+  </si>
+  <si>
+    <t>http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-practitionerrole</t>
+  </si>
+  <si>
+    <t>LmdiPractitionerRole</t>
+  </si>
+  <si>
+    <t>Rolle helsepersonell</t>
+  </si>
+  <si>
+    <t>2024-06-05</t>
+  </si>
+  <si>
+    <t>Rollen til helsepersonellet eller personen som har foreskrevet eller administrert legemiddelet</t>
+  </si>
+  <si>
+    <t>PractitionerRole</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/PractitionerRole</t>
+  </si>
+  <si>
+    <t>Roles/organizations the practitioner is associated with</t>
+  </si>
+  <si>
+    <t>A specific set of Roles/Locations/specialties/services that a practitioner may perform at an organization for a period of time.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta</t>
+  </si>
+  <si>
+    <t>PractitionerRole.implicitRules</t>
+  </si>
+  <si>
+    <t>PractitionerRole.language</t>
+  </si>
+  <si>
+    <t>PractitionerRole.text</t>
+  </si>
+  <si>
+    <t>PractitionerRole.contained</t>
+  </si>
+  <si>
+    <t>PractitionerRole.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.modifierExtension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier</t>
+  </si>
+  <si>
+    <t>Business Identifiers that are specific to a role/location</t>
+  </si>
+  <si>
+    <t>Business Identifiers that are specific to a role/location.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.active</t>
+  </si>
+  <si>
+    <t>Whether this practitioner role record is in active use</t>
+  </si>
+  <si>
+    <t>Whether this practitioner role record is in active use.</t>
+  </si>
+  <si>
+    <t>If this value is false, you may refer to the period to see when the role was in active use. If there is no period specified, no inference can be made about when it was active.</t>
+  </si>
+  <si>
+    <t>Need to be able to mark a practitioner role record as not to be used because it was created in error, or otherwise no longer in active use.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.period</t>
+  </si>
+  <si>
+    <t>The period during which the practitioner is authorized to perform in these role(s)</t>
+  </si>
+  <si>
+    <t>The period during which the person is authorized to act as a practitioner in these role(s) for the organization.</t>
+  </si>
+  <si>
+    <t>Even after the agencies is revoked, the fact that it existed must still be recorded.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.practitioner</t>
+  </si>
+  <si>
+    <t>Practitioner that is able to provide the defined services for the organization</t>
+  </si>
+  <si>
+    <t>Practitioner that is able to provide the defined services for the organization.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.organization</t>
+  </si>
+  <si>
+    <t>Organization where the roles are available</t>
+  </si>
+  <si>
+    <t>The organization where the Practitioner performs the roles associated.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.code</t>
+  </si>
+  <si>
+    <t>Roles which this practitioner may perform</t>
+  </si>
+  <si>
+    <t>Roles which this practitioner is authorized to perform for the organization.</t>
+  </si>
+  <si>
+    <t>A person may have more than one role.</t>
+  </si>
+  <si>
+    <t>Need to know what authority the practitioner has - what can they do?</t>
+  </si>
+  <si>
+    <t>The role a person plays representing an organization.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/practitioner-role</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty</t>
+  </si>
+  <si>
+    <t>Specific specialty of the practitioner</t>
+  </si>
+  <si>
+    <t>Specific specialty of the practitioner.</t>
+  </si>
+  <si>
+    <t>Specific specialty associated with the agency.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
+  </si>
+  <si>
+    <t>PractitionerRole.location</t>
+  </si>
+  <si>
+    <t>The location(s) at which this practitioner provides care</t>
+  </si>
+  <si>
+    <t>The location(s) at which this practitioner provides care.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.healthcareService</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(HealthcareService)
+</t>
+  </si>
+  <si>
+    <t>The list of healthcare services that this worker provides for this role's Organization/Location(s)</t>
+  </si>
+  <si>
+    <t>The list of healthcare services that this worker provides for this role's Organization/Location(s).</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom</t>
+  </si>
+  <si>
+    <t>Contact details that are specific to the role/location/service</t>
+  </si>
+  <si>
+    <t>Contact details that are specific to the role/location/service.</t>
+  </si>
+  <si>
+    <t>Often practitioners have a dedicated line for each location (or service) that they work at, and need to be able to define separate contact details for each of these.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.availableTime</t>
+  </si>
+  <si>
+    <t>Times the Service Site is available</t>
+  </si>
+  <si>
+    <t>A collection of times the practitioner is available or performing this role at the location and/or healthcareservice.</t>
+  </si>
+  <si>
+    <t>More detailed availability information may be provided in associated Schedule/Slot resources.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.availableTime.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.availableTime.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.availableTime.modifierExtension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.availableTime.daysOfWeek</t>
+  </si>
+  <si>
+    <t>mon | tue | wed | thu | fri | sat | sun</t>
+  </si>
+  <si>
+    <t>Indicates which days of the week are available between the start and end Times.</t>
+  </si>
+  <si>
+    <t>The days of the week.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/days-of-week|4.0.1</t>
+  </si>
+  <si>
+    <t>PractitionerRole.availableTime.allDay</t>
+  </si>
+  <si>
+    <t>Always available? e.g. 24 hour service</t>
+  </si>
+  <si>
+    <t>Is this always available? (hence times are irrelevant) e.g. 24 hour service.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.availableTime.availableStartTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time
+</t>
+  </si>
+  <si>
+    <t>Opening time of day (ignored if allDay = true)</t>
+  </si>
+  <si>
+    <t>The opening time of day. Note: If the AllDay flag is set, then this time is ignored.</t>
+  </si>
+  <si>
+    <t>The timezone is expected to be for where this HealthcareService is provided at.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.availableTime.availableEndTime</t>
+  </si>
+  <si>
+    <t>Closing time of day (ignored if allDay = true)</t>
+  </si>
+  <si>
+    <t>The closing time of day. Note: If the AllDay flag is set, then this time is ignored.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.notAvailable</t>
+  </si>
+  <si>
+    <t>Not available during this time due to provided reason</t>
+  </si>
+  <si>
+    <t>The practitioner is not available or performing this role during this period of time due to the provided reason.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.notAvailable.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.notAvailable.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.notAvailable.modifierExtension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.notAvailable.description</t>
+  </si>
+  <si>
+    <t>Reason presented to the user explaining why time not available</t>
+  </si>
+  <si>
+    <t>The reason that can be presented to the user as to why this time is not available.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.notAvailable.during</t>
+  </si>
+  <si>
+    <t>Service not available from this date</t>
+  </si>
+  <si>
+    <t>Service is not available (seasonally or for a public holiday) from this date.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.availabilityExceptions</t>
+  </si>
+  <si>
+    <t>Description of availability exceptions</t>
+  </si>
+  <si>
+    <t>A description of site availability exceptions, e.g. public holiday availability. Succinctly describing all possible exceptions to normal site availability as details in the available Times and not available Times.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.endpoint</t>
+  </si>
+  <si>
+    <t>Technical endpoints providing access to services operated for the practitioner with this role</t>
+  </si>
+  <si>
+    <t>Technical endpoints providing access to services operated for the practitioner with this role.</t>
+  </si>
+  <si>
+    <t>Organizations have multiple systems that provide various services and ,ay also be different for practitioners too.++So the endpoint satisfies the need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
   </si>
   <si>
     <t>no-basis-municipalitycode</t>
@@ -5070,7 +5377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B232"/>
+  <dimension ref="A1:B253"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6745,7 +7052,7 @@
         <v>9</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>1562</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="217">
@@ -6767,7 +7074,7 @@
         <v>13</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>1565</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="220">
@@ -6799,7 +7106,7 @@
         <v>21</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>424</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="224">
@@ -6827,7 +7134,7 @@
         <v>27</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>367</v>
+        <v>28</v>
       </c>
     </row>
     <row r="228">
@@ -6835,7 +7142,7 @@
         <v>29</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>419</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="229">
@@ -6843,7 +7150,7 @@
         <v>31</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>1566</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="230">
@@ -6863,11 +7170,173 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
-        <v>1567</v>
-      </c>
-      <c r="B232" t="s" s="2">
-        <v>1568</v>
+      <c r="A232" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B232" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B233" t="s" s="2">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B234" t="s" s="2">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B235" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B236" t="s" s="2">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B237" t="s" s="2">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B238" t="s" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B239" s="2"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B240" t="s" s="2">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B241" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B242" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B243" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B244" t="s" s="2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B245" s="2"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B246" s="2"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B247" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B248" t="s" s="2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B249" t="s" s="2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B250" t="s" s="2">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B251" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B252" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s" s="2">
+        <v>1668</v>
+      </c>
+      <c r="B253" t="s" s="2">
+        <v>1669</v>
       </c>
     </row>
   </sheetData>
@@ -6877,7 +7346,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK437"/>
+  <dimension ref="A1:AK472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -51405,10 +51874,10 @@
         <v>1562</v>
       </c>
       <c r="B426" t="s" s="2">
-        <v>419</v>
+        <v>1568</v>
       </c>
       <c r="C426" t="s" s="2">
-        <v>419</v>
+        <v>1568</v>
       </c>
       <c r="D426" s="2"/>
       <c r="E426" t="s" s="2">
@@ -51434,10 +51903,10 @@
         <v>77</v>
       </c>
       <c r="M426" t="s" s="2">
-        <v>1562</v>
+        <v>1570</v>
       </c>
       <c r="N426" t="s" s="2">
-        <v>424</v>
+        <v>1571</v>
       </c>
       <c r="O426" s="2"/>
       <c r="P426" s="2"/>
@@ -51488,7 +51957,7 @@
         <v>76</v>
       </c>
       <c r="AG426" t="s" s="2">
-        <v>419</v>
+        <v>1568</v>
       </c>
       <c r="AH426" t="s" s="2">
         <v>74</v>
@@ -51497,10 +51966,10 @@
         <v>75</v>
       </c>
       <c r="AJ426" t="s" s="2">
-        <v>373</v>
+        <v>76</v>
       </c>
       <c r="AK426" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
     </row>
     <row r="427">
@@ -51508,10 +51977,10 @@
         <v>1562</v>
       </c>
       <c r="B427" t="s" s="2">
-        <v>1569</v>
+        <v>1572</v>
       </c>
       <c r="C427" t="s" s="2">
-        <v>1569</v>
+        <v>1572</v>
       </c>
       <c r="D427" s="2"/>
       <c r="E427" t="s" s="2">
@@ -51531,18 +52000,20 @@
         <v>76</v>
       </c>
       <c r="K427" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L427" t="s" s="2">
-        <v>276</v>
+        <v>84</v>
       </c>
       <c r="M427" t="s" s="2">
-        <v>277</v>
+        <v>85</v>
       </c>
       <c r="N427" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O427" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="O427" t="s" s="2">
+        <v>87</v>
+      </c>
       <c r="P427" s="2"/>
       <c r="Q427" t="s" s="2">
         <v>76</v>
@@ -51591,7 +52062,7 @@
         <v>76</v>
       </c>
       <c r="AG427" t="s" s="2">
-        <v>279</v>
+        <v>88</v>
       </c>
       <c r="AH427" t="s" s="2">
         <v>74</v>
@@ -51611,10 +52082,10 @@
         <v>1562</v>
       </c>
       <c r="B428" t="s" s="2">
-        <v>1570</v>
+        <v>1573</v>
       </c>
       <c r="C428" t="s" s="2">
-        <v>1570</v>
+        <v>1573</v>
       </c>
       <c r="D428" s="2"/>
       <c r="E428" t="s" s="2">
@@ -51625,7 +52096,7 @@
         <v>74</v>
       </c>
       <c r="H428" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I428" t="s" s="2">
         <v>76</v>
@@ -51634,16 +52105,16 @@
         <v>76</v>
       </c>
       <c r="K428" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L428" t="s" s="2">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="M428" t="s" s="2">
-        <v>419</v>
+        <v>91</v>
       </c>
       <c r="N428" t="s" s="2">
-        <v>420</v>
+        <v>92</v>
       </c>
       <c r="O428" s="2"/>
       <c r="P428" s="2"/>
@@ -51682,31 +52153,31 @@
         <v>76</v>
       </c>
       <c r="AC428" t="s" s="2">
-        <v>376</v>
+        <v>76</v>
       </c>
       <c r="AD428" t="s" s="2">
-        <v>377</v>
+        <v>76</v>
       </c>
       <c r="AE428" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF428" t="s" s="2">
-        <v>378</v>
+        <v>76</v>
       </c>
       <c r="AG428" t="s" s="2">
-        <v>282</v>
+        <v>93</v>
       </c>
       <c r="AH428" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI428" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AJ428" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK428" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="429">
@@ -51714,10 +52185,10 @@
         <v>1562</v>
       </c>
       <c r="B429" t="s" s="2">
-        <v>1571</v>
+        <v>1574</v>
       </c>
       <c r="C429" t="s" s="2">
-        <v>1571</v>
+        <v>1574</v>
       </c>
       <c r="D429" s="2"/>
       <c r="E429" t="s" s="2">
@@ -51725,7 +52196,7 @@
       </c>
       <c r="F429" s="2"/>
       <c r="G429" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H429" t="s" s="2">
         <v>82</v>
@@ -51734,22 +52205,22 @@
         <v>76</v>
       </c>
       <c r="J429" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K429" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L429" t="s" s="2">
         <v>96</v>
       </c>
       <c r="M429" t="s" s="2">
-        <v>1572</v>
+        <v>97</v>
       </c>
       <c r="N429" t="s" s="2">
-        <v>1573</v>
+        <v>98</v>
       </c>
       <c r="O429" t="s" s="2">
-        <v>1574</v>
+        <v>99</v>
       </c>
       <c r="P429" s="2"/>
       <c r="Q429" t="s" s="2">
@@ -51757,7 +52228,7 @@
       </c>
       <c r="R429" s="2"/>
       <c r="S429" t="s" s="2">
-        <v>1563</v>
+        <v>76</v>
       </c>
       <c r="T429" t="s" s="2">
         <v>76</v>
@@ -51799,10 +52270,10 @@
         <v>76</v>
       </c>
       <c r="AG429" t="s" s="2">
-        <v>1571</v>
+        <v>100</v>
       </c>
       <c r="AH429" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AI429" t="s" s="2">
         <v>82</v>
@@ -51811,7 +52282,7 @@
         <v>76</v>
       </c>
       <c r="AK429" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="430">
@@ -51845,15 +52316,17 @@
         <v>76</v>
       </c>
       <c r="L430" t="s" s="2">
-        <v>753</v>
+        <v>102</v>
       </c>
       <c r="M430" t="s" s="2">
-        <v>1576</v>
+        <v>103</v>
       </c>
       <c r="N430" t="s" s="2">
-        <v>1577</v>
-      </c>
-      <c r="O430" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="O430" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P430" s="2"/>
       <c r="Q430" t="s" s="2">
         <v>76</v>
@@ -51878,11 +52351,13 @@
         <v>76</v>
       </c>
       <c r="Y430" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Z430" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="Z430" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="AA430" t="s" s="2">
-        <v>1578</v>
+        <v>108</v>
       </c>
       <c r="AB430" t="s" s="2">
         <v>76</v>
@@ -51900,7 +52375,7 @@
         <v>76</v>
       </c>
       <c r="AG430" t="s" s="2">
-        <v>1575</v>
+        <v>109</v>
       </c>
       <c r="AH430" t="s" s="2">
         <v>74</v>
@@ -51920,14 +52395,14 @@
         <v>1562</v>
       </c>
       <c r="B431" t="s" s="2">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="C431" t="s" s="2">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="D431" s="2"/>
       <c r="E431" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="F431" s="2"/>
       <c r="G431" t="s" s="2">
@@ -51946,15 +52421,17 @@
         <v>76</v>
       </c>
       <c r="L431" t="s" s="2">
-        <v>276</v>
+        <v>112</v>
       </c>
       <c r="M431" t="s" s="2">
-        <v>277</v>
+        <v>113</v>
       </c>
       <c r="N431" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O431" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="O431" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="P431" s="2"/>
       <c r="Q431" t="s" s="2">
         <v>76</v>
@@ -52003,7 +52480,7 @@
         <v>76</v>
       </c>
       <c r="AG431" t="s" s="2">
-        <v>279</v>
+        <v>116</v>
       </c>
       <c r="AH431" t="s" s="2">
         <v>74</v>
@@ -52015,7 +52492,7 @@
         <v>76</v>
       </c>
       <c r="AK431" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="432">
@@ -52023,14 +52500,14 @@
         <v>1562</v>
       </c>
       <c r="B432" t="s" s="2">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="C432" t="s" s="2">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="D432" s="2"/>
       <c r="E432" t="s" s="2">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F432" s="2"/>
       <c r="G432" t="s" s="2">
@@ -52049,16 +52526,16 @@
         <v>76</v>
       </c>
       <c r="L432" t="s" s="2">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="M432" t="s" s="2">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="N432" t="s" s="2">
-        <v>281</v>
+        <v>121</v>
       </c>
       <c r="O432" t="s" s="2">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="P432" s="2"/>
       <c r="Q432" t="s" s="2">
@@ -52096,19 +52573,19 @@
         <v>76</v>
       </c>
       <c r="AC432" t="s" s="2">
-        <v>376</v>
+        <v>76</v>
       </c>
       <c r="AD432" t="s" s="2">
-        <v>377</v>
+        <v>76</v>
       </c>
       <c r="AE432" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF432" t="s" s="2">
-        <v>378</v>
+        <v>76</v>
       </c>
       <c r="AG432" t="s" s="2">
-        <v>282</v>
+        <v>123</v>
       </c>
       <c r="AH432" t="s" s="2">
         <v>74</v>
@@ -52120,7 +52597,7 @@
         <v>76</v>
       </c>
       <c r="AK432" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
     </row>
     <row r="433">
@@ -52128,21 +52605,21 @@
         <v>1562</v>
       </c>
       <c r="B433" t="s" s="2">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="C433" t="s" s="2">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="D433" s="2"/>
       <c r="E433" t="s" s="2">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="F433" s="2"/>
       <c r="G433" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H433" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I433" t="s" s="2">
         <v>76</v>
@@ -52151,23 +52628,21 @@
         <v>76</v>
       </c>
       <c r="K433" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L433" t="s" s="2">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="M433" t="s" s="2">
-        <v>1517</v>
+        <v>127</v>
       </c>
       <c r="N433" t="s" s="2">
-        <v>1582</v>
+        <v>128</v>
       </c>
       <c r="O433" t="s" s="2">
-        <v>1519</v>
-      </c>
-      <c r="P433" t="s" s="2">
-        <v>1520</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="P433" s="2"/>
       <c r="Q433" t="s" s="2">
         <v>76</v>
       </c>
@@ -52215,19 +52690,19 @@
         <v>76</v>
       </c>
       <c r="AG433" t="s" s="2">
-        <v>1522</v>
+        <v>130</v>
       </c>
       <c r="AH433" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI433" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AJ433" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK433" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="434">
@@ -52235,44 +52710,46 @@
         <v>1562</v>
       </c>
       <c r="B434" t="s" s="2">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="C434" t="s" s="2">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="D434" s="2"/>
       <c r="E434" t="s" s="2">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="F434" s="2"/>
       <c r="G434" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H434" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I434" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J434" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K434" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L434" t="s" s="2">
-        <v>276</v>
+        <v>126</v>
       </c>
       <c r="M434" t="s" s="2">
-        <v>1524</v>
+        <v>133</v>
       </c>
       <c r="N434" t="s" s="2">
-        <v>1525</v>
+        <v>134</v>
       </c>
       <c r="O434" t="s" s="2">
-        <v>1526</v>
-      </c>
-      <c r="P434" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="P434" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="Q434" t="s" s="2">
         <v>76</v>
       </c>
@@ -52320,19 +52797,19 @@
         <v>76</v>
       </c>
       <c r="AG434" t="s" s="2">
-        <v>1527</v>
+        <v>136</v>
       </c>
       <c r="AH434" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI434" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AJ434" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK434" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="435">
@@ -52340,10 +52817,10 @@
         <v>1562</v>
       </c>
       <c r="B435" t="s" s="2">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="C435" t="s" s="2">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="D435" s="2"/>
       <c r="E435" t="s" s="2">
@@ -52354,7 +52831,7 @@
         <v>74</v>
       </c>
       <c r="H435" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I435" t="s" s="2">
         <v>76</v>
@@ -52366,17 +52843,17 @@
         <v>83</v>
       </c>
       <c r="L435" t="s" s="2">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="M435" t="s" s="2">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="N435" t="s" s="2">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="O435" s="2"/>
       <c r="P435" t="s" s="2">
-        <v>1531</v>
+        <v>1449</v>
       </c>
       <c r="Q435" t="s" s="2">
         <v>76</v>
@@ -52425,13 +52902,13 @@
         <v>76</v>
       </c>
       <c r="AG435" t="s" s="2">
-        <v>1532</v>
+        <v>1580</v>
       </c>
       <c r="AH435" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI435" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AJ435" t="s" s="2">
         <v>76</v>
@@ -52445,10 +52922,10 @@
         <v>1562</v>
       </c>
       <c r="B436" t="s" s="2">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="C436" t="s" s="2">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="D436" s="2"/>
       <c r="E436" t="s" s="2">
@@ -52471,22 +52948,26 @@
         <v>83</v>
       </c>
       <c r="L436" t="s" s="2">
-        <v>276</v>
+        <v>175</v>
       </c>
       <c r="M436" t="s" s="2">
-        <v>1534</v>
+        <v>1584</v>
       </c>
       <c r="N436" t="s" s="2">
-        <v>1535</v>
-      </c>
-      <c r="O436" s="2"/>
+        <v>1585</v>
+      </c>
+      <c r="O436" t="s" s="2">
+        <v>1586</v>
+      </c>
       <c r="P436" t="s" s="2">
-        <v>1536</v>
+        <v>1587</v>
       </c>
       <c r="Q436" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R436" s="2"/>
+      <c r="R436" t="s" s="2">
+        <v>1129</v>
+      </c>
       <c r="S436" t="s" s="2">
         <v>76</v>
       </c>
@@ -52530,7 +53011,7 @@
         <v>76</v>
       </c>
       <c r="AG436" t="s" s="2">
-        <v>1537</v>
+        <v>1583</v>
       </c>
       <c r="AH436" t="s" s="2">
         <v>74</v>
@@ -52576,19 +53057,17 @@
         <v>83</v>
       </c>
       <c r="L437" t="s" s="2">
-        <v>175</v>
+        <v>307</v>
       </c>
       <c r="M437" t="s" s="2">
-        <v>1539</v>
+        <v>1589</v>
       </c>
       <c r="N437" t="s" s="2">
-        <v>1540</v>
-      </c>
-      <c r="O437" t="s" s="2">
-        <v>1541</v>
-      </c>
+        <v>1590</v>
+      </c>
+      <c r="O437" s="2"/>
       <c r="P437" t="s" s="2">
-        <v>1542</v>
+        <v>1591</v>
       </c>
       <c r="Q437" t="s" s="2">
         <v>76</v>
@@ -52637,18 +53116,3665 @@
         <v>76</v>
       </c>
       <c r="AG437" t="s" s="2">
+        <v>1588</v>
+      </c>
+      <c r="AH437" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI437" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ437" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK437" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s" s="2">
+        <v>1562</v>
+      </c>
+      <c r="B438" t="s" s="2">
+        <v>1592</v>
+      </c>
+      <c r="C438" t="s" s="2">
+        <v>1592</v>
+      </c>
+      <c r="D438" s="2"/>
+      <c r="E438" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F438" s="2"/>
+      <c r="G438" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H438" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I438" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J438" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K438" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L438" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M438" t="s" s="2">
+        <v>1593</v>
+      </c>
+      <c r="N438" t="s" s="2">
+        <v>1594</v>
+      </c>
+      <c r="O438" s="2"/>
+      <c r="P438" s="2"/>
+      <c r="Q438" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R438" s="2"/>
+      <c r="S438" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T438" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U438" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V438" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W438" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X438" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y438" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z438" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA438" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB438" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC438" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD438" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE438" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF438" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG438" t="s" s="2">
+        <v>1592</v>
+      </c>
+      <c r="AH438" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI438" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ438" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK438" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s" s="2">
+        <v>1562</v>
+      </c>
+      <c r="B439" t="s" s="2">
+        <v>1595</v>
+      </c>
+      <c r="C439" t="s" s="2">
+        <v>1595</v>
+      </c>
+      <c r="D439" s="2"/>
+      <c r="E439" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F439" s="2"/>
+      <c r="G439" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H439" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I439" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J439" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K439" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L439" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M439" t="s" s="2">
+        <v>1596</v>
+      </c>
+      <c r="N439" t="s" s="2">
+        <v>1597</v>
+      </c>
+      <c r="O439" s="2"/>
+      <c r="P439" s="2"/>
+      <c r="Q439" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R439" s="2"/>
+      <c r="S439" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T439" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U439" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V439" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W439" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X439" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y439" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z439" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA439" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB439" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC439" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD439" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE439" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF439" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG439" t="s" s="2">
+        <v>1595</v>
+      </c>
+      <c r="AH439" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI439" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ439" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK439" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s" s="2">
+        <v>1562</v>
+      </c>
+      <c r="B440" t="s" s="2">
+        <v>1598</v>
+      </c>
+      <c r="C440" t="s" s="2">
+        <v>1598</v>
+      </c>
+      <c r="D440" s="2"/>
+      <c r="E440" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F440" s="2"/>
+      <c r="G440" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H440" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I440" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J440" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K440" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L440" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M440" t="s" s="2">
+        <v>1599</v>
+      </c>
+      <c r="N440" t="s" s="2">
+        <v>1600</v>
+      </c>
+      <c r="O440" t="s" s="2">
+        <v>1601</v>
+      </c>
+      <c r="P440" t="s" s="2">
+        <v>1602</v>
+      </c>
+      <c r="Q440" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R440" s="2"/>
+      <c r="S440" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T440" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U440" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V440" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W440" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X440" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y440" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="Z440" t="s" s="2">
+        <v>1603</v>
+      </c>
+      <c r="AA440" t="s" s="2">
+        <v>1604</v>
+      </c>
+      <c r="AB440" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC440" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD440" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE440" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF440" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG440" t="s" s="2">
+        <v>1598</v>
+      </c>
+      <c r="AH440" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI440" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ440" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK440" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s" s="2">
+        <v>1562</v>
+      </c>
+      <c r="B441" t="s" s="2">
+        <v>1605</v>
+      </c>
+      <c r="C441" t="s" s="2">
+        <v>1605</v>
+      </c>
+      <c r="D441" s="2"/>
+      <c r="E441" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F441" s="2"/>
+      <c r="G441" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H441" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I441" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J441" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K441" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L441" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M441" t="s" s="2">
+        <v>1606</v>
+      </c>
+      <c r="N441" t="s" s="2">
+        <v>1607</v>
+      </c>
+      <c r="O441" s="2"/>
+      <c r="P441" s="2"/>
+      <c r="Q441" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R441" s="2"/>
+      <c r="S441" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T441" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U441" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V441" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W441" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X441" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y441" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="Z441" t="s" s="2">
+        <v>1608</v>
+      </c>
+      <c r="AA441" t="s" s="2">
+        <v>1609</v>
+      </c>
+      <c r="AB441" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC441" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD441" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE441" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF441" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG441" t="s" s="2">
+        <v>1605</v>
+      </c>
+      <c r="AH441" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI441" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ441" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK441" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s" s="2">
+        <v>1562</v>
+      </c>
+      <c r="B442" t="s" s="2">
+        <v>1610</v>
+      </c>
+      <c r="C442" t="s" s="2">
+        <v>1610</v>
+      </c>
+      <c r="D442" s="2"/>
+      <c r="E442" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F442" s="2"/>
+      <c r="G442" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H442" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I442" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J442" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K442" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L442" t="s" s="2">
+        <v>920</v>
+      </c>
+      <c r="M442" t="s" s="2">
+        <v>1611</v>
+      </c>
+      <c r="N442" t="s" s="2">
+        <v>1612</v>
+      </c>
+      <c r="O442" s="2"/>
+      <c r="P442" s="2"/>
+      <c r="Q442" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R442" s="2"/>
+      <c r="S442" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T442" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U442" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V442" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W442" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X442" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y442" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z442" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA442" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB442" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC442" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD442" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE442" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF442" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG442" t="s" s="2">
+        <v>1610</v>
+      </c>
+      <c r="AH442" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI442" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ442" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK442" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s" s="2">
+        <v>1562</v>
+      </c>
+      <c r="B443" t="s" s="2">
+        <v>1613</v>
+      </c>
+      <c r="C443" t="s" s="2">
+        <v>1613</v>
+      </c>
+      <c r="D443" s="2"/>
+      <c r="E443" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F443" s="2"/>
+      <c r="G443" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H443" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I443" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J443" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K443" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L443" t="s" s="2">
+        <v>1614</v>
+      </c>
+      <c r="M443" t="s" s="2">
+        <v>1615</v>
+      </c>
+      <c r="N443" t="s" s="2">
+        <v>1616</v>
+      </c>
+      <c r="O443" s="2"/>
+      <c r="P443" s="2"/>
+      <c r="Q443" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R443" s="2"/>
+      <c r="S443" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T443" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U443" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V443" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W443" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X443" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y443" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z443" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA443" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB443" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC443" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD443" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE443" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF443" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG443" t="s" s="2">
+        <v>1613</v>
+      </c>
+      <c r="AH443" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI443" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ443" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK443" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s" s="2">
+        <v>1562</v>
+      </c>
+      <c r="B444" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="C444" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="D444" s="2"/>
+      <c r="E444" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F444" s="2"/>
+      <c r="G444" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H444" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I444" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J444" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K444" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L444" t="s" s="2">
+        <v>1148</v>
+      </c>
+      <c r="M444" t="s" s="2">
+        <v>1618</v>
+      </c>
+      <c r="N444" t="s" s="2">
+        <v>1619</v>
+      </c>
+      <c r="O444" s="2"/>
+      <c r="P444" t="s" s="2">
+        <v>1620</v>
+      </c>
+      <c r="Q444" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R444" s="2"/>
+      <c r="S444" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T444" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U444" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V444" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W444" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X444" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y444" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z444" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA444" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB444" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC444" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD444" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE444" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF444" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG444" t="s" s="2">
+        <v>1617</v>
+      </c>
+      <c r="AH444" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI444" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ444" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK444" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s" s="2">
+        <v>1562</v>
+      </c>
+      <c r="B445" t="s" s="2">
+        <v>1621</v>
+      </c>
+      <c r="C445" t="s" s="2">
+        <v>1621</v>
+      </c>
+      <c r="D445" s="2"/>
+      <c r="E445" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F445" s="2"/>
+      <c r="G445" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H445" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I445" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J445" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K445" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L445" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M445" t="s" s="2">
+        <v>1622</v>
+      </c>
+      <c r="N445" t="s" s="2">
+        <v>1623</v>
+      </c>
+      <c r="O445" t="s" s="2">
+        <v>1624</v>
+      </c>
+      <c r="P445" s="2"/>
+      <c r="Q445" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R445" s="2"/>
+      <c r="S445" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T445" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U445" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V445" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W445" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X445" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y445" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z445" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA445" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB445" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC445" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD445" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE445" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF445" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG445" t="s" s="2">
+        <v>1621</v>
+      </c>
+      <c r="AH445" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI445" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ445" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK445" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s" s="2">
+        <v>1562</v>
+      </c>
+      <c r="B446" t="s" s="2">
+        <v>1625</v>
+      </c>
+      <c r="C446" t="s" s="2">
+        <v>1625</v>
+      </c>
+      <c r="D446" s="2"/>
+      <c r="E446" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F446" s="2"/>
+      <c r="G446" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H446" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I446" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J446" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K446" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L446" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M446" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N446" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O446" s="2"/>
+      <c r="P446" s="2"/>
+      <c r="Q446" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R446" s="2"/>
+      <c r="S446" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T446" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U446" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V446" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W446" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X446" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y446" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z446" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA446" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB446" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC446" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD446" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE446" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF446" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG446" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AH446" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI446" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ446" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK446" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s" s="2">
+        <v>1562</v>
+      </c>
+      <c r="B447" t="s" s="2">
+        <v>1626</v>
+      </c>
+      <c r="C447" t="s" s="2">
+        <v>1626</v>
+      </c>
+      <c r="D447" s="2"/>
+      <c r="E447" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F447" s="2"/>
+      <c r="G447" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H447" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I447" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J447" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K447" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L447" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M447" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N447" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O447" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P447" s="2"/>
+      <c r="Q447" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R447" s="2"/>
+      <c r="S447" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T447" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U447" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V447" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W447" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X447" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y447" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z447" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA447" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB447" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC447" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD447" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE447" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF447" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG447" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AH447" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI447" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ447" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK447" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s" s="2">
+        <v>1562</v>
+      </c>
+      <c r="B448" t="s" s="2">
+        <v>1627</v>
+      </c>
+      <c r="C448" t="s" s="2">
+        <v>1627</v>
+      </c>
+      <c r="D448" s="2"/>
+      <c r="E448" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="F448" s="2"/>
+      <c r="G448" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H448" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I448" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J448" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K448" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L448" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M448" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N448" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="O448" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P448" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Q448" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R448" s="2"/>
+      <c r="S448" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T448" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U448" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V448" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W448" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X448" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y448" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z448" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA448" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB448" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC448" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD448" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE448" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF448" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG448" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AH448" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI448" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ448" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK448" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s" s="2">
+        <v>1562</v>
+      </c>
+      <c r="B449" t="s" s="2">
+        <v>1628</v>
+      </c>
+      <c r="C449" t="s" s="2">
+        <v>1628</v>
+      </c>
+      <c r="D449" s="2"/>
+      <c r="E449" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F449" s="2"/>
+      <c r="G449" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H449" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I449" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J449" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K449" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L449" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M449" t="s" s="2">
+        <v>1629</v>
+      </c>
+      <c r="N449" t="s" s="2">
+        <v>1630</v>
+      </c>
+      <c r="O449" s="2"/>
+      <c r="P449" s="2"/>
+      <c r="Q449" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R449" s="2"/>
+      <c r="S449" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T449" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U449" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V449" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W449" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X449" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y449" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="Z449" t="s" s="2">
+        <v>1631</v>
+      </c>
+      <c r="AA449" t="s" s="2">
+        <v>1632</v>
+      </c>
+      <c r="AB449" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC449" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD449" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE449" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF449" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG449" t="s" s="2">
+        <v>1628</v>
+      </c>
+      <c r="AH449" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI449" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ449" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK449" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s" s="2">
+        <v>1562</v>
+      </c>
+      <c r="B450" t="s" s="2">
+        <v>1633</v>
+      </c>
+      <c r="C450" t="s" s="2">
+        <v>1633</v>
+      </c>
+      <c r="D450" s="2"/>
+      <c r="E450" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F450" s="2"/>
+      <c r="G450" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H450" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I450" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J450" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K450" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L450" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M450" t="s" s="2">
+        <v>1634</v>
+      </c>
+      <c r="N450" t="s" s="2">
+        <v>1635</v>
+      </c>
+      <c r="O450" s="2"/>
+      <c r="P450" s="2"/>
+      <c r="Q450" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R450" s="2"/>
+      <c r="S450" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T450" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U450" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V450" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W450" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X450" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y450" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z450" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA450" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB450" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC450" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD450" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE450" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF450" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG450" t="s" s="2">
+        <v>1633</v>
+      </c>
+      <c r="AH450" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI450" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ450" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK450" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s" s="2">
+        <v>1562</v>
+      </c>
+      <c r="B451" t="s" s="2">
+        <v>1636</v>
+      </c>
+      <c r="C451" t="s" s="2">
+        <v>1636</v>
+      </c>
+      <c r="D451" s="2"/>
+      <c r="E451" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F451" s="2"/>
+      <c r="G451" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H451" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I451" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J451" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K451" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L451" t="s" s="2">
+        <v>1637</v>
+      </c>
+      <c r="M451" t="s" s="2">
+        <v>1638</v>
+      </c>
+      <c r="N451" t="s" s="2">
+        <v>1639</v>
+      </c>
+      <c r="O451" t="s" s="2">
+        <v>1640</v>
+      </c>
+      <c r="P451" s="2"/>
+      <c r="Q451" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R451" s="2"/>
+      <c r="S451" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T451" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U451" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V451" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W451" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X451" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y451" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z451" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA451" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB451" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC451" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD451" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE451" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF451" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG451" t="s" s="2">
+        <v>1636</v>
+      </c>
+      <c r="AH451" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI451" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ451" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK451" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s" s="2">
+        <v>1562</v>
+      </c>
+      <c r="B452" t="s" s="2">
+        <v>1641</v>
+      </c>
+      <c r="C452" t="s" s="2">
+        <v>1641</v>
+      </c>
+      <c r="D452" s="2"/>
+      <c r="E452" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F452" s="2"/>
+      <c r="G452" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H452" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I452" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J452" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K452" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L452" t="s" s="2">
+        <v>1637</v>
+      </c>
+      <c r="M452" t="s" s="2">
+        <v>1642</v>
+      </c>
+      <c r="N452" t="s" s="2">
+        <v>1643</v>
+      </c>
+      <c r="O452" t="s" s="2">
+        <v>1640</v>
+      </c>
+      <c r="P452" s="2"/>
+      <c r="Q452" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R452" s="2"/>
+      <c r="S452" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T452" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U452" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V452" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W452" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X452" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y452" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z452" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA452" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB452" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC452" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD452" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE452" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF452" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG452" t="s" s="2">
+        <v>1641</v>
+      </c>
+      <c r="AH452" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI452" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ452" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK452" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s" s="2">
+        <v>1562</v>
+      </c>
+      <c r="B453" t="s" s="2">
+        <v>1644</v>
+      </c>
+      <c r="C453" t="s" s="2">
+        <v>1644</v>
+      </c>
+      <c r="D453" s="2"/>
+      <c r="E453" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F453" s="2"/>
+      <c r="G453" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H453" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I453" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J453" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K453" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L453" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M453" t="s" s="2">
+        <v>1645</v>
+      </c>
+      <c r="N453" t="s" s="2">
+        <v>1646</v>
+      </c>
+      <c r="O453" s="2"/>
+      <c r="P453" s="2"/>
+      <c r="Q453" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R453" s="2"/>
+      <c r="S453" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T453" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U453" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V453" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W453" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X453" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y453" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z453" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA453" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB453" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC453" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD453" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE453" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF453" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG453" t="s" s="2">
+        <v>1644</v>
+      </c>
+      <c r="AH453" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI453" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ453" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK453" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s" s="2">
+        <v>1562</v>
+      </c>
+      <c r="B454" t="s" s="2">
+        <v>1647</v>
+      </c>
+      <c r="C454" t="s" s="2">
+        <v>1647</v>
+      </c>
+      <c r="D454" s="2"/>
+      <c r="E454" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F454" s="2"/>
+      <c r="G454" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H454" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I454" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J454" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K454" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L454" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M454" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N454" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O454" s="2"/>
+      <c r="P454" s="2"/>
+      <c r="Q454" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R454" s="2"/>
+      <c r="S454" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T454" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U454" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V454" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W454" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X454" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y454" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z454" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA454" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB454" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC454" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD454" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE454" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF454" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG454" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AH454" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI454" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ454" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK454" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s" s="2">
+        <v>1562</v>
+      </c>
+      <c r="B455" t="s" s="2">
+        <v>1648</v>
+      </c>
+      <c r="C455" t="s" s="2">
+        <v>1648</v>
+      </c>
+      <c r="D455" s="2"/>
+      <c r="E455" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F455" s="2"/>
+      <c r="G455" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H455" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I455" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J455" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K455" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L455" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M455" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N455" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O455" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P455" s="2"/>
+      <c r="Q455" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R455" s="2"/>
+      <c r="S455" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T455" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U455" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V455" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W455" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X455" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y455" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z455" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA455" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB455" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC455" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD455" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE455" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF455" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG455" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AH455" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI455" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ455" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK455" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s" s="2">
+        <v>1562</v>
+      </c>
+      <c r="B456" t="s" s="2">
+        <v>1649</v>
+      </c>
+      <c r="C456" t="s" s="2">
+        <v>1649</v>
+      </c>
+      <c r="D456" s="2"/>
+      <c r="E456" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="F456" s="2"/>
+      <c r="G456" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H456" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I456" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J456" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K456" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L456" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M456" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N456" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="O456" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P456" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Q456" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R456" s="2"/>
+      <c r="S456" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T456" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U456" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V456" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W456" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X456" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y456" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z456" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA456" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB456" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC456" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD456" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE456" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF456" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG456" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AH456" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI456" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ456" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK456" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s" s="2">
+        <v>1562</v>
+      </c>
+      <c r="B457" t="s" s="2">
+        <v>1650</v>
+      </c>
+      <c r="C457" t="s" s="2">
+        <v>1650</v>
+      </c>
+      <c r="D457" s="2"/>
+      <c r="E457" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F457" s="2"/>
+      <c r="G457" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H457" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I457" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J457" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K457" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L457" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M457" t="s" s="2">
+        <v>1651</v>
+      </c>
+      <c r="N457" t="s" s="2">
+        <v>1652</v>
+      </c>
+      <c r="O457" s="2"/>
+      <c r="P457" s="2"/>
+      <c r="Q457" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R457" s="2"/>
+      <c r="S457" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T457" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U457" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V457" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W457" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X457" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y457" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z457" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA457" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB457" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC457" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD457" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE457" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF457" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG457" t="s" s="2">
+        <v>1650</v>
+      </c>
+      <c r="AH457" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI457" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ457" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK457" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s" s="2">
+        <v>1562</v>
+      </c>
+      <c r="B458" t="s" s="2">
+        <v>1653</v>
+      </c>
+      <c r="C458" t="s" s="2">
+        <v>1653</v>
+      </c>
+      <c r="D458" s="2"/>
+      <c r="E458" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F458" s="2"/>
+      <c r="G458" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H458" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I458" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J458" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K458" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L458" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M458" t="s" s="2">
+        <v>1654</v>
+      </c>
+      <c r="N458" t="s" s="2">
+        <v>1655</v>
+      </c>
+      <c r="O458" s="2"/>
+      <c r="P458" s="2"/>
+      <c r="Q458" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R458" s="2"/>
+      <c r="S458" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T458" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U458" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V458" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W458" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X458" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y458" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z458" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA458" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB458" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC458" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD458" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE458" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF458" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG458" t="s" s="2">
+        <v>1653</v>
+      </c>
+      <c r="AH458" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI458" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ458" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK458" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s" s="2">
+        <v>1562</v>
+      </c>
+      <c r="B459" t="s" s="2">
+        <v>1656</v>
+      </c>
+      <c r="C459" t="s" s="2">
+        <v>1656</v>
+      </c>
+      <c r="D459" s="2"/>
+      <c r="E459" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F459" s="2"/>
+      <c r="G459" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H459" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I459" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J459" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K459" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L459" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M459" t="s" s="2">
+        <v>1657</v>
+      </c>
+      <c r="N459" t="s" s="2">
+        <v>1658</v>
+      </c>
+      <c r="O459" s="2"/>
+      <c r="P459" s="2"/>
+      <c r="Q459" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R459" s="2"/>
+      <c r="S459" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T459" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U459" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V459" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W459" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X459" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y459" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z459" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA459" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB459" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC459" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD459" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE459" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF459" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG459" t="s" s="2">
+        <v>1656</v>
+      </c>
+      <c r="AH459" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI459" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ459" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK459" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s" s="2">
+        <v>1562</v>
+      </c>
+      <c r="B460" t="s" s="2">
+        <v>1659</v>
+      </c>
+      <c r="C460" t="s" s="2">
+        <v>1659</v>
+      </c>
+      <c r="D460" s="2"/>
+      <c r="E460" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F460" s="2"/>
+      <c r="G460" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H460" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I460" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J460" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K460" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L460" t="s" s="2">
+        <v>1195</v>
+      </c>
+      <c r="M460" t="s" s="2">
+        <v>1660</v>
+      </c>
+      <c r="N460" t="s" s="2">
+        <v>1661</v>
+      </c>
+      <c r="O460" s="2"/>
+      <c r="P460" t="s" s="2">
+        <v>1662</v>
+      </c>
+      <c r="Q460" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R460" s="2"/>
+      <c r="S460" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T460" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U460" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V460" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W460" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X460" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y460" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z460" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA460" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB460" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC460" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD460" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE460" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF460" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG460" t="s" s="2">
+        <v>1659</v>
+      </c>
+      <c r="AH460" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI460" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ460" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK460" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s" s="2">
+        <v>1663</v>
+      </c>
+      <c r="B461" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="C461" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="D461" s="2"/>
+      <c r="E461" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F461" s="2"/>
+      <c r="G461" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H461" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I461" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J461" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K461" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="M461" t="s" s="2">
+        <v>1663</v>
+      </c>
+      <c r="N461" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="O461" s="2"/>
+      <c r="P461" s="2"/>
+      <c r="Q461" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R461" s="2"/>
+      <c r="S461" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T461" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U461" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V461" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W461" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X461" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y461" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z461" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA461" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB461" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC461" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD461" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE461" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF461" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG461" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AH461" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI461" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ461" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AK461" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s" s="2">
+        <v>1663</v>
+      </c>
+      <c r="B462" t="s" s="2">
+        <v>1670</v>
+      </c>
+      <c r="C462" t="s" s="2">
+        <v>1670</v>
+      </c>
+      <c r="D462" s="2"/>
+      <c r="E462" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F462" s="2"/>
+      <c r="G462" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H462" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I462" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J462" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K462" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L462" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M462" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N462" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O462" s="2"/>
+      <c r="P462" s="2"/>
+      <c r="Q462" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R462" s="2"/>
+      <c r="S462" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T462" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U462" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V462" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W462" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X462" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y462" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z462" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA462" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB462" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC462" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD462" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE462" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF462" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG462" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AH462" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI462" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ462" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK462" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s" s="2">
+        <v>1663</v>
+      </c>
+      <c r="B463" t="s" s="2">
+        <v>1671</v>
+      </c>
+      <c r="C463" t="s" s="2">
+        <v>1671</v>
+      </c>
+      <c r="D463" s="2"/>
+      <c r="E463" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F463" s="2"/>
+      <c r="G463" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H463" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I463" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J463" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K463" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L463" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M463" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N463" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="O463" s="2"/>
+      <c r="P463" s="2"/>
+      <c r="Q463" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R463" s="2"/>
+      <c r="S463" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T463" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U463" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V463" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W463" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X463" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y463" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z463" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA463" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB463" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC463" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AD463" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AE463" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF463" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AG463" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AH463" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI463" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ463" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK463" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s" s="2">
+        <v>1663</v>
+      </c>
+      <c r="B464" t="s" s="2">
+        <v>1672</v>
+      </c>
+      <c r="C464" t="s" s="2">
+        <v>1672</v>
+      </c>
+      <c r="D464" s="2"/>
+      <c r="E464" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F464" s="2"/>
+      <c r="G464" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H464" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I464" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J464" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K464" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L464" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M464" t="s" s="2">
+        <v>1673</v>
+      </c>
+      <c r="N464" t="s" s="2">
+        <v>1674</v>
+      </c>
+      <c r="O464" t="s" s="2">
+        <v>1675</v>
+      </c>
+      <c r="P464" s="2"/>
+      <c r="Q464" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R464" s="2"/>
+      <c r="S464" t="s" s="2">
+        <v>1664</v>
+      </c>
+      <c r="T464" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U464" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V464" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W464" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X464" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y464" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z464" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA464" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB464" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC464" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD464" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE464" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF464" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG464" t="s" s="2">
+        <v>1672</v>
+      </c>
+      <c r="AH464" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI464" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ464" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK464" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s" s="2">
+        <v>1663</v>
+      </c>
+      <c r="B465" t="s" s="2">
+        <v>1676</v>
+      </c>
+      <c r="C465" t="s" s="2">
+        <v>1676</v>
+      </c>
+      <c r="D465" s="2"/>
+      <c r="E465" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F465" s="2"/>
+      <c r="G465" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H465" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I465" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J465" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K465" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L465" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="M465" t="s" s="2">
+        <v>1677</v>
+      </c>
+      <c r="N465" t="s" s="2">
+        <v>1678</v>
+      </c>
+      <c r="O465" s="2"/>
+      <c r="P465" s="2"/>
+      <c r="Q465" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R465" s="2"/>
+      <c r="S465" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T465" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U465" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V465" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W465" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X465" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y465" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="Z465" s="2"/>
+      <c r="AA465" t="s" s="2">
+        <v>1679</v>
+      </c>
+      <c r="AB465" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC465" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD465" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE465" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF465" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG465" t="s" s="2">
+        <v>1676</v>
+      </c>
+      <c r="AH465" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI465" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ465" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK465" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s" s="2">
+        <v>1663</v>
+      </c>
+      <c r="B466" t="s" s="2">
+        <v>1680</v>
+      </c>
+      <c r="C466" t="s" s="2">
+        <v>1680</v>
+      </c>
+      <c r="D466" s="2"/>
+      <c r="E466" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F466" s="2"/>
+      <c r="G466" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H466" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I466" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J466" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K466" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L466" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M466" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N466" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O466" s="2"/>
+      <c r="P466" s="2"/>
+      <c r="Q466" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R466" s="2"/>
+      <c r="S466" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T466" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U466" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V466" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W466" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X466" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y466" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z466" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA466" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB466" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC466" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD466" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE466" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF466" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG466" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AH466" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI466" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ466" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK466" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s" s="2">
+        <v>1663</v>
+      </c>
+      <c r="B467" t="s" s="2">
+        <v>1681</v>
+      </c>
+      <c r="C467" t="s" s="2">
+        <v>1681</v>
+      </c>
+      <c r="D467" s="2"/>
+      <c r="E467" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F467" s="2"/>
+      <c r="G467" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H467" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I467" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J467" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K467" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L467" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M467" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N467" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O467" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P467" s="2"/>
+      <c r="Q467" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R467" s="2"/>
+      <c r="S467" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T467" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U467" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V467" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W467" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X467" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y467" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z467" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA467" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB467" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC467" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AD467" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AE467" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF467" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AG467" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AH467" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI467" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ467" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK467" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="s" s="2">
+        <v>1663</v>
+      </c>
+      <c r="B468" t="s" s="2">
+        <v>1682</v>
+      </c>
+      <c r="C468" t="s" s="2">
+        <v>1682</v>
+      </c>
+      <c r="D468" s="2"/>
+      <c r="E468" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F468" s="2"/>
+      <c r="G468" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H468" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I468" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J468" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K468" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L468" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M468" t="s" s="2">
+        <v>1517</v>
+      </c>
+      <c r="N468" t="s" s="2">
+        <v>1683</v>
+      </c>
+      <c r="O468" t="s" s="2">
+        <v>1519</v>
+      </c>
+      <c r="P468" t="s" s="2">
+        <v>1520</v>
+      </c>
+      <c r="Q468" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R468" s="2"/>
+      <c r="S468" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T468" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U468" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V468" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W468" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X468" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y468" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z468" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA468" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB468" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC468" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD468" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE468" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF468" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG468" t="s" s="2">
+        <v>1522</v>
+      </c>
+      <c r="AH468" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI468" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ468" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK468" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s" s="2">
+        <v>1663</v>
+      </c>
+      <c r="B469" t="s" s="2">
+        <v>1684</v>
+      </c>
+      <c r="C469" t="s" s="2">
+        <v>1684</v>
+      </c>
+      <c r="D469" s="2"/>
+      <c r="E469" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F469" s="2"/>
+      <c r="G469" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H469" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I469" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J469" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K469" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L469" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M469" t="s" s="2">
+        <v>1524</v>
+      </c>
+      <c r="N469" t="s" s="2">
+        <v>1525</v>
+      </c>
+      <c r="O469" t="s" s="2">
+        <v>1526</v>
+      </c>
+      <c r="P469" s="2"/>
+      <c r="Q469" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R469" s="2"/>
+      <c r="S469" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T469" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U469" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V469" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W469" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X469" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y469" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z469" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA469" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB469" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC469" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD469" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE469" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF469" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG469" t="s" s="2">
+        <v>1527</v>
+      </c>
+      <c r="AH469" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI469" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ469" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK469" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="s" s="2">
+        <v>1663</v>
+      </c>
+      <c r="B470" t="s" s="2">
+        <v>1685</v>
+      </c>
+      <c r="C470" t="s" s="2">
+        <v>1685</v>
+      </c>
+      <c r="D470" s="2"/>
+      <c r="E470" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F470" s="2"/>
+      <c r="G470" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H470" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I470" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J470" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K470" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L470" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M470" t="s" s="2">
+        <v>1686</v>
+      </c>
+      <c r="N470" t="s" s="2">
+        <v>1687</v>
+      </c>
+      <c r="O470" s="2"/>
+      <c r="P470" t="s" s="2">
+        <v>1531</v>
+      </c>
+      <c r="Q470" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R470" s="2"/>
+      <c r="S470" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T470" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U470" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V470" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W470" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X470" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y470" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z470" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA470" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB470" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC470" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD470" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE470" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF470" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG470" t="s" s="2">
+        <v>1532</v>
+      </c>
+      <c r="AH470" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI470" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ470" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK470" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s" s="2">
+        <v>1663</v>
+      </c>
+      <c r="B471" t="s" s="2">
+        <v>1688</v>
+      </c>
+      <c r="C471" t="s" s="2">
+        <v>1688</v>
+      </c>
+      <c r="D471" s="2"/>
+      <c r="E471" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F471" s="2"/>
+      <c r="G471" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H471" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I471" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J471" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K471" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L471" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M471" t="s" s="2">
+        <v>1534</v>
+      </c>
+      <c r="N471" t="s" s="2">
+        <v>1535</v>
+      </c>
+      <c r="O471" s="2"/>
+      <c r="P471" t="s" s="2">
+        <v>1536</v>
+      </c>
+      <c r="Q471" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R471" s="2"/>
+      <c r="S471" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T471" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U471" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V471" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W471" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X471" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y471" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z471" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA471" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB471" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC471" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD471" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE471" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF471" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG471" t="s" s="2">
+        <v>1537</v>
+      </c>
+      <c r="AH471" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI471" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ471" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK471" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="s" s="2">
+        <v>1663</v>
+      </c>
+      <c r="B472" t="s" s="2">
+        <v>1689</v>
+      </c>
+      <c r="C472" t="s" s="2">
+        <v>1689</v>
+      </c>
+      <c r="D472" s="2"/>
+      <c r="E472" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F472" s="2"/>
+      <c r="G472" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H472" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I472" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J472" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K472" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L472" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M472" t="s" s="2">
+        <v>1539</v>
+      </c>
+      <c r="N472" t="s" s="2">
+        <v>1540</v>
+      </c>
+      <c r="O472" t="s" s="2">
+        <v>1541</v>
+      </c>
+      <c r="P472" t="s" s="2">
+        <v>1542</v>
+      </c>
+      <c r="Q472" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R472" s="2"/>
+      <c r="S472" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T472" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U472" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V472" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W472" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X472" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y472" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z472" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA472" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB472" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC472" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD472" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE472" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF472" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG472" t="s" s="2">
         <v>1543</v>
       </c>
-      <c r="AH437" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI437" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ437" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK437" t="s" s="2">
+      <c r="AH472" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI472" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ472" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK472" t="s" s="2">
         <v>94</v>
       </c>
     </row>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.4</t>
+    <t>0.6.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16434" uniqueCount="1752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16434" uniqueCount="1754">
   <si>
     <t>Property</t>
   </si>
@@ -1436,7 +1436,8 @@
     <t>Administrert legemiddel</t>
   </si>
   <si>
-    <t>Beskriver administrasjon av legemiddel til pasient på institusjon.</t>
+    <t>Beskriver administrasjon av legemiddel til pasient på institusjon.
+{% include administrasjon.md %}</t>
   </si>
   <si>
     <t>MedicationAdministration</t>
@@ -2751,7 +2752,7 @@
     <t>LmdiObservation</t>
   </si>
   <si>
-    <t>Observation TMP (Kun et eksempel med kroppsvekt)</t>
+    <t>Observasjon (kladd)</t>
   </si>
   <si>
     <t>Observation</t>
@@ -4116,6 +4117,10 @@
     <t>FNR</t>
   </si>
   <si>
+    <t xml:space="preserve">fødselsnummer
+</t>
+  </si>
+  <si>
     <t>An identifier for this patient</t>
   </si>
   <si>
@@ -4273,6 +4278,10 @@
   </si>
   <si>
     <t>DNR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-nummer
+</t>
   </si>
   <si>
     <t>Patient.identifier:DNR.id</t>
@@ -7062,7 +7071,7 @@
         <v>2</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="192">
@@ -7070,7 +7079,7 @@
         <v>4</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>1524</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="193">
@@ -7086,7 +7095,7 @@
         <v>8</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>1525</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="195">
@@ -7094,7 +7103,7 @@
         <v>9</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>1526</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="196">
@@ -7148,7 +7157,7 @@
         <v>21</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>1527</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="203">
@@ -7184,7 +7193,7 @@
         <v>29</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>1528</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="208">
@@ -7192,7 +7201,7 @@
         <v>31</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>1529</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="209">
@@ -7224,7 +7233,7 @@
         <v>2</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="213">
@@ -7232,7 +7241,7 @@
         <v>4</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>1625</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="214">
@@ -7248,7 +7257,7 @@
         <v>8</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>1626</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="216">
@@ -7256,7 +7265,7 @@
         <v>9</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>1627</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="217">
@@ -7310,7 +7319,7 @@
         <v>21</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>1628</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="224">
@@ -7346,7 +7355,7 @@
         <v>29</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>1629</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="229">
@@ -7354,7 +7363,7 @@
         <v>31</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>1630</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="230">
@@ -7386,7 +7395,7 @@
         <v>2</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>1725</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="234">
@@ -7394,7 +7403,7 @@
         <v>4</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>1726</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="235">
@@ -7410,7 +7419,7 @@
         <v>8</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>1727</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="237">
@@ -7418,7 +7427,7 @@
         <v>9</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>1725</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="238">
@@ -7440,7 +7449,7 @@
         <v>13</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>1728</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="241">
@@ -7516,7 +7525,7 @@
         <v>31</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>1729</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="251">
@@ -7537,10 +7546,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>1731</v>
+        <v>1733</v>
       </c>
     </row>
   </sheetData>
@@ -43095,7 +43104,7 @@
         <v>1318</v>
       </c>
       <c r="E340" t="s" s="2">
-        <v>76</v>
+        <v>1319</v>
       </c>
       <c r="F340" s="2"/>
       <c r="G340" t="s" s="2">
@@ -43117,10 +43126,10 @@
         <v>138</v>
       </c>
       <c r="M340" t="s" s="2">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="N340" t="s" s="2">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="O340" s="2"/>
       <c r="P340" t="s" s="2">
@@ -43193,10 +43202,10 @@
         <v>1292</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="C341" t="s" s="2">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" t="s" s="2">
@@ -43296,10 +43305,10 @@
         <v>1292</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="C342" t="s" s="2">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" t="s" s="2">
@@ -43401,10 +43410,10 @@
         <v>1292</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="C343" t="s" s="2">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" t="s" s="2">
@@ -43430,16 +43439,16 @@
         <v>102</v>
       </c>
       <c r="M343" t="s" s="2">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="N343" t="s" s="2">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="O343" t="s" s="2">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="P343" t="s" s="2">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="Q343" t="s" s="2">
         <v>76</v>
@@ -43467,10 +43476,10 @@
         <v>146</v>
       </c>
       <c r="Z343" t="s" s="2">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="AA343" t="s" s="2">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="AB343" t="s" s="2">
         <v>76</v>
@@ -43488,7 +43497,7 @@
         <v>76</v>
       </c>
       <c r="AG343" t="s" s="2">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="AH343" t="s" s="2">
         <v>74</v>
@@ -43508,10 +43517,10 @@
         <v>1292</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="C344" t="s" s="2">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" t="s" s="2">
@@ -43537,16 +43546,16 @@
         <v>150</v>
       </c>
       <c r="M344" t="s" s="2">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="N344" t="s" s="2">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="O344" t="s" s="2">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="P344" t="s" s="2">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="Q344" t="s" s="2">
         <v>76</v>
@@ -43574,10 +43583,10 @@
         <v>622</v>
       </c>
       <c r="Z344" t="s" s="2">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="AA344" t="s" s="2">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="AB344" t="s" s="2">
         <v>76</v>
@@ -43595,7 +43604,7 @@
         <v>76</v>
       </c>
       <c r="AG344" t="s" s="2">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="AH344" t="s" s="2">
         <v>74</v>
@@ -43615,10 +43624,10 @@
         <v>1292</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="C345" t="s" s="2">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" t="s" s="2">
@@ -43644,16 +43653,16 @@
         <v>96</v>
       </c>
       <c r="M345" t="s" s="2">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="N345" t="s" s="2">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="O345" t="s" s="2">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="P345" t="s" s="2">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="Q345" t="s" s="2">
         <v>76</v>
@@ -43663,10 +43672,10 @@
         <v>76</v>
       </c>
       <c r="T345" t="s" s="2">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="U345" t="s" s="2">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="V345" t="s" s="2">
         <v>76</v>
@@ -43702,7 +43711,7 @@
         <v>76</v>
       </c>
       <c r="AG345" t="s" s="2">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="AH345" t="s" s="2">
         <v>74</v>
@@ -43722,10 +43731,10 @@
         <v>1292</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="C346" t="s" s="2">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" t="s" s="2">
@@ -43751,13 +43760,13 @@
         <v>276</v>
       </c>
       <c r="M346" t="s" s="2">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="N346" t="s" s="2">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="O346" t="s" s="2">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="P346" s="2"/>
       <c r="Q346" t="s" s="2">
@@ -43771,7 +43780,7 @@
         <v>76</v>
       </c>
       <c r="U346" t="s" s="2">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="V346" t="s" s="2">
         <v>76</v>
@@ -43807,7 +43816,7 @@
         <v>76</v>
       </c>
       <c r="AG346" t="s" s="2">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="AH346" t="s" s="2">
         <v>74</v>
@@ -43827,10 +43836,10 @@
         <v>1292</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="C347" t="s" s="2">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" t="s" s="2">
@@ -43856,10 +43865,10 @@
         <v>307</v>
       </c>
       <c r="M347" t="s" s="2">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="N347" t="s" s="2">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="O347" s="2"/>
       <c r="P347" s="2"/>
@@ -43910,7 +43919,7 @@
         <v>76</v>
       </c>
       <c r="AG347" t="s" s="2">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="AH347" t="s" s="2">
         <v>74</v>
@@ -43930,10 +43939,10 @@
         <v>1292</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="C348" t="s" s="2">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" t="s" s="2">
@@ -43959,13 +43968,13 @@
         <v>325</v>
       </c>
       <c r="M348" t="s" s="2">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="N348" t="s" s="2">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="O348" t="s" s="2">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="P348" s="2"/>
       <c r="Q348" t="s" s="2">
@@ -44015,7 +44024,7 @@
         <v>76</v>
       </c>
       <c r="AG348" t="s" s="2">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="AH348" t="s" s="2">
         <v>74</v>
@@ -44035,16 +44044,16 @@
         <v>1292</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="C349" t="s" s="2">
         <v>1311</v>
       </c>
       <c r="D349" t="s" s="2">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="E349" t="s" s="2">
-        <v>76</v>
+        <v>1373</v>
       </c>
       <c r="F349" s="2"/>
       <c r="G349" t="s" s="2">
@@ -44066,10 +44075,10 @@
         <v>138</v>
       </c>
       <c r="M349" t="s" s="2">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="N349" t="s" s="2">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="O349" s="2"/>
       <c r="P349" t="s" s="2">
@@ -44142,10 +44151,10 @@
         <v>1292</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="C350" t="s" s="2">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" t="s" s="2">
@@ -44245,10 +44254,10 @@
         <v>1292</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="C351" t="s" s="2">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" t="s" s="2">
@@ -44350,10 +44359,10 @@
         <v>1292</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="C352" t="s" s="2">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" t="s" s="2">
@@ -44379,16 +44388,16 @@
         <v>102</v>
       </c>
       <c r="M352" t="s" s="2">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="N352" t="s" s="2">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="O352" t="s" s="2">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="P352" t="s" s="2">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="Q352" t="s" s="2">
         <v>76</v>
@@ -44416,10 +44425,10 @@
         <v>146</v>
       </c>
       <c r="Z352" t="s" s="2">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="AA352" t="s" s="2">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="AB352" t="s" s="2">
         <v>76</v>
@@ -44437,7 +44446,7 @@
         <v>76</v>
       </c>
       <c r="AG352" t="s" s="2">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="AH352" t="s" s="2">
         <v>74</v>
@@ -44457,10 +44466,10 @@
         <v>1292</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" t="s" s="2">
@@ -44486,16 +44495,16 @@
         <v>150</v>
       </c>
       <c r="M353" t="s" s="2">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="N353" t="s" s="2">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="O353" t="s" s="2">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="P353" t="s" s="2">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="Q353" t="s" s="2">
         <v>76</v>
@@ -44523,10 +44532,10 @@
         <v>622</v>
       </c>
       <c r="Z353" t="s" s="2">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="AA353" t="s" s="2">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="AB353" t="s" s="2">
         <v>76</v>
@@ -44544,7 +44553,7 @@
         <v>76</v>
       </c>
       <c r="AG353" t="s" s="2">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="AH353" t="s" s="2">
         <v>74</v>
@@ -44564,10 +44573,10 @@
         <v>1292</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="C354" t="s" s="2">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" t="s" s="2">
@@ -44593,16 +44602,16 @@
         <v>96</v>
       </c>
       <c r="M354" t="s" s="2">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="N354" t="s" s="2">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="O354" t="s" s="2">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="P354" t="s" s="2">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="Q354" t="s" s="2">
         <v>76</v>
@@ -44612,10 +44621,10 @@
         <v>76</v>
       </c>
       <c r="T354" t="s" s="2">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="U354" t="s" s="2">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="V354" t="s" s="2">
         <v>76</v>
@@ -44651,7 +44660,7 @@
         <v>76</v>
       </c>
       <c r="AG354" t="s" s="2">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="AH354" t="s" s="2">
         <v>74</v>
@@ -44671,10 +44680,10 @@
         <v>1292</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="C355" t="s" s="2">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" t="s" s="2">
@@ -44700,13 +44709,13 @@
         <v>276</v>
       </c>
       <c r="M355" t="s" s="2">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="N355" t="s" s="2">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="O355" t="s" s="2">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="P355" s="2"/>
       <c r="Q355" t="s" s="2">
@@ -44720,7 +44729,7 @@
         <v>76</v>
       </c>
       <c r="U355" t="s" s="2">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="V355" t="s" s="2">
         <v>76</v>
@@ -44756,7 +44765,7 @@
         <v>76</v>
       </c>
       <c r="AG355" t="s" s="2">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="AH355" t="s" s="2">
         <v>74</v>
@@ -44776,10 +44785,10 @@
         <v>1292</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="C356" t="s" s="2">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" t="s" s="2">
@@ -44805,10 +44814,10 @@
         <v>307</v>
       </c>
       <c r="M356" t="s" s="2">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="N356" t="s" s="2">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="O356" s="2"/>
       <c r="P356" s="2"/>
@@ -44859,7 +44868,7 @@
         <v>76</v>
       </c>
       <c r="AG356" t="s" s="2">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="AH356" t="s" s="2">
         <v>74</v>
@@ -44879,10 +44888,10 @@
         <v>1292</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="C357" t="s" s="2">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" t="s" s="2">
@@ -44908,13 +44917,13 @@
         <v>325</v>
       </c>
       <c r="M357" t="s" s="2">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="N357" t="s" s="2">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="O357" t="s" s="2">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="P357" s="2"/>
       <c r="Q357" t="s" s="2">
@@ -44964,7 +44973,7 @@
         <v>76</v>
       </c>
       <c r="AG357" t="s" s="2">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="AH357" t="s" s="2">
         <v>74</v>
@@ -44984,10 +44993,10 @@
         <v>1292</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="C358" t="s" s="2">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" t="s" s="2">
@@ -45013,16 +45022,16 @@
         <v>175</v>
       </c>
       <c r="M358" t="s" s="2">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="N358" t="s" s="2">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="O358" t="s" s="2">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="P358" t="s" s="2">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="Q358" t="s" s="2">
         <v>76</v>
@@ -45073,7 +45082,7 @@
         <v>76</v>
       </c>
       <c r="AG358" t="s" s="2">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="AH358" t="s" s="2">
         <v>74</v>
@@ -45093,10 +45102,10 @@
         <v>1292</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="C359" t="s" s="2">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" t="s" s="2">
@@ -45122,16 +45131,16 @@
         <v>1275</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="N359" t="s" s="2">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="O359" t="s" s="2">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="P359" t="s" s="2">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="Q359" t="s" s="2">
         <v>76</v>
@@ -45180,7 +45189,7 @@
         <v>76</v>
       </c>
       <c r="AG359" t="s" s="2">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="AH359" t="s" s="2">
         <v>74</v>
@@ -45200,10 +45209,10 @@
         <v>1292</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="C360" t="s" s="2">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" t="s" s="2">
@@ -45229,13 +45238,13 @@
         <v>1225</v>
       </c>
       <c r="M360" t="s" s="2">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="N360" t="s" s="2">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="O360" t="s" s="2">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="P360" t="s" s="2">
         <v>1282</v>
@@ -45287,7 +45296,7 @@
         <v>76</v>
       </c>
       <c r="AG360" t="s" s="2">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="AH360" t="s" s="2">
         <v>74</v>
@@ -45307,10 +45316,10 @@
         <v>1292</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="C361" t="s" s="2">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" t="s" s="2">
@@ -45336,16 +45345,16 @@
         <v>102</v>
       </c>
       <c r="M361" t="s" s="2">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="N361" t="s" s="2">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="O361" t="s" s="2">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="P361" t="s" s="2">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="Q361" t="s" s="2">
         <v>76</v>
@@ -45373,10 +45382,10 @@
         <v>146</v>
       </c>
       <c r="Z361" t="s" s="2">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="AA361" t="s" s="2">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="AB361" t="s" s="2">
         <v>76</v>
@@ -45394,7 +45403,7 @@
         <v>76</v>
       </c>
       <c r="AG361" t="s" s="2">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="AH361" t="s" s="2">
         <v>74</v>
@@ -45414,10 +45423,10 @@
         <v>1292</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="C362" t="s" s="2">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" t="s" s="2">
@@ -45440,19 +45449,19 @@
         <v>83</v>
       </c>
       <c r="L362" t="s" s="2">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="M362" t="s" s="2">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="N362" t="s" s="2">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="O362" t="s" s="2">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="P362" t="s" s="2">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="Q362" t="s" s="2">
         <v>76</v>
@@ -45501,7 +45510,7 @@
         <v>76</v>
       </c>
       <c r="AG362" t="s" s="2">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="AH362" t="s" s="2">
         <v>74</v>
@@ -45521,10 +45530,10 @@
         <v>1292</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="C363" t="s" s="2">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" t="s" s="2">
@@ -45547,19 +45556,19 @@
         <v>83</v>
       </c>
       <c r="L363" t="s" s="2">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="M363" t="s" s="2">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="N363" t="s" s="2">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="O363" t="s" s="2">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="P363" t="s" s="2">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="Q363" t="s" s="2">
         <v>76</v>
@@ -45608,7 +45617,7 @@
         <v>76</v>
       </c>
       <c r="AG363" t="s" s="2">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="AH363" t="s" s="2">
         <v>74</v>
@@ -45628,10 +45637,10 @@
         <v>1292</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="C364" t="s" s="2">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" t="s" s="2">
@@ -45657,16 +45666,16 @@
         <v>1233</v>
       </c>
       <c r="M364" t="s" s="2">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="N364" t="s" s="2">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="O364" t="s" s="2">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="P364" t="s" s="2">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="Q364" t="s" s="2">
         <v>76</v>
@@ -45715,7 +45724,7 @@
         <v>76</v>
       </c>
       <c r="AG364" t="s" s="2">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="AH364" t="s" s="2">
         <v>74</v>
@@ -45735,10 +45744,10 @@
         <v>1292</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="C365" t="s" s="2">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" t="s" s="2">
@@ -45764,14 +45773,14 @@
         <v>150</v>
       </c>
       <c r="M365" t="s" s="2">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="N365" t="s" s="2">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="O365" s="2"/>
       <c r="P365" t="s" s="2">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="Q365" t="s" s="2">
         <v>76</v>
@@ -45799,10 +45808,10 @@
         <v>622</v>
       </c>
       <c r="Z365" t="s" s="2">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="AA365" t="s" s="2">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="AB365" t="s" s="2">
         <v>76</v>
@@ -45820,7 +45829,7 @@
         <v>76</v>
       </c>
       <c r="AG365" t="s" s="2">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="AH365" t="s" s="2">
         <v>74</v>
@@ -45840,10 +45849,10 @@
         <v>1292</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="C366" t="s" s="2">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" t="s" s="2">
@@ -45866,19 +45875,19 @@
         <v>76</v>
       </c>
       <c r="L366" t="s" s="2">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="M366" t="s" s="2">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="N366" t="s" s="2">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="O366" t="s" s="2">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="P366" t="s" s="2">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="Q366" t="s" s="2">
         <v>76</v>
@@ -45927,7 +45936,7 @@
         <v>76</v>
       </c>
       <c r="AG366" t="s" s="2">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="AH366" t="s" s="2">
         <v>74</v>
@@ -45947,10 +45956,10 @@
         <v>1292</v>
       </c>
       <c r="B367" t="s" s="2">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="C367" t="s" s="2">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" t="s" s="2">
@@ -45973,19 +45982,19 @@
         <v>76</v>
       </c>
       <c r="L367" t="s" s="2">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="M367" t="s" s="2">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="N367" t="s" s="2">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="O367" t="s" s="2">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="P367" t="s" s="2">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="Q367" t="s" s="2">
         <v>76</v>
@@ -46034,7 +46043,7 @@
         <v>76</v>
       </c>
       <c r="AG367" t="s" s="2">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="AH367" t="s" s="2">
         <v>74</v>
@@ -46054,10 +46063,10 @@
         <v>1292</v>
       </c>
       <c r="B368" t="s" s="2">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="C368" t="s" s="2">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" t="s" s="2">
@@ -46083,16 +46092,16 @@
         <v>272</v>
       </c>
       <c r="M368" t="s" s="2">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="N368" t="s" s="2">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="O368" t="s" s="2">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="P368" t="s" s="2">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="Q368" t="s" s="2">
         <v>76</v>
@@ -46141,7 +46150,7 @@
         <v>76</v>
       </c>
       <c r="AG368" t="s" s="2">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="AH368" t="s" s="2">
         <v>74</v>
@@ -46153,7 +46162,7 @@
         <v>76</v>
       </c>
       <c r="AK368" t="s" s="2">
-        <v>1443</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="369">
@@ -46161,10 +46170,10 @@
         <v>1292</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" t="s" s="2">
@@ -46264,10 +46273,10 @@
         <v>1292</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="C370" t="s" s="2">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" t="s" s="2">
@@ -46369,10 +46378,10 @@
         <v>1292</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="C371" t="s" s="2">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" t="s" s="2">
@@ -46476,10 +46485,10 @@
         <v>1292</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="C372" t="s" s="2">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" t="s" s="2">
@@ -46505,14 +46514,14 @@
         <v>150</v>
       </c>
       <c r="M372" t="s" s="2">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="N372" t="s" s="2">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="O372" s="2"/>
       <c r="P372" t="s" s="2">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="Q372" t="s" s="2">
         <v>76</v>
@@ -46540,10 +46549,10 @@
         <v>622</v>
       </c>
       <c r="Z372" t="s" s="2">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="AA372" t="s" s="2">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="AB372" t="s" s="2">
         <v>76</v>
@@ -46561,7 +46570,7 @@
         <v>76</v>
       </c>
       <c r="AG372" t="s" s="2">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="AH372" t="s" s="2">
         <v>74</v>
@@ -46581,10 +46590,10 @@
         <v>1292</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="C373" t="s" s="2">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" t="s" s="2">
@@ -46610,14 +46619,14 @@
         <v>1275</v>
       </c>
       <c r="M373" t="s" s="2">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="N373" t="s" s="2">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="O373" s="2"/>
       <c r="P373" t="s" s="2">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="Q373" t="s" s="2">
         <v>76</v>
@@ -46666,7 +46675,7 @@
         <v>76</v>
       </c>
       <c r="AG373" t="s" s="2">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="AH373" t="s" s="2">
         <v>74</v>
@@ -46686,10 +46695,10 @@
         <v>1292</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="C374" t="s" s="2">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="D374" s="2"/>
       <c r="E374" t="s" s="2">
@@ -46715,13 +46724,13 @@
         <v>1225</v>
       </c>
       <c r="M374" t="s" s="2">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="N374" t="s" s="2">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="O374" t="s" s="2">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="P374" t="s" s="2">
         <v>1282</v>
@@ -46773,7 +46782,7 @@
         <v>76</v>
       </c>
       <c r="AG374" t="s" s="2">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="AH374" t="s" s="2">
         <v>74</v>
@@ -46793,10 +46802,10 @@
         <v>1292</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="C375" t="s" s="2">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="D375" s="2"/>
       <c r="E375" t="s" s="2">
@@ -46822,14 +46831,14 @@
         <v>1233</v>
       </c>
       <c r="M375" t="s" s="2">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="N375" t="s" s="2">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="O375" s="2"/>
       <c r="P375" t="s" s="2">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="Q375" t="s" s="2">
         <v>76</v>
@@ -46878,7 +46887,7 @@
         <v>76</v>
       </c>
       <c r="AG375" t="s" s="2">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="AH375" t="s" s="2">
         <v>74</v>
@@ -46898,10 +46907,10 @@
         <v>1292</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="C376" t="s" s="2">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" t="s" s="2">
@@ -46927,14 +46936,14 @@
         <v>102</v>
       </c>
       <c r="M376" t="s" s="2">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="N376" t="s" s="2">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="O376" s="2"/>
       <c r="P376" t="s" s="2">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="Q376" t="s" s="2">
         <v>76</v>
@@ -46962,10 +46971,10 @@
         <v>146</v>
       </c>
       <c r="Z376" t="s" s="2">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="AA376" t="s" s="2">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="AB376" t="s" s="2">
         <v>76</v>
@@ -46983,7 +46992,7 @@
         <v>76</v>
       </c>
       <c r="AG376" t="s" s="2">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="AH376" t="s" s="2">
         <v>74</v>
@@ -47003,10 +47012,10 @@
         <v>1292</v>
       </c>
       <c r="B377" t="s" s="2">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="C377" t="s" s="2">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" t="s" s="2">
@@ -47032,14 +47041,14 @@
         <v>325</v>
       </c>
       <c r="M377" t="s" s="2">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="N377" t="s" s="2">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="O377" s="2"/>
       <c r="P377" t="s" s="2">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="Q377" t="s" s="2">
         <v>76</v>
@@ -47088,7 +47097,7 @@
         <v>76</v>
       </c>
       <c r="AG377" t="s" s="2">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="AH377" t="s" s="2">
         <v>74</v>
@@ -47097,7 +47106,7 @@
         <v>82</v>
       </c>
       <c r="AJ377" t="s" s="2">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="AK377" t="s" s="2">
         <v>94</v>
@@ -47108,10 +47117,10 @@
         <v>1292</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="C378" t="s" s="2">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="D378" s="2"/>
       <c r="E378" t="s" s="2">
@@ -47137,10 +47146,10 @@
         <v>307</v>
       </c>
       <c r="M378" t="s" s="2">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="N378" t="s" s="2">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="O378" s="2"/>
       <c r="P378" s="2"/>
@@ -47191,7 +47200,7 @@
         <v>76</v>
       </c>
       <c r="AG378" t="s" s="2">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="AH378" t="s" s="2">
         <v>74</v>
@@ -47211,10 +47220,10 @@
         <v>1292</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="C379" t="s" s="2">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" t="s" s="2">
@@ -47240,16 +47249,16 @@
         <v>272</v>
       </c>
       <c r="M379" t="s" s="2">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="N379" t="s" s="2">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="O379" t="s" s="2">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="P379" t="s" s="2">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="Q379" t="s" s="2">
         <v>76</v>
@@ -47298,7 +47307,7 @@
         <v>76</v>
       </c>
       <c r="AG379" t="s" s="2">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="AH379" t="s" s="2">
         <v>74</v>
@@ -47318,10 +47327,10 @@
         <v>1292</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="C380" t="s" s="2">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" t="s" s="2">
@@ -47421,10 +47430,10 @@
         <v>1292</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="C381" t="s" s="2">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" t="s" s="2">
@@ -47526,10 +47535,10 @@
         <v>1292</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="C382" t="s" s="2">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" t="s" s="2">
@@ -47633,10 +47642,10 @@
         <v>1292</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="C383" t="s" s="2">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" t="s" s="2">
@@ -47662,16 +47671,16 @@
         <v>150</v>
       </c>
       <c r="M383" t="s" s="2">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="N383" t="s" s="2">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="O383" t="s" s="2">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="P383" t="s" s="2">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="Q383" t="s" s="2">
         <v>76</v>
@@ -47720,7 +47729,7 @@
         <v>76</v>
       </c>
       <c r="AG383" t="s" s="2">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="AH383" t="s" s="2">
         <v>82</v>
@@ -47740,10 +47749,10 @@
         <v>1292</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="C384" t="s" s="2">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" t="s" s="2">
@@ -47769,16 +47778,16 @@
         <v>175</v>
       </c>
       <c r="M384" t="s" s="2">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="N384" t="s" s="2">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="O384" t="s" s="2">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="P384" t="s" s="2">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="Q384" t="s" s="2">
         <v>76</v>
@@ -47827,7 +47836,7 @@
         <v>76</v>
       </c>
       <c r="AG384" t="s" s="2">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="AH384" t="s" s="2">
         <v>74</v>
@@ -47847,14 +47856,14 @@
         <v>1292</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="C385" t="s" s="2">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="D385" s="2"/>
       <c r="E385" t="s" s="2">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="F385" s="2"/>
       <c r="G385" t="s" s="2">
@@ -47873,16 +47882,16 @@
         <v>76</v>
       </c>
       <c r="L385" t="s" s="2">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="M385" t="s" s="2">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="N385" t="s" s="2">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="O385" t="s" s="2">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="P385" s="2"/>
       <c r="Q385" t="s" s="2">
@@ -47932,7 +47941,7 @@
         <v>76</v>
       </c>
       <c r="AG385" t="s" s="2">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="AH385" t="s" s="2">
         <v>74</v>
@@ -47952,10 +47961,10 @@
         <v>1292</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="C386" t="s" s="2">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" t="s" s="2">
@@ -47981,16 +47990,16 @@
         <v>325</v>
       </c>
       <c r="M386" t="s" s="2">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="N386" t="s" s="2">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="O386" t="s" s="2">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="P386" t="s" s="2">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="Q386" t="s" s="2">
         <v>76</v>
@@ -48039,7 +48048,7 @@
         <v>76</v>
       </c>
       <c r="AG386" t="s" s="2">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="AH386" t="s" s="2">
         <v>74</v>
@@ -48059,10 +48068,10 @@
         <v>1292</v>
       </c>
       <c r="B387" t="s" s="2">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="C387" t="s" s="2">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" t="s" s="2">
@@ -48088,16 +48097,16 @@
         <v>272</v>
       </c>
       <c r="M387" t="s" s="2">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="N387" t="s" s="2">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="O387" t="s" s="2">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="P387" t="s" s="2">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="Q387" t="s" s="2">
         <v>76</v>
@@ -48146,7 +48155,7 @@
         <v>76</v>
       </c>
       <c r="AG387" t="s" s="2">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="AH387" t="s" s="2">
         <v>74</v>
@@ -48166,10 +48175,10 @@
         <v>1292</v>
       </c>
       <c r="B388" t="s" s="2">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="C388" t="s" s="2">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="D388" s="2"/>
       <c r="E388" t="s" s="2">
@@ -48269,10 +48278,10 @@
         <v>1292</v>
       </c>
       <c r="B389" t="s" s="2">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="C389" t="s" s="2">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" t="s" s="2">
@@ -48374,10 +48383,10 @@
         <v>1292</v>
       </c>
       <c r="B390" t="s" s="2">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="C390" t="s" s="2">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" t="s" s="2">
@@ -48481,10 +48490,10 @@
         <v>1292</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="C391" t="s" s="2">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="D391" s="2"/>
       <c r="E391" t="s" s="2">
@@ -48507,16 +48516,16 @@
         <v>83</v>
       </c>
       <c r="L391" t="s" s="2">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="M391" t="s" s="2">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="N391" t="s" s="2">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="O391" t="s" s="2">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="P391" s="2"/>
       <c r="Q391" t="s" s="2">
@@ -48566,7 +48575,7 @@
         <v>76</v>
       </c>
       <c r="AG391" t="s" s="2">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="AH391" t="s" s="2">
         <v>82</v>
@@ -48586,10 +48595,10 @@
         <v>1292</v>
       </c>
       <c r="B392" t="s" s="2">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="C392" t="s" s="2">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" t="s" s="2">
@@ -48615,10 +48624,10 @@
         <v>102</v>
       </c>
       <c r="M392" t="s" s="2">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="N392" t="s" s="2">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="O392" s="2"/>
       <c r="P392" s="2"/>
@@ -48648,28 +48657,28 @@
         <v>146</v>
       </c>
       <c r="Z392" t="s" s="2">
+        <v>1523</v>
+      </c>
+      <c r="AA392" t="s" s="2">
+        <v>1524</v>
+      </c>
+      <c r="AB392" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC392" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD392" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE392" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF392" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG392" t="s" s="2">
         <v>1521</v>
-      </c>
-      <c r="AA392" t="s" s="2">
-        <v>1522</v>
-      </c>
-      <c r="AB392" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC392" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD392" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE392" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF392" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG392" t="s" s="2">
-        <v>1519</v>
       </c>
       <c r="AH392" t="s" s="2">
         <v>82</v>
@@ -48686,13 +48695,13 @@
     </row>
     <row r="393">
       <c r="A393" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B393" t="s" s="2">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="C393" t="s" s="2">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" t="s" s="2">
@@ -48718,10 +48727,10 @@
         <v>77</v>
       </c>
       <c r="M393" t="s" s="2">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="N393" t="s" s="2">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="O393" s="2"/>
       <c r="P393" s="2"/>
@@ -48772,7 +48781,7 @@
         <v>76</v>
       </c>
       <c r="AG393" t="s" s="2">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="AH393" t="s" s="2">
         <v>74</v>
@@ -48789,13 +48798,13 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B394" t="s" s="2">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="C394" t="s" s="2">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="D394" s="2"/>
       <c r="E394" t="s" s="2">
@@ -48894,13 +48903,13 @@
     </row>
     <row r="395">
       <c r="A395" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="C395" t="s" s="2">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" t="s" s="2">
@@ -48997,13 +49006,13 @@
     </row>
     <row r="396">
       <c r="A396" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="C396" t="s" s="2">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" t="s" s="2">
@@ -49102,13 +49111,13 @@
     </row>
     <row r="397">
       <c r="A397" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="C397" t="s" s="2">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" t="s" s="2">
@@ -49207,13 +49216,13 @@
     </row>
     <row r="398">
       <c r="A398" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B398" t="s" s="2">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="C398" t="s" s="2">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" t="s" s="2">
@@ -49312,13 +49321,13 @@
     </row>
     <row r="399">
       <c r="A399" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="C399" t="s" s="2">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="D399" s="2"/>
       <c r="E399" t="s" s="2">
@@ -49417,13 +49426,13 @@
     </row>
     <row r="400">
       <c r="A400" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B400" t="s" s="2">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="C400" t="s" s="2">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" t="s" s="2">
@@ -49522,13 +49531,13 @@
     </row>
     <row r="401">
       <c r="A401" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="D401" s="2"/>
       <c r="E401" t="s" s="2">
@@ -49629,13 +49638,13 @@
     </row>
     <row r="402">
       <c r="A402" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="C402" t="s" s="2">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" t="s" s="2">
@@ -49661,14 +49670,14 @@
         <v>138</v>
       </c>
       <c r="M402" t="s" s="2">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="N402" t="s" s="2">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="O402" s="2"/>
       <c r="P402" t="s" s="2">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="Q402" t="s" s="2">
         <v>76</v>
@@ -49717,7 +49726,7 @@
         <v>76</v>
       </c>
       <c r="AG402" t="s" s="2">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="AH402" t="s" s="2">
         <v>74</v>
@@ -49734,13 +49743,13 @@
     </row>
     <row r="403">
       <c r="A403" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B403" t="s" s="2">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="C403" t="s" s="2">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="D403" s="2"/>
       <c r="E403" t="s" s="2">
@@ -49837,13 +49846,13 @@
     </row>
     <row r="404">
       <c r="A404" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="C404" t="s" s="2">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="D404" s="2"/>
       <c r="E404" t="s" s="2">
@@ -49942,13 +49951,13 @@
     </row>
     <row r="405">
       <c r="A405" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="C405" t="s" s="2">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="D405" s="2"/>
       <c r="E405" t="s" s="2">
@@ -49974,16 +49983,16 @@
         <v>102</v>
       </c>
       <c r="M405" t="s" s="2">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="N405" t="s" s="2">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="O405" t="s" s="2">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="P405" t="s" s="2">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="Q405" t="s" s="2">
         <v>76</v>
@@ -50011,10 +50020,10 @@
         <v>146</v>
       </c>
       <c r="Z405" t="s" s="2">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="AA405" t="s" s="2">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="AB405" t="s" s="2">
         <v>76</v>
@@ -50032,7 +50041,7 @@
         <v>76</v>
       </c>
       <c r="AG405" t="s" s="2">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="AH405" t="s" s="2">
         <v>74</v>
@@ -50049,13 +50058,13 @@
     </row>
     <row r="406">
       <c r="A406" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B406" t="s" s="2">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="C406" t="s" s="2">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="D406" s="2"/>
       <c r="E406" t="s" s="2">
@@ -50081,16 +50090,16 @@
         <v>150</v>
       </c>
       <c r="M406" t="s" s="2">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="N406" t="s" s="2">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="O406" t="s" s="2">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="P406" t="s" s="2">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="Q406" t="s" s="2">
         <v>76</v>
@@ -50118,10 +50127,10 @@
         <v>622</v>
       </c>
       <c r="Z406" t="s" s="2">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="AA406" t="s" s="2">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="AB406" t="s" s="2">
         <v>76</v>
@@ -50139,7 +50148,7 @@
         <v>76</v>
       </c>
       <c r="AG406" t="s" s="2">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="AH406" t="s" s="2">
         <v>74</v>
@@ -50156,13 +50165,13 @@
     </row>
     <row r="407">
       <c r="A407" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B407" t="s" s="2">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="C407" t="s" s="2">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="D407" s="2"/>
       <c r="E407" t="s" s="2">
@@ -50188,16 +50197,16 @@
         <v>96</v>
       </c>
       <c r="M407" t="s" s="2">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="N407" t="s" s="2">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="O407" t="s" s="2">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="P407" t="s" s="2">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="Q407" t="s" s="2">
         <v>76</v>
@@ -50207,10 +50216,10 @@
         <v>76</v>
       </c>
       <c r="T407" t="s" s="2">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="U407" t="s" s="2">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="V407" t="s" s="2">
         <v>76</v>
@@ -50246,7 +50255,7 @@
         <v>76</v>
       </c>
       <c r="AG407" t="s" s="2">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="AH407" t="s" s="2">
         <v>74</v>
@@ -50263,13 +50272,13 @@
     </row>
     <row r="408">
       <c r="A408" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B408" t="s" s="2">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="C408" t="s" s="2">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="D408" s="2"/>
       <c r="E408" t="s" s="2">
@@ -50295,13 +50304,13 @@
         <v>276</v>
       </c>
       <c r="M408" t="s" s="2">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="N408" t="s" s="2">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="O408" t="s" s="2">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="P408" s="2"/>
       <c r="Q408" t="s" s="2">
@@ -50315,7 +50324,7 @@
         <v>76</v>
       </c>
       <c r="U408" t="s" s="2">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="V408" t="s" s="2">
         <v>76</v>
@@ -50351,7 +50360,7 @@
         <v>76</v>
       </c>
       <c r="AG408" t="s" s="2">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="AH408" t="s" s="2">
         <v>74</v>
@@ -50368,13 +50377,13 @@
     </row>
     <row r="409">
       <c r="A409" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="C409" t="s" s="2">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="D409" s="2"/>
       <c r="E409" t="s" s="2">
@@ -50400,10 +50409,10 @@
         <v>307</v>
       </c>
       <c r="M409" t="s" s="2">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="N409" t="s" s="2">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="O409" s="2"/>
       <c r="P409" s="2"/>
@@ -50454,7 +50463,7 @@
         <v>76</v>
       </c>
       <c r="AG409" t="s" s="2">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="AH409" t="s" s="2">
         <v>74</v>
@@ -50471,13 +50480,13 @@
     </row>
     <row r="410">
       <c r="A410" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B410" t="s" s="2">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="C410" t="s" s="2">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="D410" s="2"/>
       <c r="E410" t="s" s="2">
@@ -50503,13 +50512,13 @@
         <v>325</v>
       </c>
       <c r="M410" t="s" s="2">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="N410" t="s" s="2">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="O410" t="s" s="2">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="P410" s="2"/>
       <c r="Q410" t="s" s="2">
@@ -50559,7 +50568,7 @@
         <v>76</v>
       </c>
       <c r="AG410" t="s" s="2">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="AH410" t="s" s="2">
         <v>74</v>
@@ -50576,13 +50585,13 @@
     </row>
     <row r="411">
       <c r="A411" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="C411" t="s" s="2">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="D411" s="2"/>
       <c r="E411" t="s" s="2">
@@ -50608,16 +50617,16 @@
         <v>175</v>
       </c>
       <c r="M411" t="s" s="2">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="N411" t="s" s="2">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="O411" t="s" s="2">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="P411" t="s" s="2">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="Q411" t="s" s="2">
         <v>76</v>
@@ -50668,7 +50677,7 @@
         <v>76</v>
       </c>
       <c r="AG411" t="s" s="2">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="AH411" t="s" s="2">
         <v>74</v>
@@ -50685,13 +50694,13 @@
     </row>
     <row r="412">
       <c r="A412" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="C412" t="s" s="2">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="D412" s="2"/>
       <c r="E412" t="s" s="2">
@@ -50717,16 +50726,16 @@
         <v>1275</v>
       </c>
       <c r="M412" t="s" s="2">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="N412" t="s" s="2">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="O412" t="s" s="2">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="P412" t="s" s="2">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="Q412" t="s" s="2">
         <v>76</v>
@@ -50775,7 +50784,7 @@
         <v>76</v>
       </c>
       <c r="AG412" t="s" s="2">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="AH412" t="s" s="2">
         <v>74</v>
@@ -50792,13 +50801,13 @@
     </row>
     <row r="413">
       <c r="A413" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B413" t="s" s="2">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="C413" t="s" s="2">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="D413" s="2"/>
       <c r="E413" t="s" s="2">
@@ -50824,16 +50833,16 @@
         <v>1225</v>
       </c>
       <c r="M413" t="s" s="2">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="N413" t="s" s="2">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="O413" t="s" s="2">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="P413" t="s" s="2">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="Q413" t="s" s="2">
         <v>76</v>
@@ -50882,7 +50891,7 @@
         <v>76</v>
       </c>
       <c r="AG413" t="s" s="2">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="AH413" t="s" s="2">
         <v>74</v>
@@ -50899,13 +50908,13 @@
     </row>
     <row r="414">
       <c r="A414" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B414" t="s" s="2">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="C414" t="s" s="2">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="D414" s="2"/>
       <c r="E414" t="s" s="2">
@@ -50931,16 +50940,16 @@
         <v>1233</v>
       </c>
       <c r="M414" t="s" s="2">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="N414" t="s" s="2">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="O414" t="s" s="2">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="P414" t="s" s="2">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="Q414" t="s" s="2">
         <v>76</v>
@@ -50989,7 +50998,7 @@
         <v>76</v>
       </c>
       <c r="AG414" t="s" s="2">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="AH414" t="s" s="2">
         <v>74</v>
@@ -51006,13 +51015,13 @@
     </row>
     <row r="415">
       <c r="A415" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B415" t="s" s="2">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="C415" t="s" s="2">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="D415" s="2"/>
       <c r="E415" t="s" s="2">
@@ -51038,14 +51047,14 @@
         <v>102</v>
       </c>
       <c r="M415" t="s" s="2">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="N415" t="s" s="2">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="O415" s="2"/>
       <c r="P415" t="s" s="2">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="Q415" t="s" s="2">
         <v>76</v>
@@ -51073,10 +51082,10 @@
         <v>146</v>
       </c>
       <c r="Z415" t="s" s="2">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="AA415" t="s" s="2">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="AB415" t="s" s="2">
         <v>76</v>
@@ -51094,7 +51103,7 @@
         <v>76</v>
       </c>
       <c r="AG415" t="s" s="2">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="AH415" t="s" s="2">
         <v>74</v>
@@ -51111,13 +51120,13 @@
     </row>
     <row r="416">
       <c r="A416" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B416" t="s" s="2">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="C416" t="s" s="2">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="D416" s="2"/>
       <c r="E416" t="s" s="2">
@@ -51140,17 +51149,17 @@
         <v>83</v>
       </c>
       <c r="L416" t="s" s="2">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="M416" t="s" s="2">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="N416" t="s" s="2">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="O416" s="2"/>
       <c r="P416" t="s" s="2">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="Q416" t="s" s="2">
         <v>76</v>
@@ -51199,7 +51208,7 @@
         <v>76</v>
       </c>
       <c r="AG416" t="s" s="2">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="AH416" t="s" s="2">
         <v>74</v>
@@ -51216,13 +51225,13 @@
     </row>
     <row r="417">
       <c r="A417" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="C417" t="s" s="2">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="D417" s="2"/>
       <c r="E417" t="s" s="2">
@@ -51245,17 +51254,17 @@
         <v>76</v>
       </c>
       <c r="L417" t="s" s="2">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="M417" t="s" s="2">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="N417" t="s" s="2">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="O417" s="2"/>
       <c r="P417" t="s" s="2">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="Q417" t="s" s="2">
         <v>76</v>
@@ -51304,7 +51313,7 @@
         <v>76</v>
       </c>
       <c r="AG417" t="s" s="2">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="AH417" t="s" s="2">
         <v>74</v>
@@ -51321,13 +51330,13 @@
     </row>
     <row r="418">
       <c r="A418" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="C418" t="s" s="2">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="D418" s="2"/>
       <c r="E418" t="s" s="2">
@@ -51353,10 +51362,10 @@
         <v>272</v>
       </c>
       <c r="M418" t="s" s="2">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="N418" t="s" s="2">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="O418" s="2"/>
       <c r="P418" s="2"/>
@@ -51407,7 +51416,7 @@
         <v>76</v>
       </c>
       <c r="AG418" t="s" s="2">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="AH418" t="s" s="2">
         <v>74</v>
@@ -51424,13 +51433,13 @@
     </row>
     <row r="419">
       <c r="A419" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B419" t="s" s="2">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="C419" t="s" s="2">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D419" s="2"/>
       <c r="E419" t="s" s="2">
@@ -51527,13 +51536,13 @@
     </row>
     <row r="420">
       <c r="A420" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B420" t="s" s="2">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="C420" t="s" s="2">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="D420" s="2"/>
       <c r="E420" t="s" s="2">
@@ -51632,13 +51641,13 @@
     </row>
     <row r="421">
       <c r="A421" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B421" t="s" s="2">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="C421" t="s" s="2">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="D421" s="2"/>
       <c r="E421" t="s" s="2">
@@ -51739,13 +51748,13 @@
     </row>
     <row r="422">
       <c r="A422" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B422" t="s" s="2">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="C422" t="s" s="2">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="D422" s="2"/>
       <c r="E422" t="s" s="2">
@@ -51771,14 +51780,14 @@
         <v>138</v>
       </c>
       <c r="M422" t="s" s="2">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="N422" t="s" s="2">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="O422" s="2"/>
       <c r="P422" t="s" s="2">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="Q422" t="s" s="2">
         <v>76</v>
@@ -51827,7 +51836,7 @@
         <v>76</v>
       </c>
       <c r="AG422" t="s" s="2">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="AH422" t="s" s="2">
         <v>74</v>
@@ -51844,13 +51853,13 @@
     </row>
     <row r="423">
       <c r="A423" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B423" t="s" s="2">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="C423" t="s" s="2">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="D423" s="2"/>
       <c r="E423" t="s" s="2">
@@ -51876,10 +51885,10 @@
         <v>150</v>
       </c>
       <c r="M423" t="s" s="2">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="N423" t="s" s="2">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="O423" s="2"/>
       <c r="P423" s="2"/>
@@ -51909,10 +51918,10 @@
         <v>154</v>
       </c>
       <c r="Z423" t="s" s="2">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="AA423" t="s" s="2">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="AB423" t="s" s="2">
         <v>76</v>
@@ -51930,7 +51939,7 @@
         <v>76</v>
       </c>
       <c r="AG423" t="s" s="2">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="AH423" t="s" s="2">
         <v>82</v>
@@ -51947,13 +51956,13 @@
     </row>
     <row r="424">
       <c r="A424" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B424" t="s" s="2">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="C424" t="s" s="2">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="D424" s="2"/>
       <c r="E424" t="s" s="2">
@@ -52050,13 +52059,13 @@
     </row>
     <row r="425">
       <c r="A425" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B425" t="s" s="2">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="C425" t="s" s="2">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="D425" s="2"/>
       <c r="E425" t="s" s="2">
@@ -52155,13 +52164,13 @@
     </row>
     <row r="426">
       <c r="A426" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B426" t="s" s="2">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="C426" t="s" s="2">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="D426" s="2"/>
       <c r="E426" t="s" s="2">
@@ -52262,13 +52271,13 @@
     </row>
     <row r="427">
       <c r="A427" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B427" t="s" s="2">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="C427" t="s" s="2">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="D427" s="2"/>
       <c r="E427" t="s" s="2">
@@ -52365,13 +52374,13 @@
     </row>
     <row r="428">
       <c r="A428" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B428" t="s" s="2">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="C428" t="s" s="2">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="D428" s="2"/>
       <c r="E428" t="s" s="2">
@@ -52470,13 +52479,13 @@
     </row>
     <row r="429">
       <c r="A429" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B429" t="s" s="2">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="C429" t="s" s="2">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="D429" s="2"/>
       <c r="E429" t="s" s="2">
@@ -52521,7 +52530,7 @@
         <v>76</v>
       </c>
       <c r="T429" t="s" s="2">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="U429" t="s" s="2">
         <v>76</v>
@@ -52577,13 +52586,13 @@
     </row>
     <row r="430">
       <c r="A430" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B430" t="s" s="2">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="C430" t="s" s="2">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="D430" s="2"/>
       <c r="E430" t="s" s="2">
@@ -52682,13 +52691,13 @@
     </row>
     <row r="431">
       <c r="A431" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B431" t="s" s="2">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="C431" t="s" s="2">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="D431" s="2"/>
       <c r="E431" t="s" s="2">
@@ -52787,13 +52796,13 @@
     </row>
     <row r="432">
       <c r="A432" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B432" t="s" s="2">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="C432" t="s" s="2">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="D432" s="2"/>
       <c r="E432" t="s" s="2">
@@ -52892,13 +52901,13 @@
     </row>
     <row r="433">
       <c r="A433" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B433" t="s" s="2">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="C433" t="s" s="2">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="D433" s="2"/>
       <c r="E433" t="s" s="2">
@@ -52999,13 +53008,13 @@
     </row>
     <row r="434">
       <c r="A434" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B434" t="s" s="2">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="C434" t="s" s="2">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="D434" s="2"/>
       <c r="E434" t="s" s="2">
@@ -53106,13 +53115,13 @@
     </row>
     <row r="435">
       <c r="A435" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B435" t="s" s="2">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="C435" t="s" s="2">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="D435" s="2"/>
       <c r="E435" t="s" s="2">
@@ -53138,14 +53147,14 @@
         <v>307</v>
       </c>
       <c r="M435" t="s" s="2">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="N435" t="s" s="2">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="O435" s="2"/>
       <c r="P435" t="s" s="2">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="Q435" t="s" s="2">
         <v>76</v>
@@ -53194,7 +53203,7 @@
         <v>76</v>
       </c>
       <c r="AG435" t="s" s="2">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="AH435" t="s" s="2">
         <v>74</v>
@@ -53211,13 +53220,13 @@
     </row>
     <row r="436">
       <c r="A436" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B436" t="s" s="2">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="C436" t="s" s="2">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="D436" s="2"/>
       <c r="E436" t="s" s="2">
@@ -53243,10 +53252,10 @@
         <v>325</v>
       </c>
       <c r="M436" t="s" s="2">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="N436" t="s" s="2">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="O436" s="2"/>
       <c r="P436" s="2"/>
@@ -53297,7 +53306,7 @@
         <v>76</v>
       </c>
       <c r="AG436" t="s" s="2">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="AH436" t="s" s="2">
         <v>74</v>
@@ -53314,13 +53323,13 @@
     </row>
     <row r="437">
       <c r="A437" t="s" s="2">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B437" t="s" s="2">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="C437" t="s" s="2">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="D437" s="2"/>
       <c r="E437" t="s" s="2">
@@ -53346,16 +53355,16 @@
         <v>150</v>
       </c>
       <c r="M437" t="s" s="2">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="N437" t="s" s="2">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="O437" t="s" s="2">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="P437" t="s" s="2">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="Q437" t="s" s="2">
         <v>76</v>
@@ -53404,7 +53413,7 @@
         <v>76</v>
       </c>
       <c r="AG437" t="s" s="2">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="AH437" t="s" s="2">
         <v>74</v>
@@ -53421,13 +53430,13 @@
     </row>
     <row r="438">
       <c r="A438" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B438" t="s" s="2">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="C438" t="s" s="2">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="D438" s="2"/>
       <c r="E438" t="s" s="2">
@@ -53453,10 +53462,10 @@
         <v>77</v>
       </c>
       <c r="M438" t="s" s="2">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="N438" t="s" s="2">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="O438" s="2"/>
       <c r="P438" s="2"/>
@@ -53507,7 +53516,7 @@
         <v>76</v>
       </c>
       <c r="AG438" t="s" s="2">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="AH438" t="s" s="2">
         <v>74</v>
@@ -53524,13 +53533,13 @@
     </row>
     <row r="439">
       <c r="A439" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B439" t="s" s="2">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="C439" t="s" s="2">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="D439" s="2"/>
       <c r="E439" t="s" s="2">
@@ -53629,13 +53638,13 @@
     </row>
     <row r="440">
       <c r="A440" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B440" t="s" s="2">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="C440" t="s" s="2">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="D440" s="2"/>
       <c r="E440" t="s" s="2">
@@ -53732,13 +53741,13 @@
     </row>
     <row r="441">
       <c r="A441" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B441" t="s" s="2">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="C441" t="s" s="2">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="D441" s="2"/>
       <c r="E441" t="s" s="2">
@@ -53837,13 +53846,13 @@
     </row>
     <row r="442">
       <c r="A442" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B442" t="s" s="2">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="C442" t="s" s="2">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="D442" s="2"/>
       <c r="E442" t="s" s="2">
@@ -53942,13 +53951,13 @@
     </row>
     <row r="443">
       <c r="A443" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B443" t="s" s="2">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="C443" t="s" s="2">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="D443" s="2"/>
       <c r="E443" t="s" s="2">
@@ -54047,13 +54056,13 @@
     </row>
     <row r="444">
       <c r="A444" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B444" t="s" s="2">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="C444" t="s" s="2">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="D444" s="2"/>
       <c r="E444" t="s" s="2">
@@ -54152,13 +54161,13 @@
     </row>
     <row r="445">
       <c r="A445" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B445" t="s" s="2">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="C445" t="s" s="2">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="D445" s="2"/>
       <c r="E445" t="s" s="2">
@@ -54257,13 +54266,13 @@
     </row>
     <row r="446">
       <c r="A446" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B446" t="s" s="2">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="C446" t="s" s="2">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="D446" s="2"/>
       <c r="E446" t="s" s="2">
@@ -54364,13 +54373,13 @@
     </row>
     <row r="447">
       <c r="A447" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B447" t="s" s="2">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="C447" t="s" s="2">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="D447" s="2"/>
       <c r="E447" t="s" s="2">
@@ -54396,14 +54405,14 @@
         <v>138</v>
       </c>
       <c r="M447" t="s" s="2">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="N447" t="s" s="2">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="O447" s="2"/>
       <c r="P447" t="s" s="2">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="Q447" t="s" s="2">
         <v>76</v>
@@ -54452,7 +54461,7 @@
         <v>76</v>
       </c>
       <c r="AG447" t="s" s="2">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="AH447" t="s" s="2">
         <v>74</v>
@@ -54469,13 +54478,13 @@
     </row>
     <row r="448">
       <c r="A448" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B448" t="s" s="2">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="C448" t="s" s="2">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="D448" s="2"/>
       <c r="E448" t="s" s="2">
@@ -54501,16 +54510,16 @@
         <v>175</v>
       </c>
       <c r="M448" t="s" s="2">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="N448" t="s" s="2">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="O448" t="s" s="2">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="P448" t="s" s="2">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="Q448" t="s" s="2">
         <v>76</v>
@@ -54561,7 +54570,7 @@
         <v>76</v>
       </c>
       <c r="AG448" t="s" s="2">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="AH448" t="s" s="2">
         <v>74</v>
@@ -54578,13 +54587,13 @@
     </row>
     <row r="449">
       <c r="A449" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B449" t="s" s="2">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="C449" t="s" s="2">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="D449" s="2"/>
       <c r="E449" t="s" s="2">
@@ -54610,14 +54619,14 @@
         <v>307</v>
       </c>
       <c r="M449" t="s" s="2">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="N449" t="s" s="2">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="O449" s="2"/>
       <c r="P449" t="s" s="2">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="Q449" t="s" s="2">
         <v>76</v>
@@ -54666,7 +54675,7 @@
         <v>76</v>
       </c>
       <c r="AG449" t="s" s="2">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="AH449" t="s" s="2">
         <v>74</v>
@@ -54683,13 +54692,13 @@
     </row>
     <row r="450">
       <c r="A450" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B450" t="s" s="2">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="C450" t="s" s="2">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="D450" s="2"/>
       <c r="E450" t="s" s="2">
@@ -54715,10 +54724,10 @@
         <v>209</v>
       </c>
       <c r="M450" t="s" s="2">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="N450" t="s" s="2">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="O450" s="2"/>
       <c r="P450" s="2"/>
@@ -54769,7 +54778,7 @@
         <v>76</v>
       </c>
       <c r="AG450" t="s" s="2">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="AH450" t="s" s="2">
         <v>74</v>
@@ -54786,13 +54795,13 @@
     </row>
     <row r="451">
       <c r="A451" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B451" t="s" s="2">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="C451" t="s" s="2">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="D451" s="2"/>
       <c r="E451" t="s" s="2">
@@ -54818,10 +54827,10 @@
         <v>325</v>
       </c>
       <c r="M451" t="s" s="2">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="N451" t="s" s="2">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="O451" s="2"/>
       <c r="P451" s="2"/>
@@ -54872,7 +54881,7 @@
         <v>76</v>
       </c>
       <c r="AG451" t="s" s="2">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="AH451" t="s" s="2">
         <v>74</v>
@@ -54889,13 +54898,13 @@
     </row>
     <row r="452">
       <c r="A452" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B452" t="s" s="2">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="C452" t="s" s="2">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="D452" s="2"/>
       <c r="E452" t="s" s="2">
@@ -54921,16 +54930,16 @@
         <v>150</v>
       </c>
       <c r="M452" t="s" s="2">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="N452" t="s" s="2">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="O452" t="s" s="2">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="P452" t="s" s="2">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="Q452" t="s" s="2">
         <v>76</v>
@@ -54958,10 +54967,10 @@
         <v>154</v>
       </c>
       <c r="Z452" t="s" s="2">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="AA452" t="s" s="2">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="AB452" t="s" s="2">
         <v>76</v>
@@ -54979,7 +54988,7 @@
         <v>76</v>
       </c>
       <c r="AG452" t="s" s="2">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="AH452" t="s" s="2">
         <v>74</v>
@@ -54996,13 +55005,13 @@
     </row>
     <row r="453">
       <c r="A453" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B453" t="s" s="2">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="C453" t="s" s="2">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="D453" s="2"/>
       <c r="E453" t="s" s="2">
@@ -55028,10 +55037,10 @@
         <v>150</v>
       </c>
       <c r="M453" t="s" s="2">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="N453" t="s" s="2">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="O453" s="2"/>
       <c r="P453" s="2"/>
@@ -55061,10 +55070,10 @@
         <v>106</v>
       </c>
       <c r="Z453" t="s" s="2">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="AA453" t="s" s="2">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="AB453" t="s" s="2">
         <v>76</v>
@@ -55082,7 +55091,7 @@
         <v>76</v>
       </c>
       <c r="AG453" t="s" s="2">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="AH453" t="s" s="2">
         <v>74</v>
@@ -55099,13 +55108,13 @@
     </row>
     <row r="454">
       <c r="A454" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B454" t="s" s="2">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="C454" t="s" s="2">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="D454" s="2"/>
       <c r="E454" t="s" s="2">
@@ -55128,13 +55137,13 @@
         <v>83</v>
       </c>
       <c r="L454" t="s" s="2">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="M454" t="s" s="2">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="N454" t="s" s="2">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="O454" s="2"/>
       <c r="P454" s="2"/>
@@ -55185,7 +55194,7 @@
         <v>76</v>
       </c>
       <c r="AG454" t="s" s="2">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="AH454" t="s" s="2">
         <v>74</v>
@@ -55202,13 +55211,13 @@
     </row>
     <row r="455">
       <c r="A455" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B455" t="s" s="2">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="C455" t="s" s="2">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="D455" s="2"/>
       <c r="E455" t="s" s="2">
@@ -55231,13 +55240,13 @@
         <v>76</v>
       </c>
       <c r="L455" t="s" s="2">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="M455" t="s" s="2">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="N455" t="s" s="2">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="O455" s="2"/>
       <c r="P455" s="2"/>
@@ -55288,7 +55297,7 @@
         <v>76</v>
       </c>
       <c r="AG455" t="s" s="2">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="AH455" t="s" s="2">
         <v>74</v>
@@ -55305,13 +55314,13 @@
     </row>
     <row r="456">
       <c r="A456" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B456" t="s" s="2">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="C456" t="s" s="2">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="D456" s="2"/>
       <c r="E456" t="s" s="2">
@@ -55337,14 +55346,14 @@
         <v>1225</v>
       </c>
       <c r="M456" t="s" s="2">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="N456" t="s" s="2">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="O456" s="2"/>
       <c r="P456" t="s" s="2">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="Q456" t="s" s="2">
         <v>76</v>
@@ -55393,7 +55402,7 @@
         <v>76</v>
       </c>
       <c r="AG456" t="s" s="2">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="AH456" t="s" s="2">
         <v>74</v>
@@ -55410,13 +55419,13 @@
     </row>
     <row r="457">
       <c r="A457" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B457" t="s" s="2">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="C457" t="s" s="2">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="D457" s="2"/>
       <c r="E457" t="s" s="2">
@@ -55442,13 +55451,13 @@
         <v>272</v>
       </c>
       <c r="M457" t="s" s="2">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="N457" t="s" s="2">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="O457" t="s" s="2">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="P457" s="2"/>
       <c r="Q457" t="s" s="2">
@@ -55498,7 +55507,7 @@
         <v>76</v>
       </c>
       <c r="AG457" t="s" s="2">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="AH457" t="s" s="2">
         <v>74</v>
@@ -55515,13 +55524,13 @@
     </row>
     <row r="458">
       <c r="A458" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B458" t="s" s="2">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="C458" t="s" s="2">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="D458" s="2"/>
       <c r="E458" t="s" s="2">
@@ -55618,13 +55627,13 @@
     </row>
     <row r="459">
       <c r="A459" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B459" t="s" s="2">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="C459" t="s" s="2">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="D459" s="2"/>
       <c r="E459" t="s" s="2">
@@ -55723,13 +55732,13 @@
     </row>
     <row r="460">
       <c r="A460" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B460" t="s" s="2">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="C460" t="s" s="2">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="D460" s="2"/>
       <c r="E460" t="s" s="2">
@@ -55830,13 +55839,13 @@
     </row>
     <row r="461">
       <c r="A461" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B461" t="s" s="2">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="C461" t="s" s="2">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="D461" s="2"/>
       <c r="E461" t="s" s="2">
@@ -55862,10 +55871,10 @@
         <v>102</v>
       </c>
       <c r="M461" t="s" s="2">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="N461" t="s" s="2">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="O461" s="2"/>
       <c r="P461" s="2"/>
@@ -55895,10 +55904,10 @@
         <v>146</v>
       </c>
       <c r="Z461" t="s" s="2">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="AA461" t="s" s="2">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="AB461" t="s" s="2">
         <v>76</v>
@@ -55916,7 +55925,7 @@
         <v>76</v>
       </c>
       <c r="AG461" t="s" s="2">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="AH461" t="s" s="2">
         <v>74</v>
@@ -55933,13 +55942,13 @@
     </row>
     <row r="462">
       <c r="A462" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B462" t="s" s="2">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="C462" t="s" s="2">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="D462" s="2"/>
       <c r="E462" t="s" s="2">
@@ -55965,10 +55974,10 @@
         <v>175</v>
       </c>
       <c r="M462" t="s" s="2">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="N462" t="s" s="2">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="O462" s="2"/>
       <c r="P462" s="2"/>
@@ -56019,7 +56028,7 @@
         <v>76</v>
       </c>
       <c r="AG462" t="s" s="2">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="AH462" t="s" s="2">
         <v>74</v>
@@ -56036,13 +56045,13 @@
     </row>
     <row r="463">
       <c r="A463" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B463" t="s" s="2">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="C463" t="s" s="2">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="D463" s="2"/>
       <c r="E463" t="s" s="2">
@@ -56065,16 +56074,16 @@
         <v>76</v>
       </c>
       <c r="L463" t="s" s="2">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="M463" t="s" s="2">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="N463" t="s" s="2">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="O463" t="s" s="2">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="P463" s="2"/>
       <c r="Q463" t="s" s="2">
@@ -56124,7 +56133,7 @@
         <v>76</v>
       </c>
       <c r="AG463" t="s" s="2">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="AH463" t="s" s="2">
         <v>74</v>
@@ -56141,13 +56150,13 @@
     </row>
     <row r="464">
       <c r="A464" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B464" t="s" s="2">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="C464" t="s" s="2">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="D464" s="2"/>
       <c r="E464" t="s" s="2">
@@ -56170,16 +56179,16 @@
         <v>76</v>
       </c>
       <c r="L464" t="s" s="2">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="M464" t="s" s="2">
+        <v>1706</v>
+      </c>
+      <c r="N464" t="s" s="2">
+        <v>1707</v>
+      </c>
+      <c r="O464" t="s" s="2">
         <v>1704</v>
-      </c>
-      <c r="N464" t="s" s="2">
-        <v>1705</v>
-      </c>
-      <c r="O464" t="s" s="2">
-        <v>1702</v>
       </c>
       <c r="P464" s="2"/>
       <c r="Q464" t="s" s="2">
@@ -56229,7 +56238,7 @@
         <v>76</v>
       </c>
       <c r="AG464" t="s" s="2">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="AH464" t="s" s="2">
         <v>74</v>
@@ -56246,13 +56255,13 @@
     </row>
     <row r="465">
       <c r="A465" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B465" t="s" s="2">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="C465" t="s" s="2">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="D465" s="2"/>
       <c r="E465" t="s" s="2">
@@ -56278,10 +56287,10 @@
         <v>272</v>
       </c>
       <c r="M465" t="s" s="2">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="N465" t="s" s="2">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="O465" s="2"/>
       <c r="P465" s="2"/>
@@ -56332,7 +56341,7 @@
         <v>76</v>
       </c>
       <c r="AG465" t="s" s="2">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="AH465" t="s" s="2">
         <v>74</v>
@@ -56349,13 +56358,13 @@
     </row>
     <row r="466">
       <c r="A466" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B466" t="s" s="2">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="C466" t="s" s="2">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="D466" s="2"/>
       <c r="E466" t="s" s="2">
@@ -56452,13 +56461,13 @@
     </row>
     <row r="467">
       <c r="A467" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B467" t="s" s="2">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="C467" t="s" s="2">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="D467" s="2"/>
       <c r="E467" t="s" s="2">
@@ -56557,13 +56566,13 @@
     </row>
     <row r="468">
       <c r="A468" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B468" t="s" s="2">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="C468" t="s" s="2">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="D468" s="2"/>
       <c r="E468" t="s" s="2">
@@ -56664,13 +56673,13 @@
     </row>
     <row r="469">
       <c r="A469" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B469" t="s" s="2">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="C469" t="s" s="2">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="D469" s="2"/>
       <c r="E469" t="s" s="2">
@@ -56696,10 +56705,10 @@
         <v>276</v>
       </c>
       <c r="M469" t="s" s="2">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="N469" t="s" s="2">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="O469" s="2"/>
       <c r="P469" s="2"/>
@@ -56750,7 +56759,7 @@
         <v>76</v>
       </c>
       <c r="AG469" t="s" s="2">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="AH469" t="s" s="2">
         <v>82</v>
@@ -56767,13 +56776,13 @@
     </row>
     <row r="470">
       <c r="A470" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B470" t="s" s="2">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="C470" t="s" s="2">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="D470" s="2"/>
       <c r="E470" t="s" s="2">
@@ -56799,10 +56808,10 @@
         <v>307</v>
       </c>
       <c r="M470" t="s" s="2">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="N470" t="s" s="2">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="O470" s="2"/>
       <c r="P470" s="2"/>
@@ -56853,7 +56862,7 @@
         <v>76</v>
       </c>
       <c r="AG470" t="s" s="2">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="AH470" t="s" s="2">
         <v>74</v>
@@ -56870,13 +56879,13 @@
     </row>
     <row r="471">
       <c r="A471" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B471" t="s" s="2">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="C471" t="s" s="2">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="D471" s="2"/>
       <c r="E471" t="s" s="2">
@@ -56902,10 +56911,10 @@
         <v>276</v>
       </c>
       <c r="M471" t="s" s="2">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="N471" t="s" s="2">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="O471" s="2"/>
       <c r="P471" s="2"/>
@@ -56956,7 +56965,7 @@
         <v>76</v>
       </c>
       <c r="AG471" t="s" s="2">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="AH471" t="s" s="2">
         <v>74</v>
@@ -56973,13 +56982,13 @@
     </row>
     <row r="472">
       <c r="A472" t="s" s="2">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="B472" t="s" s="2">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="C472" t="s" s="2">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="D472" s="2"/>
       <c r="E472" t="s" s="2">
@@ -57005,14 +57014,14 @@
         <v>1288</v>
       </c>
       <c r="M472" t="s" s="2">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="N472" t="s" s="2">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="O472" s="2"/>
       <c r="P472" t="s" s="2">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="Q472" t="s" s="2">
         <v>76</v>
@@ -57061,7 +57070,7 @@
         <v>76</v>
       </c>
       <c r="AG472" t="s" s="2">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="AH472" t="s" s="2">
         <v>74</v>
@@ -57078,7 +57087,7 @@
     </row>
     <row r="473">
       <c r="A473" t="s" s="2">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="B473" t="s" s="2">
         <v>420</v>
@@ -57110,7 +57119,7 @@
         <v>77</v>
       </c>
       <c r="M473" t="s" s="2">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="N473" t="s" s="2">
         <v>425</v>
@@ -57181,13 +57190,13 @@
     </row>
     <row r="474">
       <c r="A474" t="s" s="2">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="B474" t="s" s="2">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="C474" t="s" s="2">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="D474" s="2"/>
       <c r="E474" t="s" s="2">
@@ -57284,13 +57293,13 @@
     </row>
     <row r="475">
       <c r="A475" t="s" s="2">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="B475" t="s" s="2">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="C475" t="s" s="2">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="D475" s="2"/>
       <c r="E475" t="s" s="2">
@@ -57387,13 +57396,13 @@
     </row>
     <row r="476">
       <c r="A476" t="s" s="2">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="B476" t="s" s="2">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="C476" t="s" s="2">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="D476" s="2"/>
       <c r="E476" t="s" s="2">
@@ -57419,13 +57428,13 @@
         <v>96</v>
       </c>
       <c r="M476" t="s" s="2">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="N476" t="s" s="2">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="O476" t="s" s="2">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="P476" s="2"/>
       <c r="Q476" t="s" s="2">
@@ -57433,7 +57442,7 @@
       </c>
       <c r="R476" s="2"/>
       <c r="S476" t="s" s="2">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="T476" t="s" s="2">
         <v>76</v>
@@ -57475,7 +57484,7 @@
         <v>76</v>
       </c>
       <c r="AG476" t="s" s="2">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="AH476" t="s" s="2">
         <v>82</v>
@@ -57492,13 +57501,13 @@
     </row>
     <row r="477">
       <c r="A477" t="s" s="2">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="B477" t="s" s="2">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="C477" t="s" s="2">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="D477" s="2"/>
       <c r="E477" t="s" s="2">
@@ -57524,10 +57533,10 @@
         <v>936</v>
       </c>
       <c r="M477" t="s" s="2">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="N477" t="s" s="2">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="O477" s="2"/>
       <c r="P477" s="2"/>
@@ -57558,7 +57567,7 @@
       </c>
       <c r="Z477" s="2"/>
       <c r="AA477" t="s" s="2">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="AB477" t="s" s="2">
         <v>76</v>
@@ -57576,7 +57585,7 @@
         <v>76</v>
       </c>
       <c r="AG477" t="s" s="2">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="AH477" t="s" s="2">
         <v>74</v>
@@ -57593,13 +57602,13 @@
     </row>
     <row r="478">
       <c r="A478" t="s" s="2">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="B478" t="s" s="2">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="C478" t="s" s="2">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="D478" s="2"/>
       <c r="E478" t="s" s="2">
@@ -57696,13 +57705,13 @@
     </row>
     <row r="479">
       <c r="A479" t="s" s="2">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="B479" t="s" s="2">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="C479" t="s" s="2">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="D479" s="2"/>
       <c r="E479" t="s" s="2">
@@ -57801,13 +57810,13 @@
     </row>
     <row r="480">
       <c r="A480" t="s" s="2">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="B480" t="s" s="2">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="C480" t="s" s="2">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="D480" s="2"/>
       <c r="E480" t="s" s="2">
@@ -57836,7 +57845,7 @@
         <v>945</v>
       </c>
       <c r="N480" t="s" s="2">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="O480" t="s" s="2">
         <v>947</v>
@@ -57908,13 +57917,13 @@
     </row>
     <row r="481">
       <c r="A481" t="s" s="2">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="B481" t="s" s="2">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="C481" t="s" s="2">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="D481" s="2"/>
       <c r="E481" t="s" s="2">
@@ -58013,13 +58022,13 @@
     </row>
     <row r="482">
       <c r="A482" t="s" s="2">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="B482" t="s" s="2">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="C482" t="s" s="2">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="D482" s="2"/>
       <c r="E482" t="s" s="2">
@@ -58045,10 +58054,10 @@
         <v>102</v>
       </c>
       <c r="M482" t="s" s="2">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="N482" t="s" s="2">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="O482" s="2"/>
       <c r="P482" t="s" s="2">
@@ -58118,13 +58127,13 @@
     </row>
     <row r="483">
       <c r="A483" t="s" s="2">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="B483" t="s" s="2">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="C483" t="s" s="2">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="D483" s="2"/>
       <c r="E483" t="s" s="2">
@@ -58223,13 +58232,13 @@
     </row>
     <row r="484">
       <c r="A484" t="s" s="2">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="B484" t="s" s="2">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="C484" t="s" s="2">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="D484" s="2"/>
       <c r="E484" t="s" s="2">

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -1436,8 +1436,7 @@
     <t>Administrert legemiddel</t>
   </si>
   <si>
-    <t>Beskriver administrasjon av legemiddel til pasient på institusjon.
-{% include administrasjon.md %}</t>
+    <t>Beskriver administrasjon av legemiddel til pasient på institusjon.</t>
   </si>
   <si>
     <t>MedicationAdministration</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18903" uniqueCount="1887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19267" uniqueCount="1898">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.6</t>
+    <t>0.6.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -5579,7 +5579,7 @@
     <t>Roles which this practitioner is authorized to perform for the organization.</t>
   </si>
   <si>
-    <t>Det finnes p.t. ikke gode nok kodeverk/verdisett, spesielt innenfor primærhelsetjenesten.</t>
+    <t>Det finnes p.t. ikke gode nok kodeverk/verdisett, spesielt innenfor primærhelsetjenesten. Som placeholder settes HL7 FHIR sitt eksempel-verdisett basert på SNOMED CT. Se issue #14 på GitHub.</t>
   </si>
   <si>
     <t>Need to know what authority the practitioner has - what can they do?</t>
@@ -5589,6 +5589,39 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/practitioner-role</t>
+  </si>
+  <si>
+    <t>PractitionerRole.code.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.code.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.code.coding</t>
+  </si>
+  <si>
+    <t>PractitionerRole.code.coding.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.code.coding.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.code.coding.system</t>
+  </si>
+  <si>
+    <t>PractitionerRole.code.coding.version</t>
+  </si>
+  <si>
+    <t>PractitionerRole.code.coding.code</t>
+  </si>
+  <si>
+    <t>PractitionerRole.code.coding.display</t>
+  </si>
+  <si>
+    <t>PractitionerRole.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>PractitionerRole.code.text</t>
   </si>
   <si>
     <t>PractitionerRole.specialty</t>
@@ -7792,7 +7825,7 @@
         <v>2</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>1860</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="234">
@@ -7800,7 +7833,7 @@
         <v>4</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>1861</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="235">
@@ -7816,7 +7849,7 @@
         <v>8</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>1862</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="237">
@@ -7824,7 +7857,7 @@
         <v>9</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>1860</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="238">
@@ -7846,7 +7879,7 @@
         <v>13</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>1863</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="241">
@@ -7922,7 +7955,7 @@
         <v>31</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>1864</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="251">
@@ -7943,10 +7976,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>1865</v>
+        <v>1876</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>1866</v>
+        <v>1877</v>
       </c>
     </row>
   </sheetData>
@@ -7956,7 +7989,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK558"/>
+  <dimension ref="A1:AK569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -63243,7 +63276,7 @@
         <v>74</v>
       </c>
       <c r="H527" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I527" t="s" s="2">
         <v>76</v>
@@ -63252,16 +63285,16 @@
         <v>76</v>
       </c>
       <c r="K527" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L527" t="s" s="2">
-        <v>150</v>
+        <v>276</v>
       </c>
       <c r="M527" t="s" s="2">
-        <v>1802</v>
+        <v>277</v>
       </c>
       <c r="N527" t="s" s="2">
-        <v>1803</v>
+        <v>278</v>
       </c>
       <c r="O527" s="2"/>
       <c r="P527" s="2"/>
@@ -63288,13 +63321,13 @@
         <v>76</v>
       </c>
       <c r="Y527" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="Z527" t="s" s="2">
-        <v>1804</v>
+        <v>76</v>
       </c>
       <c r="AA527" t="s" s="2">
-        <v>1805</v>
+        <v>76</v>
       </c>
       <c r="AB527" t="s" s="2">
         <v>76</v>
@@ -63312,19 +63345,19 @@
         <v>76</v>
       </c>
       <c r="AG527" t="s" s="2">
-        <v>1801</v>
+        <v>279</v>
       </c>
       <c r="AH527" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI527" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AJ527" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK527" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="528">
@@ -63332,14 +63365,14 @@
         <v>1759</v>
       </c>
       <c r="B528" t="s" s="2">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="C528" t="s" s="2">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="D528" s="2"/>
       <c r="E528" t="s" s="2">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="F528" s="2"/>
       <c r="G528" t="s" s="2">
@@ -63355,18 +63388,20 @@
         <v>76</v>
       </c>
       <c r="K528" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L528" t="s" s="2">
-        <v>1807</v>
+        <v>126</v>
       </c>
       <c r="M528" t="s" s="2">
-        <v>1808</v>
+        <v>127</v>
       </c>
       <c r="N528" t="s" s="2">
-        <v>1809</v>
-      </c>
-      <c r="O528" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="O528" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="P528" s="2"/>
       <c r="Q528" t="s" s="2">
         <v>76</v>
@@ -63403,19 +63438,19 @@
         <v>76</v>
       </c>
       <c r="AC528" t="s" s="2">
-        <v>76</v>
+        <v>377</v>
       </c>
       <c r="AD528" t="s" s="2">
-        <v>76</v>
+        <v>378</v>
       </c>
       <c r="AE528" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF528" t="s" s="2">
-        <v>76</v>
+        <v>379</v>
       </c>
       <c r="AG528" t="s" s="2">
-        <v>1806</v>
+        <v>282</v>
       </c>
       <c r="AH528" t="s" s="2">
         <v>74</v>
@@ -63427,7 +63462,7 @@
         <v>76</v>
       </c>
       <c r="AK528" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="529">
@@ -63435,10 +63470,10 @@
         <v>1759</v>
       </c>
       <c r="B529" t="s" s="2">
-        <v>1810</v>
+        <v>1803</v>
       </c>
       <c r="C529" t="s" s="2">
-        <v>1810</v>
+        <v>1803</v>
       </c>
       <c r="D529" s="2"/>
       <c r="E529" t="s" s="2">
@@ -63458,19 +63493,23 @@
         <v>76</v>
       </c>
       <c r="K529" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L529" t="s" s="2">
-        <v>1811</v>
+        <v>570</v>
       </c>
       <c r="M529" t="s" s="2">
-        <v>1812</v>
+        <v>571</v>
       </c>
       <c r="N529" t="s" s="2">
-        <v>1813</v>
-      </c>
-      <c r="O529" s="2"/>
-      <c r="P529" s="2"/>
+        <v>572</v>
+      </c>
+      <c r="O529" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="P529" t="s" s="2">
+        <v>574</v>
+      </c>
       <c r="Q529" t="s" s="2">
         <v>76</v>
       </c>
@@ -63518,7 +63557,7 @@
         <v>76</v>
       </c>
       <c r="AG529" t="s" s="2">
-        <v>1810</v>
+        <v>577</v>
       </c>
       <c r="AH529" t="s" s="2">
         <v>74</v>
@@ -63538,10 +63577,10 @@
         <v>1759</v>
       </c>
       <c r="B530" t="s" s="2">
-        <v>1814</v>
+        <v>1804</v>
       </c>
       <c r="C530" t="s" s="2">
-        <v>1814</v>
+        <v>1804</v>
       </c>
       <c r="D530" s="2"/>
       <c r="E530" t="s" s="2">
@@ -63552,7 +63591,7 @@
         <v>74</v>
       </c>
       <c r="H530" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I530" t="s" s="2">
         <v>76</v>
@@ -63561,21 +63600,19 @@
         <v>76</v>
       </c>
       <c r="K530" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L530" t="s" s="2">
-        <v>1389</v>
+        <v>276</v>
       </c>
       <c r="M530" t="s" s="2">
-        <v>1815</v>
+        <v>277</v>
       </c>
       <c r="N530" t="s" s="2">
-        <v>1816</v>
+        <v>278</v>
       </c>
       <c r="O530" s="2"/>
-      <c r="P530" t="s" s="2">
-        <v>1817</v>
-      </c>
+      <c r="P530" s="2"/>
       <c r="Q530" t="s" s="2">
         <v>76</v>
       </c>
@@ -63623,19 +63660,19 @@
         <v>76</v>
       </c>
       <c r="AG530" t="s" s="2">
-        <v>1814</v>
+        <v>279</v>
       </c>
       <c r="AH530" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI530" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AJ530" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK530" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="531">
@@ -63643,14 +63680,14 @@
         <v>1759</v>
       </c>
       <c r="B531" t="s" s="2">
-        <v>1818</v>
+        <v>1805</v>
       </c>
       <c r="C531" t="s" s="2">
-        <v>1818</v>
+        <v>1805</v>
       </c>
       <c r="D531" s="2"/>
       <c r="E531" t="s" s="2">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="F531" s="2"/>
       <c r="G531" t="s" s="2">
@@ -63669,16 +63706,16 @@
         <v>76</v>
       </c>
       <c r="L531" t="s" s="2">
-        <v>272</v>
+        <v>126</v>
       </c>
       <c r="M531" t="s" s="2">
-        <v>1819</v>
+        <v>127</v>
       </c>
       <c r="N531" t="s" s="2">
-        <v>1820</v>
+        <v>281</v>
       </c>
       <c r="O531" t="s" s="2">
-        <v>1821</v>
+        <v>129</v>
       </c>
       <c r="P531" s="2"/>
       <c r="Q531" t="s" s="2">
@@ -63716,19 +63753,19 @@
         <v>76</v>
       </c>
       <c r="AC531" t="s" s="2">
-        <v>76</v>
+        <v>377</v>
       </c>
       <c r="AD531" t="s" s="2">
-        <v>76</v>
+        <v>378</v>
       </c>
       <c r="AE531" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF531" t="s" s="2">
-        <v>76</v>
+        <v>379</v>
       </c>
       <c r="AG531" t="s" s="2">
-        <v>1818</v>
+        <v>282</v>
       </c>
       <c r="AH531" t="s" s="2">
         <v>74</v>
@@ -63740,7 +63777,7 @@
         <v>76</v>
       </c>
       <c r="AK531" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="532">
@@ -63748,10 +63785,10 @@
         <v>1759</v>
       </c>
       <c r="B532" t="s" s="2">
-        <v>1822</v>
+        <v>1806</v>
       </c>
       <c r="C532" t="s" s="2">
-        <v>1822</v>
+        <v>1806</v>
       </c>
       <c r="D532" s="2"/>
       <c r="E532" t="s" s="2">
@@ -63771,19 +63808,23 @@
         <v>76</v>
       </c>
       <c r="K532" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L532" t="s" s="2">
-        <v>276</v>
+        <v>96</v>
       </c>
       <c r="M532" t="s" s="2">
-        <v>277</v>
+        <v>588</v>
       </c>
       <c r="N532" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O532" s="2"/>
-      <c r="P532" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="O532" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="P532" t="s" s="2">
+        <v>591</v>
+      </c>
       <c r="Q532" t="s" s="2">
         <v>76</v>
       </c>
@@ -63792,7 +63833,7 @@
         <v>76</v>
       </c>
       <c r="T532" t="s" s="2">
-        <v>76</v>
+        <v>592</v>
       </c>
       <c r="U532" t="s" s="2">
         <v>76</v>
@@ -63831,7 +63872,7 @@
         <v>76</v>
       </c>
       <c r="AG532" t="s" s="2">
-        <v>279</v>
+        <v>593</v>
       </c>
       <c r="AH532" t="s" s="2">
         <v>74</v>
@@ -63843,7 +63884,7 @@
         <v>76</v>
       </c>
       <c r="AK532" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="533">
@@ -63851,21 +63892,21 @@
         <v>1759</v>
       </c>
       <c r="B533" t="s" s="2">
-        <v>1823</v>
+        <v>1807</v>
       </c>
       <c r="C533" t="s" s="2">
-        <v>1823</v>
+        <v>1807</v>
       </c>
       <c r="D533" s="2"/>
       <c r="E533" t="s" s="2">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="F533" s="2"/>
       <c r="G533" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H533" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I533" t="s" s="2">
         <v>76</v>
@@ -63874,19 +63915,19 @@
         <v>76</v>
       </c>
       <c r="K533" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L533" t="s" s="2">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="M533" t="s" s="2">
-        <v>127</v>
+        <v>596</v>
       </c>
       <c r="N533" t="s" s="2">
-        <v>281</v>
+        <v>597</v>
       </c>
       <c r="O533" t="s" s="2">
-        <v>129</v>
+        <v>598</v>
       </c>
       <c r="P533" s="2"/>
       <c r="Q533" t="s" s="2">
@@ -63936,19 +63977,19 @@
         <v>76</v>
       </c>
       <c r="AG533" t="s" s="2">
-        <v>282</v>
+        <v>599</v>
       </c>
       <c r="AH533" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI533" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AJ533" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK533" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="534">
@@ -63956,45 +63997,43 @@
         <v>1759</v>
       </c>
       <c r="B534" t="s" s="2">
-        <v>1824</v>
+        <v>1808</v>
       </c>
       <c r="C534" t="s" s="2">
-        <v>1824</v>
+        <v>1808</v>
       </c>
       <c r="D534" s="2"/>
       <c r="E534" t="s" s="2">
-        <v>284</v>
+        <v>76</v>
       </c>
       <c r="F534" s="2"/>
       <c r="G534" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H534" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I534" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J534" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="K534" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L534" t="s" s="2">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="M534" t="s" s="2">
-        <v>285</v>
+        <v>602</v>
       </c>
       <c r="N534" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O534" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="O534" s="2"/>
       <c r="P534" t="s" s="2">
-        <v>135</v>
+        <v>604</v>
       </c>
       <c r="Q534" t="s" s="2">
         <v>76</v>
@@ -64019,13 +64058,11 @@
         <v>76</v>
       </c>
       <c r="Y534" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z534" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="Z534" s="2"/>
       <c r="AA534" t="s" s="2">
-        <v>76</v>
+        <v>1800</v>
       </c>
       <c r="AB534" t="s" s="2">
         <v>76</v>
@@ -64043,19 +64080,19 @@
         <v>76</v>
       </c>
       <c r="AG534" t="s" s="2">
-        <v>287</v>
+        <v>605</v>
       </c>
       <c r="AH534" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI534" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AJ534" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK534" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="535">
@@ -64063,10 +64100,10 @@
         <v>1759</v>
       </c>
       <c r="B535" t="s" s="2">
-        <v>1825</v>
+        <v>1809</v>
       </c>
       <c r="C535" t="s" s="2">
-        <v>1825</v>
+        <v>1809</v>
       </c>
       <c r="D535" s="2"/>
       <c r="E535" t="s" s="2">
@@ -64077,7 +64114,7 @@
         <v>74</v>
       </c>
       <c r="H535" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I535" t="s" s="2">
         <v>76</v>
@@ -64086,19 +64123,21 @@
         <v>76</v>
       </c>
       <c r="K535" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L535" t="s" s="2">
-        <v>102</v>
+        <v>276</v>
       </c>
       <c r="M535" t="s" s="2">
-        <v>1826</v>
+        <v>608</v>
       </c>
       <c r="N535" t="s" s="2">
-        <v>1827</v>
+        <v>609</v>
       </c>
       <c r="O535" s="2"/>
-      <c r="P535" s="2"/>
+      <c r="P535" t="s" s="2">
+        <v>610</v>
+      </c>
       <c r="Q535" t="s" s="2">
         <v>76</v>
       </c>
@@ -64122,13 +64161,13 @@
         <v>76</v>
       </c>
       <c r="Y535" t="s" s="2">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="Z535" t="s" s="2">
-        <v>1828</v>
+        <v>76</v>
       </c>
       <c r="AA535" t="s" s="2">
-        <v>1829</v>
+        <v>76</v>
       </c>
       <c r="AB535" t="s" s="2">
         <v>76</v>
@@ -64146,13 +64185,13 @@
         <v>76</v>
       </c>
       <c r="AG535" t="s" s="2">
-        <v>1825</v>
+        <v>611</v>
       </c>
       <c r="AH535" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI535" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AJ535" t="s" s="2">
         <v>76</v>
@@ -64166,10 +64205,10 @@
         <v>1759</v>
       </c>
       <c r="B536" t="s" s="2">
-        <v>1830</v>
+        <v>1810</v>
       </c>
       <c r="C536" t="s" s="2">
-        <v>1830</v>
+        <v>1810</v>
       </c>
       <c r="D536" s="2"/>
       <c r="E536" t="s" s="2">
@@ -64189,19 +64228,23 @@
         <v>76</v>
       </c>
       <c r="K536" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L536" t="s" s="2">
         <v>175</v>
       </c>
       <c r="M536" t="s" s="2">
-        <v>1831</v>
+        <v>614</v>
       </c>
       <c r="N536" t="s" s="2">
-        <v>1832</v>
-      </c>
-      <c r="O536" s="2"/>
-      <c r="P536" s="2"/>
+        <v>615</v>
+      </c>
+      <c r="O536" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="P536" t="s" s="2">
+        <v>617</v>
+      </c>
       <c r="Q536" t="s" s="2">
         <v>76</v>
       </c>
@@ -64249,7 +64292,7 @@
         <v>76</v>
       </c>
       <c r="AG536" t="s" s="2">
-        <v>1830</v>
+        <v>618</v>
       </c>
       <c r="AH536" t="s" s="2">
         <v>74</v>
@@ -64269,10 +64312,10 @@
         <v>1759</v>
       </c>
       <c r="B537" t="s" s="2">
-        <v>1833</v>
+        <v>1811</v>
       </c>
       <c r="C537" t="s" s="2">
-        <v>1833</v>
+        <v>1811</v>
       </c>
       <c r="D537" s="2"/>
       <c r="E537" t="s" s="2">
@@ -64292,21 +64335,23 @@
         <v>76</v>
       </c>
       <c r="K537" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L537" t="s" s="2">
-        <v>1834</v>
+        <v>276</v>
       </c>
       <c r="M537" t="s" s="2">
-        <v>1835</v>
+        <v>632</v>
       </c>
       <c r="N537" t="s" s="2">
-        <v>1836</v>
+        <v>633</v>
       </c>
       <c r="O537" t="s" s="2">
-        <v>1837</v>
-      </c>
-      <c r="P537" s="2"/>
+        <v>634</v>
+      </c>
+      <c r="P537" t="s" s="2">
+        <v>635</v>
+      </c>
       <c r="Q537" t="s" s="2">
         <v>76</v>
       </c>
@@ -64354,7 +64399,7 @@
         <v>76</v>
       </c>
       <c r="AG537" t="s" s="2">
-        <v>1833</v>
+        <v>636</v>
       </c>
       <c r="AH537" t="s" s="2">
         <v>74</v>
@@ -64374,10 +64419,10 @@
         <v>1759</v>
       </c>
       <c r="B538" t="s" s="2">
-        <v>1838</v>
+        <v>1812</v>
       </c>
       <c r="C538" t="s" s="2">
-        <v>1838</v>
+        <v>1812</v>
       </c>
       <c r="D538" s="2"/>
       <c r="E538" t="s" s="2">
@@ -64388,7 +64433,7 @@
         <v>74</v>
       </c>
       <c r="H538" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I538" t="s" s="2">
         <v>76</v>
@@ -64397,20 +64442,18 @@
         <v>76</v>
       </c>
       <c r="K538" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L538" t="s" s="2">
-        <v>1834</v>
+        <v>150</v>
       </c>
       <c r="M538" t="s" s="2">
-        <v>1839</v>
+        <v>1813</v>
       </c>
       <c r="N538" t="s" s="2">
-        <v>1840</v>
-      </c>
-      <c r="O538" t="s" s="2">
-        <v>1837</v>
-      </c>
+        <v>1814</v>
+      </c>
+      <c r="O538" s="2"/>
       <c r="P538" s="2"/>
       <c r="Q538" t="s" s="2">
         <v>76</v>
@@ -64435,13 +64478,13 @@
         <v>76</v>
       </c>
       <c r="Y538" t="s" s="2">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="Z538" t="s" s="2">
-        <v>76</v>
+        <v>1815</v>
       </c>
       <c r="AA538" t="s" s="2">
-        <v>76</v>
+        <v>1816</v>
       </c>
       <c r="AB538" t="s" s="2">
         <v>76</v>
@@ -64459,13 +64502,13 @@
         <v>76</v>
       </c>
       <c r="AG538" t="s" s="2">
-        <v>1838</v>
+        <v>1812</v>
       </c>
       <c r="AH538" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI538" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AJ538" t="s" s="2">
         <v>76</v>
@@ -64479,10 +64522,10 @@
         <v>1759</v>
       </c>
       <c r="B539" t="s" s="2">
-        <v>1841</v>
+        <v>1817</v>
       </c>
       <c r="C539" t="s" s="2">
-        <v>1841</v>
+        <v>1817</v>
       </c>
       <c r="D539" s="2"/>
       <c r="E539" t="s" s="2">
@@ -64502,16 +64545,16 @@
         <v>76</v>
       </c>
       <c r="K539" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L539" t="s" s="2">
-        <v>272</v>
+        <v>1818</v>
       </c>
       <c r="M539" t="s" s="2">
-        <v>1842</v>
+        <v>1819</v>
       </c>
       <c r="N539" t="s" s="2">
-        <v>1843</v>
+        <v>1820</v>
       </c>
       <c r="O539" s="2"/>
       <c r="P539" s="2"/>
@@ -64562,7 +64605,7 @@
         <v>76</v>
       </c>
       <c r="AG539" t="s" s="2">
-        <v>1841</v>
+        <v>1817</v>
       </c>
       <c r="AH539" t="s" s="2">
         <v>74</v>
@@ -64582,10 +64625,10 @@
         <v>1759</v>
       </c>
       <c r="B540" t="s" s="2">
-        <v>1844</v>
+        <v>1821</v>
       </c>
       <c r="C540" t="s" s="2">
-        <v>1844</v>
+        <v>1821</v>
       </c>
       <c r="D540" s="2"/>
       <c r="E540" t="s" s="2">
@@ -64596,7 +64639,7 @@
         <v>74</v>
       </c>
       <c r="H540" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I540" t="s" s="2">
         <v>76</v>
@@ -64608,13 +64651,13 @@
         <v>76</v>
       </c>
       <c r="L540" t="s" s="2">
-        <v>276</v>
+        <v>1822</v>
       </c>
       <c r="M540" t="s" s="2">
-        <v>277</v>
+        <v>1823</v>
       </c>
       <c r="N540" t="s" s="2">
-        <v>278</v>
+        <v>1824</v>
       </c>
       <c r="O540" s="2"/>
       <c r="P540" s="2"/>
@@ -64665,19 +64708,19 @@
         <v>76</v>
       </c>
       <c r="AG540" t="s" s="2">
-        <v>279</v>
+        <v>1821</v>
       </c>
       <c r="AH540" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI540" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AJ540" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK540" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="541">
@@ -64685,14 +64728,14 @@
         <v>1759</v>
       </c>
       <c r="B541" t="s" s="2">
-        <v>1845</v>
+        <v>1825</v>
       </c>
       <c r="C541" t="s" s="2">
-        <v>1845</v>
+        <v>1825</v>
       </c>
       <c r="D541" s="2"/>
       <c r="E541" t="s" s="2">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="F541" s="2"/>
       <c r="G541" t="s" s="2">
@@ -64708,21 +64751,21 @@
         <v>76</v>
       </c>
       <c r="K541" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L541" t="s" s="2">
-        <v>126</v>
+        <v>1389</v>
       </c>
       <c r="M541" t="s" s="2">
-        <v>127</v>
+        <v>1826</v>
       </c>
       <c r="N541" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O541" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="P541" s="2"/>
+        <v>1827</v>
+      </c>
+      <c r="O541" s="2"/>
+      <c r="P541" t="s" s="2">
+        <v>1828</v>
+      </c>
       <c r="Q541" t="s" s="2">
         <v>76</v>
       </c>
@@ -64770,7 +64813,7 @@
         <v>76</v>
       </c>
       <c r="AG541" t="s" s="2">
-        <v>282</v>
+        <v>1825</v>
       </c>
       <c r="AH541" t="s" s="2">
         <v>74</v>
@@ -64782,7 +64825,7 @@
         <v>76</v>
       </c>
       <c r="AK541" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="542">
@@ -64790,14 +64833,14 @@
         <v>1759</v>
       </c>
       <c r="B542" t="s" s="2">
-        <v>1846</v>
+        <v>1829</v>
       </c>
       <c r="C542" t="s" s="2">
-        <v>1846</v>
+        <v>1829</v>
       </c>
       <c r="D542" s="2"/>
       <c r="E542" t="s" s="2">
-        <v>284</v>
+        <v>76</v>
       </c>
       <c r="F542" s="2"/>
       <c r="G542" t="s" s="2">
@@ -64810,26 +64853,24 @@
         <v>76</v>
       </c>
       <c r="J542" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="K542" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L542" t="s" s="2">
-        <v>126</v>
+        <v>272</v>
       </c>
       <c r="M542" t="s" s="2">
-        <v>285</v>
+        <v>1830</v>
       </c>
       <c r="N542" t="s" s="2">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="O542" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="P542" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>1832</v>
+      </c>
+      <c r="P542" s="2"/>
       <c r="Q542" t="s" s="2">
         <v>76</v>
       </c>
@@ -64877,7 +64918,7 @@
         <v>76</v>
       </c>
       <c r="AG542" t="s" s="2">
-        <v>287</v>
+        <v>1829</v>
       </c>
       <c r="AH542" t="s" s="2">
         <v>74</v>
@@ -64889,7 +64930,7 @@
         <v>76</v>
       </c>
       <c r="AK542" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="543">
@@ -64897,10 +64938,10 @@
         <v>1759</v>
       </c>
       <c r="B543" t="s" s="2">
-        <v>1847</v>
+        <v>1833</v>
       </c>
       <c r="C543" t="s" s="2">
-        <v>1847</v>
+        <v>1833</v>
       </c>
       <c r="D543" s="2"/>
       <c r="E543" t="s" s="2">
@@ -64908,7 +64949,7 @@
       </c>
       <c r="F543" s="2"/>
       <c r="G543" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H543" t="s" s="2">
         <v>82</v>
@@ -64926,10 +64967,10 @@
         <v>276</v>
       </c>
       <c r="M543" t="s" s="2">
-        <v>1848</v>
+        <v>277</v>
       </c>
       <c r="N543" t="s" s="2">
-        <v>1849</v>
+        <v>278</v>
       </c>
       <c r="O543" s="2"/>
       <c r="P543" s="2"/>
@@ -64980,10 +65021,10 @@
         <v>76</v>
       </c>
       <c r="AG543" t="s" s="2">
-        <v>1847</v>
+        <v>279</v>
       </c>
       <c r="AH543" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AI543" t="s" s="2">
         <v>82</v>
@@ -64992,7 +65033,7 @@
         <v>76</v>
       </c>
       <c r="AK543" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="544">
@@ -65000,21 +65041,21 @@
         <v>1759</v>
       </c>
       <c r="B544" t="s" s="2">
-        <v>1850</v>
+        <v>1834</v>
       </c>
       <c r="C544" t="s" s="2">
-        <v>1850</v>
+        <v>1834</v>
       </c>
       <c r="D544" s="2"/>
       <c r="E544" t="s" s="2">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="F544" s="2"/>
       <c r="G544" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H544" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I544" t="s" s="2">
         <v>76</v>
@@ -65026,15 +65067,17 @@
         <v>76</v>
       </c>
       <c r="L544" t="s" s="2">
-        <v>307</v>
+        <v>126</v>
       </c>
       <c r="M544" t="s" s="2">
-        <v>1851</v>
+        <v>127</v>
       </c>
       <c r="N544" t="s" s="2">
-        <v>1852</v>
-      </c>
-      <c r="O544" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="O544" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="P544" s="2"/>
       <c r="Q544" t="s" s="2">
         <v>76</v>
@@ -65083,19 +65126,19 @@
         <v>76</v>
       </c>
       <c r="AG544" t="s" s="2">
-        <v>1850</v>
+        <v>282</v>
       </c>
       <c r="AH544" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI544" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AJ544" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK544" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="545">
@@ -65103,42 +65146,46 @@
         <v>1759</v>
       </c>
       <c r="B545" t="s" s="2">
-        <v>1853</v>
+        <v>1835</v>
       </c>
       <c r="C545" t="s" s="2">
-        <v>1853</v>
+        <v>1835</v>
       </c>
       <c r="D545" s="2"/>
       <c r="E545" t="s" s="2">
-        <v>76</v>
+        <v>284</v>
       </c>
       <c r="F545" s="2"/>
       <c r="G545" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H545" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I545" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J545" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K545" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L545" t="s" s="2">
-        <v>276</v>
+        <v>126</v>
       </c>
       <c r="M545" t="s" s="2">
-        <v>1854</v>
+        <v>285</v>
       </c>
       <c r="N545" t="s" s="2">
-        <v>1855</v>
-      </c>
-      <c r="O545" s="2"/>
-      <c r="P545" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="O545" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P545" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="Q545" t="s" s="2">
         <v>76</v>
       </c>
@@ -65186,19 +65233,19 @@
         <v>76</v>
       </c>
       <c r="AG545" t="s" s="2">
-        <v>1853</v>
+        <v>287</v>
       </c>
       <c r="AH545" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI545" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AJ545" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK545" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="546">
@@ -65206,10 +65253,10 @@
         <v>1759</v>
       </c>
       <c r="B546" t="s" s="2">
-        <v>1856</v>
+        <v>1836</v>
       </c>
       <c r="C546" t="s" s="2">
-        <v>1856</v>
+        <v>1836</v>
       </c>
       <c r="D546" s="2"/>
       <c r="E546" t="s" s="2">
@@ -65232,18 +65279,16 @@
         <v>76</v>
       </c>
       <c r="L546" t="s" s="2">
-        <v>1453</v>
+        <v>102</v>
       </c>
       <c r="M546" t="s" s="2">
-        <v>1857</v>
+        <v>1837</v>
       </c>
       <c r="N546" t="s" s="2">
-        <v>1858</v>
+        <v>1838</v>
       </c>
       <c r="O546" s="2"/>
-      <c r="P546" t="s" s="2">
-        <v>1859</v>
-      </c>
+      <c r="P546" s="2"/>
       <c r="Q546" t="s" s="2">
         <v>76</v>
       </c>
@@ -65267,13 +65312,13 @@
         <v>76</v>
       </c>
       <c r="Y546" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="Z546" t="s" s="2">
-        <v>76</v>
+        <v>1839</v>
       </c>
       <c r="AA546" t="s" s="2">
-        <v>76</v>
+        <v>1840</v>
       </c>
       <c r="AB546" t="s" s="2">
         <v>76</v>
@@ -65291,7 +65336,7 @@
         <v>76</v>
       </c>
       <c r="AG546" t="s" s="2">
-        <v>1856</v>
+        <v>1836</v>
       </c>
       <c r="AH546" t="s" s="2">
         <v>74</v>
@@ -65308,13 +65353,13 @@
     </row>
     <row r="547">
       <c r="A547" t="s" s="2">
-        <v>1860</v>
+        <v>1759</v>
       </c>
       <c r="B547" t="s" s="2">
-        <v>420</v>
+        <v>1841</v>
       </c>
       <c r="C547" t="s" s="2">
-        <v>420</v>
+        <v>1841</v>
       </c>
       <c r="D547" s="2"/>
       <c r="E547" t="s" s="2">
@@ -65325,7 +65370,7 @@
         <v>74</v>
       </c>
       <c r="H547" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I547" t="s" s="2">
         <v>76</v>
@@ -65337,13 +65382,13 @@
         <v>76</v>
       </c>
       <c r="L547" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="M547" t="s" s="2">
-        <v>1860</v>
+        <v>1842</v>
       </c>
       <c r="N547" t="s" s="2">
-        <v>425</v>
+        <v>1843</v>
       </c>
       <c r="O547" s="2"/>
       <c r="P547" s="2"/>
@@ -65394,30 +65439,30 @@
         <v>76</v>
       </c>
       <c r="AG547" t="s" s="2">
-        <v>420</v>
+        <v>1841</v>
       </c>
       <c r="AH547" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI547" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AJ547" t="s" s="2">
-        <v>374</v>
+        <v>76</v>
       </c>
       <c r="AK547" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="s" s="2">
-        <v>1860</v>
+        <v>1759</v>
       </c>
       <c r="B548" t="s" s="2">
-        <v>1867</v>
+        <v>1844</v>
       </c>
       <c r="C548" t="s" s="2">
-        <v>1867</v>
+        <v>1844</v>
       </c>
       <c r="D548" s="2"/>
       <c r="E548" t="s" s="2">
@@ -65440,15 +65485,17 @@
         <v>76</v>
       </c>
       <c r="L548" t="s" s="2">
-        <v>276</v>
+        <v>1845</v>
       </c>
       <c r="M548" t="s" s="2">
-        <v>277</v>
+        <v>1846</v>
       </c>
       <c r="N548" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O548" s="2"/>
+        <v>1847</v>
+      </c>
+      <c r="O548" t="s" s="2">
+        <v>1848</v>
+      </c>
       <c r="P548" s="2"/>
       <c r="Q548" t="s" s="2">
         <v>76</v>
@@ -65497,7 +65544,7 @@
         <v>76</v>
       </c>
       <c r="AG548" t="s" s="2">
-        <v>279</v>
+        <v>1844</v>
       </c>
       <c r="AH548" t="s" s="2">
         <v>74</v>
@@ -65509,18 +65556,18 @@
         <v>76</v>
       </c>
       <c r="AK548" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="s" s="2">
-        <v>1860</v>
+        <v>1759</v>
       </c>
       <c r="B549" t="s" s="2">
-        <v>1868</v>
+        <v>1849</v>
       </c>
       <c r="C549" t="s" s="2">
-        <v>1868</v>
+        <v>1849</v>
       </c>
       <c r="D549" s="2"/>
       <c r="E549" t="s" s="2">
@@ -65531,7 +65578,7 @@
         <v>74</v>
       </c>
       <c r="H549" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I549" t="s" s="2">
         <v>76</v>
@@ -65543,15 +65590,17 @@
         <v>76</v>
       </c>
       <c r="L549" t="s" s="2">
-        <v>126</v>
+        <v>1845</v>
       </c>
       <c r="M549" t="s" s="2">
-        <v>420</v>
+        <v>1850</v>
       </c>
       <c r="N549" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="O549" s="2"/>
+        <v>1851</v>
+      </c>
+      <c r="O549" t="s" s="2">
+        <v>1848</v>
+      </c>
       <c r="P549" s="2"/>
       <c r="Q549" t="s" s="2">
         <v>76</v>
@@ -65588,42 +65637,42 @@
         <v>76</v>
       </c>
       <c r="AC549" t="s" s="2">
-        <v>377</v>
+        <v>76</v>
       </c>
       <c r="AD549" t="s" s="2">
-        <v>378</v>
+        <v>76</v>
       </c>
       <c r="AE549" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF549" t="s" s="2">
-        <v>379</v>
+        <v>76</v>
       </c>
       <c r="AG549" t="s" s="2">
-        <v>282</v>
+        <v>1849</v>
       </c>
       <c r="AH549" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI549" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AJ549" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK549" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="s" s="2">
-        <v>1860</v>
+        <v>1759</v>
       </c>
       <c r="B550" t="s" s="2">
-        <v>1869</v>
+        <v>1852</v>
       </c>
       <c r="C550" t="s" s="2">
-        <v>1869</v>
+        <v>1852</v>
       </c>
       <c r="D550" s="2"/>
       <c r="E550" t="s" s="2">
@@ -65631,10 +65680,10 @@
       </c>
       <c r="F550" s="2"/>
       <c r="G550" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H550" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I550" t="s" s="2">
         <v>76</v>
@@ -65646,24 +65695,22 @@
         <v>76</v>
       </c>
       <c r="L550" t="s" s="2">
-        <v>96</v>
+        <v>272</v>
       </c>
       <c r="M550" t="s" s="2">
-        <v>1870</v>
+        <v>1853</v>
       </c>
       <c r="N550" t="s" s="2">
-        <v>1871</v>
-      </c>
-      <c r="O550" t="s" s="2">
-        <v>1872</v>
-      </c>
+        <v>1854</v>
+      </c>
+      <c r="O550" s="2"/>
       <c r="P550" s="2"/>
       <c r="Q550" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R550" s="2"/>
       <c r="S550" t="s" s="2">
-        <v>1861</v>
+        <v>76</v>
       </c>
       <c r="T550" t="s" s="2">
         <v>76</v>
@@ -65705,30 +65752,30 @@
         <v>76</v>
       </c>
       <c r="AG550" t="s" s="2">
-        <v>1869</v>
+        <v>1852</v>
       </c>
       <c r="AH550" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AI550" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AJ550" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK550" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="s" s="2">
-        <v>1860</v>
+        <v>1759</v>
       </c>
       <c r="B551" t="s" s="2">
-        <v>1873</v>
+        <v>1855</v>
       </c>
       <c r="C551" t="s" s="2">
-        <v>1873</v>
+        <v>1855</v>
       </c>
       <c r="D551" s="2"/>
       <c r="E551" t="s" s="2">
@@ -65751,13 +65798,13 @@
         <v>76</v>
       </c>
       <c r="L551" t="s" s="2">
-        <v>570</v>
+        <v>276</v>
       </c>
       <c r="M551" t="s" s="2">
-        <v>1874</v>
+        <v>277</v>
       </c>
       <c r="N551" t="s" s="2">
-        <v>1875</v>
+        <v>278</v>
       </c>
       <c r="O551" s="2"/>
       <c r="P551" s="2"/>
@@ -65784,11 +65831,13 @@
         <v>76</v>
       </c>
       <c r="Y551" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Z551" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Z551" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AA551" t="s" s="2">
-        <v>1876</v>
+        <v>76</v>
       </c>
       <c r="AB551" t="s" s="2">
         <v>76</v>
@@ -65806,7 +65855,7 @@
         <v>76</v>
       </c>
       <c r="AG551" t="s" s="2">
-        <v>1873</v>
+        <v>279</v>
       </c>
       <c r="AH551" t="s" s="2">
         <v>74</v>
@@ -65818,29 +65867,29 @@
         <v>76</v>
       </c>
       <c r="AK551" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="s" s="2">
-        <v>1860</v>
+        <v>1759</v>
       </c>
       <c r="B552" t="s" s="2">
-        <v>1877</v>
+        <v>1856</v>
       </c>
       <c r="C552" t="s" s="2">
-        <v>1877</v>
+        <v>1856</v>
       </c>
       <c r="D552" s="2"/>
       <c r="E552" t="s" s="2">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="F552" s="2"/>
       <c r="G552" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H552" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I552" t="s" s="2">
         <v>76</v>
@@ -65852,15 +65901,17 @@
         <v>76</v>
       </c>
       <c r="L552" t="s" s="2">
-        <v>276</v>
+        <v>126</v>
       </c>
       <c r="M552" t="s" s="2">
-        <v>277</v>
+        <v>127</v>
       </c>
       <c r="N552" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O552" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="O552" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="P552" s="2"/>
       <c r="Q552" t="s" s="2">
         <v>76</v>
@@ -65909,34 +65960,34 @@
         <v>76</v>
       </c>
       <c r="AG552" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AH552" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI552" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AJ552" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK552" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="s" s="2">
-        <v>1860</v>
+        <v>1759</v>
       </c>
       <c r="B553" t="s" s="2">
-        <v>1878</v>
+        <v>1857</v>
       </c>
       <c r="C553" t="s" s="2">
-        <v>1878</v>
+        <v>1857</v>
       </c>
       <c r="D553" s="2"/>
       <c r="E553" t="s" s="2">
-        <v>125</v>
+        <v>284</v>
       </c>
       <c r="F553" s="2"/>
       <c r="G553" t="s" s="2">
@@ -65949,24 +66000,26 @@
         <v>76</v>
       </c>
       <c r="J553" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K553" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L553" t="s" s="2">
         <v>126</v>
       </c>
       <c r="M553" t="s" s="2">
-        <v>127</v>
+        <v>285</v>
       </c>
       <c r="N553" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="O553" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="P553" s="2"/>
+      <c r="P553" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="Q553" t="s" s="2">
         <v>76</v>
       </c>
@@ -66002,19 +66055,19 @@
         <v>76</v>
       </c>
       <c r="AC553" t="s" s="2">
-        <v>377</v>
+        <v>76</v>
       </c>
       <c r="AD553" t="s" s="2">
-        <v>378</v>
+        <v>76</v>
       </c>
       <c r="AE553" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF553" t="s" s="2">
-        <v>379</v>
+        <v>76</v>
       </c>
       <c r="AG553" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="AH553" t="s" s="2">
         <v>74</v>
@@ -66031,13 +66084,13 @@
     </row>
     <row r="554">
       <c r="A554" t="s" s="2">
-        <v>1860</v>
+        <v>1759</v>
       </c>
       <c r="B554" t="s" s="2">
-        <v>1879</v>
+        <v>1858</v>
       </c>
       <c r="C554" t="s" s="2">
-        <v>1879</v>
+        <v>1858</v>
       </c>
       <c r="D554" s="2"/>
       <c r="E554" t="s" s="2">
@@ -66045,7 +66098,7 @@
       </c>
       <c r="F554" s="2"/>
       <c r="G554" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H554" t="s" s="2">
         <v>82</v>
@@ -66057,23 +66110,19 @@
         <v>76</v>
       </c>
       <c r="K554" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L554" t="s" s="2">
-        <v>96</v>
+        <v>276</v>
       </c>
       <c r="M554" t="s" s="2">
-        <v>588</v>
+        <v>1859</v>
       </c>
       <c r="N554" t="s" s="2">
-        <v>1880</v>
-      </c>
-      <c r="O554" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="P554" t="s" s="2">
-        <v>591</v>
-      </c>
+        <v>1860</v>
+      </c>
+      <c r="O554" s="2"/>
+      <c r="P554" s="2"/>
       <c r="Q554" t="s" s="2">
         <v>76</v>
       </c>
@@ -66121,10 +66170,10 @@
         <v>76</v>
       </c>
       <c r="AG554" t="s" s="2">
-        <v>593</v>
+        <v>1858</v>
       </c>
       <c r="AH554" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AI554" t="s" s="2">
         <v>82</v>
@@ -66138,13 +66187,13 @@
     </row>
     <row r="555">
       <c r="A555" t="s" s="2">
-        <v>1860</v>
+        <v>1759</v>
       </c>
       <c r="B555" t="s" s="2">
-        <v>1881</v>
+        <v>1861</v>
       </c>
       <c r="C555" t="s" s="2">
-        <v>1881</v>
+        <v>1861</v>
       </c>
       <c r="D555" s="2"/>
       <c r="E555" t="s" s="2">
@@ -66164,20 +66213,18 @@
         <v>76</v>
       </c>
       <c r="K555" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L555" t="s" s="2">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="M555" t="s" s="2">
-        <v>596</v>
+        <v>1862</v>
       </c>
       <c r="N555" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="O555" t="s" s="2">
-        <v>598</v>
-      </c>
+        <v>1863</v>
+      </c>
+      <c r="O555" s="2"/>
       <c r="P555" s="2"/>
       <c r="Q555" t="s" s="2">
         <v>76</v>
@@ -66226,7 +66273,7 @@
         <v>76</v>
       </c>
       <c r="AG555" t="s" s="2">
-        <v>599</v>
+        <v>1861</v>
       </c>
       <c r="AH555" t="s" s="2">
         <v>74</v>
@@ -66243,13 +66290,13 @@
     </row>
     <row r="556">
       <c r="A556" t="s" s="2">
-        <v>1860</v>
+        <v>1759</v>
       </c>
       <c r="B556" t="s" s="2">
-        <v>1882</v>
+        <v>1864</v>
       </c>
       <c r="C556" t="s" s="2">
-        <v>1882</v>
+        <v>1864</v>
       </c>
       <c r="D556" s="2"/>
       <c r="E556" t="s" s="2">
@@ -66269,21 +66316,19 @@
         <v>76</v>
       </c>
       <c r="K556" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L556" t="s" s="2">
-        <v>102</v>
+        <v>276</v>
       </c>
       <c r="M556" t="s" s="2">
-        <v>1883</v>
+        <v>1865</v>
       </c>
       <c r="N556" t="s" s="2">
-        <v>1884</v>
+        <v>1866</v>
       </c>
       <c r="O556" s="2"/>
-      <c r="P556" t="s" s="2">
-        <v>604</v>
-      </c>
+      <c r="P556" s="2"/>
       <c r="Q556" t="s" s="2">
         <v>76</v>
       </c>
@@ -66331,7 +66376,7 @@
         <v>76</v>
       </c>
       <c r="AG556" t="s" s="2">
-        <v>605</v>
+        <v>1864</v>
       </c>
       <c r="AH556" t="s" s="2">
         <v>74</v>
@@ -66348,13 +66393,13 @@
     </row>
     <row r="557">
       <c r="A557" t="s" s="2">
-        <v>1860</v>
+        <v>1759</v>
       </c>
       <c r="B557" t="s" s="2">
-        <v>1885</v>
+        <v>1867</v>
       </c>
       <c r="C557" t="s" s="2">
-        <v>1885</v>
+        <v>1867</v>
       </c>
       <c r="D557" s="2"/>
       <c r="E557" t="s" s="2">
@@ -66365,7 +66410,7 @@
         <v>74</v>
       </c>
       <c r="H557" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I557" t="s" s="2">
         <v>76</v>
@@ -66374,20 +66419,20 @@
         <v>76</v>
       </c>
       <c r="K557" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L557" t="s" s="2">
-        <v>276</v>
+        <v>1453</v>
       </c>
       <c r="M557" t="s" s="2">
-        <v>608</v>
+        <v>1868</v>
       </c>
       <c r="N557" t="s" s="2">
-        <v>609</v>
+        <v>1869</v>
       </c>
       <c r="O557" s="2"/>
       <c r="P557" t="s" s="2">
-        <v>610</v>
+        <v>1870</v>
       </c>
       <c r="Q557" t="s" s="2">
         <v>76</v>
@@ -66436,13 +66481,13 @@
         <v>76</v>
       </c>
       <c r="AG557" t="s" s="2">
-        <v>611</v>
+        <v>1867</v>
       </c>
       <c r="AH557" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI557" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AJ557" t="s" s="2">
         <v>76</v>
@@ -66453,13 +66498,13 @@
     </row>
     <row r="558">
       <c r="A558" t="s" s="2">
-        <v>1860</v>
+        <v>1871</v>
       </c>
       <c r="B558" t="s" s="2">
-        <v>1886</v>
+        <v>420</v>
       </c>
       <c r="C558" t="s" s="2">
-        <v>1886</v>
+        <v>420</v>
       </c>
       <c r="D558" s="2"/>
       <c r="E558" t="s" s="2">
@@ -66470,7 +66515,7 @@
         <v>74</v>
       </c>
       <c r="H558" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I558" t="s" s="2">
         <v>76</v>
@@ -66479,23 +66524,19 @@
         <v>76</v>
       </c>
       <c r="K558" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L558" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="M558" t="s" s="2">
-        <v>614</v>
+        <v>1871</v>
       </c>
       <c r="N558" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="O558" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="P558" t="s" s="2">
-        <v>617</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="O558" s="2"/>
+      <c r="P558" s="2"/>
       <c r="Q558" t="s" s="2">
         <v>76</v>
       </c>
@@ -66543,18 +66584,1167 @@
         <v>76</v>
       </c>
       <c r="AG558" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AH558" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI558" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ558" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AK558" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="s" s="2">
+        <v>1871</v>
+      </c>
+      <c r="B559" t="s" s="2">
+        <v>1878</v>
+      </c>
+      <c r="C559" t="s" s="2">
+        <v>1878</v>
+      </c>
+      <c r="D559" s="2"/>
+      <c r="E559" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F559" s="2"/>
+      <c r="G559" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H559" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I559" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J559" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K559" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L559" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M559" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N559" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O559" s="2"/>
+      <c r="P559" s="2"/>
+      <c r="Q559" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R559" s="2"/>
+      <c r="S559" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T559" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U559" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V559" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W559" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X559" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y559" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z559" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA559" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB559" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC559" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD559" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE559" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF559" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG559" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AH559" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI559" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ559" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK559" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="s" s="2">
+        <v>1871</v>
+      </c>
+      <c r="B560" t="s" s="2">
+        <v>1879</v>
+      </c>
+      <c r="C560" t="s" s="2">
+        <v>1879</v>
+      </c>
+      <c r="D560" s="2"/>
+      <c r="E560" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F560" s="2"/>
+      <c r="G560" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H560" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I560" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J560" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K560" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L560" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M560" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N560" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="O560" s="2"/>
+      <c r="P560" s="2"/>
+      <c r="Q560" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R560" s="2"/>
+      <c r="S560" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T560" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U560" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V560" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W560" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X560" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y560" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z560" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA560" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB560" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC560" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AD560" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AE560" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF560" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AG560" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AH560" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI560" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ560" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK560" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="s" s="2">
+        <v>1871</v>
+      </c>
+      <c r="B561" t="s" s="2">
+        <v>1880</v>
+      </c>
+      <c r="C561" t="s" s="2">
+        <v>1880</v>
+      </c>
+      <c r="D561" s="2"/>
+      <c r="E561" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F561" s="2"/>
+      <c r="G561" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H561" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I561" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J561" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K561" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L561" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M561" t="s" s="2">
+        <v>1881</v>
+      </c>
+      <c r="N561" t="s" s="2">
+        <v>1882</v>
+      </c>
+      <c r="O561" t="s" s="2">
+        <v>1883</v>
+      </c>
+      <c r="P561" s="2"/>
+      <c r="Q561" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R561" s="2"/>
+      <c r="S561" t="s" s="2">
+        <v>1872</v>
+      </c>
+      <c r="T561" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U561" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V561" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W561" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X561" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y561" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z561" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA561" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB561" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC561" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD561" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE561" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF561" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG561" t="s" s="2">
+        <v>1880</v>
+      </c>
+      <c r="AH561" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI561" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ561" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK561" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="s" s="2">
+        <v>1871</v>
+      </c>
+      <c r="B562" t="s" s="2">
+        <v>1884</v>
+      </c>
+      <c r="C562" t="s" s="2">
+        <v>1884</v>
+      </c>
+      <c r="D562" s="2"/>
+      <c r="E562" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F562" s="2"/>
+      <c r="G562" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H562" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I562" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J562" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K562" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L562" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M562" t="s" s="2">
+        <v>1885</v>
+      </c>
+      <c r="N562" t="s" s="2">
+        <v>1886</v>
+      </c>
+      <c r="O562" s="2"/>
+      <c r="P562" s="2"/>
+      <c r="Q562" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R562" s="2"/>
+      <c r="S562" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T562" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U562" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V562" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W562" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X562" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y562" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="Z562" s="2"/>
+      <c r="AA562" t="s" s="2">
+        <v>1887</v>
+      </c>
+      <c r="AB562" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC562" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD562" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE562" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF562" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG562" t="s" s="2">
+        <v>1884</v>
+      </c>
+      <c r="AH562" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI562" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ562" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK562" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="s" s="2">
+        <v>1871</v>
+      </c>
+      <c r="B563" t="s" s="2">
+        <v>1888</v>
+      </c>
+      <c r="C563" t="s" s="2">
+        <v>1888</v>
+      </c>
+      <c r="D563" s="2"/>
+      <c r="E563" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F563" s="2"/>
+      <c r="G563" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H563" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I563" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J563" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K563" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L563" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M563" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N563" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O563" s="2"/>
+      <c r="P563" s="2"/>
+      <c r="Q563" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R563" s="2"/>
+      <c r="S563" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T563" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U563" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V563" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W563" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X563" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y563" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z563" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA563" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB563" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC563" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD563" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE563" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF563" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG563" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AH563" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI563" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ563" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK563" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="s" s="2">
+        <v>1871</v>
+      </c>
+      <c r="B564" t="s" s="2">
+        <v>1889</v>
+      </c>
+      <c r="C564" t="s" s="2">
+        <v>1889</v>
+      </c>
+      <c r="D564" s="2"/>
+      <c r="E564" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F564" s="2"/>
+      <c r="G564" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H564" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I564" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J564" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K564" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L564" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M564" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N564" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O564" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P564" s="2"/>
+      <c r="Q564" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R564" s="2"/>
+      <c r="S564" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T564" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U564" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V564" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W564" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X564" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y564" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z564" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA564" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB564" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC564" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AD564" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AE564" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF564" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AG564" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AH564" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI564" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ564" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK564" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="s" s="2">
+        <v>1871</v>
+      </c>
+      <c r="B565" t="s" s="2">
+        <v>1890</v>
+      </c>
+      <c r="C565" t="s" s="2">
+        <v>1890</v>
+      </c>
+      <c r="D565" s="2"/>
+      <c r="E565" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F565" s="2"/>
+      <c r="G565" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H565" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I565" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J565" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K565" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L565" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M565" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="N565" t="s" s="2">
+        <v>1891</v>
+      </c>
+      <c r="O565" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="P565" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="Q565" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R565" s="2"/>
+      <c r="S565" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T565" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U565" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V565" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W565" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X565" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y565" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z565" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA565" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB565" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC565" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD565" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE565" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF565" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG565" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AH565" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI565" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ565" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK565" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="s" s="2">
+        <v>1871</v>
+      </c>
+      <c r="B566" t="s" s="2">
+        <v>1892</v>
+      </c>
+      <c r="C566" t="s" s="2">
+        <v>1892</v>
+      </c>
+      <c r="D566" s="2"/>
+      <c r="E566" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F566" s="2"/>
+      <c r="G566" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H566" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I566" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J566" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K566" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L566" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M566" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="N566" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="O566" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="P566" s="2"/>
+      <c r="Q566" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R566" s="2"/>
+      <c r="S566" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T566" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U566" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V566" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W566" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X566" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y566" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z566" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA566" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB566" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC566" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD566" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE566" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF566" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG566" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AH566" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI566" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ566" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK566" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="s" s="2">
+        <v>1871</v>
+      </c>
+      <c r="B567" t="s" s="2">
+        <v>1893</v>
+      </c>
+      <c r="C567" t="s" s="2">
+        <v>1893</v>
+      </c>
+      <c r="D567" s="2"/>
+      <c r="E567" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F567" s="2"/>
+      <c r="G567" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H567" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I567" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J567" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K567" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L567" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M567" t="s" s="2">
+        <v>1894</v>
+      </c>
+      <c r="N567" t="s" s="2">
+        <v>1895</v>
+      </c>
+      <c r="O567" s="2"/>
+      <c r="P567" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="Q567" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R567" s="2"/>
+      <c r="S567" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T567" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U567" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V567" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W567" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X567" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y567" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z567" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA567" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB567" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC567" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD567" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE567" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF567" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG567" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="AH567" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI567" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ567" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK567" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="s" s="2">
+        <v>1871</v>
+      </c>
+      <c r="B568" t="s" s="2">
+        <v>1896</v>
+      </c>
+      <c r="C568" t="s" s="2">
+        <v>1896</v>
+      </c>
+      <c r="D568" s="2"/>
+      <c r="E568" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F568" s="2"/>
+      <c r="G568" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H568" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I568" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J568" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K568" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L568" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M568" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="N568" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="O568" s="2"/>
+      <c r="P568" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="Q568" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R568" s="2"/>
+      <c r="S568" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T568" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U568" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V568" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W568" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X568" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y568" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z568" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA568" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB568" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC568" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD568" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE568" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF568" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG568" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AH568" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI568" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ568" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK568" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="s" s="2">
+        <v>1871</v>
+      </c>
+      <c r="B569" t="s" s="2">
+        <v>1897</v>
+      </c>
+      <c r="C569" t="s" s="2">
+        <v>1897</v>
+      </c>
+      <c r="D569" s="2"/>
+      <c r="E569" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F569" s="2"/>
+      <c r="G569" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H569" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I569" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J569" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K569" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L569" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M569" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="N569" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="O569" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="P569" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="Q569" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R569" s="2"/>
+      <c r="S569" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T569" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U569" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V569" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W569" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X569" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y569" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z569" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA569" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB569" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC569" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD569" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE569" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF569" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG569" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="AH558" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI558" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ558" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK558" t="s" s="2">
+      <c r="AH569" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI569" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ569" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK569" t="s" s="2">
         <v>94</v>
       </c>
     </row>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.1</t>
+    <t>0.8.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.3</t>
+    <t>0.8.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -20262,13 +20262,13 @@
       </c>
       <c r="F117" s="2"/>
       <c r="G117" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="J117" t="s" s="2">
         <v>76</v>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -2935,7 +2935,7 @@
     <t>Legemiddel</t>
   </si>
   <si>
-    <t>2024-06-20</t>
+    <t>2024-06-26</t>
   </si>
   <si>
     <t>Beskrivelse av legemiddel.</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21918" uniqueCount="2006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21918" uniqueCount="2007">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -4487,7 +4487,7 @@
     <t>RESH</t>
   </si>
   <si>
-    <t>D-nummer</t>
+    <t>Id fra Register for enheter i spesialisthelsetjenesten (RESH)</t>
   </si>
   <si>
     <t>Organization.identifier:RESH.id</t>
@@ -4944,6 +4944,9 @@
   </si>
   <si>
     <t>DNR</t>
+  </si>
+  <si>
+    <t>D-nummer</t>
   </si>
   <si>
     <t>Patient.identifier:DNR.id</t>
@@ -7826,7 +7829,7 @@
         <v>2</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="192">
@@ -7834,7 +7837,7 @@
         <v>4</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="193">
@@ -7850,7 +7853,7 @@
         <v>8</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="195">
@@ -7858,7 +7861,7 @@
         <v>9</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="196">
@@ -7912,7 +7915,7 @@
         <v>21</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="203">
@@ -7948,7 +7951,7 @@
         <v>29</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="208">
@@ -7956,7 +7959,7 @@
         <v>31</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="209">
@@ -7988,7 +7991,7 @@
         <v>2</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="213">
@@ -7996,7 +7999,7 @@
         <v>4</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>1868</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="214">
@@ -8012,7 +8015,7 @@
         <v>8</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>1869</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="216">
@@ -8020,7 +8023,7 @@
         <v>9</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>1870</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="217">
@@ -8074,7 +8077,7 @@
         <v>21</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>1871</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="224">
@@ -8110,7 +8113,7 @@
         <v>29</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>1872</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="229">
@@ -8118,7 +8121,7 @@
         <v>31</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>1873</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="230">
@@ -8150,7 +8153,7 @@
         <v>2</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>1979</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="234">
@@ -8158,7 +8161,7 @@
         <v>4</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>1980</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="235">
@@ -8174,7 +8177,7 @@
         <v>8</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>1981</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="237">
@@ -8182,7 +8185,7 @@
         <v>9</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>1979</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="238">
@@ -8204,7 +8207,7 @@
         <v>13</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>1982</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="241">
@@ -8280,7 +8283,7 @@
         <v>31</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>1983</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="251">
@@ -8301,10 +8304,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>1985</v>
+        <v>1986</v>
       </c>
     </row>
   </sheetData>
@@ -59410,7 +59413,7 @@
         <v>138</v>
       </c>
       <c r="M487" t="s" s="2">
-        <v>1447</v>
+        <v>1596</v>
       </c>
       <c r="N487" t="s" s="2">
         <v>1575</v>
@@ -59486,7 +59489,7 @@
         <v>1549</v>
       </c>
       <c r="B488" t="s" s="2">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C488" t="s" s="2">
         <v>1577</v>
@@ -59589,7 +59592,7 @@
         <v>1549</v>
       </c>
       <c r="B489" t="s" s="2">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C489" t="s" s="2">
         <v>1579</v>
@@ -59694,7 +59697,7 @@
         <v>1549</v>
       </c>
       <c r="B490" t="s" s="2">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="C490" t="s" s="2">
         <v>1581</v>
@@ -59801,7 +59804,7 @@
         <v>1549</v>
       </c>
       <c r="B491" t="s" s="2">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="C491" t="s" s="2">
         <v>1583</v>
@@ -59908,7 +59911,7 @@
         <v>1549</v>
       </c>
       <c r="B492" t="s" s="2">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="C492" t="s" s="2">
         <v>1585</v>
@@ -59937,7 +59940,7 @@
         <v>96</v>
       </c>
       <c r="M492" t="s" s="2">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="N492" t="s" s="2">
         <v>1421</v>
@@ -59956,7 +59959,7 @@
         <v>76</v>
       </c>
       <c r="T492" t="s" s="2">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="U492" t="s" s="2">
         <v>1425</v>
@@ -60015,7 +60018,7 @@
         <v>1549</v>
       </c>
       <c r="B493" t="s" s="2">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="C493" t="s" s="2">
         <v>1589</v>
@@ -60120,7 +60123,7 @@
         <v>1549</v>
       </c>
       <c r="B494" t="s" s="2">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="C494" t="s" s="2">
         <v>1591</v>
@@ -60223,7 +60226,7 @@
         <v>1549</v>
       </c>
       <c r="B495" t="s" s="2">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="C495" t="s" s="2">
         <v>1593</v>
@@ -60328,10 +60331,10 @@
         <v>1549</v>
       </c>
       <c r="B496" t="s" s="2">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="C496" t="s" s="2">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="D496" s="2"/>
       <c r="E496" t="s" s="2">
@@ -60357,16 +60360,16 @@
         <v>175</v>
       </c>
       <c r="M496" t="s" s="2">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="N496" t="s" s="2">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="O496" t="s" s="2">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="P496" t="s" s="2">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="Q496" t="s" s="2">
         <v>76</v>
@@ -60417,7 +60420,7 @@
         <v>76</v>
       </c>
       <c r="AG496" t="s" s="2">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="AH496" t="s" s="2">
         <v>74</v>
@@ -60437,10 +60440,10 @@
         <v>1549</v>
       </c>
       <c r="B497" t="s" s="2">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="C497" t="s" s="2">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="D497" s="2"/>
       <c r="E497" t="s" s="2">
@@ -60466,16 +60469,16 @@
         <v>1532</v>
       </c>
       <c r="M497" t="s" s="2">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="N497" t="s" s="2">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="O497" t="s" s="2">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="P497" t="s" s="2">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="Q497" t="s" s="2">
         <v>76</v>
@@ -60524,7 +60527,7 @@
         <v>76</v>
       </c>
       <c r="AG497" t="s" s="2">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="AH497" t="s" s="2">
         <v>74</v>
@@ -60544,10 +60547,10 @@
         <v>1549</v>
       </c>
       <c r="B498" t="s" s="2">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="C498" t="s" s="2">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="D498" s="2"/>
       <c r="E498" t="s" s="2">
@@ -60573,13 +60576,13 @@
         <v>1481</v>
       </c>
       <c r="M498" t="s" s="2">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="N498" t="s" s="2">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="O498" t="s" s="2">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="P498" t="s" s="2">
         <v>1539</v>
@@ -60631,7 +60634,7 @@
         <v>76</v>
       </c>
       <c r="AG498" t="s" s="2">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="AH498" t="s" s="2">
         <v>74</v>
@@ -60651,10 +60654,10 @@
         <v>1549</v>
       </c>
       <c r="B499" t="s" s="2">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="C499" t="s" s="2">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="D499" s="2"/>
       <c r="E499" t="s" s="2">
@@ -60680,16 +60683,16 @@
         <v>102</v>
       </c>
       <c r="M499" t="s" s="2">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="N499" t="s" s="2">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="O499" t="s" s="2">
         <v>1473</v>
       </c>
       <c r="P499" t="s" s="2">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="Q499" t="s" s="2">
         <v>76</v>
@@ -60717,10 +60720,10 @@
         <v>146</v>
       </c>
       <c r="Z499" t="s" s="2">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="AA499" t="s" s="2">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="AB499" t="s" s="2">
         <v>76</v>
@@ -60738,7 +60741,7 @@
         <v>76</v>
       </c>
       <c r="AG499" t="s" s="2">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="AH499" t="s" s="2">
         <v>74</v>
@@ -60758,10 +60761,10 @@
         <v>1549</v>
       </c>
       <c r="B500" t="s" s="2">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="C500" t="s" s="2">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="D500" s="2"/>
       <c r="E500" t="s" s="2">
@@ -60784,19 +60787,19 @@
         <v>83</v>
       </c>
       <c r="L500" t="s" s="2">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="M500" t="s" s="2">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="N500" t="s" s="2">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="O500" t="s" s="2">
         <v>1473</v>
       </c>
       <c r="P500" t="s" s="2">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="Q500" t="s" s="2">
         <v>76</v>
@@ -60845,7 +60848,7 @@
         <v>76</v>
       </c>
       <c r="AG500" t="s" s="2">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="AH500" t="s" s="2">
         <v>74</v>
@@ -60865,10 +60868,10 @@
         <v>1549</v>
       </c>
       <c r="B501" t="s" s="2">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="C501" t="s" s="2">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="D501" s="2"/>
       <c r="E501" t="s" s="2">
@@ -60891,19 +60894,19 @@
         <v>83</v>
       </c>
       <c r="L501" t="s" s="2">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="M501" t="s" s="2">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="N501" t="s" s="2">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="O501" t="s" s="2">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="P501" t="s" s="2">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="Q501" t="s" s="2">
         <v>76</v>
@@ -60952,7 +60955,7 @@
         <v>76</v>
       </c>
       <c r="AG501" t="s" s="2">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="AH501" t="s" s="2">
         <v>74</v>
@@ -60972,10 +60975,10 @@
         <v>1549</v>
       </c>
       <c r="B502" t="s" s="2">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="C502" t="s" s="2">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="D502" s="2"/>
       <c r="E502" t="s" s="2">
@@ -61001,16 +61004,16 @@
         <v>1489</v>
       </c>
       <c r="M502" t="s" s="2">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="N502" t="s" s="2">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="O502" t="s" s="2">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="P502" t="s" s="2">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="Q502" t="s" s="2">
         <v>76</v>
@@ -61059,7 +61062,7 @@
         <v>76</v>
       </c>
       <c r="AG502" t="s" s="2">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="AH502" t="s" s="2">
         <v>74</v>
@@ -61079,10 +61082,10 @@
         <v>1549</v>
       </c>
       <c r="B503" t="s" s="2">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="C503" t="s" s="2">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="D503" s="2"/>
       <c r="E503" t="s" s="2">
@@ -61182,10 +61185,10 @@
         <v>1549</v>
       </c>
       <c r="B504" t="s" s="2">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="C504" t="s" s="2">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="D504" s="2"/>
       <c r="E504" t="s" s="2">
@@ -61287,10 +61290,10 @@
         <v>1549</v>
       </c>
       <c r="B505" t="s" s="2">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="C505" t="s" s="2">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="D505" s="2"/>
       <c r="E505" t="s" s="2">
@@ -61394,10 +61397,10 @@
         <v>1549</v>
       </c>
       <c r="B506" t="s" s="2">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="C506" t="s" s="2">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="D506" s="2"/>
       <c r="E506" t="s" s="2">
@@ -61499,10 +61502,10 @@
         <v>1549</v>
       </c>
       <c r="B507" t="s" s="2">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="C507" t="s" s="2">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="D507" s="2"/>
       <c r="E507" t="s" s="2">
@@ -61606,10 +61609,10 @@
         <v>1549</v>
       </c>
       <c r="B508" t="s" s="2">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="C508" t="s" s="2">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="D508" s="2"/>
       <c r="E508" t="s" s="2">
@@ -61709,10 +61712,10 @@
         <v>1549</v>
       </c>
       <c r="B509" t="s" s="2">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="C509" t="s" s="2">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="D509" s="2"/>
       <c r="E509" t="s" s="2">
@@ -61812,10 +61815,10 @@
         <v>1549</v>
       </c>
       <c r="B510" t="s" s="2">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="C510" t="s" s="2">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="D510" s="2"/>
       <c r="E510" t="s" s="2">
@@ -61917,10 +61920,10 @@
         <v>1549</v>
       </c>
       <c r="B511" t="s" s="2">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="C511" t="s" s="2">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="D511" s="2"/>
       <c r="E511" t="s" s="2">
@@ -62020,10 +62023,10 @@
         <v>1549</v>
       </c>
       <c r="B512" t="s" s="2">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="C512" t="s" s="2">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="D512" s="2"/>
       <c r="E512" t="s" s="2">
@@ -62121,10 +62124,10 @@
         <v>1549</v>
       </c>
       <c r="B513" t="s" s="2">
+        <v>1653</v>
+      </c>
+      <c r="C513" t="s" s="2">
         <v>1652</v>
-      </c>
-      <c r="C513" t="s" s="2">
-        <v>1651</v>
       </c>
       <c r="D513" t="s" s="2">
         <v>423</v>
@@ -62226,10 +62229,10 @@
         <v>1549</v>
       </c>
       <c r="B514" t="s" s="2">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="C514" t="s" s="2">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="D514" s="2"/>
       <c r="E514" t="s" s="2">
@@ -62329,10 +62332,10 @@
         <v>1549</v>
       </c>
       <c r="B515" t="s" s="2">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="C515" t="s" s="2">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="D515" s="2"/>
       <c r="E515" t="s" s="2">
@@ -62432,10 +62435,10 @@
         <v>1549</v>
       </c>
       <c r="B516" t="s" s="2">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="C516" t="s" s="2">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="D516" s="2"/>
       <c r="E516" t="s" s="2">
@@ -62535,10 +62538,10 @@
         <v>1549</v>
       </c>
       <c r="B517" t="s" s="2">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="C517" t="s" s="2">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="D517" s="2"/>
       <c r="E517" t="s" s="2">
@@ -62640,10 +62643,10 @@
         <v>1549</v>
       </c>
       <c r="B518" t="s" s="2">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="C518" t="s" s="2">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="D518" s="2"/>
       <c r="E518" t="s" s="2">
@@ -62745,10 +62748,10 @@
         <v>1549</v>
       </c>
       <c r="B519" t="s" s="2">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="C519" t="s" s="2">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="D519" s="2"/>
       <c r="E519" t="s" s="2">
@@ -62774,14 +62777,14 @@
         <v>150</v>
       </c>
       <c r="M519" t="s" s="2">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="N519" t="s" s="2">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="O519" s="2"/>
       <c r="P519" t="s" s="2">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="Q519" t="s" s="2">
         <v>76</v>
@@ -62809,10 +62812,10 @@
         <v>701</v>
       </c>
       <c r="Z519" t="s" s="2">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="AA519" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="AB519" t="s" s="2">
         <v>76</v>
@@ -62830,7 +62833,7 @@
         <v>76</v>
       </c>
       <c r="AG519" t="s" s="2">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="AH519" t="s" s="2">
         <v>74</v>
@@ -62850,10 +62853,10 @@
         <v>1549</v>
       </c>
       <c r="B520" t="s" s="2">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="C520" t="s" s="2">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="D520" s="2"/>
       <c r="E520" t="s" s="2">
@@ -62876,19 +62879,19 @@
         <v>76</v>
       </c>
       <c r="L520" t="s" s="2">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="M520" t="s" s="2">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="N520" t="s" s="2">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="O520" t="s" s="2">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="P520" t="s" s="2">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="Q520" t="s" s="2">
         <v>76</v>
@@ -62937,7 +62940,7 @@
         <v>76</v>
       </c>
       <c r="AG520" t="s" s="2">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="AH520" t="s" s="2">
         <v>74</v>
@@ -62957,10 +62960,10 @@
         <v>1549</v>
       </c>
       <c r="B521" t="s" s="2">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="C521" t="s" s="2">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="D521" s="2"/>
       <c r="E521" t="s" s="2">
@@ -62983,19 +62986,19 @@
         <v>76</v>
       </c>
       <c r="L521" t="s" s="2">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="M521" t="s" s="2">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="N521" t="s" s="2">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="O521" t="s" s="2">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="P521" t="s" s="2">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="Q521" t="s" s="2">
         <v>76</v>
@@ -63044,7 +63047,7 @@
         <v>76</v>
       </c>
       <c r="AG521" t="s" s="2">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="AH521" t="s" s="2">
         <v>74</v>
@@ -63064,10 +63067,10 @@
         <v>1549</v>
       </c>
       <c r="B522" t="s" s="2">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="C522" t="s" s="2">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="D522" s="2"/>
       <c r="E522" t="s" s="2">
@@ -63093,16 +63096,16 @@
         <v>272</v>
       </c>
       <c r="M522" t="s" s="2">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="N522" t="s" s="2">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="O522" t="s" s="2">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="P522" t="s" s="2">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="Q522" t="s" s="2">
         <v>76</v>
@@ -63151,7 +63154,7 @@
         <v>76</v>
       </c>
       <c r="AG522" t="s" s="2">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="AH522" t="s" s="2">
         <v>74</v>
@@ -63163,7 +63166,7 @@
         <v>76</v>
       </c>
       <c r="AK522" t="s" s="2">
-        <v>1681</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="523">
@@ -63171,10 +63174,10 @@
         <v>1549</v>
       </c>
       <c r="B523" t="s" s="2">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="C523" t="s" s="2">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="D523" s="2"/>
       <c r="E523" t="s" s="2">
@@ -63274,10 +63277,10 @@
         <v>1549</v>
       </c>
       <c r="B524" t="s" s="2">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="C524" t="s" s="2">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="D524" s="2"/>
       <c r="E524" t="s" s="2">
@@ -63379,10 +63382,10 @@
         <v>1549</v>
       </c>
       <c r="B525" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="C525" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="D525" s="2"/>
       <c r="E525" t="s" s="2">
@@ -63486,10 +63489,10 @@
         <v>1549</v>
       </c>
       <c r="B526" t="s" s="2">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="C526" t="s" s="2">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D526" s="2"/>
       <c r="E526" t="s" s="2">
@@ -63515,14 +63518,14 @@
         <v>150</v>
       </c>
       <c r="M526" t="s" s="2">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="N526" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="O526" s="2"/>
       <c r="P526" t="s" s="2">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="Q526" t="s" s="2">
         <v>76</v>
@@ -63550,10 +63553,10 @@
         <v>701</v>
       </c>
       <c r="Z526" t="s" s="2">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="AA526" t="s" s="2">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="AB526" t="s" s="2">
         <v>76</v>
@@ -63571,7 +63574,7 @@
         <v>76</v>
       </c>
       <c r="AG526" t="s" s="2">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="AH526" t="s" s="2">
         <v>74</v>
@@ -63591,10 +63594,10 @@
         <v>1549</v>
       </c>
       <c r="B527" t="s" s="2">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="C527" t="s" s="2">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="D527" s="2"/>
       <c r="E527" t="s" s="2">
@@ -63620,14 +63623,14 @@
         <v>1532</v>
       </c>
       <c r="M527" t="s" s="2">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="N527" t="s" s="2">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="O527" s="2"/>
       <c r="P527" t="s" s="2">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="Q527" t="s" s="2">
         <v>76</v>
@@ -63676,7 +63679,7 @@
         <v>76</v>
       </c>
       <c r="AG527" t="s" s="2">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="AH527" t="s" s="2">
         <v>74</v>
@@ -63696,10 +63699,10 @@
         <v>1549</v>
       </c>
       <c r="B528" t="s" s="2">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="C528" t="s" s="2">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="D528" s="2"/>
       <c r="E528" t="s" s="2">
@@ -63725,13 +63728,13 @@
         <v>1481</v>
       </c>
       <c r="M528" t="s" s="2">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="N528" t="s" s="2">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="O528" t="s" s="2">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="P528" t="s" s="2">
         <v>1539</v>
@@ -63783,7 +63786,7 @@
         <v>76</v>
       </c>
       <c r="AG528" t="s" s="2">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="AH528" t="s" s="2">
         <v>74</v>
@@ -63803,10 +63806,10 @@
         <v>1549</v>
       </c>
       <c r="B529" t="s" s="2">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="C529" t="s" s="2">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="D529" s="2"/>
       <c r="E529" t="s" s="2">
@@ -63832,14 +63835,14 @@
         <v>1489</v>
       </c>
       <c r="M529" t="s" s="2">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="N529" t="s" s="2">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="O529" s="2"/>
       <c r="P529" t="s" s="2">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="Q529" t="s" s="2">
         <v>76</v>
@@ -63888,7 +63891,7 @@
         <v>76</v>
       </c>
       <c r="AG529" t="s" s="2">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="AH529" t="s" s="2">
         <v>74</v>
@@ -63908,10 +63911,10 @@
         <v>1549</v>
       </c>
       <c r="B530" t="s" s="2">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="C530" t="s" s="2">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="D530" s="2"/>
       <c r="E530" t="s" s="2">
@@ -63937,14 +63940,14 @@
         <v>102</v>
       </c>
       <c r="M530" t="s" s="2">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="N530" t="s" s="2">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="O530" s="2"/>
       <c r="P530" t="s" s="2">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="Q530" t="s" s="2">
         <v>76</v>
@@ -63972,10 +63975,10 @@
         <v>146</v>
       </c>
       <c r="Z530" t="s" s="2">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="AA530" t="s" s="2">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="AB530" t="s" s="2">
         <v>76</v>
@@ -63993,7 +63996,7 @@
         <v>76</v>
       </c>
       <c r="AG530" t="s" s="2">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="AH530" t="s" s="2">
         <v>74</v>
@@ -64013,10 +64016,10 @@
         <v>1549</v>
       </c>
       <c r="B531" t="s" s="2">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="C531" t="s" s="2">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="D531" s="2"/>
       <c r="E531" t="s" s="2">
@@ -64042,14 +64045,14 @@
         <v>325</v>
       </c>
       <c r="M531" t="s" s="2">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="N531" t="s" s="2">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="O531" s="2"/>
       <c r="P531" t="s" s="2">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="Q531" t="s" s="2">
         <v>76</v>
@@ -64098,7 +64101,7 @@
         <v>76</v>
       </c>
       <c r="AG531" t="s" s="2">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="AH531" t="s" s="2">
         <v>74</v>
@@ -64107,7 +64110,7 @@
         <v>82</v>
       </c>
       <c r="AJ531" t="s" s="2">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="AK531" t="s" s="2">
         <v>94</v>
@@ -64118,10 +64121,10 @@
         <v>1549</v>
       </c>
       <c r="B532" t="s" s="2">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="C532" t="s" s="2">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="D532" s="2"/>
       <c r="E532" t="s" s="2">
@@ -64147,10 +64150,10 @@
         <v>307</v>
       </c>
       <c r="M532" t="s" s="2">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="N532" t="s" s="2">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="O532" s="2"/>
       <c r="P532" s="2"/>
@@ -64201,7 +64204,7 @@
         <v>76</v>
       </c>
       <c r="AG532" t="s" s="2">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="AH532" t="s" s="2">
         <v>74</v>
@@ -64221,10 +64224,10 @@
         <v>1549</v>
       </c>
       <c r="B533" t="s" s="2">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="C533" t="s" s="2">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="D533" s="2"/>
       <c r="E533" t="s" s="2">
@@ -64250,16 +64253,16 @@
         <v>272</v>
       </c>
       <c r="M533" t="s" s="2">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="N533" t="s" s="2">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="O533" t="s" s="2">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="P533" t="s" s="2">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="Q533" t="s" s="2">
         <v>76</v>
@@ -64308,7 +64311,7 @@
         <v>76</v>
       </c>
       <c r="AG533" t="s" s="2">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="AH533" t="s" s="2">
         <v>74</v>
@@ -64328,10 +64331,10 @@
         <v>1549</v>
       </c>
       <c r="B534" t="s" s="2">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="C534" t="s" s="2">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="D534" s="2"/>
       <c r="E534" t="s" s="2">
@@ -64431,10 +64434,10 @@
         <v>1549</v>
       </c>
       <c r="B535" t="s" s="2">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="C535" t="s" s="2">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="D535" s="2"/>
       <c r="E535" t="s" s="2">
@@ -64536,10 +64539,10 @@
         <v>1549</v>
       </c>
       <c r="B536" t="s" s="2">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="C536" t="s" s="2">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="D536" s="2"/>
       <c r="E536" t="s" s="2">
@@ -64643,10 +64646,10 @@
         <v>1549</v>
       </c>
       <c r="B537" t="s" s="2">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="C537" t="s" s="2">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="D537" s="2"/>
       <c r="E537" t="s" s="2">
@@ -64672,16 +64675,16 @@
         <v>150</v>
       </c>
       <c r="M537" t="s" s="2">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="N537" t="s" s="2">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="O537" t="s" s="2">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="P537" t="s" s="2">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="Q537" t="s" s="2">
         <v>76</v>
@@ -64730,7 +64733,7 @@
         <v>76</v>
       </c>
       <c r="AG537" t="s" s="2">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="AH537" t="s" s="2">
         <v>82</v>
@@ -64750,10 +64753,10 @@
         <v>1549</v>
       </c>
       <c r="B538" t="s" s="2">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="C538" t="s" s="2">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="D538" s="2"/>
       <c r="E538" t="s" s="2">
@@ -64779,16 +64782,16 @@
         <v>175</v>
       </c>
       <c r="M538" t="s" s="2">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="N538" t="s" s="2">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="O538" t="s" s="2">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="P538" t="s" s="2">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="Q538" t="s" s="2">
         <v>76</v>
@@ -64837,7 +64840,7 @@
         <v>76</v>
       </c>
       <c r="AG538" t="s" s="2">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="AH538" t="s" s="2">
         <v>74</v>
@@ -64857,14 +64860,14 @@
         <v>1549</v>
       </c>
       <c r="B539" t="s" s="2">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="C539" t="s" s="2">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="D539" s="2"/>
       <c r="E539" t="s" s="2">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="F539" s="2"/>
       <c r="G539" t="s" s="2">
@@ -64883,16 +64886,16 @@
         <v>76</v>
       </c>
       <c r="L539" t="s" s="2">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="M539" t="s" s="2">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="N539" t="s" s="2">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="O539" t="s" s="2">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="P539" s="2"/>
       <c r="Q539" t="s" s="2">
@@ -64942,7 +64945,7 @@
         <v>76</v>
       </c>
       <c r="AG539" t="s" s="2">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="AH539" t="s" s="2">
         <v>74</v>
@@ -64962,10 +64965,10 @@
         <v>1549</v>
       </c>
       <c r="B540" t="s" s="2">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C540" t="s" s="2">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="D540" s="2"/>
       <c r="E540" t="s" s="2">
@@ -64991,16 +64994,16 @@
         <v>325</v>
       </c>
       <c r="M540" t="s" s="2">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="N540" t="s" s="2">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="O540" t="s" s="2">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="P540" t="s" s="2">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="Q540" t="s" s="2">
         <v>76</v>
@@ -65049,7 +65052,7 @@
         <v>76</v>
       </c>
       <c r="AG540" t="s" s="2">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="AH540" t="s" s="2">
         <v>74</v>
@@ -65069,10 +65072,10 @@
         <v>1549</v>
       </c>
       <c r="B541" t="s" s="2">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="C541" t="s" s="2">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="D541" s="2"/>
       <c r="E541" t="s" s="2">
@@ -65098,16 +65101,16 @@
         <v>272</v>
       </c>
       <c r="M541" t="s" s="2">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="N541" t="s" s="2">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="O541" t="s" s="2">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="P541" t="s" s="2">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="Q541" t="s" s="2">
         <v>76</v>
@@ -65156,7 +65159,7 @@
         <v>76</v>
       </c>
       <c r="AG541" t="s" s="2">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="AH541" t="s" s="2">
         <v>74</v>
@@ -65176,10 +65179,10 @@
         <v>1549</v>
       </c>
       <c r="B542" t="s" s="2">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="C542" t="s" s="2">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="D542" s="2"/>
       <c r="E542" t="s" s="2">
@@ -65279,10 +65282,10 @@
         <v>1549</v>
       </c>
       <c r="B543" t="s" s="2">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="C543" t="s" s="2">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="D543" s="2"/>
       <c r="E543" t="s" s="2">
@@ -65384,10 +65387,10 @@
         <v>1549</v>
       </c>
       <c r="B544" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="C544" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="D544" s="2"/>
       <c r="E544" t="s" s="2">
@@ -65491,10 +65494,10 @@
         <v>1549</v>
       </c>
       <c r="B545" t="s" s="2">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="C545" t="s" s="2">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="D545" s="2"/>
       <c r="E545" t="s" s="2">
@@ -65517,16 +65520,16 @@
         <v>83</v>
       </c>
       <c r="L545" t="s" s="2">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="M545" t="s" s="2">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="N545" t="s" s="2">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="O545" t="s" s="2">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="P545" s="2"/>
       <c r="Q545" t="s" s="2">
@@ -65576,7 +65579,7 @@
         <v>76</v>
       </c>
       <c r="AG545" t="s" s="2">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="AH545" t="s" s="2">
         <v>82</v>
@@ -65596,10 +65599,10 @@
         <v>1549</v>
       </c>
       <c r="B546" t="s" s="2">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="C546" t="s" s="2">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="D546" s="2"/>
       <c r="E546" t="s" s="2">
@@ -65625,10 +65628,10 @@
         <v>102</v>
       </c>
       <c r="M546" t="s" s="2">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="N546" t="s" s="2">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="O546" s="2"/>
       <c r="P546" s="2"/>
@@ -65658,10 +65661,10 @@
         <v>146</v>
       </c>
       <c r="Z546" t="s" s="2">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="AA546" t="s" s="2">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="AB546" t="s" s="2">
         <v>76</v>
@@ -65679,7 +65682,7 @@
         <v>76</v>
       </c>
       <c r="AG546" t="s" s="2">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="AH546" t="s" s="2">
         <v>82</v>
@@ -65696,13 +65699,13 @@
     </row>
     <row r="547">
       <c r="A547" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B547" t="s" s="2">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="C547" t="s" s="2">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="D547" s="2"/>
       <c r="E547" t="s" s="2">
@@ -65728,10 +65731,10 @@
         <v>77</v>
       </c>
       <c r="M547" t="s" s="2">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="N547" t="s" s="2">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="O547" s="2"/>
       <c r="P547" s="2"/>
@@ -65782,7 +65785,7 @@
         <v>76</v>
       </c>
       <c r="AG547" t="s" s="2">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="AH547" t="s" s="2">
         <v>74</v>
@@ -65799,13 +65802,13 @@
     </row>
     <row r="548">
       <c r="A548" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B548" t="s" s="2">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="C548" t="s" s="2">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="D548" s="2"/>
       <c r="E548" t="s" s="2">
@@ -65904,13 +65907,13 @@
     </row>
     <row r="549">
       <c r="A549" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B549" t="s" s="2">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="C549" t="s" s="2">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="D549" s="2"/>
       <c r="E549" t="s" s="2">
@@ -66007,13 +66010,13 @@
     </row>
     <row r="550">
       <c r="A550" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B550" t="s" s="2">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="C550" t="s" s="2">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="D550" s="2"/>
       <c r="E550" t="s" s="2">
@@ -66112,13 +66115,13 @@
     </row>
     <row r="551">
       <c r="A551" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B551" t="s" s="2">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="C551" t="s" s="2">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="D551" s="2"/>
       <c r="E551" t="s" s="2">
@@ -66217,13 +66220,13 @@
     </row>
     <row r="552">
       <c r="A552" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B552" t="s" s="2">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="C552" t="s" s="2">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="D552" s="2"/>
       <c r="E552" t="s" s="2">
@@ -66322,13 +66325,13 @@
     </row>
     <row r="553">
       <c r="A553" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B553" t="s" s="2">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="C553" t="s" s="2">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="D553" s="2"/>
       <c r="E553" t="s" s="2">
@@ -66427,13 +66430,13 @@
     </row>
     <row r="554">
       <c r="A554" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B554" t="s" s="2">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="C554" t="s" s="2">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="D554" s="2"/>
       <c r="E554" t="s" s="2">
@@ -66532,13 +66535,13 @@
     </row>
     <row r="555">
       <c r="A555" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B555" t="s" s="2">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="C555" t="s" s="2">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="D555" s="2"/>
       <c r="E555" t="s" s="2">
@@ -66639,13 +66642,13 @@
     </row>
     <row r="556">
       <c r="A556" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B556" t="s" s="2">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="C556" t="s" s="2">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="D556" s="2"/>
       <c r="E556" t="s" s="2">
@@ -66671,14 +66674,14 @@
         <v>138</v>
       </c>
       <c r="M556" t="s" s="2">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="N556" t="s" s="2">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="O556" s="2"/>
       <c r="P556" t="s" s="2">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="Q556" t="s" s="2">
         <v>76</v>
@@ -66727,7 +66730,7 @@
         <v>76</v>
       </c>
       <c r="AG556" t="s" s="2">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="AH556" t="s" s="2">
         <v>74</v>
@@ -66744,13 +66747,13 @@
     </row>
     <row r="557">
       <c r="A557" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B557" t="s" s="2">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="C557" t="s" s="2">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="D557" s="2"/>
       <c r="E557" t="s" s="2">
@@ -66847,13 +66850,13 @@
     </row>
     <row r="558">
       <c r="A558" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B558" t="s" s="2">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="C558" t="s" s="2">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="D558" s="2"/>
       <c r="E558" t="s" s="2">
@@ -66952,13 +66955,13 @@
     </row>
     <row r="559">
       <c r="A559" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B559" t="s" s="2">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="C559" t="s" s="2">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="D559" s="2"/>
       <c r="E559" t="s" s="2">
@@ -67059,13 +67062,13 @@
     </row>
     <row r="560">
       <c r="A560" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B560" t="s" s="2">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="C560" t="s" s="2">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="D560" s="2"/>
       <c r="E560" t="s" s="2">
@@ -67166,13 +67169,13 @@
     </row>
     <row r="561">
       <c r="A561" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B561" t="s" s="2">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="C561" t="s" s="2">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="D561" s="2"/>
       <c r="E561" t="s" s="2">
@@ -67198,13 +67201,13 @@
         <v>96</v>
       </c>
       <c r="M561" t="s" s="2">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="N561" t="s" s="2">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="O561" t="s" s="2">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="P561" t="s" s="2">
         <v>1423</v>
@@ -67217,7 +67220,7 @@
         <v>76</v>
       </c>
       <c r="T561" t="s" s="2">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="U561" t="s" s="2">
         <v>1425</v>
@@ -67273,13 +67276,13 @@
     </row>
     <row r="562">
       <c r="A562" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B562" t="s" s="2">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="C562" t="s" s="2">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="D562" s="2"/>
       <c r="E562" t="s" s="2">
@@ -67305,7 +67308,7 @@
         <v>276</v>
       </c>
       <c r="M562" t="s" s="2">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="N562" t="s" s="2">
         <v>1430</v>
@@ -67378,13 +67381,13 @@
     </row>
     <row r="563">
       <c r="A563" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B563" t="s" s="2">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="C563" t="s" s="2">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="D563" s="2"/>
       <c r="E563" t="s" s="2">
@@ -67481,13 +67484,13 @@
     </row>
     <row r="564">
       <c r="A564" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B564" t="s" s="2">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="C564" t="s" s="2">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="D564" s="2"/>
       <c r="E564" t="s" s="2">
@@ -67586,13 +67589,13 @@
     </row>
     <row r="565">
       <c r="A565" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B565" t="s" s="2">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="C565" t="s" s="2">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="D565" s="2"/>
       <c r="E565" t="s" s="2">
@@ -67618,16 +67621,16 @@
         <v>175</v>
       </c>
       <c r="M565" t="s" s="2">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="N565" t="s" s="2">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="O565" t="s" s="2">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="P565" t="s" s="2">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="Q565" t="s" s="2">
         <v>76</v>
@@ -67678,7 +67681,7 @@
         <v>76</v>
       </c>
       <c r="AG565" t="s" s="2">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="AH565" t="s" s="2">
         <v>74</v>
@@ -67695,13 +67698,13 @@
     </row>
     <row r="566">
       <c r="A566" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B566" t="s" s="2">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="C566" t="s" s="2">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="D566" s="2"/>
       <c r="E566" t="s" s="2">
@@ -67727,16 +67730,16 @@
         <v>1532</v>
       </c>
       <c r="M566" t="s" s="2">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="N566" t="s" s="2">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="O566" t="s" s="2">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="P566" t="s" s="2">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="Q566" t="s" s="2">
         <v>76</v>
@@ -67785,7 +67788,7 @@
         <v>76</v>
       </c>
       <c r="AG566" t="s" s="2">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="AH566" t="s" s="2">
         <v>74</v>
@@ -67802,13 +67805,13 @@
     </row>
     <row r="567">
       <c r="A567" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B567" t="s" s="2">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="C567" t="s" s="2">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="D567" s="2"/>
       <c r="E567" t="s" s="2">
@@ -67834,16 +67837,16 @@
         <v>1481</v>
       </c>
       <c r="M567" t="s" s="2">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="N567" t="s" s="2">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="O567" t="s" s="2">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="P567" t="s" s="2">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="Q567" t="s" s="2">
         <v>76</v>
@@ -67892,7 +67895,7 @@
         <v>76</v>
       </c>
       <c r="AG567" t="s" s="2">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="AH567" t="s" s="2">
         <v>74</v>
@@ -67909,13 +67912,13 @@
     </row>
     <row r="568">
       <c r="A568" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B568" t="s" s="2">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="C568" t="s" s="2">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="D568" s="2"/>
       <c r="E568" t="s" s="2">
@@ -67941,16 +67944,16 @@
         <v>1489</v>
       </c>
       <c r="M568" t="s" s="2">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="N568" t="s" s="2">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="O568" t="s" s="2">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="P568" t="s" s="2">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="Q568" t="s" s="2">
         <v>76</v>
@@ -67999,7 +68002,7 @@
         <v>76</v>
       </c>
       <c r="AG568" t="s" s="2">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="AH568" t="s" s="2">
         <v>74</v>
@@ -68016,13 +68019,13 @@
     </row>
     <row r="569">
       <c r="A569" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B569" t="s" s="2">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="C569" t="s" s="2">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="D569" s="2"/>
       <c r="E569" t="s" s="2">
@@ -68048,14 +68051,14 @@
         <v>102</v>
       </c>
       <c r="M569" t="s" s="2">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="N569" t="s" s="2">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="O569" s="2"/>
       <c r="P569" t="s" s="2">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="Q569" t="s" s="2">
         <v>76</v>
@@ -68083,10 +68086,10 @@
         <v>146</v>
       </c>
       <c r="Z569" t="s" s="2">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="AA569" t="s" s="2">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="AB569" t="s" s="2">
         <v>76</v>
@@ -68104,7 +68107,7 @@
         <v>76</v>
       </c>
       <c r="AG569" t="s" s="2">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="AH569" t="s" s="2">
         <v>74</v>
@@ -68121,13 +68124,13 @@
     </row>
     <row r="570">
       <c r="A570" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B570" t="s" s="2">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="C570" t="s" s="2">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="D570" s="2"/>
       <c r="E570" t="s" s="2">
@@ -68150,17 +68153,17 @@
         <v>83</v>
       </c>
       <c r="L570" t="s" s="2">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="M570" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="N570" t="s" s="2">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="O570" s="2"/>
       <c r="P570" t="s" s="2">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="Q570" t="s" s="2">
         <v>76</v>
@@ -68209,7 +68212,7 @@
         <v>76</v>
       </c>
       <c r="AG570" t="s" s="2">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="AH570" t="s" s="2">
         <v>74</v>
@@ -68226,13 +68229,13 @@
     </row>
     <row r="571">
       <c r="A571" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B571" t="s" s="2">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="C571" t="s" s="2">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="D571" s="2"/>
       <c r="E571" t="s" s="2">
@@ -68255,17 +68258,17 @@
         <v>76</v>
       </c>
       <c r="L571" t="s" s="2">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="M571" t="s" s="2">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="N571" t="s" s="2">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="O571" s="2"/>
       <c r="P571" t="s" s="2">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="Q571" t="s" s="2">
         <v>76</v>
@@ -68314,7 +68317,7 @@
         <v>76</v>
       </c>
       <c r="AG571" t="s" s="2">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="AH571" t="s" s="2">
         <v>74</v>
@@ -68331,13 +68334,13 @@
     </row>
     <row r="572">
       <c r="A572" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B572" t="s" s="2">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="C572" t="s" s="2">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="D572" s="2"/>
       <c r="E572" t="s" s="2">
@@ -68363,10 +68366,10 @@
         <v>272</v>
       </c>
       <c r="M572" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="N572" t="s" s="2">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="O572" s="2"/>
       <c r="P572" s="2"/>
@@ -68417,7 +68420,7 @@
         <v>76</v>
       </c>
       <c r="AG572" t="s" s="2">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="AH572" t="s" s="2">
         <v>74</v>
@@ -68434,13 +68437,13 @@
     </row>
     <row r="573">
       <c r="A573" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B573" t="s" s="2">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="C573" t="s" s="2">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="D573" s="2"/>
       <c r="E573" t="s" s="2">
@@ -68537,13 +68540,13 @@
     </row>
     <row r="574">
       <c r="A574" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B574" t="s" s="2">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="C574" t="s" s="2">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="D574" s="2"/>
       <c r="E574" t="s" s="2">
@@ -68642,13 +68645,13 @@
     </row>
     <row r="575">
       <c r="A575" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B575" t="s" s="2">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="C575" t="s" s="2">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="D575" s="2"/>
       <c r="E575" t="s" s="2">
@@ -68749,13 +68752,13 @@
     </row>
     <row r="576">
       <c r="A576" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B576" t="s" s="2">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="C576" t="s" s="2">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="D576" s="2"/>
       <c r="E576" t="s" s="2">
@@ -68781,14 +68784,14 @@
         <v>138</v>
       </c>
       <c r="M576" t="s" s="2">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="N576" t="s" s="2">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="O576" s="2"/>
       <c r="P576" t="s" s="2">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="Q576" t="s" s="2">
         <v>76</v>
@@ -68837,7 +68840,7 @@
         <v>76</v>
       </c>
       <c r="AG576" t="s" s="2">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="AH576" t="s" s="2">
         <v>74</v>
@@ -68854,13 +68857,13 @@
     </row>
     <row r="577">
       <c r="A577" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B577" t="s" s="2">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="C577" t="s" s="2">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="D577" s="2"/>
       <c r="E577" t="s" s="2">
@@ -68886,10 +68889,10 @@
         <v>150</v>
       </c>
       <c r="M577" t="s" s="2">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="N577" t="s" s="2">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="O577" s="2"/>
       <c r="P577" s="2"/>
@@ -68919,10 +68922,10 @@
         <v>154</v>
       </c>
       <c r="Z577" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="AA577" t="s" s="2">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="AB577" t="s" s="2">
         <v>76</v>
@@ -68940,7 +68943,7 @@
         <v>76</v>
       </c>
       <c r="AG577" t="s" s="2">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="AH577" t="s" s="2">
         <v>82</v>
@@ -68957,13 +68960,13 @@
     </row>
     <row r="578">
       <c r="A578" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B578" t="s" s="2">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="C578" t="s" s="2">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="D578" s="2"/>
       <c r="E578" t="s" s="2">
@@ -69060,13 +69063,13 @@
     </row>
     <row r="579">
       <c r="A579" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B579" t="s" s="2">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="C579" t="s" s="2">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="D579" s="2"/>
       <c r="E579" t="s" s="2">
@@ -69165,13 +69168,13 @@
     </row>
     <row r="580">
       <c r="A580" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B580" t="s" s="2">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="C580" t="s" s="2">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="D580" s="2"/>
       <c r="E580" t="s" s="2">
@@ -69272,13 +69275,13 @@
     </row>
     <row r="581">
       <c r="A581" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B581" t="s" s="2">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="C581" t="s" s="2">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="D581" s="2"/>
       <c r="E581" t="s" s="2">
@@ -69375,13 +69378,13 @@
     </row>
     <row r="582">
       <c r="A582" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B582" t="s" s="2">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="C582" t="s" s="2">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="D582" s="2"/>
       <c r="E582" t="s" s="2">
@@ -69480,13 +69483,13 @@
     </row>
     <row r="583">
       <c r="A583" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B583" t="s" s="2">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="C583" t="s" s="2">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="D583" s="2"/>
       <c r="E583" t="s" s="2">
@@ -69512,13 +69515,13 @@
         <v>96</v>
       </c>
       <c r="M583" t="s" s="2">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="N583" t="s" s="2">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="O583" t="s" s="2">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="P583" t="s" s="2">
         <v>592</v>
@@ -69531,7 +69534,7 @@
         <v>76</v>
       </c>
       <c r="T583" t="s" s="2">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="U583" t="s" s="2">
         <v>76</v>
@@ -69587,13 +69590,13 @@
     </row>
     <row r="584">
       <c r="A584" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B584" t="s" s="2">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="C584" t="s" s="2">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="D584" s="2"/>
       <c r="E584" t="s" s="2">
@@ -69692,13 +69695,13 @@
     </row>
     <row r="585">
       <c r="A585" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B585" t="s" s="2">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="C585" t="s" s="2">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="D585" s="2"/>
       <c r="E585" t="s" s="2">
@@ -69797,13 +69800,13 @@
     </row>
     <row r="586">
       <c r="A586" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B586" t="s" s="2">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="C586" t="s" s="2">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="D586" s="2"/>
       <c r="E586" t="s" s="2">
@@ -69902,13 +69905,13 @@
     </row>
     <row r="587">
       <c r="A587" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B587" t="s" s="2">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="C587" t="s" s="2">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="D587" s="2"/>
       <c r="E587" t="s" s="2">
@@ -70009,13 +70012,13 @@
     </row>
     <row r="588">
       <c r="A588" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B588" t="s" s="2">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="C588" t="s" s="2">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="D588" s="2"/>
       <c r="E588" t="s" s="2">
@@ -70116,13 +70119,13 @@
     </row>
     <row r="589">
       <c r="A589" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B589" t="s" s="2">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="C589" t="s" s="2">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="D589" s="2"/>
       <c r="E589" t="s" s="2">
@@ -70148,14 +70151,14 @@
         <v>307</v>
       </c>
       <c r="M589" t="s" s="2">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="N589" t="s" s="2">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="O589" s="2"/>
       <c r="P589" t="s" s="2">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="Q589" t="s" s="2">
         <v>76</v>
@@ -70204,7 +70207,7 @@
         <v>76</v>
       </c>
       <c r="AG589" t="s" s="2">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="AH589" t="s" s="2">
         <v>74</v>
@@ -70221,13 +70224,13 @@
     </row>
     <row r="590">
       <c r="A590" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B590" t="s" s="2">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="C590" t="s" s="2">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="D590" s="2"/>
       <c r="E590" t="s" s="2">
@@ -70253,10 +70256,10 @@
         <v>325</v>
       </c>
       <c r="M590" t="s" s="2">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="N590" t="s" s="2">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="O590" s="2"/>
       <c r="P590" s="2"/>
@@ -70307,7 +70310,7 @@
         <v>76</v>
       </c>
       <c r="AG590" t="s" s="2">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="AH590" t="s" s="2">
         <v>74</v>
@@ -70324,13 +70327,13 @@
     </row>
     <row r="591">
       <c r="A591" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B591" t="s" s="2">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="C591" t="s" s="2">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="D591" s="2"/>
       <c r="E591" t="s" s="2">
@@ -70356,16 +70359,16 @@
         <v>150</v>
       </c>
       <c r="M591" t="s" s="2">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="N591" t="s" s="2">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="O591" t="s" s="2">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="P591" t="s" s="2">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="Q591" t="s" s="2">
         <v>76</v>
@@ -70414,7 +70417,7 @@
         <v>76</v>
       </c>
       <c r="AG591" t="s" s="2">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="AH591" t="s" s="2">
         <v>74</v>
@@ -70431,13 +70434,13 @@
     </row>
     <row r="592">
       <c r="A592" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B592" t="s" s="2">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="C592" t="s" s="2">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="D592" s="2"/>
       <c r="E592" t="s" s="2">
@@ -70463,10 +70466,10 @@
         <v>77</v>
       </c>
       <c r="M592" t="s" s="2">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="N592" t="s" s="2">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="O592" s="2"/>
       <c r="P592" s="2"/>
@@ -70517,7 +70520,7 @@
         <v>76</v>
       </c>
       <c r="AG592" t="s" s="2">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="AH592" t="s" s="2">
         <v>74</v>
@@ -70534,13 +70537,13 @@
     </row>
     <row r="593">
       <c r="A593" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B593" t="s" s="2">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="C593" t="s" s="2">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="D593" s="2"/>
       <c r="E593" t="s" s="2">
@@ -70639,13 +70642,13 @@
     </row>
     <row r="594">
       <c r="A594" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B594" t="s" s="2">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="C594" t="s" s="2">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="D594" s="2"/>
       <c r="E594" t="s" s="2">
@@ -70742,13 +70745,13 @@
     </row>
     <row r="595">
       <c r="A595" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B595" t="s" s="2">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="C595" t="s" s="2">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="D595" s="2"/>
       <c r="E595" t="s" s="2">
@@ -70847,13 +70850,13 @@
     </row>
     <row r="596">
       <c r="A596" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B596" t="s" s="2">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="C596" t="s" s="2">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="D596" s="2"/>
       <c r="E596" t="s" s="2">
@@ -70952,13 +70955,13 @@
     </row>
     <row r="597">
       <c r="A597" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B597" t="s" s="2">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C597" t="s" s="2">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="D597" s="2"/>
       <c r="E597" t="s" s="2">
@@ -71057,13 +71060,13 @@
     </row>
     <row r="598">
       <c r="A598" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B598" t="s" s="2">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="C598" t="s" s="2">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="D598" s="2"/>
       <c r="E598" t="s" s="2">
@@ -71162,13 +71165,13 @@
     </row>
     <row r="599">
       <c r="A599" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B599" t="s" s="2">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="C599" t="s" s="2">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D599" s="2"/>
       <c r="E599" t="s" s="2">
@@ -71267,13 +71270,13 @@
     </row>
     <row r="600">
       <c r="A600" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B600" t="s" s="2">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="C600" t="s" s="2">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="D600" s="2"/>
       <c r="E600" t="s" s="2">
@@ -71374,13 +71377,13 @@
     </row>
     <row r="601">
       <c r="A601" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B601" t="s" s="2">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="C601" t="s" s="2">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="D601" s="2"/>
       <c r="E601" t="s" s="2">
@@ -71406,14 +71409,14 @@
         <v>138</v>
       </c>
       <c r="M601" t="s" s="2">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="N601" t="s" s="2">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="O601" s="2"/>
       <c r="P601" t="s" s="2">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="Q601" t="s" s="2">
         <v>76</v>
@@ -71462,7 +71465,7 @@
         <v>76</v>
       </c>
       <c r="AG601" t="s" s="2">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="AH601" t="s" s="2">
         <v>74</v>
@@ -71479,13 +71482,13 @@
     </row>
     <row r="602">
       <c r="A602" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B602" t="s" s="2">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="C602" t="s" s="2">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="D602" s="2"/>
       <c r="E602" t="s" s="2">
@@ -71511,16 +71514,16 @@
         <v>175</v>
       </c>
       <c r="M602" t="s" s="2">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="N602" t="s" s="2">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="O602" t="s" s="2">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="P602" t="s" s="2">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="Q602" t="s" s="2">
         <v>76</v>
@@ -71571,7 +71574,7 @@
         <v>76</v>
       </c>
       <c r="AG602" t="s" s="2">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="AH602" t="s" s="2">
         <v>74</v>
@@ -71588,13 +71591,13 @@
     </row>
     <row r="603">
       <c r="A603" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B603" t="s" s="2">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="C603" t="s" s="2">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="D603" s="2"/>
       <c r="E603" t="s" s="2">
@@ -71620,14 +71623,14 @@
         <v>307</v>
       </c>
       <c r="M603" t="s" s="2">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="N603" t="s" s="2">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="O603" s="2"/>
       <c r="P603" t="s" s="2">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="Q603" t="s" s="2">
         <v>76</v>
@@ -71676,7 +71679,7 @@
         <v>76</v>
       </c>
       <c r="AG603" t="s" s="2">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="AH603" t="s" s="2">
         <v>74</v>
@@ -71693,13 +71696,13 @@
     </row>
     <row r="604">
       <c r="A604" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B604" t="s" s="2">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="C604" t="s" s="2">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="D604" s="2"/>
       <c r="E604" t="s" s="2">
@@ -71725,10 +71728,10 @@
         <v>209</v>
       </c>
       <c r="M604" t="s" s="2">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="N604" t="s" s="2">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="O604" s="2"/>
       <c r="P604" s="2"/>
@@ -71779,7 +71782,7 @@
         <v>76</v>
       </c>
       <c r="AG604" t="s" s="2">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="AH604" t="s" s="2">
         <v>74</v>
@@ -71796,13 +71799,13 @@
     </row>
     <row r="605">
       <c r="A605" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B605" t="s" s="2">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="C605" t="s" s="2">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="D605" s="2"/>
       <c r="E605" t="s" s="2">
@@ -71828,10 +71831,10 @@
         <v>325</v>
       </c>
       <c r="M605" t="s" s="2">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="N605" t="s" s="2">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="O605" s="2"/>
       <c r="P605" s="2"/>
@@ -71882,7 +71885,7 @@
         <v>76</v>
       </c>
       <c r="AG605" t="s" s="2">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="AH605" t="s" s="2">
         <v>74</v>
@@ -71899,13 +71902,13 @@
     </row>
     <row r="606">
       <c r="A606" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B606" t="s" s="2">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="C606" t="s" s="2">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="D606" s="2"/>
       <c r="E606" t="s" s="2">
@@ -71931,16 +71934,16 @@
         <v>150</v>
       </c>
       <c r="M606" t="s" s="2">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="N606" t="s" s="2">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="O606" t="s" s="2">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="P606" t="s" s="2">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="Q606" t="s" s="2">
         <v>76</v>
@@ -71968,10 +71971,10 @@
         <v>154</v>
       </c>
       <c r="Z606" t="s" s="2">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="AA606" t="s" s="2">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="AB606" t="s" s="2">
         <v>76</v>
@@ -71989,7 +71992,7 @@
         <v>76</v>
       </c>
       <c r="AG606" t="s" s="2">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="AH606" t="s" s="2">
         <v>74</v>
@@ -72006,13 +72009,13 @@
     </row>
     <row r="607">
       <c r="A607" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B607" t="s" s="2">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="C607" t="s" s="2">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="D607" s="2"/>
       <c r="E607" t="s" s="2">
@@ -72109,13 +72112,13 @@
     </row>
     <row r="608">
       <c r="A608" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B608" t="s" s="2">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="C608" t="s" s="2">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="D608" s="2"/>
       <c r="E608" t="s" s="2">
@@ -72214,13 +72217,13 @@
     </row>
     <row r="609">
       <c r="A609" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B609" t="s" s="2">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="C609" t="s" s="2">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="D609" s="2"/>
       <c r="E609" t="s" s="2">
@@ -72321,13 +72324,13 @@
     </row>
     <row r="610">
       <c r="A610" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B610" t="s" s="2">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="C610" t="s" s="2">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="D610" s="2"/>
       <c r="E610" t="s" s="2">
@@ -72424,13 +72427,13 @@
     </row>
     <row r="611">
       <c r="A611" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B611" t="s" s="2">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="C611" t="s" s="2">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="D611" s="2"/>
       <c r="E611" t="s" s="2">
@@ -72529,13 +72532,13 @@
     </row>
     <row r="612">
       <c r="A612" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B612" t="s" s="2">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="C612" t="s" s="2">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="D612" s="2"/>
       <c r="E612" t="s" s="2">
@@ -72636,13 +72639,13 @@
     </row>
     <row r="613">
       <c r="A613" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B613" t="s" s="2">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="C613" t="s" s="2">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="D613" s="2"/>
       <c r="E613" t="s" s="2">
@@ -72741,13 +72744,13 @@
     </row>
     <row r="614">
       <c r="A614" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B614" t="s" s="2">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="C614" t="s" s="2">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="D614" s="2"/>
       <c r="E614" t="s" s="2">
@@ -72809,7 +72812,7 @@
       </c>
       <c r="Z614" s="2"/>
       <c r="AA614" t="s" s="2">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="AB614" t="s" s="2">
         <v>76</v>
@@ -72844,13 +72847,13 @@
     </row>
     <row r="615">
       <c r="A615" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B615" t="s" s="2">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="C615" t="s" s="2">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="D615" s="2"/>
       <c r="E615" t="s" s="2">
@@ -72949,13 +72952,13 @@
     </row>
     <row r="616">
       <c r="A616" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B616" t="s" s="2">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="C616" t="s" s="2">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="D616" s="2"/>
       <c r="E616" t="s" s="2">
@@ -73056,13 +73059,13 @@
     </row>
     <row r="617">
       <c r="A617" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B617" t="s" s="2">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="C617" t="s" s="2">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="D617" s="2"/>
       <c r="E617" t="s" s="2">
@@ -73163,13 +73166,13 @@
     </row>
     <row r="618">
       <c r="A618" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B618" t="s" s="2">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="C618" t="s" s="2">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="D618" s="2"/>
       <c r="E618" t="s" s="2">
@@ -73195,10 +73198,10 @@
         <v>150</v>
       </c>
       <c r="M618" t="s" s="2">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="N618" t="s" s="2">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="O618" s="2"/>
       <c r="P618" s="2"/>
@@ -73228,10 +73231,10 @@
         <v>106</v>
       </c>
       <c r="Z618" t="s" s="2">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="AA618" t="s" s="2">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="AB618" t="s" s="2">
         <v>76</v>
@@ -73249,7 +73252,7 @@
         <v>76</v>
       </c>
       <c r="AG618" t="s" s="2">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="AH618" t="s" s="2">
         <v>74</v>
@@ -73266,13 +73269,13 @@
     </row>
     <row r="619">
       <c r="A619" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B619" t="s" s="2">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="C619" t="s" s="2">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="D619" s="2"/>
       <c r="E619" t="s" s="2">
@@ -73295,13 +73298,13 @@
         <v>83</v>
       </c>
       <c r="L619" t="s" s="2">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="M619" t="s" s="2">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="N619" t="s" s="2">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="O619" s="2"/>
       <c r="P619" s="2"/>
@@ -73352,7 +73355,7 @@
         <v>76</v>
       </c>
       <c r="AG619" t="s" s="2">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="AH619" t="s" s="2">
         <v>74</v>
@@ -73369,13 +73372,13 @@
     </row>
     <row r="620">
       <c r="A620" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B620" t="s" s="2">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="C620" t="s" s="2">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="D620" s="2"/>
       <c r="E620" t="s" s="2">
@@ -73398,13 +73401,13 @@
         <v>76</v>
       </c>
       <c r="L620" t="s" s="2">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="M620" t="s" s="2">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="N620" t="s" s="2">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="O620" s="2"/>
       <c r="P620" s="2"/>
@@ -73455,7 +73458,7 @@
         <v>76</v>
       </c>
       <c r="AG620" t="s" s="2">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="AH620" t="s" s="2">
         <v>74</v>
@@ -73472,13 +73475,13 @@
     </row>
     <row r="621">
       <c r="A621" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B621" t="s" s="2">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="C621" t="s" s="2">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="D621" s="2"/>
       <c r="E621" t="s" s="2">
@@ -73504,14 +73507,14 @@
         <v>1481</v>
       </c>
       <c r="M621" t="s" s="2">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="N621" t="s" s="2">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="O621" s="2"/>
       <c r="P621" t="s" s="2">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="Q621" t="s" s="2">
         <v>76</v>
@@ -73560,7 +73563,7 @@
         <v>76</v>
       </c>
       <c r="AG621" t="s" s="2">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="AH621" t="s" s="2">
         <v>74</v>
@@ -73577,13 +73580,13 @@
     </row>
     <row r="622">
       <c r="A622" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B622" t="s" s="2">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="C622" t="s" s="2">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D622" s="2"/>
       <c r="E622" t="s" s="2">
@@ -73609,13 +73612,13 @@
         <v>272</v>
       </c>
       <c r="M622" t="s" s="2">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="N622" t="s" s="2">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="O622" t="s" s="2">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="P622" s="2"/>
       <c r="Q622" t="s" s="2">
@@ -73665,7 +73668,7 @@
         <v>76</v>
       </c>
       <c r="AG622" t="s" s="2">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="AH622" t="s" s="2">
         <v>74</v>
@@ -73682,13 +73685,13 @@
     </row>
     <row r="623">
       <c r="A623" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B623" t="s" s="2">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="C623" t="s" s="2">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="D623" s="2"/>
       <c r="E623" t="s" s="2">
@@ -73785,13 +73788,13 @@
     </row>
     <row r="624">
       <c r="A624" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B624" t="s" s="2">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="C624" t="s" s="2">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="D624" s="2"/>
       <c r="E624" t="s" s="2">
@@ -73890,13 +73893,13 @@
     </row>
     <row r="625">
       <c r="A625" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B625" t="s" s="2">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="C625" t="s" s="2">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="D625" s="2"/>
       <c r="E625" t="s" s="2">
@@ -73997,13 +74000,13 @@
     </row>
     <row r="626">
       <c r="A626" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B626" t="s" s="2">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="C626" t="s" s="2">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="D626" s="2"/>
       <c r="E626" t="s" s="2">
@@ -74029,10 +74032,10 @@
         <v>102</v>
       </c>
       <c r="M626" t="s" s="2">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="N626" t="s" s="2">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="O626" s="2"/>
       <c r="P626" s="2"/>
@@ -74062,10 +74065,10 @@
         <v>146</v>
       </c>
       <c r="Z626" t="s" s="2">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="AA626" t="s" s="2">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="AB626" t="s" s="2">
         <v>76</v>
@@ -74083,7 +74086,7 @@
         <v>76</v>
       </c>
       <c r="AG626" t="s" s="2">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="AH626" t="s" s="2">
         <v>74</v>
@@ -74100,13 +74103,13 @@
     </row>
     <row r="627">
       <c r="A627" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B627" t="s" s="2">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="C627" t="s" s="2">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="D627" s="2"/>
       <c r="E627" t="s" s="2">
@@ -74132,10 +74135,10 @@
         <v>175</v>
       </c>
       <c r="M627" t="s" s="2">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="N627" t="s" s="2">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="O627" s="2"/>
       <c r="P627" s="2"/>
@@ -74186,7 +74189,7 @@
         <v>76</v>
       </c>
       <c r="AG627" t="s" s="2">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="AH627" t="s" s="2">
         <v>74</v>
@@ -74203,13 +74206,13 @@
     </row>
     <row r="628">
       <c r="A628" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B628" t="s" s="2">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="C628" t="s" s="2">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="D628" s="2"/>
       <c r="E628" t="s" s="2">
@@ -74232,16 +74235,16 @@
         <v>76</v>
       </c>
       <c r="L628" t="s" s="2">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="M628" t="s" s="2">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="N628" t="s" s="2">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="O628" t="s" s="2">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="P628" s="2"/>
       <c r="Q628" t="s" s="2">
@@ -74291,7 +74294,7 @@
         <v>76</v>
       </c>
       <c r="AG628" t="s" s="2">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="AH628" t="s" s="2">
         <v>74</v>
@@ -74308,13 +74311,13 @@
     </row>
     <row r="629">
       <c r="A629" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B629" t="s" s="2">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="C629" t="s" s="2">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="D629" s="2"/>
       <c r="E629" t="s" s="2">
@@ -74337,16 +74340,16 @@
         <v>76</v>
       </c>
       <c r="L629" t="s" s="2">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="M629" t="s" s="2">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="N629" t="s" s="2">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="O629" t="s" s="2">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="P629" s="2"/>
       <c r="Q629" t="s" s="2">
@@ -74396,7 +74399,7 @@
         <v>76</v>
       </c>
       <c r="AG629" t="s" s="2">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="AH629" t="s" s="2">
         <v>74</v>
@@ -74413,13 +74416,13 @@
     </row>
     <row r="630">
       <c r="A630" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B630" t="s" s="2">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="C630" t="s" s="2">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="D630" s="2"/>
       <c r="E630" t="s" s="2">
@@ -74445,10 +74448,10 @@
         <v>272</v>
       </c>
       <c r="M630" t="s" s="2">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="N630" t="s" s="2">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="O630" s="2"/>
       <c r="P630" s="2"/>
@@ -74499,7 +74502,7 @@
         <v>76</v>
       </c>
       <c r="AG630" t="s" s="2">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="AH630" t="s" s="2">
         <v>74</v>
@@ -74516,13 +74519,13 @@
     </row>
     <row r="631">
       <c r="A631" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B631" t="s" s="2">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="C631" t="s" s="2">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="D631" s="2"/>
       <c r="E631" t="s" s="2">
@@ -74619,13 +74622,13 @@
     </row>
     <row r="632">
       <c r="A632" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B632" t="s" s="2">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="C632" t="s" s="2">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="D632" s="2"/>
       <c r="E632" t="s" s="2">
@@ -74724,13 +74727,13 @@
     </row>
     <row r="633">
       <c r="A633" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B633" t="s" s="2">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="C633" t="s" s="2">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="D633" s="2"/>
       <c r="E633" t="s" s="2">
@@ -74831,13 +74834,13 @@
     </row>
     <row r="634">
       <c r="A634" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B634" t="s" s="2">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="C634" t="s" s="2">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="D634" s="2"/>
       <c r="E634" t="s" s="2">
@@ -74863,10 +74866,10 @@
         <v>276</v>
       </c>
       <c r="M634" t="s" s="2">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="N634" t="s" s="2">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="O634" s="2"/>
       <c r="P634" s="2"/>
@@ -74917,7 +74920,7 @@
         <v>76</v>
       </c>
       <c r="AG634" t="s" s="2">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="AH634" t="s" s="2">
         <v>82</v>
@@ -74934,13 +74937,13 @@
     </row>
     <row r="635">
       <c r="A635" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B635" t="s" s="2">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="C635" t="s" s="2">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="D635" s="2"/>
       <c r="E635" t="s" s="2">
@@ -74966,10 +74969,10 @@
         <v>307</v>
       </c>
       <c r="M635" t="s" s="2">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="N635" t="s" s="2">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="O635" s="2"/>
       <c r="P635" s="2"/>
@@ -75020,7 +75023,7 @@
         <v>76</v>
       </c>
       <c r="AG635" t="s" s="2">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="AH635" t="s" s="2">
         <v>74</v>
@@ -75037,13 +75040,13 @@
     </row>
     <row r="636">
       <c r="A636" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B636" t="s" s="2">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="C636" t="s" s="2">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="D636" s="2"/>
       <c r="E636" t="s" s="2">
@@ -75069,10 +75072,10 @@
         <v>276</v>
       </c>
       <c r="M636" t="s" s="2">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="N636" t="s" s="2">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="O636" s="2"/>
       <c r="P636" s="2"/>
@@ -75123,7 +75126,7 @@
         <v>76</v>
       </c>
       <c r="AG636" t="s" s="2">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="AH636" t="s" s="2">
         <v>74</v>
@@ -75140,13 +75143,13 @@
     </row>
     <row r="637">
       <c r="A637" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B637" t="s" s="2">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="C637" t="s" s="2">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="D637" s="2"/>
       <c r="E637" t="s" s="2">
@@ -75172,14 +75175,14 @@
         <v>1545</v>
       </c>
       <c r="M637" t="s" s="2">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="N637" t="s" s="2">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="O637" s="2"/>
       <c r="P637" t="s" s="2">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="Q637" t="s" s="2">
         <v>76</v>
@@ -75228,7 +75231,7 @@
         <v>76</v>
       </c>
       <c r="AG637" t="s" s="2">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="AH637" t="s" s="2">
         <v>74</v>
@@ -75245,7 +75248,7 @@
     </row>
     <row r="638">
       <c r="A638" t="s" s="2">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B638" t="s" s="2">
         <v>420</v>
@@ -75277,7 +75280,7 @@
         <v>77</v>
       </c>
       <c r="M638" t="s" s="2">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="N638" t="s" s="2">
         <v>425</v>
@@ -75348,13 +75351,13 @@
     </row>
     <row r="639">
       <c r="A639" t="s" s="2">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B639" t="s" s="2">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="C639" t="s" s="2">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="D639" s="2"/>
       <c r="E639" t="s" s="2">
@@ -75451,13 +75454,13 @@
     </row>
     <row r="640">
       <c r="A640" t="s" s="2">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B640" t="s" s="2">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="C640" t="s" s="2">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="D640" s="2"/>
       <c r="E640" t="s" s="2">
@@ -75554,13 +75557,13 @@
     </row>
     <row r="641">
       <c r="A641" t="s" s="2">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B641" t="s" s="2">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="C641" t="s" s="2">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="D641" s="2"/>
       <c r="E641" t="s" s="2">
@@ -75586,13 +75589,13 @@
         <v>96</v>
       </c>
       <c r="M641" t="s" s="2">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="N641" t="s" s="2">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="O641" t="s" s="2">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="P641" s="2"/>
       <c r="Q641" t="s" s="2">
@@ -75600,7 +75603,7 @@
       </c>
       <c r="R641" s="2"/>
       <c r="S641" t="s" s="2">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="T641" t="s" s="2">
         <v>76</v>
@@ -75642,7 +75645,7 @@
         <v>76</v>
       </c>
       <c r="AG641" t="s" s="2">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="AH641" t="s" s="2">
         <v>82</v>
@@ -75659,13 +75662,13 @@
     </row>
     <row r="642">
       <c r="A642" t="s" s="2">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B642" t="s" s="2">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="C642" t="s" s="2">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="D642" s="2"/>
       <c r="E642" t="s" s="2">
@@ -75691,10 +75694,10 @@
         <v>571</v>
       </c>
       <c r="M642" t="s" s="2">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="N642" t="s" s="2">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="O642" s="2"/>
       <c r="P642" s="2"/>
@@ -75725,7 +75728,7 @@
       </c>
       <c r="Z642" s="2"/>
       <c r="AA642" t="s" s="2">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="AB642" t="s" s="2">
         <v>76</v>
@@ -75743,7 +75746,7 @@
         <v>76</v>
       </c>
       <c r="AG642" t="s" s="2">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="AH642" t="s" s="2">
         <v>74</v>
@@ -75760,13 +75763,13 @@
     </row>
     <row r="643">
       <c r="A643" t="s" s="2">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B643" t="s" s="2">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="C643" t="s" s="2">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="D643" s="2"/>
       <c r="E643" t="s" s="2">
@@ -75863,13 +75866,13 @@
     </row>
     <row r="644">
       <c r="A644" t="s" s="2">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B644" t="s" s="2">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="C644" t="s" s="2">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="D644" s="2"/>
       <c r="E644" t="s" s="2">
@@ -75968,13 +75971,13 @@
     </row>
     <row r="645">
       <c r="A645" t="s" s="2">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B645" t="s" s="2">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="C645" t="s" s="2">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="D645" s="2"/>
       <c r="E645" t="s" s="2">
@@ -76003,7 +76006,7 @@
         <v>589</v>
       </c>
       <c r="N645" t="s" s="2">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="O645" t="s" s="2">
         <v>591</v>
@@ -76075,13 +76078,13 @@
     </row>
     <row r="646">
       <c r="A646" t="s" s="2">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B646" t="s" s="2">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C646" t="s" s="2">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D646" s="2"/>
       <c r="E646" t="s" s="2">
@@ -76180,13 +76183,13 @@
     </row>
     <row r="647">
       <c r="A647" t="s" s="2">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B647" t="s" s="2">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C647" t="s" s="2">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D647" s="2"/>
       <c r="E647" t="s" s="2">
@@ -76212,10 +76215,10 @@
         <v>102</v>
       </c>
       <c r="M647" t="s" s="2">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="N647" t="s" s="2">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="O647" s="2"/>
       <c r="P647" t="s" s="2">
@@ -76285,13 +76288,13 @@
     </row>
     <row r="648">
       <c r="A648" t="s" s="2">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B648" t="s" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C648" t="s" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D648" s="2"/>
       <c r="E648" t="s" s="2">
@@ -76390,13 +76393,13 @@
     </row>
     <row r="649">
       <c r="A649" t="s" s="2">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B649" t="s" s="2">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C649" t="s" s="2">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D649" s="2"/>
       <c r="E649" t="s" s="2">

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -1186,7 +1186,7 @@
     <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1242,7 +1242,7 @@
     <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
   </si>
   <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>both</t>
@@ -1778,7 +1778,7 @@
     <t>Administrasjonsvei</t>
   </si>
   <si>
-    <t xml:space="preserve">Aministrasjonsvei. Er begrenset til foreslått koding fra SNOMED CT-verdisettet til HL7 og Volven-kodeverket Administrasjonsvei (OID=7477) fra eResept. </t>
+    <t xml:space="preserve">Administrasjonsvei. Er begrenset til foreslått koding fra SNOMED CT-verdisettet til HL7 og Volven-kodeverket Administrasjonsvei (OID=7477) fra eResept. </t>
   </si>
   <si>
     <t>TODO #22 Diskuter om det bør være 0..1 hvis man ikke har registret administrasjonsvei.</t>
@@ -3142,7 +3142,7 @@
     <t>FV</t>
   </si>
   <si>
-    <t>FEST-is for legemiddel VIRKESTOFF</t>
+    <t>FEST-id for legemiddel VIRKESTOFF</t>
   </si>
   <si>
     <t>Medication.code.coding:FV.id</t>
@@ -4162,7 +4162,7 @@
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Observation.derivedFrom</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T09:13:37+00:00</t>
+    <t>2025-02-10T13:00:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T13:00:17+00:00</t>
+    <t>2025-02-10T13:38:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T13:38:57+00:00</t>
+    <t>2025-02-11T10:50:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-11T11:10:12+00:00</t>
+    <t>2025-02-11T11:18:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-11T11:18:14+00:00</t>
+    <t>2025-02-13T14:32:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T14:32:56+00:00</t>
+    <t>2025-02-13T20:25:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T20:25:16+00:00</t>
+    <t>2025-02-13T20:33:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-16T13:24:00+00:00</t>
+    <t>2025-02-17T15:42:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -32027,7 +32027,7 @@
       </c>
       <c r="F227" s="2"/>
       <c r="G227" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H227" t="s" s="2">
         <v>83</v>
@@ -32873,7 +32873,7 @@
       </c>
       <c r="F235" s="2"/>
       <c r="G235" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H235" t="s" s="2">
         <v>83</v>
@@ -33085,7 +33085,7 @@
       </c>
       <c r="F237" s="2"/>
       <c r="G237" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H237" t="s" s="2">
         <v>83</v>
@@ -33196,7 +33196,7 @@
         <v>83</v>
       </c>
       <c r="I238" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J238" t="s" s="2">
         <v>75</v>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-17T15:42:31+00:00</t>
+    <t>2025-02-17T16:04:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3758,7 +3758,9 @@
     <t>2025-02-27</t>
   </si>
   <si>
-    <t>Organisasjoner i norsk helse- og omsorgstjeneste, som sykehus og sykehjem, og avdelinger/poster under disse.</t>
+    <t xml:space="preserve">Organisasjoner i norsk helse- og omsorgstjeneste, som post, avdeling, klinikk, sykehus og sykehjem. 
+Denne profilen av Organization benyttes for å beskrive helseinstitusjoner og skal representere organisasjonen på lavest mulig nivå i organisasjonshierarkiet (f.eks. en avdeling eller klinikk eller post).
+For organisasjonen som er del av en større organisasjon, skal dette angis ved hjelp av partOf-relasjonen. Alle “organisasjonshierarki” skal inkludere minst et organisasjonsnummer fra Enhetsregisteret (identifier:ENH) </t>
   </si>
   <si>
     <t>Organization</t>
@@ -3804,13 +3806,13 @@
     <t>Organization.identifier</t>
   </si>
   <si>
-    <t>Organisasjonsidentifikatorer (ENH/RESH)</t>
+    <t>ID fra Nasjonalt register for enheter i spesialisthelsetjenesten (RESH) eller Organisasjonsnummeret i Enhetsregister</t>
   </si>
   <si>
     <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
   </si>
   <si>
-    <t>Identifikatorer skal angis på laveste mulige organisatoriske nivå. For eksempel organisasjonsnummer for sykehjemmet fremfor kommunen der det finnes.</t>
+    <t>Der aktiviteten har skjedd.</t>
   </si>
   <si>
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
@@ -3826,7 +3828,7 @@
     <t>ENH</t>
   </si>
   <si>
-    <t>Organisasjonsnummer fra Enhetsregisteret</t>
+    <t>Organisasjonsnummer fra Enhetsregisteret (ENH)</t>
   </si>
   <si>
     <t>Identifikatorer skal angis på laveste relevante virksomhetsnivå i henhold til SSBs retningslinjer. For kommunale tjenester betyr dette på institusjonsnivå (f.eks sykehjem) der egen organisatorisk enhet er etablert, ikke på overordnet kommunenivå.</t>
@@ -3985,7 +3987,7 @@
     <t>RESH</t>
   </si>
   <si>
-    <t>ID fra Register for enheter i spesialisthelsetjenesten</t>
+    <t>ID fra Register for enheter i spesialisthelsetjenesten (RESH)</t>
   </si>
   <si>
     <t>Det nivået aktiviteten har skjedd på.</t>
@@ -4069,7 +4071,7 @@
     <t>Offisielt navn på organisasjonen</t>
   </si>
   <si>
-    <t>If the name of an organization changes, consider putting the old name in the alias column so that it can still be located through searches.</t>
+    <t>Kan være navn på post, avdelingsnavn, klinikknavn, sykehusnavn eller sykehjemsnavn</t>
   </si>
   <si>
     <t>Need to use the name as the label of the organization.</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-17T16:04:38+00:00</t>
+    <t>2025-02-24T10:13:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T07:55:06+00:00</t>
+    <t>2025-03-03T11:19:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3660,10 +3660,10 @@
     <t>MedicationRequest.encounter</t>
   </si>
   <si>
-    <t>Encounter created as part of encounter/admission/stay</t>
-  </si>
-  <si>
-    <t>The Encounter during which this [x] was created or to which the creation of this record is tightly associated.</t>
+    <t>Referanse til episode</t>
+  </si>
+  <si>
+    <t>Referanse til behandlingsepisoden hvor legemiddelet ble rekvirert</t>
   </si>
   <si>
     <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter."    If there is a need to link to episodes of care they will be handled with an extension.</t>
@@ -48161,7 +48161,7 @@
         <v>76</v>
       </c>
       <c r="H379" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I379" t="s" s="2">
         <v>75</v>
@@ -48173,7 +48173,7 @@
         <v>75</v>
       </c>
       <c r="L379" t="s" s="2">
-        <v>446</v>
+        <v>982</v>
       </c>
       <c r="M379" t="s" s="2">
         <v>1173</v>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T11:19:34+00:00</t>
+    <t>2025-03-03T13:58:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T13:58:27+00:00</t>
+    <t>2025-03-03T14:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-11T13:51:40+00:00</t>
+    <t>2025-03-11T14:01:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-11T14:01:39+00:00</t>
+    <t>2025-03-12T08:49:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T08:49:17+00:00</t>
+    <t>2025-03-12T09:16:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2941,7 +2941,7 @@
   </si>
   <si>
     <t>Beskriver administrering av legemiddel til pasient på institusjon.
-Dette er kjerneressursen for denne implementasjonsguiden. Den peker videre legemiddelet som ble gitt, pasienten som har fått administrert legemiddel, på hvilken institusjon det skjedde, tidspunkt for administrering, hvem som utførte (helsepersonell eller rolle ved institusjon) og dose med eventuell administrasjonsvei.</t>
+Dette er kjerneressursen for denne implementasjonsguiden. Den peker videre legemiddelet som ble gitt, pasienten som har fått administrert legemiddel, på hvilken institusjon det skjedde, tidspunkt for administrering, hvem som utførte den (helsepersonell eller rolle ved institusjon) og dose med eventuell administrasjonsvei.</t>
   </si>
   <si>
     <t>MedicationAdministration</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T09:16:28+00:00</t>
+    <t>2025-03-18T14:31:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
